--- a/Requisitos_PJA.xlsx
+++ b/Requisitos_PJA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Enxeñaría Informática\Terceiro\1º Cuatrimestre\Enxeñaría do Software\Prácticas\Practica5_2_REM\enso-specREM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AD24E0-A7C1-4A55-9ED8-4309FBFE30B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DF4381-B617-469C-870E-7D78801DDFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="7" r:id="rId1"/>
@@ -960,7 +960,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A21C8E1B-5516-4030-AC0D-104AE32F0086}" type="CELLRANGE">
+                    <a:fld id="{F839BCF5-41A7-4113-AFB4-13826D20A88C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -993,7 +993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1CADF38-3725-47D8-8B84-D4F3B154354D}" type="CELLRANGE">
+                    <a:fld id="{A3700F33-B4B0-4640-86C7-0AA255F13F4C}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1027,7 +1027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58EB54AE-7CB5-439A-B6A7-91AE74C86A42}" type="CELLRANGE">
+                    <a:fld id="{121267C7-448E-49BD-9186-76DED942117E}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1061,7 +1061,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{386B90B7-EF28-4F85-B569-B01F8A222CFD}" type="CELLRANGE">
+                    <a:fld id="{A5700901-7C36-45D4-9B99-361A7213CE73}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1095,7 +1095,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E332D24-A5C1-45B2-9A9D-BADD32E76A98}" type="CELLRANGE">
+                    <a:fld id="{DA142FAF-2136-4C17-960E-2F12B30C70DA}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1129,7 +1129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01922A8C-41AC-4F43-AD48-4210D77E415E}" type="CELLRANGE">
+                    <a:fld id="{7F359B9A-5BDA-4BDE-94D2-52DDE5DC3382}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1163,7 +1163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7C74B76-4924-425C-A0DB-7CB67B59AC88}" type="CELLRANGE">
+                    <a:fld id="{7089C644-B29B-4A3D-9EF0-2EA650D3BABD}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1197,7 +1197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F5114FF-B084-4335-92A4-E814D8F1DB28}" type="CELLRANGE">
+                    <a:fld id="{0022CA9C-70D3-46C7-81C1-2553A16842A4}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1231,7 +1231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3FFD972-8888-4A5D-8D1D-11C5F8BAA7DC}" type="CELLRANGE">
+                    <a:fld id="{6E113D63-B160-4AB4-80E6-81295746EE50}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1265,7 +1265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07BA95E8-9BC0-4DE6-B1CF-53A823A5EF17}" type="CELLRANGE">
+                    <a:fld id="{8960575D-6050-44B9-90ED-FB80B27F0E8C}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1299,7 +1299,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{384C3ED4-98AA-45FB-B540-6CE04464D679}" type="CELLRANGE">
+                    <a:fld id="{FDB2C594-43EB-4921-A6EA-6ED24EE3AEAF}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1333,7 +1333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE5150A7-EDDD-4A56-A4B2-DC58181C42D7}" type="CELLRANGE">
+                    <a:fld id="{37DD2C76-B3A6-4B7F-AC73-06C3366F9FF2}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1367,7 +1367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{818B2069-A177-4681-94FB-A26F8DCEABF0}" type="CELLRANGE">
+                    <a:fld id="{8917AA10-DAE9-4992-86B0-CE533A6FC180}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1401,7 +1401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E859FE51-E20C-4E77-B7C1-4AFD7D9228FB}" type="CELLRANGE">
+                    <a:fld id="{2D8C7CEA-1BBB-4F65-89F3-986FF1CB072A}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1435,7 +1435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5A7E409-2404-4C77-8139-DFE8800833A9}" type="CELLRANGE">
+                    <a:fld id="{A9292BD0-C118-444B-9C1F-96FAD4EB421E}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1491,49 +1491,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>8.3798791516920948E-2</c:v>
+                  <c:v>8.1459583304640676E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9147069877829778E-2</c:v>
+                  <c:v>9.0662717571566215E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10657478351996748</c:v>
+                  <c:v>7.5770255778242437E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.617019847053375E-2</c:v>
+                  <c:v>9.9939828678483361E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9563080421220905E-2</c:v>
+                  <c:v>5.2132063433937982E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8120825260810711E-2</c:v>
+                  <c:v>7.5628672781445083E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8444364123031785E-2</c:v>
+                  <c:v>3.024865430206684E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.687014040096699E-2</c:v>
+                  <c:v>4.8371454183385162E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0375478136668079E-2</c:v>
+                  <c:v>7.4004025795217268E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.568731014783539E-2</c:v>
+                  <c:v>3.9611797424148019E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9208429266841939E-2</c:v>
+                  <c:v>4.5280315858482717E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0288320083168985E-2</c:v>
+                  <c:v>5.8350763171077423E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5658532168066718E-2</c:v>
+                  <c:v>6.7446935208653011E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2457541863883604E-2</c:v>
+                  <c:v>6.9879350717634986E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7635134742252995E-2</c:v>
+                  <c:v>9.1213581791018752E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,49 +1545,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.845107489310725E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2727453194264768E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7901694036430569E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1959494613610125E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.851707106703317E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0535108222720687E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11064855251316505</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7564843590997338E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7033925510483511E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9172009387241554E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0320077096408043E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6891888756973642E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3100913774593578E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3795953113207668E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1379940229763048E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2507,7 +2507,7 @@
   <dimension ref="B1:AM38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2583,17 +2583,17 @@
     </row>
     <row r="3" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56">
-        <f ca="1">SUM(AM7:AM21)/AJ6</f>
-        <v>36.269371258918042</v>
+        <f>SUM(AM7:AM21)/AJ6</f>
+        <v>14.999999999999998</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="23">
-        <f ca="1">+(B3-$AJ$6)/($AJ$6-1)</f>
-        <v>1.5192408042084316</v>
+        <f>+(B3-$AJ$6)/($AJ$6-1)</f>
+        <v>-1.2688263138573217E-16</v>
       </c>
       <c r="E3" s="6">
-        <f ca="1">D3/+HLOOKUP(AJ6,T2:AH3,2,FALSE)</f>
-        <v>0.95549736113737826</v>
+        <f>D3/+HLOOKUP(AJ6,T2:AH3,2,FALSE)</f>
+        <v>-7.9800397097944751E-17</v>
       </c>
       <c r="T3" s="11">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>13</v>
       </c>
       <c r="AJ6" s="16">
-        <f ca="1">+COUNTA(C7:Q7)</f>
+        <f>+COUNTA(C7:Q7)</f>
         <v>15</v>
       </c>
       <c r="AK6" s="17" t="s">
@@ -2787,142 +2787,128 @@
         <v>1</v>
       </c>
       <c r="D7" s="32">
-        <f ca="1">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E7" s="32">
-        <f t="shared" ref="E7:G10" ca="1" si="0">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H7" s="32">
-        <f t="shared" ref="H7:Q17" ca="1" si="1">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J7" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L7" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="M7" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N7" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="O7" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P7" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7" s="26" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="28">
-        <f ca="1">+IF(ISNUMBER(C7),C7/C$22,"")</f>
-        <v>2.7563576702214931E-2</v>
+        <f>+IF(ISNUMBER(C7),C7/C$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U7" s="28">
-        <f t="shared" ref="U7:AH7" ca="1" si="2">+IF(ISNUMBER(D7),D7/D$22,"")</f>
-        <v>0.2122999157540017</v>
+        <f t="shared" ref="U7:AH7" si="0">+IF(ISNUMBER(D7),D7/D$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.1541850220264317</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.2590035268988136E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8142442509488725E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.29483282674772E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.9232643118148605E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9804354798474761E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16117684681803646</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.2906764168190127E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27388327355722208</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.6062901450981391E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.14866880736264571</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.937256370163191E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8919803600654658E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI7" s="30">
-        <f ca="1">SUM(T7:AH7)</f>
-        <v>1.1767661233966087</v>
+        <f>SUM(T7:AH7)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ7" s="18">
-        <f ca="1">+$AI7/$AJ$6</f>
-        <v>7.845107489310725E-2</v>
+        <f>+$AI7/$AJ$6</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK7" s="58" t="s">
         <v>43</v>
       </c>
       <c r="AL7" s="19">
-        <f ca="1">+AI24</f>
-        <v>2.8634025837642127</v>
+        <f>+AI24</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM7" s="19">
-        <f ca="1">IF(AJ7&lt;&gt;0,+AL7/AJ7,0)</f>
-        <v>36.499214162020266</v>
+        <f>IF(AJ7&lt;&gt;0,+AL7/AJ7,0)</f>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.3">
@@ -2930,143 +2916,130 @@
         <v>1</v>
       </c>
       <c r="C8" s="28">
-        <f ca="1">IF(ISNUMBER(D7),1/D7,"")</f>
-        <v>0.14285714285714285</v>
+        <f>IF(ISNUMBER(D7),1/D7,"")</f>
+        <v>1</v>
       </c>
       <c r="D8" s="27">
         <v>1</v>
       </c>
       <c r="E8" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I8" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="J8" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K8" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L8" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M8" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N8" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="O8" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P8" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="Q8" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S8" s="26" t="s">
         <v>1</v>
       </c>
       <c r="T8" s="28">
-        <f t="shared" ref="T8:T21" ca="1" si="3">+IF(ISNUMBER(C8),C8/C$22,"")</f>
-        <v>3.9376538146021324E-3</v>
+        <f t="shared" ref="T8:T21" si="1">+IF(ISNUMBER(C8),C8/C$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U8" s="28">
-        <f t="shared" ref="U8:U21" ca="1" si="4">+IF(ISNUMBER(D8),D8/D$22,"")</f>
-        <v>3.0328559393428812E-2</v>
+        <f t="shared" ref="U8:U21" si="2">+IF(ISNUMBER(D8),D8/D$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V8" s="28">
-        <f t="shared" ref="V8:V21" ca="1" si="5">+IF(ISNUMBER(E8),E8/E$22,"")</f>
-        <v>0.19823788546255505</v>
+        <f t="shared" ref="V8:V21" si="3">+IF(ISNUMBER(E8),E8/E$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W8" s="28">
-        <f t="shared" ref="W8:W21" ca="1" si="6">+IF(ISNUMBER(F8),F8/F$22,"")</f>
-        <v>6.2590035268988126E-2</v>
+        <f t="shared" ref="W8:W21" si="4">+IF(ISNUMBER(F8),F8/F$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X8" s="28">
-        <f t="shared" ref="X8:X21" ca="1" si="7">+IF(ISNUMBER(G8),G8/G$22,"")</f>
-        <v>6.251395400759098E-2</v>
+        <f t="shared" ref="X8:X21" si="5">+IF(ISNUMBER(G8),G8/G$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y8" s="28">
-        <f t="shared" ref="Y8:Y21" ca="1" si="8">+IF(ISNUMBER(H8),H8/H$22,"")</f>
-        <v>0.1641337386018237</v>
+        <f t="shared" ref="Y8:Y21" si="6">+IF(ISNUMBER(H8),H8/H$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z8" s="28">
-        <f t="shared" ref="Z8:Z21" ca="1" si="9">+IF(ISNUMBER(I8),I8/I$22,"")</f>
-        <v>3.6540803897685756E-3</v>
+        <f t="shared" ref="Z8:Z21" si="7">+IF(ISNUMBER(I8),I8/I$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA8" s="28">
-        <f t="shared" ref="AA8:AA21" ca="1" si="10">+IF(ISNUMBER(J8),J8/J$22,"")</f>
-        <v>1.1225544349809345E-2</v>
+        <f t="shared" ref="AA8:AA21" si="8">+IF(ISNUMBER(J8),J8/J$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB8" s="28">
-        <f t="shared" ref="AB8:AB21" ca="1" si="11">+IF(ISNUMBER(K8),K8/K$22,"")</f>
-        <v>0.1381515829868884</v>
+        <f t="shared" ref="AB8:AB21" si="9">+IF(ISNUMBER(K8),K8/K$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC8" s="28">
-        <f t="shared" ref="AC8:AC21" ca="1" si="12">+IF(ISNUMBER(L8),L8/L$22,"")</f>
-        <v>0.10530164533820841</v>
+        <f t="shared" ref="AC8:AC21" si="10">+IF(ISNUMBER(L8),L8/L$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD8" s="28">
-        <f t="shared" ref="AD8:AD21" ca="1" si="13">+IF(ISNUMBER(M8),M8/M$22,"")</f>
-        <v>3.4235409194652761E-2</v>
+        <f t="shared" ref="AD8:AD21" si="11">+IF(ISNUMBER(M8),M8/M$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE8" s="28">
-        <f t="shared" ref="AE8:AE21" ca="1" si="14">+IF(ISNUMBER(N8),N8/N$22,"")</f>
-        <v>3.5826701128541085E-3</v>
+        <f t="shared" ref="AE8:AE21" si="12">+IF(ISNUMBER(N8),N8/N$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF8" s="28">
-        <f t="shared" ref="AF8:AF21" ca="1" si="15">+IF(ISNUMBER(O8),O8/O$22,"")</f>
-        <v>0.12743040631083918</v>
+        <f t="shared" ref="AF8:AF21" si="13">+IF(ISNUMBER(O8),O8/O$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG8" s="28">
-        <f t="shared" ref="AG8:AG21" ca="1" si="16">+IF(ISNUMBER(P8),P8/P$22,"")</f>
-        <v>2.7749025480652764E-2</v>
+        <f t="shared" ref="AG8:AG21" si="14">+IF(ISNUMBER(P8),P8/P$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH8" s="28">
-        <f t="shared" ref="AH8:AH21" ca="1" si="17">+IF(ISNUMBER(Q8),Q8/Q$22,"")</f>
-        <v>0.11783960720130932</v>
+        <f t="shared" ref="AH8:AH21" si="15">+IF(ISNUMBER(Q8),Q8/Q$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI8" s="30">
-        <f t="shared" ref="AI8:AI20" ca="1" si="18">SUM(T8:AH8)</f>
-        <v>1.0909117979139715</v>
+        <f t="shared" ref="AI8:AI20" si="16">SUM(T8:AH8)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ8" s="18">
-        <f t="shared" ref="AJ8:AJ21" ca="1" si="19">+$AI8/$AJ$6</f>
-        <v>7.2727453194264768E-2</v>
+        <f t="shared" ref="AJ8:AJ21" si="17">+$AI8/$AJ$6</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK8" s="58"/>
       <c r="AL8" s="19">
-        <f t="shared" ref="AL8:AL21" ca="1" si="20">+AI25</f>
-        <v>2.5149776693059507</v>
+        <f t="shared" ref="AL8:AL21" si="18">+AI25</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM8" s="19">
-        <f t="shared" ref="AM8:AM21" ca="1" si="21">IF(AJ8&lt;&gt;0,+AL8/AJ8,0)</f>
-        <v>34.580857143286849</v>
+        <f t="shared" ref="AM8:AM21" si="19">IF(AJ8&lt;&gt;0,+AL8/AJ8,0)</f>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.3">
@@ -3074,143 +3047,131 @@
         <v>2</v>
       </c>
       <c r="C9" s="28">
-        <f ca="1">IF(ISNUMBER(E7),1/E7,"")</f>
-        <v>0.14285714285714285</v>
+        <f>IF(ISNUMBER(E7),1/E7,"")</f>
+        <v>1</v>
       </c>
       <c r="D9" s="28">
-        <f ca="1">IF(ISNUMBER(E8),1/E8,"")</f>
-        <v>0.1111111111111111</v>
+        <f>IF(ISNUMBER(E8),1/E8,"")</f>
+        <v>1</v>
       </c>
       <c r="E9" s="33">
         <v>1</v>
       </c>
       <c r="F9" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="H9" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I9" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L9" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="M9" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O9" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P9" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="S9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="T9" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.9376538146021324E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U9" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3698399326032012E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V9" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2026431718061672E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W9" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.15647508817247033</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X9" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.4652824291136414E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y9" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.0790273556230994E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z9" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.11693057247259442</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA9" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.17960870959694952</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB9" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>5.7563159577870161E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC9" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.6325411334552101E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD9" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.8470818389305523E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE9" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>5.3740051692811623E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF9" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>0.10619200525903265</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG9" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.5498050961305528E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH9" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>1.9639934533551551E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI9" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.71852541054645858</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ9" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.7901694036430569E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK9" s="58"/>
       <c r="AL9" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.7770936347903969</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM9" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>37.098763844110984</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.3">
@@ -3218,143 +3179,132 @@
         <v>3</v>
       </c>
       <c r="C10" s="28">
-        <f ca="1">IF(ISNUMBER(F7),1/F7,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(F7),1/F7,"")</f>
+        <v>1</v>
       </c>
       <c r="D10" s="28">
-        <f ca="1">IF(ISNUMBER(F8),1/F8,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(F8),1/F8,"")</f>
+        <v>1</v>
       </c>
       <c r="E10" s="28">
-        <f ca="1">IF(ISNUMBER(F9),1/F9,"")</f>
-        <v>0.2</v>
+        <f>IF(ISNUMBER(F9),1/F9,"")</f>
+        <v>1</v>
       </c>
       <c r="F10" s="33">
         <v>1</v>
       </c>
       <c r="G10" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="J10" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L10" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="M10" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N10" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="O10" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P10" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13781788351107466</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U10" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5164279696714406E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V10" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.4052863436123343E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W10" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.1295017634494063E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X10" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.2513954007590985E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y10" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.64741641337386E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z10" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.248071457572067E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA10" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.9804354798474761E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB10" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.20722737448033257</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC10" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.6325411334552101E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD10" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.7059015324421262E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE10" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.2244031015686979E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF10" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>8.4953604207226113E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG10" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.11099610192261106</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH10" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>0.13747954173486088</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI10" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.92939241920415183</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ10" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>6.1959494613610125E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK10" s="58"/>
       <c r="AL10" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>2.3706928256844959</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM10" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>38.261978095020574</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.3">
@@ -3362,143 +3312,133 @@
         <v>20</v>
       </c>
       <c r="C11" s="28">
-        <f ca="1">IF(ISNUMBER(G7),1/G7,"")</f>
-        <v>4</v>
+        <f>IF(ISNUMBER(G7),1/G7,"")</f>
+        <v>1</v>
       </c>
       <c r="D11" s="28">
-        <f ca="1">IF(ISNUMBER(G8),1/G8,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(G8),1/G8,"")</f>
+        <v>1</v>
       </c>
       <c r="E11" s="28">
-        <f ca="1">IF(ISNUMBER(G9),1/G9,"")</f>
-        <v>7</v>
+        <f>IF(ISNUMBER(G9),1/G9,"")</f>
+        <v>1</v>
       </c>
       <c r="F11" s="28">
-        <f ca="1">IF(ISNUMBER(G10),1/G10,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(G10),1/G10,"")</f>
+        <v>1</v>
       </c>
       <c r="G11" s="33">
         <v>1</v>
       </c>
       <c r="H11" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="J11" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="L11" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M11" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O11" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="S11" s="26" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.11025430680885973</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U11" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5164279696714406E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V11" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.1541850220264317</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W11" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.15647508817247033</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X11" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.125697700379549E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y11" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.1185410334346503E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z11" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.248071457572067E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA11" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.9804354798474761E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB11" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.3025263831148064E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC11" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.10530164533820841</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD11" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.13694163677861104</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE11" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>8.0610077539217447E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF11" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.2476802103613057E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG11" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.13874512740326383</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH11" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>2.4549918166939439E-3</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI11" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.0277560660054976</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ11" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>6.851707106703317E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK11" s="58"/>
       <c r="AL11" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>2.2621065512823066</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM11" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>33.015225491311377</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:39" x14ac:dyDescent="0.3">
@@ -3506,143 +3446,134 @@
         <v>21</v>
       </c>
       <c r="C12" s="28">
-        <f ca="1">IF(ISNUMBER(H7),1/H7,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(H7),1/H7,"")</f>
+        <v>1</v>
       </c>
       <c r="D12" s="28">
-        <f ca="1">IF(ISNUMBER(H8),1/H8,"")</f>
-        <v>0.1111111111111111</v>
+        <f>IF(ISNUMBER(H8),1/H8,"")</f>
+        <v>1</v>
       </c>
       <c r="E12" s="28">
-        <f ca="1">IF(ISNUMBER(H9),1/H9,"")</f>
-        <v>3</v>
+        <f>IF(ISNUMBER(H9),1/H9,"")</f>
+        <v>1</v>
       </c>
       <c r="F12" s="28">
-        <f ca="1">IF(ISNUMBER(H10),1/H10,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(H10),1/H10,"")</f>
+        <v>1</v>
       </c>
       <c r="G12" s="28">
-        <f ca="1">IF(ISNUMBER(H11),1/H11,"")</f>
-        <v>0.2</v>
+        <f>IF(ISNUMBER(H11),1/H11,"")</f>
+        <v>1</v>
       </c>
       <c r="H12" s="33">
         <v>1</v>
       </c>
       <c r="I12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="J12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="K12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="L12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="T12" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.8908941755537328E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U12" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3698399326032012E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V12" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.6079295154185008E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W12" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.5647508817247031E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X12" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.2513954007590985E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y12" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.82370820668693E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z12" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.248071457572067E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA12" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.9891308221374862E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB12" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>7.6750879437160208E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC12" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2650822669104203E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD12" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.7059015324421262E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE12" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.12897612406274792</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF12" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.2476802103613058E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG12" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.5498050961305528E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH12" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>7.8559738134206206E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI12" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.45802662334081029</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ12" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>3.0535108222720687E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK12" s="58"/>
       <c r="AL12" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.0543487377754304</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM12" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>34.529065038351696</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.3">
@@ -3650,143 +3581,135 @@
         <v>22</v>
       </c>
       <c r="C13" s="28">
-        <f ca="1">IF(ISNUMBER(I7),1/I7,"")</f>
+        <f>IF(ISNUMBER(I7),1/I7,"")</f>
         <v>1</v>
       </c>
       <c r="D13" s="28">
-        <f ca="1">IF(ISNUMBER(I8),1/I8,"")</f>
-        <v>8</v>
+        <f>IF(ISNUMBER(I8),1/I8,"")</f>
+        <v>1</v>
       </c>
       <c r="E13" s="28">
-        <f ca="1">IF(ISNUMBER(I9),1/I9,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(I9),1/I9,"")</f>
+        <v>1</v>
       </c>
       <c r="F13" s="28">
-        <f ca="1">IF(ISNUMBER(I10),1/I10,"")</f>
-        <v>9</v>
+        <f>IF(ISNUMBER(I10),1/I10,"")</f>
+        <v>1</v>
       </c>
       <c r="G13" s="28">
-        <f ca="1">IF(ISNUMBER(I11),1/I11,"")</f>
-        <v>9</v>
+        <f>IF(ISNUMBER(I11),1/I11,"")</f>
+        <v>1</v>
       </c>
       <c r="H13" s="28">
-        <f ca="1">IF(ISNUMBER(I12),1/I12,"")</f>
-        <v>9</v>
+        <f>IF(ISNUMBER(I12),1/I12,"")</f>
+        <v>1</v>
       </c>
       <c r="I13" s="33">
         <v>1</v>
       </c>
       <c r="J13" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K13" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L13" s="32">
-        <f ca="1">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
         <v>1</v>
       </c>
       <c r="M13" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="N13" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" s="26" t="s">
         <v>22</v>
       </c>
       <c r="T13" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7563576702214931E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U13" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.24262847514743049</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V13" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.5066079295154179E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W13" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.28165515871044661</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X13" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.2813127930341594</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y13" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.1641337386018237</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z13" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.9232643118148605E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA13" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.35921741919389905</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB13" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.18420211064918451</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC13" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.6325411334552101E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD13" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.8907727420932513E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE13" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.4488062031373963E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF13" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.2476802103613058E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG13" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>3.0832250534058624E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH13" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>3.9279869067103103E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI13" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.6597282876974757</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ13" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>0.11064855251316505</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK13" s="58"/>
       <c r="AL13" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>3.6658545092989896</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM13" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>33.130614237929805</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:39" x14ac:dyDescent="0.3">
@@ -3794,143 +3717,136 @@
         <v>23</v>
       </c>
       <c r="C14" s="28">
-        <f ca="1">IF(ISNUMBER(J7),1/J7,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(J7),1/J7,"")</f>
+        <v>1</v>
       </c>
       <c r="D14" s="28">
-        <f ca="1">IF(ISNUMBER(J8),1/J8,"")</f>
-        <v>4</v>
+        <f>IF(ISNUMBER(J8),1/J8,"")</f>
+        <v>1</v>
       </c>
       <c r="E14" s="28">
-        <f ca="1">IF(ISNUMBER(J9),1/J9,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(J9),1/J9,"")</f>
+        <v>1</v>
       </c>
       <c r="F14" s="28">
-        <f ca="1">IF(ISNUMBER(J10),1/J10,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(J10),1/J10,"")</f>
+        <v>1</v>
       </c>
       <c r="G14" s="28">
-        <f ca="1">IF(ISNUMBER(J11),1/J11,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(J11),1/J11,"")</f>
+        <v>1</v>
       </c>
       <c r="H14" s="28">
-        <f ca="1">IF(ISNUMBER(J12),1/J12,"")</f>
-        <v>9</v>
+        <f>IF(ISNUMBER(J12),1/J12,"")</f>
+        <v>1</v>
       </c>
       <c r="I14" s="28">
-        <f ca="1">IF(ISNUMBER(J13),1/J13,"")</f>
-        <v>0.125</v>
+        <f>IF(ISNUMBER(J13),1/J13,"")</f>
+        <v>1</v>
       </c>
       <c r="J14" s="33">
         <v>1</v>
       </c>
       <c r="K14" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M14" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P14" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="T14" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13781788351107466</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U14" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.12131423757371525</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V14" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.5066079295154179E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W14" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.5647508817247031E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X14" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.15628488501897744</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y14" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.1641337386018237</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z14" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.6540803897685756E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA14" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.4902177399237381E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB14" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.90757914934442E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC14" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.18427787934186471</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD14" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.8470818389305523E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE14" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>9.673209304706093E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF14" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>0.10619200525903265</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG14" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>8.3247076441958293E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH14" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>0.11783960720130932</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI14" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.3134726538649601</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ14" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>8.7564843590997338E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK14" s="58"/>
       <c r="AL14" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>3.050135193576816</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM14" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>34.832874341939721</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="15" spans="2:39" x14ac:dyDescent="0.3">
@@ -3938,143 +3854,137 @@
         <v>24</v>
       </c>
       <c r="C15" s="28">
-        <f ca="1">IF(ISNUMBER(K7),1/K7,"")</f>
-        <v>0.14285714285714285</v>
+        <f>IF(ISNUMBER(K7),1/K7,"")</f>
+        <v>1</v>
       </c>
       <c r="D15" s="28">
-        <f ca="1">IF(ISNUMBER(K8),1/K8,"")</f>
-        <v>0.16666666666666666</v>
+        <f>IF(ISNUMBER(K8),1/K8,"")</f>
+        <v>1</v>
       </c>
       <c r="E15" s="28">
-        <f ca="1">IF(ISNUMBER(K9),1/K9,"")</f>
-        <v>4</v>
+        <f>IF(ISNUMBER(K9),1/K9,"")</f>
+        <v>1</v>
       </c>
       <c r="F15" s="28">
-        <f ca="1">IF(ISNUMBER(K10),1/K10,"")</f>
-        <v>0.1111111111111111</v>
+        <f>IF(ISNUMBER(K10),1/K10,"")</f>
+        <v>1</v>
       </c>
       <c r="G15" s="28">
-        <f ca="1">IF(ISNUMBER(K11),1/K11,"")</f>
+        <f>IF(ISNUMBER(K11),1/K11,"")</f>
         <v>1</v>
       </c>
       <c r="H15" s="28">
-        <f ca="1">IF(ISNUMBER(K12),1/K12,"")</f>
-        <v>3</v>
+        <f>IF(ISNUMBER(K12),1/K12,"")</f>
+        <v>1</v>
       </c>
       <c r="I15" s="28">
-        <f ca="1">IF(ISNUMBER(K13),1/K13,"")</f>
-        <v>0.125</v>
+        <f>IF(ISNUMBER(K13),1/K13,"")</f>
+        <v>1</v>
       </c>
       <c r="J15" s="28">
-        <f ca="1">IF(ISNUMBER(K14),1/K14,"")</f>
-        <v>0.33333333333333331</v>
+        <f>IF(ISNUMBER(K14),1/K14,"")</f>
+        <v>1</v>
       </c>
       <c r="K15" s="33">
         <v>1</v>
       </c>
       <c r="L15" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M15" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O15" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P15" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="Q15" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S15" s="26" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.9376538146021324E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U15" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.054759898904802E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V15" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.8105726872246687E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W15" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.4772241816104516E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X15" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.125697700379549E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y15" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.4711246200607903E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z15" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.6540803897685756E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA15" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.4967392466412459E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB15" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.3025263831148064E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC15" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.21060329067641681</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD15" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.8470818389305521E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE15" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.29019627914118279</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF15" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.5397335086344212E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG15" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.7749025480652764E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH15" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>0.17675941080196397</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI15" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.0055088826572527</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ15" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>6.7033925510483511E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK15" s="58"/>
       <c r="AL15" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>2.2547708368023107</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM15" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>33.63626431887365</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="16" spans="2:39" x14ac:dyDescent="0.3">
@@ -4082,143 +3992,138 @@
         <v>25</v>
       </c>
       <c r="C16" s="28">
-        <f ca="1">IF(ISNUMBER(L7),1/L7,"")</f>
-        <v>8</v>
+        <f>IF(ISNUMBER(L7),1/L7,"")</f>
+        <v>1</v>
       </c>
       <c r="D16" s="28">
-        <f ca="1">IF(ISNUMBER(L8),1/L8,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(L8),1/L8,"")</f>
+        <v>1</v>
       </c>
       <c r="E16" s="28">
-        <f ca="1">IF(ISNUMBER(L9),1/L9,"")</f>
+        <f>IF(ISNUMBER(L9),1/L9,"")</f>
         <v>1</v>
       </c>
       <c r="F16" s="28">
-        <f ca="1">IF(ISNUMBER(L10),1/L10,"")</f>
+        <f>IF(ISNUMBER(L10),1/L10,"")</f>
         <v>1</v>
       </c>
       <c r="G16" s="28">
-        <f ca="1">IF(ISNUMBER(L11),1/L11,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(L11),1/L11,"")</f>
+        <v>1</v>
       </c>
       <c r="H16" s="28">
-        <f ca="1">IF(ISNUMBER(L12),1/L12,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(L12),1/L12,"")</f>
+        <v>1</v>
       </c>
       <c r="I16" s="28">
-        <f ca="1">IF(ISNUMBER(L13),1/L13,"")</f>
+        <f>IF(ISNUMBER(L13),1/L13,"")</f>
         <v>1</v>
       </c>
       <c r="J16" s="28">
-        <f ca="1">IF(ISNUMBER(L14),1/L14,"")</f>
-        <v>0.14285714285714285</v>
+        <f>IF(ISNUMBER(L14),1/L14,"")</f>
+        <v>1</v>
       </c>
       <c r="K16" s="28">
-        <f ca="1">IF(ISNUMBER(L15),1/L15,"")</f>
-        <v>0.125</v>
+        <f>IF(ISNUMBER(L15),1/L15,"")</f>
+        <v>1</v>
       </c>
       <c r="L16" s="33">
         <v>1</v>
       </c>
       <c r="M16" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="32">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="O16" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P16" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S16" s="26" t="s">
         <v>25</v>
       </c>
       <c r="T16" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.22050861361771945</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U16" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.582139848357203E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V16" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2026431718061672E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W16" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.1295017634494063E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X16" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.8142442509488725E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y16" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.11854103343465E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z16" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.9232643118148605E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA16" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.4145967713196252E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB16" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.878157978893508E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC16" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.6325411334552101E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD16" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.8470818389305521E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE16" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.2244031015686979E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF16" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>0.19114560946625875</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG16" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>3.964146497236109E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH16" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>7.8559738134206206E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI16" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.73758014080862333</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ16" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.9172009387241554E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK16" s="58"/>
       <c r="AL16" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.9688312743587284</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM16" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>40.039674987729349</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.3">
@@ -4226,143 +4131,139 @@
         <v>26</v>
       </c>
       <c r="C17" s="28">
-        <f ca="1">IF(ISNUMBER(M7),1/M7,"")</f>
-        <v>0.125</v>
+        <f>IF(ISNUMBER(M7),1/M7,"")</f>
+        <v>1</v>
       </c>
       <c r="D17" s="28">
-        <f ca="1">IF(ISNUMBER(M8),1/M8,"")</f>
+        <f>IF(ISNUMBER(M8),1/M8,"")</f>
         <v>1</v>
       </c>
       <c r="E17" s="28">
-        <f ca="1">IF(ISNUMBER(M9),1/M9,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(M9),1/M9,"")</f>
+        <v>1</v>
       </c>
       <c r="F17" s="28">
-        <f ca="1">IF(ISNUMBER(M10),1/M10,"")</f>
-        <v>6</v>
+        <f>IF(ISNUMBER(M10),1/M10,"")</f>
+        <v>1</v>
       </c>
       <c r="G17" s="28">
-        <f ca="1">IF(ISNUMBER(M11),1/M11,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(M11),1/M11,"")</f>
+        <v>1</v>
       </c>
       <c r="H17" s="28">
-        <f ca="1">IF(ISNUMBER(M12),1/M12,"")</f>
-        <v>6</v>
+        <f>IF(ISNUMBER(M12),1/M12,"")</f>
+        <v>1</v>
       </c>
       <c r="I17" s="28">
-        <f ca="1">IF(ISNUMBER(M13),1/M13,"")</f>
-        <v>7</v>
+        <f>IF(ISNUMBER(M13),1/M13,"")</f>
+        <v>1</v>
       </c>
       <c r="J17" s="28">
-        <f ca="1">IF(ISNUMBER(M14),1/M14,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(M14),1/M14,"")</f>
+        <v>1</v>
       </c>
       <c r="K17" s="28">
-        <f ca="1">IF(ISNUMBER(M15),1/M15,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(M15),1/M15,"")</f>
+        <v>1</v>
       </c>
       <c r="L17" s="28">
-        <f ca="1">IF(ISNUMBER(M16),1/M16,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(M16),1/M16,"")</f>
+        <v>1</v>
       </c>
       <c r="M17" s="33">
         <v>1</v>
       </c>
       <c r="N17" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O17" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P17" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="S17" s="26" t="s">
         <v>26</v>
       </c>
       <c r="T17" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.4454470877768664E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U17" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.0328559393428812E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V17" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.11013215859030835</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W17" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.1877701058069644</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X17" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.8142442509488725E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y17" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.10942249240121581</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z17" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.20462850182704023</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA17" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.2245108869961869</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB17" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.1512631915574032E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC17" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.3162705667276051E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD17" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.4235409194652761E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE17" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>9.673209304706093E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF17" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>5.3096002629516321E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG17" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>9.2496751602175881E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH17" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>6.5466448445171844E-3</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI17" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.0548011564461206</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ17" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>7.0320077096408043E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK17" s="58"/>
       <c r="AL17" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>2.5197691817774381</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM17" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>35.832855790571202</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.3">
@@ -4370,143 +4271,140 @@
         <v>27</v>
       </c>
       <c r="C18" s="28">
-        <f ca="1">IF(ISNUMBER(N7),1/N7,"")</f>
-        <v>7</v>
+        <f>IF(ISNUMBER(N7),1/N7,"")</f>
+        <v>1</v>
       </c>
       <c r="D18" s="28">
-        <f ca="1">IF(ISNUMBER(N8),1/N8,"")</f>
-        <v>9</v>
+        <f>IF(ISNUMBER(N8),1/N8,"")</f>
+        <v>1</v>
       </c>
       <c r="E18" s="28">
-        <f ca="1">IF(ISNUMBER(N9),1/N9,"")</f>
-        <v>6</v>
+        <f>IF(ISNUMBER(N9),1/N9,"")</f>
+        <v>1</v>
       </c>
       <c r="F18" s="28">
-        <f ca="1">IF(ISNUMBER(N10),1/N10,"")</f>
+        <f>IF(ISNUMBER(N10),1/N10,"")</f>
         <v>1</v>
       </c>
       <c r="G18" s="28">
-        <f ca="1">IF(ISNUMBER(N11),1/N11,"")</f>
-        <v>4</v>
+        <f>IF(ISNUMBER(N11),1/N11,"")</f>
+        <v>1</v>
       </c>
       <c r="H18" s="28">
-        <f ca="1">IF(ISNUMBER(N12),1/N12,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(N12),1/N12,"")</f>
+        <v>1</v>
       </c>
       <c r="I18" s="28">
-        <f ca="1">IF(ISNUMBER(N13),1/N13,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(N13),1/N13,"")</f>
+        <v>1</v>
       </c>
       <c r="J18" s="28">
-        <f ca="1">IF(ISNUMBER(N14),1/N14,"")</f>
-        <v>0.33333333333333331</v>
+        <f>IF(ISNUMBER(N14),1/N14,"")</f>
+        <v>1</v>
       </c>
       <c r="K18" s="28">
-        <f ca="1">IF(ISNUMBER(N15),1/N15,"")</f>
-        <v>0.1111111111111111</v>
+        <f>IF(ISNUMBER(N15),1/N15,"")</f>
+        <v>1</v>
       </c>
       <c r="L18" s="28">
-        <f ca="1">IF(ISNUMBER(N16),1/N16,"")</f>
+        <f>IF(ISNUMBER(N16),1/N16,"")</f>
         <v>1</v>
       </c>
       <c r="M18" s="28">
-        <f ca="1">IF(ISNUMBER(N17),1/N17,"")</f>
-        <v>0.33333333333333331</v>
+        <f>IF(ISNUMBER(N17),1/N17,"")</f>
+        <v>1</v>
       </c>
       <c r="N18" s="33">
         <v>1</v>
       </c>
       <c r="O18" s="32">
-        <f t="shared" ref="O18:Q20" ca="1" si="22">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P18" s="32">
-        <f t="shared" ca="1" si="22"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="32">
-        <f t="shared" ca="1" si="22"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="S18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="T18" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.19294503691550452</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.27295703454085929</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V18" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.13215859030837002</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W18" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.1295017634494063E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X18" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.12502790801518196</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y18" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.559270516717325E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z18" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14616321559074302</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA18" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.4967392466412459E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB18" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.5583626479053403E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC18" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.6325411334552101E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD18" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.1411803064884252E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE18" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.2244031015686979E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF18" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>0.14866880736264571</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG18" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.5498050961305537E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH18" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>6.5466448445171844E-3</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI18" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.1533783313546047</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ18" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>7.6891888756973642E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK18" s="58"/>
       <c r="AL18" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>3.0457517384956425</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM18" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>39.610832660413884</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.3">
@@ -4514,143 +4412,141 @@
         <v>28</v>
       </c>
       <c r="C19" s="28">
-        <f ca="1">IF(ISNUMBER(O7),1/O7,"")</f>
-        <v>0.14285714285714285</v>
+        <f>IF(ISNUMBER(O7),1/O7,"")</f>
+        <v>1</v>
       </c>
       <c r="D19" s="28">
-        <f ca="1">IF(ISNUMBER(O8),1/O8,"")</f>
-        <v>0.16666666666666666</v>
+        <f>IF(ISNUMBER(O8),1/O8,"")</f>
+        <v>1</v>
       </c>
       <c r="E19" s="28">
-        <f ca="1">IF(ISNUMBER(O9),1/O9,"")</f>
-        <v>0.2</v>
+        <f>IF(ISNUMBER(O9),1/O9,"")</f>
+        <v>1</v>
       </c>
       <c r="F19" s="28">
-        <f ca="1">IF(ISNUMBER(O10),1/O10,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(O10),1/O10,"")</f>
+        <v>1</v>
       </c>
       <c r="G19" s="28">
-        <f ca="1">IF(ISNUMBER(O11),1/O11,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(O11),1/O11,"")</f>
+        <v>1</v>
       </c>
       <c r="H19" s="28">
-        <f ca="1">IF(ISNUMBER(O12),1/O12,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(O12),1/O12,"")</f>
+        <v>1</v>
       </c>
       <c r="I19" s="28">
-        <f ca="1">IF(ISNUMBER(O13),1/O13,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(O13),1/O13,"")</f>
+        <v>1</v>
       </c>
       <c r="J19" s="28">
-        <f ca="1">IF(ISNUMBER(O14),1/O14,"")</f>
-        <v>0.2</v>
+        <f>IF(ISNUMBER(O14),1/O14,"")</f>
+        <v>1</v>
       </c>
       <c r="K19" s="28">
-        <f ca="1">IF(ISNUMBER(O15),1/O15,"")</f>
-        <v>6</v>
+        <f>IF(ISNUMBER(O15),1/O15,"")</f>
+        <v>1</v>
       </c>
       <c r="L19" s="28">
-        <f ca="1">IF(ISNUMBER(O16),1/O16,"")</f>
-        <v>0.1111111111111111</v>
+        <f>IF(ISNUMBER(O16),1/O16,"")</f>
+        <v>1</v>
       </c>
       <c r="M19" s="28">
-        <f ca="1">IF(ISNUMBER(O17),1/O17,"")</f>
-        <v>4</v>
+        <f>IF(ISNUMBER(O17),1/O17,"")</f>
+        <v>1</v>
       </c>
       <c r="N19" s="28">
-        <f ca="1">IF(ISNUMBER(O18),1/O18,"")</f>
-        <v>0.14285714285714285</v>
+        <f>IF(ISNUMBER(O18),1/O18,"")</f>
+        <v>1</v>
       </c>
       <c r="O19" s="33">
         <v>1</v>
       </c>
       <c r="P19" s="32">
-        <f t="shared" ca="1" si="22"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="32">
-        <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S19" s="26" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.9376538146021324E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U19" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.054759898904802E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V19" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.4052863436123343E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W19" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.8237544086235157E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X19" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.5628488501897745E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y19" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.1185410334346503E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z19" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14616321559074302</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA19" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.9804354798474761E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB19" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.1381515829868884</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC19" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.9250457038391222E-3</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD19" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.13694163677861104</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE19" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.6062901450981391E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF19" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>2.1238401051806528E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG19" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.22199220384522211</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH19" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>0.13747954173486088</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI19" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.94651370661890377</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ19" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>6.3100913774593578E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK19" s="58"/>
       <c r="AL19" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>2.4391486528766007</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM19" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>38.654727910749827</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.3">
@@ -4658,143 +4554,142 @@
         <v>29</v>
       </c>
       <c r="C20" s="28">
-        <f ca="1">IF(ISNUMBER(P7),1/P7,"")</f>
-        <v>4</v>
+        <f>IF(ISNUMBER(P7),1/P7,"")</f>
+        <v>1</v>
       </c>
       <c r="D20" s="28">
-        <f ca="1">IF(ISNUMBER(P8),1/P8,"")</f>
+        <f>IF(ISNUMBER(P8),1/P8,"")</f>
         <v>1</v>
       </c>
       <c r="E20" s="28">
-        <f ca="1">IF(ISNUMBER(P9),1/P9,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(P9),1/P9,"")</f>
+        <v>1</v>
       </c>
       <c r="F20" s="28">
-        <f ca="1">IF(ISNUMBER(P10),1/P10,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(P10),1/P10,"")</f>
+        <v>1</v>
       </c>
       <c r="G20" s="28">
-        <f ca="1">IF(ISNUMBER(P11),1/P11,"")</f>
-        <v>0.2</v>
+        <f>IF(ISNUMBER(P11),1/P11,"")</f>
+        <v>1</v>
       </c>
       <c r="H20" s="28">
-        <f ca="1">IF(ISNUMBER(P12),1/P12,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(P12),1/P12,"")</f>
+        <v>1</v>
       </c>
       <c r="I20" s="28">
-        <f ca="1">IF(ISNUMBER(P13),1/P13,"")</f>
-        <v>9</v>
+        <f>IF(ISNUMBER(P13),1/P13,"")</f>
+        <v>1</v>
       </c>
       <c r="J20" s="28">
-        <f ca="1">IF(ISNUMBER(P14),1/P14,"")</f>
-        <v>0.33333333333333331</v>
+        <f>IF(ISNUMBER(P14),1/P14,"")</f>
+        <v>1</v>
       </c>
       <c r="K20" s="28">
-        <f ca="1">IF(ISNUMBER(P15),1/P15,"")</f>
+        <f>IF(ISNUMBER(P15),1/P15,"")</f>
         <v>1</v>
       </c>
       <c r="L20" s="28">
-        <f ca="1">IF(ISNUMBER(P16),1/P16,"")</f>
-        <v>7</v>
+        <f>IF(ISNUMBER(P16),1/P16,"")</f>
+        <v>1</v>
       </c>
       <c r="M20" s="28">
-        <f ca="1">IF(ISNUMBER(P17),1/P17,"")</f>
-        <v>3</v>
+        <f>IF(ISNUMBER(P17),1/P17,"")</f>
+        <v>1</v>
       </c>
       <c r="N20" s="28">
-        <f ca="1">IF(ISNUMBER(P18),1/P18,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(P18),1/P18,"")</f>
+        <v>1</v>
       </c>
       <c r="O20" s="28">
-        <f ca="1">IF(ISNUMBER(P19),1/P19,"")</f>
-        <v>0.125</v>
+        <f>IF(ISNUMBER(P19),1/P19,"")</f>
+        <v>1</v>
       </c>
       <c r="P20" s="33">
         <v>1</v>
       </c>
       <c r="Q20" s="32">
-        <f t="shared" ca="1" si="22"/>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="S20" s="26" t="s">
         <v>29</v>
       </c>
       <c r="T20" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.11025430680885973</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U20" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.0328559393428812E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V20" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.1013215859030836E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W20" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.8237544086235157E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X20" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.2513954007590985E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y20" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.11854103343465E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z20" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.26309378806333744</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA20" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.4967392466412459E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB20" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.3025263831148064E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC20" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.18427787934186471</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD20" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.10270622758395828</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE20" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.1612201550784349</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF20" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>2.654800131475816E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG20" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.7749025480652764E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH20" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>2.4549918166939439E-3</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI20" s="30">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.95693929669811495</v>
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ20" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>6.3795953113207668E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK20" s="58"/>
       <c r="AL20" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>2.564732421737582</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM20" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>40.202117792431032</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.3">
@@ -4802,60 +4697,60 @@
         <v>30</v>
       </c>
       <c r="C21" s="28">
-        <f ca="1">IF(ISNUMBER(Q7),1/Q7,"")</f>
-        <v>0.33333333333333331</v>
+        <f>IF(ISNUMBER(Q7),1/Q7,"")</f>
+        <v>1</v>
       </c>
       <c r="D21" s="28">
-        <f ca="1">IF(ISNUMBER(Q8),1/Q8,"")</f>
-        <v>0.16666666666666666</v>
+        <f>IF(ISNUMBER(Q8),1/Q8,"")</f>
+        <v>1</v>
       </c>
       <c r="E21" s="28">
-        <f ca="1">IF(ISNUMBER(Q9),1/Q9,"")</f>
+        <f>IF(ISNUMBER(Q9),1/Q9,"")</f>
         <v>1</v>
       </c>
       <c r="F21" s="28">
-        <f ca="1">IF(ISNUMBER(Q10),1/Q10,"")</f>
-        <v>0.14285714285714285</v>
+        <f>IF(ISNUMBER(Q10),1/Q10,"")</f>
+        <v>1</v>
       </c>
       <c r="G21" s="28">
-        <f ca="1">IF(ISNUMBER(Q11),1/Q11,"")</f>
-        <v>8</v>
+        <f>IF(ISNUMBER(Q11),1/Q11,"")</f>
+        <v>1</v>
       </c>
       <c r="H21" s="28">
-        <f ca="1">IF(ISNUMBER(Q12),1/Q12,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(Q12),1/Q12,"")</f>
+        <v>1</v>
       </c>
       <c r="I21" s="28">
-        <f ca="1">IF(ISNUMBER(Q13),1/Q13,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(Q13),1/Q13,"")</f>
+        <v>1</v>
       </c>
       <c r="J21" s="28">
-        <f ca="1">IF(ISNUMBER(Q14),1/Q14,"")</f>
-        <v>0.16666666666666666</v>
+        <f>IF(ISNUMBER(Q14),1/Q14,"")</f>
+        <v>1</v>
       </c>
       <c r="K21" s="28">
-        <f ca="1">IF(ISNUMBER(Q15),1/Q15,"")</f>
-        <v>0.1111111111111111</v>
+        <f>IF(ISNUMBER(Q15),1/Q15,"")</f>
+        <v>1</v>
       </c>
       <c r="L21" s="28">
-        <f ca="1">IF(ISNUMBER(Q16),1/Q16,"")</f>
-        <v>0.25</v>
+        <f>IF(ISNUMBER(Q16),1/Q16,"")</f>
+        <v>1</v>
       </c>
       <c r="M21" s="28">
-        <f ca="1">IF(ISNUMBER(Q17),1/Q17,"")</f>
-        <v>3</v>
+        <f>IF(ISNUMBER(Q17),1/Q17,"")</f>
+        <v>1</v>
       </c>
       <c r="N21" s="28">
-        <f ca="1">IF(ISNUMBER(Q18),1/Q18,"")</f>
-        <v>3</v>
+        <f>IF(ISNUMBER(Q18),1/Q18,"")</f>
+        <v>1</v>
       </c>
       <c r="O21" s="28">
-        <f ca="1">IF(ISNUMBER(Q19),1/Q19,"")</f>
-        <v>0.14285714285714285</v>
+        <f>IF(ISNUMBER(Q19),1/Q19,"")</f>
+        <v>1</v>
       </c>
       <c r="P21" s="28">
-        <f ca="1">IF(ISNUMBER(Q20),1/Q20,"")</f>
-        <v>8</v>
+        <f>IF(ISNUMBER(Q20),1/Q20,"")</f>
+        <v>1</v>
       </c>
       <c r="Q21" s="33">
         <v>1</v>
@@ -4864,81 +4759,81 @@
         <v>30</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1878589007383087E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U21" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.054759898904802E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V21" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2026431718061672E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W21" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.470716804927723E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X21" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.25005581603036392</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y21" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.559270516717325E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z21" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.4616321559074302E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA21" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.4836962332062293E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB21" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.5583626479053403E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC21" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.5813528336380253E-3</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD21" s="28">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.10270622758395828</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE21" s="28">
-        <f t="shared" ca="1" si="14"/>
-        <v>9.673209304706093E-2</v>
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF21" s="28">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.034057293115218E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG21" s="28">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.22199220384522211</v>
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH21" s="28">
-        <f t="shared" ca="1" si="17"/>
-        <v>1.9639934533551551E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI21" s="30">
-        <f t="shared" ref="AI21" ca="1" si="23">SUM(T21:AH21)</f>
-        <v>0.77069910344644577</v>
+        <f t="shared" ref="AI21" si="20">SUM(T21:AH21)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AJ21" s="18">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.1379940229763048E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK21" s="58"/>
       <c r="AL21" s="19">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.7528525085950799</v>
+        <f t="shared" si="18"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AM21" s="19">
-        <f t="shared" ca="1" si="21"/>
-        <v>34.115503069030403</v>
+        <f t="shared" si="19"/>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.3">
@@ -4946,128 +4841,128 @@
         <v>13</v>
       </c>
       <c r="C22" s="30">
-        <f ca="1">SUM(C7:C21)</f>
-        <v>36.279761904761905</v>
+        <f>SUM(C7:C21)</f>
+        <v>15</v>
       </c>
       <c r="D22" s="30">
-        <f t="shared" ref="D22:Q22" ca="1" si="24">SUM(D7:D21)</f>
-        <v>32.972222222222221</v>
+        <f t="shared" ref="D22:Q22" si="21">SUM(D7:D21)</f>
+        <v>15</v>
       </c>
       <c r="E22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>45.400000000000006</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="F22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>31.953968253968252</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="G22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>31.992857142857144</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="H22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>54.833333333333336</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="I22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>34.208333333333329</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="J22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>22.270634920634919</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="K22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>43.430555555555557</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="L22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>37.986111111111114</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="M22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>29.209523809523805</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="N22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>31.013492063492063</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="O22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>47.084523809523809</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="P22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>36.037301587301585</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="Q22" s="30">
-        <f t="shared" ca="1" si="24"/>
-        <v>50.916666666666671</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="S22">
-        <f ca="1">+AJ6</f>
+        <f>+AJ6</f>
         <v>15</v>
       </c>
       <c r="T22" s="20">
-        <f ca="1">+AJ7</f>
-        <v>7.845107489310725E-2</v>
+        <f>+AJ7</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U22" s="20">
-        <f ca="1">+AJ8</f>
-        <v>7.2727453194264768E-2</v>
+        <f>+AJ8</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V22" s="20">
-        <f ca="1">+AJ9</f>
-        <v>4.7901694036430569E-2</v>
+        <f>+AJ9</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W22" s="20">
-        <f ca="1">+AJ10</f>
-        <v>6.1959494613610125E-2</v>
+        <f>+AJ10</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X22" s="20">
-        <f ca="1">+AJ11</f>
-        <v>6.851707106703317E-2</v>
+        <f>+AJ11</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y22" s="20">
-        <f ca="1">+AJ12</f>
-        <v>3.0535108222720687E-2</v>
+        <f>+AJ12</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z22" s="20">
-        <f ca="1">+AJ13</f>
-        <v>0.11064855251316505</v>
+        <f>+AJ13</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA22" s="20">
-        <f ca="1">+AJ14</f>
-        <v>8.7564843590997338E-2</v>
+        <f>+AJ14</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB22" s="20">
-        <f ca="1">+AJ15</f>
-        <v>6.7033925510483511E-2</v>
+        <f>+AJ15</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC22" s="20">
-        <f ca="1">+AJ16</f>
-        <v>4.9172009387241554E-2</v>
+        <f>+AJ16</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD22" s="20">
-        <f ca="1">+AJ17</f>
-        <v>7.0320077096408043E-2</v>
+        <f>+AJ17</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE22" s="20">
-        <f ca="1">+AJ18</f>
-        <v>7.6891888756973642E-2</v>
+        <f>+AJ18</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF22" s="20">
-        <f ca="1">+AJ19</f>
-        <v>6.3100913774593578E-2</v>
+        <f>+AJ19</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG22" s="20">
-        <f ca="1">+AJ20</f>
-        <v>6.3795953113207668E-2</v>
+        <f>+AJ20</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH22" s="20">
-        <f ca="1">+AJ21</f>
-        <v>5.1379940229763048E-2</v>
+        <f>+AJ21</f>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.3">
@@ -5075,68 +4970,68 @@
         <v>0</v>
       </c>
       <c r="T24" s="8">
-        <f ca="1">+IF(ISNUMBER(C7),C7*T$22,"")</f>
-        <v>7.845107489310725E-2</v>
+        <f>+IF(ISNUMBER(C7),C7*T$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" ref="U24:AH24" ca="1" si="25">+IF(ISNUMBER(D7),D7*U$22,"")</f>
-        <v>0.50909217235985338</v>
+        <f t="shared" ref="U24:AH24" si="22">+IF(ISNUMBER(D7),D7*U$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>0.33531185825501397</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>1.2391898922722026E-2</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>1.7129267766758292E-2</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>0.12214043289088275</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>0.11064855251316505</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>1.7512968718199469E-2</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>0.4692374785733846</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>6.1465011734051942E-3</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>0.56256061677126434</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>1.098455553671052E-2</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>0.44170639642215503</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>1.5948988278301917E-2</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>0.15413982068928914</v>
+        <f t="shared" si="22"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI24" s="8">
-        <f ca="1">+SUM(T24:AH24)</f>
-        <v>2.8634025837642127</v>
+        <f>+SUM(T24:AH24)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.3">
@@ -5144,68 +5039,68 @@
         <v>1</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" ref="T25:T38" ca="1" si="26">+IF(ISNUMBER(C8),C8*T$22,"")</f>
-        <v>1.1207296413301034E-2</v>
+        <f t="shared" ref="T25:T38" si="23">+IF(ISNUMBER(C8),C8*T$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" ref="U25:U38" ca="1" si="27">+IF(ISNUMBER(D8),D8*U$22,"")</f>
-        <v>7.2727453194264768E-2</v>
+        <f t="shared" ref="U25:U38" si="24">+IF(ISNUMBER(D8),D8*U$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" ref="V25:V38" ca="1" si="28">+IF(ISNUMBER(E8),E8*V$22,"")</f>
-        <v>0.43111524632787512</v>
+        <f t="shared" ref="V25:V38" si="25">+IF(ISNUMBER(E8),E8*V$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" ref="W25:W38" ca="1" si="29">+IF(ISNUMBER(F8),F8*W$22,"")</f>
-        <v>0.12391898922722025</v>
+        <f t="shared" ref="W25:W38" si="26">+IF(ISNUMBER(F8),F8*W$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" ref="X25:X38" ca="1" si="30">+IF(ISNUMBER(G8),G8*X$22,"")</f>
-        <v>0.13703414213406634</v>
+        <f t="shared" ref="X25:X38" si="27">+IF(ISNUMBER(G8),G8*X$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" ref="Y25:Y38" ca="1" si="31">+IF(ISNUMBER(H8),H8*Y$22,"")</f>
-        <v>0.27481597400448621</v>
+        <f t="shared" ref="Y25:Y38" si="28">+IF(ISNUMBER(H8),H8*Y$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" ref="Z25:Z38" ca="1" si="32">+IF(ISNUMBER(I8),I8*Z$22,"")</f>
-        <v>1.3831069064145631E-2</v>
+        <f t="shared" ref="Z25:Z38" si="29">+IF(ISNUMBER(I8),I8*Z$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" ref="AA25:AA38" ca="1" si="33">+IF(ISNUMBER(J8),J8*AA$22,"")</f>
-        <v>2.1891210897749334E-2</v>
+        <f t="shared" ref="AA25:AA38" si="30">+IF(ISNUMBER(J8),J8*AA$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB25" s="8">
-        <f t="shared" ref="AB25:AB38" ca="1" si="34">+IF(ISNUMBER(K8),K8*AB$22,"")</f>
-        <v>0.40220355306290106</v>
+        <f t="shared" ref="AB25:AB38" si="31">+IF(ISNUMBER(K8),K8*AB$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" ref="AC25:AC38" ca="1" si="35">+IF(ISNUMBER(L8),L8*AC$22,"")</f>
-        <v>0.19668803754896622</v>
+        <f t="shared" ref="AC25:AC38" si="32">+IF(ISNUMBER(L8),L8*AC$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD25" s="8">
-        <f t="shared" ref="AD25:AD38" ca="1" si="36">+IF(ISNUMBER(M8),M8*AD$22,"")</f>
-        <v>7.0320077096408043E-2</v>
+        <f t="shared" ref="AD25:AD38" si="33">+IF(ISNUMBER(M8),M8*AD$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE25" s="8">
-        <f t="shared" ref="AE25:AE38" ca="1" si="37">+IF(ISNUMBER(N8),N8*AE$22,"")</f>
-        <v>8.5435431952192928E-3</v>
+        <f t="shared" ref="AE25:AE38" si="34">+IF(ISNUMBER(N8),N8*AE$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF25" s="8">
-        <f t="shared" ref="AF25:AF38" ca="1" si="38">+IF(ISNUMBER(O8),O8*AF$22,"")</f>
-        <v>0.37860548264756144</v>
+        <f t="shared" ref="AF25:AF38" si="35">+IF(ISNUMBER(O8),O8*AF$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG25" s="8">
-        <f t="shared" ref="AG25:AG38" ca="1" si="39">+IF(ISNUMBER(P8),P8*AG$22,"")</f>
-        <v>6.3795953113207668E-2</v>
+        <f t="shared" ref="AG25:AG38" si="36">+IF(ISNUMBER(P8),P8*AG$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH25" s="8">
-        <f t="shared" ref="AH25:AH38" ca="1" si="40">+IF(ISNUMBER(Q8),Q8*AH$22,"")</f>
-        <v>0.30827964137857827</v>
+        <f t="shared" ref="AH25:AH38" si="37">+IF(ISNUMBER(Q8),Q8*AH$22,"")</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI25" s="8">
-        <f t="shared" ref="AI25:AI38" ca="1" si="41">+SUM(T25:AH25)</f>
-        <v>2.5149776693059507</v>
+        <f t="shared" ref="AI25:AI38" si="38">+SUM(T25:AH25)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.3">
@@ -5213,68 +5108,68 @@
         <v>2</v>
       </c>
       <c r="T26" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>1.1207296413301034E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>8.080828132696085E-3</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V26" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>4.7901694036430569E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>0.30979747306805061</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X26" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>9.7881530095761671E-3</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>1.0178369407573561E-2</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z26" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.4425942100526602</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA26" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.35025937436398935</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB26" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>1.6758481377620878E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC26" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>4.9172009387241554E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD26" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>1.4064015419281609E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE26" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>1.2815314792828939E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF26" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.31550456887296791</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG26" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.12759190622641534</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH26" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>5.1379940229763048E-2</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI26" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>1.7770936347903969</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.3">
@@ -5282,68 +5177,68 @@
         <v>3</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>0.39225537446553627</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>3.6363726597132384E-2</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>9.5803388072861137E-3</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>6.1959494613610125E-2</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X27" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>1.3703414213406635E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>6.1070216445441375E-2</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z27" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>1.2294283612573894E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA27" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.17512968718199468</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB27" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>0.60330532959435157</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC27" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>4.9172009387241554E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD27" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>1.1720012849401339E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE27" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>7.6891888756973642E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF27" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.25240365509837431</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG27" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.25518381245283067</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH27" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>0.35965958160834133</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI27" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>2.3706928256844959</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.3">
@@ -5351,68 +5246,68 @@
         <v>20</v>
       </c>
       <c r="T28" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>0.313804299572429</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U28" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>3.6363726597132384E-2</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V28" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>0.33531185825501397</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>0.30979747306805061</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X28" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>6.851707106703317E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.15267554111360343</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z28" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>1.2294283612573894E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA28" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>1.7512968718199469E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB28" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>6.7033925510483511E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC28" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>0.19668803754896622</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD28" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>0.28128030838563217</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE28" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>1.9222972189243411E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF28" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.12620182754918716</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG28" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.31897976556603835</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH28" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>6.422492528720381E-3</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI28" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>2.2621065512823066</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.3">
@@ -5420,68 +5315,68 @@
         <v>21</v>
       </c>
       <c r="T29" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>1.9612768723276813E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U29" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>8.080828132696085E-3</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V29" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>0.1437050821092917</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>3.0979747306805062E-2</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X29" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>1.3703414213406635E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>3.0535108222720687E-2</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z29" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>1.2294283612573894E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA29" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>9.7294270656663705E-3</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB29" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>2.2344641836827835E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC29" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>9.8344018774483108E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD29" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>1.1720012849401339E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE29" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.30756755502789457</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF29" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>1.2620182754918717E-2</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG29" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.12759190622641534</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH29" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>0.20551976091905219</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI29" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>1.0543487377754304</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.3">
@@ -5489,68 +5384,68 @@
         <v>22</v>
       </c>
       <c r="T30" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>7.845107489310725E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U30" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>0.58181962555411815</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V30" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1975423509107642E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W30" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>0.55763545152249117</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X30" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>0.61665363960329855</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.27481597400448621</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z30" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.11064855251316505</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA30" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.7005187487279787</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB30" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>0.53627140408386809</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>4.9172009387241554E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD30" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>1.0045725299486863E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE30" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>1.537837775139473E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF30" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>1.2620182754918717E-2</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG30" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>7.0884392348008517E-3</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH30" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>0.1027598804595261</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI30" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>3.6658545092989896</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.3">
@@ -5558,68 +5453,68 @@
         <v>23</v>
       </c>
       <c r="T31" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>0.39225537446553627</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U31" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>0.29090981277705907</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V31" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1975423509107642E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>3.0979747306805062E-2</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X31" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>0.34258535533516588</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.27481597400448621</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>1.3831069064145631E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA31" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>8.7564843590997338E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB31" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>0.20110177653145053</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC31" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>0.3442040657106909</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD31" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>1.4064015419281609E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE31" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.23067566627092093</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF31" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.31550456887296791</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG31" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.19138785933962299</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH31" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>0.30827964137857827</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI31" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>3.050135193576816</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.3">
@@ -5627,68 +5522,68 @@
         <v>24</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>1.1207296413301034E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U32" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>1.2121242199044127E-2</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V32" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>0.19160677614572227</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W32" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>6.884388290401125E-3</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X32" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>6.851707106703317E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>9.1605324668162069E-2</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z32" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>1.3831069064145631E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA32" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>2.9188281196999111E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>6.7033925510483511E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC32" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>0.39337607509793243</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD32" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>0.14064015419281609</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE32" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.69202699881276275</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF32" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>1.0516818962432263E-2</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG32" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>6.3795953113207668E-2</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH32" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>0.46241946206786744</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI32" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>2.2547708368023107</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="33" spans="19:35" x14ac:dyDescent="0.3">
@@ -5696,68 +5591,68 @@
         <v>25</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>0.627608599144858</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>1.8181863298566192E-2</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V33" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>4.7901694036430569E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W33" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>6.1959494613610125E-2</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X33" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>1.7129267766758292E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>1.5267554111360344E-2</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.11064855251316505</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA33" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>1.2509263370142475E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB33" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>8.3792406888104388E-3</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC33" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>4.9172009387241554E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD33" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>0.14064015419281609</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE33" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>7.6891888756973642E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF33" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.56790822397134222</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG33" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>9.1137075876010949E-3</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH33" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>0.20551976091905219</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI33" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>1.9688312743587284</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="34" spans="19:35" x14ac:dyDescent="0.3">
@@ -5765,68 +5660,68 @@
         <v>26</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>9.8063843616384063E-3</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U34" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>7.2727453194264768E-2</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V34" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>0.23950847018215285</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W34" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>0.37175696768166078</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X34" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>1.7129267766758292E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y34" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.18321064933632414</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z34" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.77453986759215532</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA34" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.43782421795498672</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB34" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>3.3516962755241755E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC34" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>2.4586004693620777E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD34" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>7.0320077096408043E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE34" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.23067566627092093</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF34" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>1.5775228443648395E-2</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG34" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>2.1265317704402556E-2</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH34" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>1.7126646743254349E-2</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI34" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>2.5197691817774381</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="35" spans="19:35" x14ac:dyDescent="0.3">
@@ -5834,68 +5729,68 @@
         <v>27</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>0.54915752425175079</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>0.65454707874838292</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>0.2874101642185834</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>6.1959494613610125E-2</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>0.27406828426813268</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>7.6337770556801719E-3</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.55324276256582527</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA35" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>2.9188281196999111E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB35" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>7.4482139456092788E-3</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC35" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>4.9172009387241554E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD35" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>2.3440025698802679E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE35" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>7.6891888756973642E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF35" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>0.44170639642215503</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG35" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>1.2759190622641534E-2</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH35" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>1.7126646743254349E-2</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI35" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>3.0457517384956425</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="36" spans="19:35" x14ac:dyDescent="0.3">
@@ -5903,68 +5798,68 @@
         <v>28</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>1.1207296413301034E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>1.2121242199044127E-2</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>9.5803388072861137E-3</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>1.5489873653402531E-2</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X36" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>3.4258535533516585E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y36" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.15267554111360343</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z36" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.55324276256582527</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA36" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>1.7512968718199469E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB36" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>0.40220355306290106</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC36" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>5.4635565985823942E-3</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD36" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>0.28128030838563217</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE36" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>1.098455553671052E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF36" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>6.3100913774593578E-2</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG36" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.51036762490566134</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH36" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>0.35965958160834133</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI36" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>2.4391486528766007</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="37" spans="19:35" x14ac:dyDescent="0.3">
@@ -5972,68 +5867,68 @@
         <v>29</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>0.313804299572429</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>7.2727453194264768E-2</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>2.3950847018215284E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>1.5489873653402531E-2</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>1.3703414213406635E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>1.5267554111360344E-2</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z37" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>0.99583697261848547</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>2.9188281196999111E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>6.7033925510483511E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC37" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>0.3442040657106909</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD37" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>0.21096023128922414</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE37" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.38445944378486818</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF37" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>7.8876142218241973E-3</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG37" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>6.3795953113207668E-2</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH37" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>6.422492528720381E-3</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI37" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>2.564732421737582</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="38" spans="19:35" x14ac:dyDescent="0.3">
@@ -6041,68 +5936,68 @@
         <v>30</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>2.6150358297702417E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" ca="1" si="27"/>
-        <v>1.2121242199044127E-2</v>
+        <f t="shared" si="24"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" ca="1" si="28"/>
-        <v>4.7901694036430569E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" ca="1" si="29"/>
-        <v>8.8513563733728737E-3</v>
+        <f t="shared" si="26"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X38" s="8">
-        <f t="shared" ca="1" si="30"/>
-        <v>0.54813656853626536</v>
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y38" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>7.6337770556801719E-3</v>
+        <f t="shared" si="28"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Z38" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>5.5324276256582525E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AA38" s="8">
-        <f t="shared" ca="1" si="33"/>
-        <v>1.4594140598499556E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AB38" s="8">
-        <f t="shared" ca="1" si="34"/>
-        <v>7.4482139456092788E-3</v>
+        <f t="shared" si="31"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AC38" s="8">
-        <f t="shared" ca="1" si="35"/>
-        <v>1.2293002346810388E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD38" s="8">
-        <f t="shared" ca="1" si="36"/>
-        <v>0.21096023128922414</v>
+        <f t="shared" si="33"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE38" s="8">
-        <f t="shared" ca="1" si="37"/>
-        <v>0.23067566627092093</v>
+        <f t="shared" si="34"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF38" s="8">
-        <f t="shared" ca="1" si="38"/>
-        <v>9.0144162535133673E-3</v>
+        <f t="shared" si="35"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AG38" s="8">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.51036762490566134</v>
+        <f t="shared" si="36"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AH38" s="8">
-        <f t="shared" ca="1" si="40"/>
-        <v>5.1379940229763048E-2</v>
+        <f t="shared" si="37"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AI38" s="8">
-        <f t="shared" ca="1" si="41"/>
-        <v>1.7528525085950799</v>
+        <f t="shared" si="38"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -6127,7 +6022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AM38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -6205,16 +6100,16 @@
     <row r="3" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56">
         <f ca="1">SUM(AM7:AM21)/AJ6</f>
-        <v>37.58372067090054</v>
+        <v>35.917536163120552</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="23">
         <f ca="1">+(B3-$AJ$6)/($AJ$6-1)</f>
-        <v>1.6131229050643243</v>
+        <v>1.4941097259371823</v>
       </c>
       <c r="E3" s="6">
         <f ca="1">D3/+HLOOKUP(AJ6,T2:AH3,2,FALSE)</f>
-        <v>1.0145427075876252</v>
+        <v>0.93969165153281897</v>
       </c>
       <c r="T3" s="11">
         <v>0</v>
@@ -6409,141 +6304,141 @@
       </c>
       <c r="D7" s="37">
         <f t="shared" ref="D7:Q20" ca="1" si="0">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="L7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N7" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="M7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
       <c r="O7" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P7" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S7" s="35" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="3">
         <f ca="1">+IF(ISNUMBER(C7),C7/C$22,"")</f>
-        <v>3.0653950953678483E-2</v>
+        <v>3.2657716033383438E-2</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" ref="U7:AH21" ca="1" si="1">+IF(ISNUMBER(D7),D7/D$22,"")</f>
-        <v>1.3714285714285712E-2</v>
+        <v>0.12336009398864303</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.444813811962144E-3</v>
+        <v>2.8701594533029617E-2</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10164466718430155</v>
+        <v>0.22114130979841543</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8337625848747334E-2</v>
+        <v>7.7602931666307398E-2</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17907902217168847</v>
+        <v>2.888457403276794E-3</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2680249116628653</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="AA7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1768848610580335</v>
+        <v>0.1128653006382264</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3969319271332692E-3</v>
+        <v>3.8539181501192877E-3</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3327778703549408E-3</v>
+        <v>0.17131979695431473</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.310096153846154E-3</v>
+        <v>0.14624238320920785</v>
       </c>
       <c r="AE7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12434006019637836</v>
+        <v>7.0576373718702727E-3</v>
       </c>
       <c r="AF7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6864784546805348E-2</v>
+        <v>0.16714569975679858</v>
       </c>
       <c r="AG7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3157894736842104E-3</v>
+        <v>4.044035048303752E-2</v>
       </c>
       <c r="AH7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17063729418004944</v>
+        <v>4.424778761061946E-3</v>
       </c>
       <c r="AI7" s="4">
         <f ca="1">SUM(T7:AH7)</f>
-        <v>1.2569818727538142</v>
+        <v>1.2218937495696101</v>
       </c>
       <c r="AJ7" s="18">
         <f ca="1">+$AI7/$AJ$6</f>
-        <v>8.3798791516920948E-2</v>
+        <v>8.1459583304640676E-2</v>
       </c>
       <c r="AK7" s="58" t="s">
         <v>43</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">+AI24</f>
-        <v>3.0263094055831443</v>
+        <v>2.8440642509189118</v>
       </c>
       <c r="AM7" s="19">
         <f ca="1">IF(AJ7&lt;&gt;0,+AL7/AJ7,0)</f>
-        <v>36.113998194974698</v>
+        <v>34.913807995834517</v>
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.3">
@@ -6552,38 +6447,38 @@
       </c>
       <c r="C8" s="3">
         <f ca="1">IF(ISNUMBER(D7),1/D7,"")</f>
-        <v>3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="H8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" s="37">
         <f t="shared" ca="1" si="0"/>
@@ -6591,15 +6486,15 @@
       </c>
       <c r="M8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P8" s="37">
         <f t="shared" ca="1" si="0"/>
@@ -6607,87 +6502,87 @@
       </c>
       <c r="Q8" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="S8" s="35" t="s">
         <v>1</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" ref="T8:T21" ca="1" si="2">+IF(ISNUMBER(C8),C8/C$22,"")</f>
-        <v>9.1961852861035448E-2</v>
+        <v>1.0885905344461147E-2</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1142857142857141E-2</v>
+        <v>4.1120031329547675E-2</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7532505830942865E-3</v>
+        <v>5.7403189066059235E-2</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5411166796075389E-2</v>
+        <v>4.513087955069702E-3</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9168812924373667E-2</v>
+        <v>6.4669109721922835E-3</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1631608868675395E-2</v>
+        <v>8.087680729175023E-2</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9561091480636735E-2</v>
+        <v>0.13150684931506848</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.965387345089261E-2</v>
+        <v>0.1316761840779308</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12943432406519656</v>
+        <v>0.24665076160763441</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9995000833194469E-2</v>
+        <v>1.9035532994923859E-2</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10096153846153846</v>
+        <v>0.12186865267433987</v>
       </c>
       <c r="AE8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22381210835348106</v>
+        <v>0.14821038480927573</v>
       </c>
       <c r="AF8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2288261515601784E-2</v>
+        <v>0.16714569975679858</v>
       </c>
       <c r="AG8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2105263157894736E-3</v>
+        <v>6.740058413839586E-3</v>
       </c>
       <c r="AH8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.421977451500412E-2</v>
+        <v>0.18584070796460173</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" ref="AI8:AI20" ca="1" si="3">SUM(T8:AH8)</f>
-        <v>0.88720604816744664</v>
+        <v>1.3599407635734932</v>
       </c>
       <c r="AJ8" s="18">
         <f t="shared" ref="AJ8:AJ21" ca="1" si="4">+$AI8/$AJ$6</f>
-        <v>5.9147069877829778E-2</v>
+        <v>9.0662717571566215E-2</v>
       </c>
       <c r="AK8" s="58"/>
       <c r="AL8" s="19">
         <f t="shared" ref="AL8:AL21" ca="1" si="5">+AI25</f>
-        <v>2.1977295332337943</v>
+        <v>3.334110992578637</v>
       </c>
       <c r="AM8" s="19">
         <f t="shared" ref="AM8:AM21" ca="1" si="6">IF(AJ8&lt;&gt;0,+AL8/AJ8,0)</f>
-        <v>37.157031409557177</v>
+        <v>36.774884780469961</v>
       </c>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.3">
@@ -6696,38 +6591,38 @@
       </c>
       <c r="C9" s="3">
         <f ca="1">IF(ISNUMBER(E7),1/E7,"")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">IF(ISNUMBER(E8),1/E8,"")</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9" s="38">
         <v>1</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="37">
         <f ca="1">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
-        <v>0.14285714285714285</v>
+        <v>4</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>8</v>
       </c>
       <c r="J9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>9</v>
       </c>
       <c r="K9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L9" s="37">
         <f t="shared" ca="1" si="0"/>
@@ -6739,99 +6634,99 @@
       </c>
       <c r="N9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12261580381471393</v>
+        <v>6.5315432066766876E-2</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37028571428571427</v>
+        <v>4.1120031329547675E-2</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3779255247848576E-2</v>
+        <v>5.7403189066059235E-2</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12705583398037695</v>
+        <v>6.318323137097584E-3</v>
       </c>
       <c r="X9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17209084523530782</v>
+        <v>0.20694115111015307</v>
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1165434906196702E-3</v>
+        <v>8.087680729175023E-2</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9561091480636735E-3</v>
+        <v>0.13150684931506848</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1837637167658455E-3</v>
+        <v>0.1692979509573396</v>
       </c>
       <c r="AB9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8763183125599234E-3</v>
+        <v>1.0277115066984767E-2</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17997000499916679</v>
+        <v>0.11421319796954316</v>
       </c>
       <c r="AD9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5240384615384616E-2</v>
+        <v>2.4373730534867976E-2</v>
       </c>
       <c r="AE9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14920807223565405</v>
+        <v>0.14821038480927573</v>
       </c>
       <c r="AF9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1337295690936107</v>
+        <v>9.2858722087110317E-3</v>
       </c>
       <c r="AG9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12631578947368421</v>
+        <v>4.044035048303752E-2</v>
       </c>
       <c r="AH9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14219774515004122</v>
+        <v>3.0973451327433621E-2</v>
       </c>
       <c r="AI9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5986217527995121</v>
+        <v>1.1365538366736365</v>
       </c>
       <c r="AJ9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10657478351996748</v>
+        <v>7.5770255778242437E-2</v>
       </c>
       <c r="AK9" s="58"/>
       <c r="AL9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5697170224277346</v>
+        <v>2.6458933218032623</v>
       </c>
       <c r="AM9" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>33.494949785742939</v>
+        <v>34.9199470772149</v>
       </c>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.3">
@@ -6840,58 +6735,58 @@
       </c>
       <c r="C10" s="3">
         <f ca="1">IF(ISNUMBER(F7),1/F7,"")</f>
-        <v>0.25</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">IF(ISNUMBER(F8),1/F8,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">IF(ISNUMBER(F9),1/F9,"")</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="38">
+        <v>1</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="F10" s="38">
-        <v>1</v>
-      </c>
-      <c r="G10" s="37">
+      <c r="H10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="H10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I10" s="37">
+      <c r="M10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
-      </c>
-      <c r="J10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
       </c>
       <c r="Q10" s="37">
         <f t="shared" ca="1" si="0"/>
@@ -6902,80 +6797,80 @@
       </c>
       <c r="T10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6634877384196207E-3</v>
+        <v>4.6653880047690622E-3</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1142857142857141E-2</v>
+        <v>0.28784021930683373</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7558510495697157E-3</v>
+        <v>0.28701594533029617</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5411166796075389E-2</v>
+        <v>3.159161568548792E-2</v>
       </c>
       <c r="X10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22125965815968149</v>
+        <v>5.1735287777538268E-3</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9795338260375217E-3</v>
+        <v>0.16175361458350046</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11912218296127347</v>
+        <v>0.13150684931506848</v>
       </c>
       <c r="AA10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8269367254463058E-2</v>
+        <v>1.8810883439704402E-2</v>
       </c>
       <c r="AB10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3969319271332692E-3</v>
+        <v>0.15415672600477151</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17997000499916679</v>
+        <v>0.17131979695431473</v>
       </c>
       <c r="AD10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20192307692307693</v>
+        <v>4.8747461069735952E-2</v>
       </c>
       <c r="AE10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2893373464252244E-3</v>
+        <v>3.0247017308015454E-3</v>
       </c>
       <c r="AF10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2288261515601784E-2</v>
+        <v>2.7857616626133095E-2</v>
       </c>
       <c r="AG10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0526315789473683E-2</v>
+        <v>0.16176140193215008</v>
       </c>
       <c r="AH10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5549436287510301E-3</v>
+        <v>3.8716814159292026E-3</v>
       </c>
       <c r="AI10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99255297705800627</v>
+        <v>1.4990974301772504</v>
       </c>
       <c r="AJ10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>6.617019847053375E-2</v>
+        <v>9.9939828678483361E-2</v>
       </c>
       <c r="AK10" s="58"/>
       <c r="AL10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5841025527260477</v>
+        <v>3.2146724940617704</v>
       </c>
       <c r="AM10" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>39.052362127593959</v>
+        <v>32.16607969585079</v>
       </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.3">
@@ -6984,142 +6879,142 @@
       </c>
       <c r="C11" s="3">
         <f ca="1">IF(ISNUMBER(G7),1/G7,"")</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">IF(ISNUMBER(G8),1/G8,"")</f>
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">IF(ISNUMBER(G9),1/G9,"")</f>
-        <v>0.14285714285714285</v>
+        <v>0.125</v>
       </c>
       <c r="F11" s="3">
         <f ca="1">IF(ISNUMBER(G10),1/G10,"")</f>
-        <v>0.1111111111111111</v>
+        <v>5</v>
       </c>
       <c r="G11" s="39">
         <v>1</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.125</v>
+        <v>8</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="P11" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
       <c r="Q11" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S11" s="35" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6634877384196207E-3</v>
+        <v>1.0885905344461147E-2</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.057142857142857E-2</v>
+        <v>0.1644801253181907</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8256078925497971E-3</v>
+        <v>7.1753986332574043E-3</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8234629773417098E-3</v>
+        <v>0.15795807842743959</v>
       </c>
       <c r="X11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4584406462186834E-2</v>
+        <v>2.5867643888769134E-2</v>
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4769755542922122E-3</v>
+        <v>0.16175361458350046</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4890272870159184E-2</v>
+        <v>6.575342465753424E-2</v>
       </c>
       <c r="AA11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1768848610580335</v>
+        <v>2.6872690628149142E-3</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4381591562799617E-2</v>
+        <v>3.0831345200954301E-2</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14997500416597234</v>
+        <v>3.8071065989847719E-2</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22716346153846154</v>
+        <v>2.4373730534867976E-2</v>
       </c>
       <c r="AE11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2893373464252244E-3</v>
+        <v>6.3518736346832458E-2</v>
       </c>
       <c r="AF11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20059435364041606</v>
+        <v>3.9796595180190131E-3</v>
       </c>
       <c r="AG11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17684210526315788</v>
+        <v>2.022017524151876E-2</v>
       </c>
       <c r="AH11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4798496766694135E-3</v>
+        <v>4.424778761061946E-3</v>
       </c>
       <c r="AI11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0434462063183136</v>
+        <v>0.78198095150906977</v>
       </c>
       <c r="AJ11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9563080421220905E-2</v>
+        <v>5.2132063433937982E-2</v>
       </c>
       <c r="AK11" s="58"/>
       <c r="AL11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6059407018616532</v>
+        <v>2.1152064502369479</v>
       </c>
       <c r="AM11" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>37.461548368503323</v>
+        <v>40.574002080645599</v>
       </c>
     </row>
     <row r="12" spans="2:39" x14ac:dyDescent="0.3">
@@ -7128,142 +7023,142 @@
       </c>
       <c r="C12" s="3">
         <f ca="1">IF(ISNUMBER(H7),1/H7,"")</f>
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">IF(ISNUMBER(H8),1/H8,"")</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">IF(ISNUMBER(H9),1/H9,"")</f>
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="F12" s="3">
         <f ca="1">IF(ISNUMBER(H10),1/H10,"")</f>
-        <v>9</v>
+        <v>0.125</v>
       </c>
       <c r="G12" s="3">
         <f ca="1">IF(ISNUMBER(H11),1/H11,"")</f>
-        <v>8</v>
+        <v>0.125</v>
       </c>
       <c r="H12" s="38">
         <v>1</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="K12" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L12" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M12" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N12" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="J12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="M12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
       <c r="P12" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="S12" s="35" t="s">
         <v>21</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1307901907356969E-3</v>
+        <v>0.22860401223368407</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.057142857142857E-2</v>
+        <v>1.0280007832386919E-2</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23645478673494005</v>
+        <v>1.4350797266514809E-2</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22870050116467849</v>
+        <v>3.94895196068599E-3</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19667525169749467</v>
+        <v>3.2334554860961417E-3</v>
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5815804434337697E-2</v>
+        <v>2.0219201822937558E-2</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9561091480636735E-2</v>
+        <v>0.14794520547945206</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5512911502975365E-3</v>
+        <v>2.3513604299630502E-3</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11505273250239693</v>
+        <v>4.4044778858506146E-3</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3327778703549408E-3</v>
+        <v>0.13324873096446702</v>
       </c>
       <c r="AD12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10096153846153846</v>
+        <v>0.21936357481381177</v>
       </c>
       <c r="AE12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4604036117827024E-2</v>
+        <v>8.4691648462443272E-2</v>
       </c>
       <c r="AF12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6864784546805348E-2</v>
+        <v>5.571523325226619E-2</v>
       </c>
       <c r="AG12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3157894736842104E-3</v>
+        <v>0.20220175241518759</v>
       </c>
       <c r="AH12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.421977451500412E-2</v>
+        <v>3.8716814159292026E-3</v>
       </c>
       <c r="AI12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1718123789121606</v>
+        <v>1.1344300917216763</v>
       </c>
       <c r="AJ12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8120825260810711E-2</v>
+        <v>7.5628672781445083E-2</v>
       </c>
       <c r="AK12" s="58"/>
       <c r="AL12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0797125606728932</v>
+        <v>2.4092201090510392</v>
       </c>
       <c r="AM12" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>39.422427379525267</v>
+        <v>31.855908882776571</v>
       </c>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.3">
@@ -7272,142 +7167,142 @@
       </c>
       <c r="C13" s="3">
         <f ca="1">IF(ISNUMBER(I7),1/I7,"")</f>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">IF(ISNUMBER(I8),1/I8,"")</f>
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E13" s="3">
         <f ca="1">IF(ISNUMBER(I9),1/I9,"")</f>
-        <v>5</v>
+        <v>0.125</v>
       </c>
       <c r="F13" s="3">
         <f ca="1">IF(ISNUMBER(I10),1/I10,"")</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="G13" s="3">
         <f ca="1">IF(ISNUMBER(I11),1/I11,"")</f>
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="H13" s="3">
         <f ca="1">IF(ISNUMBER(I12),1/I12,"")</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I13" s="38">
+        <v>1</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N13" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I13" s="38">
-        <v>1</v>
-      </c>
-      <c r="J13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="M13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="O13" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P13" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S13" s="35" t="s">
         <v>22</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4059945504087202E-3</v>
+        <v>6.5315432066766887E-3</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.057142857142857E-2</v>
+        <v>5.1400039161934594E-3</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16889627623924289</v>
+        <v>7.1753986332574043E-3</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3527916990188471E-3</v>
+        <v>3.94895196068599E-3</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9168812924373667E-2</v>
+        <v>6.4669109721922835E-3</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7907902217168849E-2</v>
+        <v>2.2465779803263952E-3</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9780545740318368E-2</v>
+        <v>1.643835616438356E-2</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1768848610580335</v>
+        <v>2.6872690628149142E-3</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11505273250239693</v>
+        <v>9.2494035602862915E-2</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4987502082986173E-3</v>
+        <v>1.9035532994923859E-2</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4134615384615381E-3</v>
+        <v>7.3121191604603925E-2</v>
       </c>
       <c r="AE13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4868012039275675E-2</v>
+        <v>1.0586456057805409E-2</v>
       </c>
       <c r="AF13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4576523031203567E-2</v>
+        <v>1.3928808313066548E-2</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2105263157894736E-3</v>
+        <v>8.0880700966075043E-3</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1990768432100577</v>
+        <v>0.18584070796460173</v>
       </c>
       <c r="AI13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87666546184547678</v>
+        <v>0.45372981453100258</v>
       </c>
       <c r="AJ13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8444364123031785E-2</v>
+        <v>3.024865430206684E-2</v>
       </c>
       <c r="AK13" s="58"/>
       <c r="AL13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3888858938411524</v>
+        <v>1.1298046131448571</v>
       </c>
       <c r="AM13" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>40.874529643479157</v>
+        <v>37.350574404483822</v>
       </c>
     </row>
     <row r="14" spans="2:39" x14ac:dyDescent="0.3">
@@ -7416,142 +7311,142 @@
       </c>
       <c r="C14" s="3">
         <f ca="1">IF(ISNUMBER(J7),1/J7,"")</f>
-        <v>0.1111111111111111</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">IF(ISNUMBER(J8),1/J8,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E14" s="3">
         <f ca="1">IF(ISNUMBER(J9),1/J9,"")</f>
-        <v>9</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F14" s="3">
         <f ca="1">IF(ISNUMBER(J10),1/J10,"")</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
         <f ca="1">IF(ISNUMBER(J11),1/J11,"")</f>
-        <v>0.1111111111111111</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3">
         <f ca="1">IF(ISNUMBER(J12),1/J12,"")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <f ca="1">IF(ISNUMBER(J13),1/J13,"")</f>
+        <v>7</v>
+      </c>
+      <c r="J14" s="38">
+        <v>1</v>
+      </c>
+      <c r="K14" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O14" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J14" s="38">
-        <v>1</v>
-      </c>
-      <c r="K14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="O14" s="37">
+      <c r="P14" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q14" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
-      </c>
-      <c r="P14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
       </c>
       <c r="S14" s="35" t="s">
         <v>23</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4059945504087202E-3</v>
+        <v>5.4429526722305733E-3</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1142857142857141E-2</v>
+        <v>5.8742901899353824E-3</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30401329723063719</v>
+        <v>6.3781321184510258E-3</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0822333592150781E-3</v>
+        <v>3.159161568548792E-2</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.731600718020759E-3</v>
+        <v>0.18107350722138393</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10744741330301309</v>
+        <v>0.16175361458350046</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3089495267020408E-3</v>
+        <v>0.11506849315068493</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.965387345089261E-2</v>
+        <v>1.8810883439704402E-2</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11505273250239693</v>
+        <v>0.12332538080381721</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9995000833194469E-2</v>
+        <v>3.8071065989847717E-3</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12620192307692307</v>
+        <v>1.2186865267433988E-2</v>
       </c>
       <c r="AE14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1085015049094594E-3</v>
+        <v>4.2345824231221636E-2</v>
       </c>
       <c r="AF14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.429420505200594E-3</v>
+        <v>3.0952907362370103E-3</v>
       </c>
       <c r="AG14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22736842105263155</v>
+        <v>4.4933722758930573E-3</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1098872575020601E-3</v>
+        <v>1.0324483775811208E-2</v>
       </c>
       <c r="AI14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0030521060145048</v>
+        <v>0.72557181275077742</v>
       </c>
       <c r="AJ14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>6.687014040096699E-2</v>
+        <v>4.8371454183385162E-2</v>
       </c>
       <c r="AK14" s="58"/>
       <c r="AL14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7861696297663863</v>
+        <v>1.8538961710023345</v>
       </c>
       <c r="AM14" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>41.665377297848416</v>
+        <v>38.326244317027765</v>
       </c>
     </row>
     <row r="15" spans="2:39" x14ac:dyDescent="0.3">
@@ -7560,19 +7455,19 @@
       </c>
       <c r="C15" s="3">
         <f ca="1">IF(ISNUMBER(K7),1/K7,"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">IF(ISNUMBER(K8),1/K8,"")</f>
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="E15" s="3">
         <f ca="1">IF(ISNUMBER(K9),1/K9,"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <f ca="1">IF(ISNUMBER(K10),1/K10,"")</f>
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="G15" s="3">
         <f ca="1">IF(ISNUMBER(K11),1/K11,"")</f>
@@ -7580,122 +7475,122 @@
       </c>
       <c r="H15" s="3">
         <f ca="1">IF(ISNUMBER(K12),1/K12,"")</f>
-        <v>0.125</v>
+        <v>7</v>
       </c>
       <c r="I15" s="3">
         <f ca="1">IF(ISNUMBER(K13),1/K13,"")</f>
-        <v>0.125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J15" s="3">
         <f ca="1">IF(ISNUMBER(K14),1/K14,"")</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K15" s="38">
         <v>1</v>
       </c>
       <c r="L15" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="M15" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N15" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>6</v>
       </c>
       <c r="O15" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P15" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="S15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1839237057220709</v>
+        <v>0.26126172826706751</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5714285714285709E-3</v>
+        <v>5.1400039161934594E-3</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16889627623924289</v>
+        <v>0.1722095671981777</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15246700077645234</v>
+        <v>6.318323137097584E-3</v>
       </c>
       <c r="X15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4584406462186834E-2</v>
+        <v>2.5867643888769134E-2</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4769755542922122E-3</v>
+        <v>0.14153441276056292</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.722568217539796E-3</v>
+        <v>5.4794520547945197E-3</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4567341813615763E-3</v>
+        <v>4.7027208599261005E-3</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4381591562799617E-2</v>
+        <v>3.0831345200954301E-2</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9990001666388936E-3</v>
+        <v>3.8071065989847719E-2</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6057692307692305E-3</v>
+        <v>4.062288422477996E-3</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7631124488084078E-3</v>
+        <v>0.12703747269366492</v>
       </c>
       <c r="AF15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4576523031203564E-3</v>
+        <v>1.3928808313066548E-2</v>
       </c>
       <c r="AG15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5263157894736842E-2</v>
+        <v>0.2426421028982251</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0627927185726059E-3</v>
+        <v>3.0973451327433621E-2</v>
       </c>
       <c r="AI15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60563217205002118</v>
+        <v>1.110060386928259</v>
       </c>
       <c r="AJ15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0375478136668079E-2</v>
+        <v>7.4004025795217268E-2</v>
       </c>
       <c r="AK15" s="58"/>
       <c r="AL15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6936022220899032</v>
+        <v>2.5691088331021303</v>
       </c>
       <c r="AM15" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>41.946307517577424</v>
+        <v>34.715798302802149</v>
       </c>
     </row>
     <row r="16" spans="2:39" x14ac:dyDescent="0.3">
@@ -7704,7 +7599,7 @@
       </c>
       <c r="C16" s="3">
         <f ca="1">IF(ISNUMBER(L7),1/L7,"")</f>
-        <v>9</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">IF(ISNUMBER(L8),1/L8,"")</f>
@@ -7716,130 +7611,130 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">IF(ISNUMBER(L10),1/L10,"")</f>
-        <v>0.16666666666666666</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G16" s="3">
         <f ca="1">IF(ISNUMBER(L11),1/L11,"")</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="3">
         <f ca="1">IF(ISNUMBER(L12),1/L12,"")</f>
-        <v>9</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I16" s="3">
         <f ca="1">IF(ISNUMBER(L13),1/L13,"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <f ca="1">IF(ISNUMBER(L14),1/L14,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K16" s="3">
         <f ca="1">IF(ISNUMBER(L15),1/L15,"")</f>
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="38">
         <v>1</v>
       </c>
       <c r="M16" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N16" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O16" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="N16" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="O16" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="P16" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q16" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S16" s="35" t="s">
         <v>25</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27588555858310637</v>
+        <v>3.6286351148203818E-3</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1142857142857141E-2</v>
+        <v>4.1120031329547675E-2</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6298758746414291E-3</v>
+        <v>9.5671981776765391E-3</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2351944660125648E-3</v>
+        <v>3.5101795206097684E-3</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9168812924373665E-3</v>
+        <v>1.2933821944384567E-2</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32234223990903926</v>
+        <v>2.888457403276794E-3</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11912218296127347</v>
+        <v>1.643835616438356E-2</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.965387345089261E-2</v>
+        <v>9.4054417198522006E-2</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1907957813998086E-2</v>
+        <v>1.5415672600477151E-2</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9995000833194469E-2</v>
+        <v>1.9035532994923859E-2</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15144230769230768</v>
+        <v>6.093432633716994E-3</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5525731484679531E-3</v>
+        <v>3.0247017308015454E-3</v>
       </c>
       <c r="AF16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2288261515601784E-2</v>
+        <v>0.16714569975679858</v>
       </c>
       <c r="AG16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3157894736842104E-3</v>
+        <v>1.3480116827679172E-2</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6879098060016481E-2</v>
+        <v>0.18584070796460173</v>
       </c>
       <c r="AI16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1353096522175308</v>
+        <v>0.59417696136222031</v>
       </c>
       <c r="AJ16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>7.568731014783539E-2</v>
+        <v>3.9611797424148019E-2</v>
       </c>
       <c r="AK16" s="58"/>
       <c r="AL16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7402457448920128</v>
+        <v>1.5039485683029907</v>
       </c>
       <c r="AM16" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>36.204824025846058</v>
+        <v>37.967188214139412</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.3">
@@ -7848,11 +7743,11 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">IF(ISNUMBER(M7),1/M7,"")</f>
-        <v>4</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">IF(ISNUMBER(M8),1/M8,"")</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">IF(ISNUMBER(M9),1/M9,"")</f>
@@ -7860,130 +7755,130 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">IF(ISNUMBER(M10),1/M10,"")</f>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="3">
         <f ca="1">IF(ISNUMBER(M11),1/M11,"")</f>
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <f ca="1">IF(ISNUMBER(M12),1/M12,"")</f>
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I17" s="3">
         <f ca="1">IF(ISNUMBER(M13),1/M13,"")</f>
-        <v>3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J17" s="3">
         <f ca="1">IF(ISNUMBER(M14),1/M14,"")</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="K17" s="3">
         <f ca="1">IF(ISNUMBER(M15),1/M15,"")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L17" s="3">
         <f ca="1">IF(ISNUMBER(M16),1/M16,"")</f>
-        <v>0.16666666666666666</v>
+        <v>4</v>
       </c>
       <c r="M17" s="38">
         <v>1</v>
       </c>
       <c r="N17" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O17" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P17" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="Q17" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S17" s="35" t="s">
         <v>26</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12261580381471393</v>
+        <v>5.4429526722305733E-3</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0285714285714285E-2</v>
+        <v>8.2240062659095364E-3</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3779255247848576E-2</v>
+        <v>5.7403189066059235E-2</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1763958495094236E-3</v>
+        <v>1.579580784274396E-2</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.731600718020759E-3</v>
+        <v>2.5867643888769134E-2</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9539511085844244E-3</v>
+        <v>2.2465779803263952E-3</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9341637220955103E-2</v>
+        <v>5.4794520547945197E-3</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9307746901785226E-3</v>
+        <v>3.7621766879408804E-2</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10067114093959732</v>
+        <v>0.18498807120572583</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9991668055324109E-3</v>
+        <v>7.6142131979695438E-2</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5240384615384616E-2</v>
+        <v>2.4373730534867976E-2</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.973602407855135E-2</v>
+        <v>0.19055620904049739</v>
       </c>
       <c r="AF17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17830609212481427</v>
+        <v>3.9796595180190131E-3</v>
       </c>
       <c r="AG17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17684210526315788</v>
+        <v>1.011008762075938E-2</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22751639224006592</v>
+        <v>3.0973451327433621E-2</v>
       </c>
       <c r="AI17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.038126439002629</v>
+        <v>0.67920473787724078</v>
       </c>
       <c r="AJ17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9208429266841939E-2</v>
+        <v>4.5280315858482717E-2</v>
       </c>
       <c r="AK17" s="58"/>
       <c r="AL17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4193746461992358</v>
+        <v>1.6160375780767879</v>
       </c>
       <c r="AM17" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>34.957803143761979</v>
+        <v>35.68962688174453</v>
       </c>
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.3">
@@ -7992,39 +7887,39 @@
       </c>
       <c r="C18" s="3">
         <f ca="1">IF(ISNUMBER(N7),1/N7,"")</f>
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">IF(ISNUMBER(N8),1/N8,"")</f>
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E18" s="3">
         <f ca="1">IF(ISNUMBER(N9),1/N9,"")</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F18" s="3">
         <f ca="1">IF(ISNUMBER(N10),1/N10,"")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" s="3">
         <f ca="1">IF(ISNUMBER(N11),1/N11,"")</f>
-        <v>3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H18" s="3">
         <f ca="1">IF(ISNUMBER(N12),1/N12,"")</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="I18" s="3">
         <f ca="1">IF(ISNUMBER(N13),1/N13,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
         <f ca="1">IF(ISNUMBER(N14),1/N14,"")</f>
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="3">
         <f ca="1">IF(ISNUMBER(N15),1/N15,"")</f>
-        <v>9</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L18" s="3">
         <f ca="1">IF(ISNUMBER(N16),1/N16,"")</f>
@@ -8032,102 +7927,102 @@
       </c>
       <c r="M18" s="3">
         <f ca="1">IF(ISNUMBER(N17),1/N17,"")</f>
-        <v>0.5</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N18" s="38">
         <v>1</v>
       </c>
       <c r="O18" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P18" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>9</v>
       </c>
       <c r="S18" s="35" t="s">
         <v>27</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1307901907356969E-3</v>
+        <v>9.7973148100150315E-2</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5714285714285709E-3</v>
+        <v>5.8742901899353824E-3</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6298758746414291E-3</v>
+        <v>8.2004555808656045E-3</v>
       </c>
       <c r="W18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6233500388226169E-2</v>
+        <v>0.22114130979841543</v>
       </c>
       <c r="X18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3753219386560501E-2</v>
+        <v>8.6225479629230429E-3</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1938601478112565E-2</v>
+        <v>5.0548004557343894E-3</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9780545740318368E-2</v>
+        <v>3.287671232876712E-2</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15723098760714088</v>
+        <v>9.4054417198522009E-3</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12943432406519656</v>
+        <v>5.1385575334923833E-3</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20996500583236127</v>
+        <v>0.13324873096446702</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2620192307692308E-2</v>
+        <v>2.7081922816519972E-3</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4868012039275675E-2</v>
+        <v>2.1172912115610818E-2</v>
       </c>
       <c r="AF18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.429420505200594E-3</v>
+        <v>4.6429361043555158E-3</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15157894736842104</v>
+        <v>4.044035048303752E-2</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1599498922231378E-3</v>
+        <v>0.27876106194690259</v>
       </c>
       <c r="AI18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90432480124753478</v>
+        <v>0.87526144756616131</v>
       </c>
       <c r="AJ18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0288320083168985E-2</v>
+        <v>5.8350763171077423E-2</v>
       </c>
       <c r="AK18" s="58"/>
       <c r="AL18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5066358371615753</v>
+        <v>2.3437424864331717</v>
       </c>
       <c r="AM18" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>41.577470291154562</v>
+        <v>40.166441003720905</v>
       </c>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.3">
@@ -8136,15 +8031,15 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">IF(ISNUMBER(O7),1/O7,"")</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">IF(ISNUMBER(O8),1/O8,"")</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E19" s="3">
         <f ca="1">IF(ISNUMBER(O9),1/O9,"")</f>
-        <v>0.16666666666666666</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
         <f ca="1">IF(ISNUMBER(O10),1/O10,"")</f>
@@ -8152,126 +8047,126 @@
       </c>
       <c r="G19" s="3">
         <f ca="1">IF(ISNUMBER(O11),1/O11,"")</f>
-        <v>0.1111111111111111</v>
+        <v>7</v>
       </c>
       <c r="H19" s="3">
         <f ca="1">IF(ISNUMBER(O12),1/O12,"")</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="3">
         <f ca="1">IF(ISNUMBER(O13),1/O13,"")</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
         <f ca="1">IF(ISNUMBER(O14),1/O14,"")</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K19" s="3">
         <f ca="1">IF(ISNUMBER(O15),1/O15,"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19" s="3">
         <f ca="1">IF(ISNUMBER(O16),1/O16,"")</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M19" s="3">
         <f ca="1">IF(ISNUMBER(O17),1/O17,"")</f>
-        <v>0.125</v>
+        <v>7</v>
       </c>
       <c r="N19" s="3">
         <f ca="1">IF(ISNUMBER(O18),1/O18,"")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O19" s="38">
         <v>1</v>
       </c>
       <c r="P19" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S19" s="35" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.021798365122616E-2</v>
+        <v>5.4429526722305733E-3</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1142857142857141E-2</v>
+        <v>6.8533385549246128E-3</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6298758746414291E-3</v>
+        <v>0.1722095671981777</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5411166796075389E-2</v>
+        <v>3.159161568548792E-2</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.731600718020759E-3</v>
+        <v>0.18107350722138393</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1938601478112565E-2</v>
+        <v>1.0109600911468779E-2</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4890272870159184E-2</v>
+        <v>3.287671232876712E-2</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8961620352677838E-2</v>
+        <v>0.1692979509573396</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1907957813998086E-2</v>
+        <v>6.1662690401908603E-2</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9995000833194469E-2</v>
+        <v>3.1725888324873096E-3</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.155048076923077E-3</v>
+        <v>0.17061611374407581</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4604036117827024E-2</v>
+        <v>0.12703747269366492</v>
       </c>
       <c r="AF19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2288261515601784E-2</v>
+        <v>2.7857616626133095E-2</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3157894736842104E-3</v>
+        <v>6.740058413839586E-3</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6879098060016488E-3</v>
+        <v>5.1622418879056038E-3</v>
       </c>
       <c r="AI19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38487798252100075</v>
+        <v>1.0117040281297951</v>
       </c>
       <c r="AJ19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5658532168066718E-2</v>
+        <v>6.7446935208653011E-2</v>
       </c>
       <c r="AK19" s="58"/>
       <c r="AL19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95899543160479184</v>
+        <v>2.1704893879991984</v>
       </c>
       <c r="AM19" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>37.375303673773978</v>
+        <v>32.18069703663479</v>
       </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.3">
@@ -8280,7 +8175,7 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">IF(ISNUMBER(P7),1/P7,"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">IF(ISNUMBER(P8),1/P8,"")</f>
@@ -8288,134 +8183,134 @@
       </c>
       <c r="E20" s="3">
         <f ca="1">IF(ISNUMBER(P9),1/P9,"")</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <f ca="1">IF(ISNUMBER(P10),1/P10,"")</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G20" s="3">
         <f ca="1">IF(ISNUMBER(P11),1/P11,"")</f>
-        <v>0.14285714285714285</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
         <f ca="1">IF(ISNUMBER(P12),1/P12,"")</f>
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="3">
         <f ca="1">IF(ISNUMBER(P13),1/P13,"")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3">
         <f ca="1">IF(ISNUMBER(P14),1/P14,"")</f>
-        <v>0.1111111111111111</v>
+        <v>9</v>
       </c>
       <c r="K20" s="3">
         <f ca="1">IF(ISNUMBER(P15),1/P15,"")</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L20" s="3">
         <f ca="1">IF(ISNUMBER(P16),1/P16,"")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" s="3">
         <f ca="1">IF(ISNUMBER(P17),1/P17,"")</f>
-        <v>0.14285714285714285</v>
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <f ca="1">IF(ISNUMBER(P18),1/P18,"")</f>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
         <f ca="1">IF(ISNUMBER(P19),1/P19,"")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P20" s="38">
         <v>1</v>
       </c>
       <c r="Q20" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="S20" s="35" t="s">
         <v>29</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12261580381471393</v>
+        <v>3.2657716033383438E-2</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24685714285714283</v>
+        <v>0.24672018797728607</v>
       </c>
       <c r="V20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7558510495697157E-3</v>
+        <v>5.7403189066059235E-2</v>
       </c>
       <c r="W20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2705583398037694E-2</v>
+        <v>7.89790392137198E-3</v>
       </c>
       <c r="X20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.51205806602669E-3</v>
+        <v>5.1735287777538268E-2</v>
       </c>
       <c r="Y20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14326321773735079</v>
+        <v>4.043840364587512E-3</v>
       </c>
       <c r="Z20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17868327444191021</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="AA20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1837637167658455E-3</v>
+        <v>0.1692979509573396</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4381591562799617E-2</v>
+        <v>5.1385575334923833E-3</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11998000333277788</v>
+        <v>5.7106598984771578E-2</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6057692307692305E-3</v>
+        <v>9.7494922139471904E-2</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1446686732126122E-3</v>
+        <v>2.1172912115610818E-2</v>
       </c>
       <c r="AF20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9153046062407135E-2</v>
+        <v>0.16714569975679858</v>
       </c>
       <c r="AG20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5263157894736842E-2</v>
+        <v>4.044035048303752E-2</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11375819612003296</v>
+        <v>7.7433628318584052E-3</v>
       </c>
       <c r="AI20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0868631279582541</v>
+        <v>1.0481902607645248</v>
       </c>
       <c r="AJ20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2457541863883604E-2</v>
+        <v>6.9879350717634986E-2</v>
       </c>
       <c r="AK20" s="58"/>
       <c r="AL20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2336866256198395</v>
+        <v>2.3001731028608301</v>
       </c>
       <c r="AM20" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>30.827524204671075</v>
+        <v>32.916349096534333</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.3">
@@ -8424,15 +8319,15 @@
       </c>
       <c r="C21" s="3">
         <f ca="1">IF(ISNUMBER(Q7),1/Q7,"")</f>
-        <v>0.16666666666666666</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">IF(ISNUMBER(Q8),1/Q8,"")</f>
-        <v>2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E21" s="3">
         <f ca="1">IF(ISNUMBER(Q9),1/Q9,"")</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <f ca="1">IF(ISNUMBER(Q10),1/Q10,"")</f>
@@ -8440,43 +8335,43 @@
       </c>
       <c r="G21" s="3">
         <f ca="1">IF(ISNUMBER(Q11),1/Q11,"")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H21" s="3">
         <f ca="1">IF(ISNUMBER(Q12),1/Q12,"")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I21" s="3">
         <f ca="1">IF(ISNUMBER(Q13),1/Q13,"")</f>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J21" s="3">
         <f ca="1">IF(ISNUMBER(Q14),1/Q14,"")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21" s="3">
         <f ca="1">IF(ISNUMBER(Q15),1/Q15,"")</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
         <f ca="1">IF(ISNUMBER(Q16),1/Q16,"")</f>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M21" s="3">
         <f ca="1">IF(ISNUMBER(Q17),1/Q17,"")</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3">
         <f ca="1">IF(ISNUMBER(Q18),1/Q18,"")</f>
-        <v>9</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O21" s="3">
         <f ca="1">IF(ISNUMBER(Q19),1/Q19,"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21" s="3">
         <f ca="1">IF(ISNUMBER(Q20),1/Q20,"")</f>
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="38">
         <v>1</v>
@@ -8486,80 +8381,80 @@
       </c>
       <c r="T21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1089918256130799E-3</v>
+        <v>0.22860401223368407</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2285714285714281E-2</v>
+        <v>6.8533385549246128E-3</v>
       </c>
       <c r="V21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7558510495697157E-3</v>
+        <v>5.7403189066059235E-2</v>
       </c>
       <c r="W21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20328933436860311</v>
+        <v>0.25273292548390336</v>
       </c>
       <c r="X21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3753219386560501E-2</v>
+        <v>0.18107350722138393</v>
       </c>
       <c r="Y21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1631608868675395E-2</v>
+        <v>0.16175361458350046</v>
       </c>
       <c r="Z21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2543636771883381E-3</v>
+        <v>2.7397260273972599E-3</v>
       </c>
       <c r="AA21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8615493803570441E-2</v>
+        <v>5.6432650319113202E-2</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10067114093959732</v>
+        <v>3.0831345200954301E-2</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4997500416597235E-2</v>
+        <v>3.1725888324873096E-3</v>
       </c>
       <c r="AD21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.155048076923077E-3</v>
+        <v>2.4373730534867976E-2</v>
       </c>
       <c r="AE21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22381210835348106</v>
+        <v>2.3525457906234241E-3</v>
       </c>
       <c r="AF21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11144130757800891</v>
+        <v>0.16714569975679858</v>
       </c>
       <c r="AG21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3157894736842104E-3</v>
+        <v>0.16176140193215008</v>
       </c>
       <c r="AH21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.843954903000824E-2</v>
+        <v>3.0973451327433621E-2</v>
       </c>
       <c r="AI21" s="4">
         <f t="shared" ref="AI21" ca="1" si="7">SUM(T21:AH21)</f>
-        <v>1.0145270211337949</v>
+        <v>1.3682037268652814</v>
       </c>
       <c r="AJ21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7635134742252995E-2</v>
+        <v>9.1213581791018752E-2</v>
       </c>
       <c r="AK21" s="58"/>
       <c r="AL21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4094579152266422</v>
+        <v>3.4885083744248035</v>
       </c>
       <c r="AM21" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>35.62435299949815</v>
+        <v>38.245492676928251</v>
       </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.3">
@@ -8568,63 +8463,63 @@
       </c>
       <c r="C22" s="4">
         <f ca="1">SUM(C7:C21)</f>
-        <v>32.622222222222213</v>
+        <v>30.620634920634924</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ref="D22:Q22" ca="1" si="8">SUM(D7:D21)</f>
-        <v>24.305555555555557</v>
+        <v>24.31904761904762</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>29.603968253968258</v>
+        <v>17.420634920634917</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>39.352777777777774</v>
+        <v>31.653968253968252</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>40.676190476190492</v>
+        <v>38.658333333333331</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>27.920634920634917</v>
+        <v>49.457936507936516</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>33.578968253968256</v>
+        <v>60.833333333333336</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>50.88055555555556</v>
+        <v>53.160714285714285</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>69.533333333333331</v>
+        <v>32.43452380952381</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>33.338888888888889</v>
+        <v>52.533333333333331</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>39.61904761904762</v>
+        <v>41.027777777777779</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>40.212301587301582</v>
+        <v>47.230158730158735</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>44.866666666666667</v>
+        <v>35.896825396825399</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>39.583333333333336</v>
+        <v>24.727777777777778</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>35.162301587301585</v>
+        <v>32.285714285714292</v>
       </c>
       <c r="S22">
         <f ca="1">+AJ6</f>
@@ -8632,63 +8527,63 @@
       </c>
       <c r="T22" s="20">
         <f ca="1">+AJ7</f>
-        <v>8.3798791516920948E-2</v>
+        <v>8.1459583304640676E-2</v>
       </c>
       <c r="U22" s="20">
         <f ca="1">+AJ8</f>
-        <v>5.9147069877829778E-2</v>
+        <v>9.0662717571566215E-2</v>
       </c>
       <c r="V22" s="20">
         <f ca="1">+AJ9</f>
-        <v>0.10657478351996748</v>
+        <v>7.5770255778242437E-2</v>
       </c>
       <c r="W22" s="20">
         <f ca="1">+AJ10</f>
-        <v>6.617019847053375E-2</v>
+        <v>9.9939828678483361E-2</v>
       </c>
       <c r="X22" s="20">
         <f ca="1">+AJ11</f>
-        <v>6.9563080421220905E-2</v>
+        <v>5.2132063433937982E-2</v>
       </c>
       <c r="Y22" s="20">
         <f ca="1">+AJ12</f>
-        <v>7.8120825260810711E-2</v>
+        <v>7.5628672781445083E-2</v>
       </c>
       <c r="Z22" s="20">
         <f ca="1">+AJ13</f>
-        <v>5.8444364123031785E-2</v>
+        <v>3.024865430206684E-2</v>
       </c>
       <c r="AA22" s="20">
         <f ca="1">+AJ14</f>
-        <v>6.687014040096699E-2</v>
+        <v>4.8371454183385162E-2</v>
       </c>
       <c r="AB22" s="20">
         <f ca="1">+AJ15</f>
-        <v>4.0375478136668079E-2</v>
+        <v>7.4004025795217268E-2</v>
       </c>
       <c r="AC22" s="20">
         <f ca="1">+AJ16</f>
-        <v>7.568731014783539E-2</v>
+        <v>3.9611797424148019E-2</v>
       </c>
       <c r="AD22" s="20">
         <f ca="1">+AJ17</f>
-        <v>6.9208429266841939E-2</v>
+        <v>4.5280315858482717E-2</v>
       </c>
       <c r="AE22" s="20">
         <f ca="1">+AJ18</f>
-        <v>6.0288320083168985E-2</v>
+        <v>5.8350763171077423E-2</v>
       </c>
       <c r="AF22" s="20">
         <f ca="1">+AJ19</f>
-        <v>2.5658532168066718E-2</v>
+        <v>6.7446935208653011E-2</v>
       </c>
       <c r="AG22" s="20">
         <f ca="1">+AJ20</f>
-        <v>7.2457541863883604E-2</v>
+        <v>6.9879350717634986E-2</v>
       </c>
       <c r="AH22" s="20">
         <f ca="1">+AJ21</f>
-        <v>6.7635134742252995E-2</v>
+        <v>9.1213581791018752E-2</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.3">
@@ -8697,67 +8592,67 @@
       </c>
       <c r="T24" s="8">
         <f ca="1">+IF(ISNUMBER(C7),C7*T$22,"")</f>
-        <v>8.3798791516920948E-2</v>
+        <v>8.1459583304640676E-2</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" ref="U24:AH38" ca="1" si="9">+IF(ISNUMBER(D7),D7*U$22,"")</f>
-        <v>1.971568995927659E-2</v>
+        <v>0.27198815271469867</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.664369587999187E-2</v>
+        <v>3.7885127889121219E-2</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.264680793882135</v>
+        <v>0.6995788007493835</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27825232168488362</v>
+        <v>0.15639619030181395</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.39060412630405356</v>
+        <v>1.0804096111635011E-2</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52599927710728611</v>
+        <v>0.1512432715103342</v>
       </c>
       <c r="AA24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60183126360870287</v>
+        <v>0.29022872510031095</v>
       </c>
       <c r="AB24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7292463561113465E-3</v>
+        <v>9.2505032244021585E-3</v>
       </c>
       <c r="AC24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4097011275372658E-3</v>
+        <v>0.35650617681733215</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7302107316710485E-2</v>
+        <v>0.2716818951508963</v>
       </c>
       <c r="AE24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30144160041584495</v>
+        <v>1.9450254390359141E-2</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6975596504200161E-2</v>
+        <v>0.40468161125191804</v>
       </c>
       <c r="AG24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8114385465970901E-2</v>
+        <v>6.9879350717634986E-2</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40581080845351797</v>
+        <v>1.3030511684431249E-2</v>
       </c>
       <c r="AI24" s="8">
         <f ca="1">+SUM(T24:AH24)</f>
-        <v>3.0263094055831443</v>
+        <v>2.8440642509189118</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.3">
@@ -8766,67 +8661,67 @@
       </c>
       <c r="T25" s="8">
         <f t="shared" ref="T25:T38" ca="1" si="10">+IF(ISNUMBER(C8),C8*T$22,"")</f>
-        <v>0.25139637455076286</v>
+        <v>2.7153194434880224E-2</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9147069877829778E-2</v>
+        <v>9.0662717571566215E-2</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.184164261332972E-2</v>
+        <v>7.5770255778242437E-2</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.617019847053375E-2</v>
+        <v>1.427711838264048E-2</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13912616084244181</v>
+        <v>1.3033015858484496E-2</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15624165052162142</v>
+        <v>0.30251469112578033</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11688872824606357</v>
+        <v>0.24198923441653472</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.687014040096699E-2</v>
+        <v>0.33860017928369612</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36337930323001272</v>
+        <v>0.59203220636173814</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.568731014783539E-2</v>
+        <v>3.9611797424148019E-2</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27683371706736776</v>
+        <v>0.22640157929241359</v>
       </c>
       <c r="AE25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54259488074852091</v>
+        <v>0.40845534219754198</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5658532168066718E-2</v>
+        <v>0.40468161125191804</v>
       </c>
       <c r="AG25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2076256977313933E-2</v>
+        <v>1.1646558452939163E-2</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3817567371126497E-2</v>
+        <v>0.54728149074611254</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" ref="AI25:AI38" ca="1" si="11">+SUM(T25:AH25)</f>
-        <v>2.1977295332337943</v>
+        <v>3.334110992578637</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.3">
@@ -8835,67 +8730,67 @@
       </c>
       <c r="T26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33519516606768379</v>
+        <v>0.16291916660928135</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53232362890046803</v>
+        <v>9.0662717571566215E-2</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10657478351996748</v>
+        <v>7.5770255778242437E-2</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33085099235266874</v>
+        <v>1.9987965735696674E-2</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48694156294854635</v>
+        <v>0.41705650747150386</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1160117894401529E-2</v>
+        <v>0.30251469112578033</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1688872824606358E-2</v>
+        <v>0.24198923441653472</v>
       </c>
       <c r="AA26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4300156001074428E-3</v>
+        <v>0.43534308765046648</v>
       </c>
       <c r="AB26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0750956273336165E-3</v>
+        <v>2.4668008598405754E-2</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.45412386088701234</v>
+        <v>0.2376707845448881</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9208429266841939E-2</v>
+        <v>4.5280315858482717E-2</v>
       </c>
       <c r="AE26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36172992049901392</v>
+        <v>0.40845534219754198</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15395119300840032</v>
+        <v>2.2482311736217668E-2</v>
       </c>
       <c r="AG26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36228770931941801</v>
+        <v>6.9879350717634986E-2</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.338175673711265</v>
+        <v>9.1213581791018752E-2</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5697170224277346</v>
+        <v>2.6458933218032623</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.3">
@@ -8904,67 +8799,67 @@
       </c>
       <c r="T27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>2.0949697879230237E-2</v>
+        <v>1.1637083329234382E-2</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9147069877829778E-2</v>
+        <v>0.63463902300096353</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1314956703993498E-2</v>
+        <v>0.37885127889121217</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.617019847053375E-2</v>
+        <v>9.9939828678483361E-2</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.62606772379098818</v>
+        <v>1.0426412686787597E-2</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.680091695645634E-3</v>
+        <v>0.60502938225156067</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23377745649212714</v>
+        <v>0.24198923441653472</v>
       </c>
       <c r="AA27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33435070200483497</v>
+        <v>4.8371454183385162E-2</v>
       </c>
       <c r="AB27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7292463561113465E-3</v>
+        <v>0.37002012897608633</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.45412386088701234</v>
+        <v>0.35650617681733215</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.55366743413473551</v>
+        <v>9.0560631716965434E-2</v>
       </c>
       <c r="AE27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0096106694389659E-2</v>
+        <v>8.3358233101539173E-3</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5658532168066718E-2</v>
+        <v>6.7446935208653011E-2</v>
       </c>
       <c r="AG27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14491508372776721</v>
+        <v>0.27951740287053994</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4543918427816243E-3</v>
+        <v>1.1401697723877344E-2</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5841025527260477</v>
+        <v>3.2146724940617704</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.3">
@@ -8973,67 +8868,67 @@
       </c>
       <c r="T28" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>2.0949697879230237E-2</v>
+        <v>2.7153194434880224E-2</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9573534938914889E-2</v>
+        <v>0.36265087028626486</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5224969074281067E-2</v>
+        <v>9.4712819722803047E-3</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3522442745037496E-3</v>
+        <v>0.49969914339241683</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9563080421220905E-2</v>
+        <v>5.2132063433937982E-2</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.7651031576013389E-3</v>
+        <v>0.60502938225156067</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9222182061515892E-2</v>
+        <v>0.12099461720826736</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60183126360870287</v>
+        <v>6.9102077404835944E-3</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0375478136668079E-2</v>
+        <v>7.4004025795217268E-2</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37843655073917692</v>
+        <v>7.9223594848296039E-2</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.62287586340157741</v>
+        <v>4.5280315858482717E-2</v>
       </c>
       <c r="AE28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0096106694389659E-2</v>
+        <v>0.17505228951323226</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23092678951260046</v>
+        <v>9.6352764583790013E-3</v>
       </c>
       <c r="AG28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50720279304718519</v>
+        <v>3.4939675358817493E-2</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2545044914084329E-2</v>
+        <v>1.3030511684431249E-2</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.6059407018616532</v>
+        <v>2.1152064502369479</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.3">
@@ -9042,67 +8937,67 @@
       </c>
       <c r="T29" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6759758303384189E-2</v>
+        <v>0.57021708313248476</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9573534938914889E-2</v>
+        <v>2.2665679392891554E-2</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74602348463977231</v>
+        <v>1.8942563944560609E-2</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59553178623480374</v>
+        <v>1.249247858481042E-2</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.55650464336976724</v>
+        <v>6.5165079292422478E-3</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8120825260810711E-2</v>
+        <v>7.5628672781445083E-2</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11688872824606357</v>
+        <v>0.27223788871860155</v>
       </c>
       <c r="AA29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.229004680032233E-2</v>
+        <v>6.0464317729231453E-3</v>
       </c>
       <c r="AB29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32300382509334463</v>
+        <v>1.0572003685031037E-2</v>
       </c>
       <c r="AC29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4097011275372658E-3</v>
+        <v>0.27728258196903616</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27683371706736776</v>
+        <v>0.40752284272634443</v>
       </c>
       <c r="AE29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18086496024950696</v>
+        <v>0.23340305268430969</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6975596504200161E-2</v>
+        <v>0.13489387041730602</v>
       </c>
       <c r="AG29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8114385465970901E-2</v>
+        <v>0.3493967535881749</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3817567371126497E-2</v>
+        <v>1.1401697723877344E-2</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0797125606728932</v>
+        <v>2.4092201090510392</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.3">
@@ -9111,67 +9006,67 @@
       </c>
       <c r="T30" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>9.3109768352134387E-3</v>
+        <v>1.6291916660928135E-2</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9573534938914889E-2</v>
+        <v>1.1332839696445777E-2</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53287391759983738</v>
+        <v>9.4712819722803047E-3</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6542549617633438E-2</v>
+        <v>1.249247858481042E-2</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13912616084244181</v>
+        <v>1.3033015858484496E-2</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9060412630405356E-2</v>
+        <v>8.4031858646050096E-3</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8444364123031785E-2</v>
+        <v>3.024865430206684E-2</v>
       </c>
       <c r="AA30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60183126360870287</v>
+        <v>6.9102077404835944E-3</v>
       </c>
       <c r="AB30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32300382509334463</v>
+        <v>0.22201207738565182</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8921827536958848E-2</v>
+        <v>3.9611797424148019E-2</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3069476422280646E-2</v>
+        <v>0.13584094757544815</v>
       </c>
       <c r="AE30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0288320083168985E-2</v>
+        <v>2.9175381585538711E-2</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1317064336133436E-2</v>
+        <v>3.3723467604326506E-2</v>
       </c>
       <c r="AG30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2076256977313933E-2</v>
+        <v>1.3975870143526997E-2</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47344594319577094</v>
+        <v>0.54728149074611254</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3888858938411524</v>
+        <v>1.1298046131448571</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.3">
@@ -9180,67 +9075,67 @@
       </c>
       <c r="T31" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>9.3109768352134387E-3</v>
+        <v>1.3576597217440112E-2</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9147069877829778E-2</v>
+        <v>1.295181679593803E-2</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.95917305167970734</v>
+        <v>8.4189173086936034E-3</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3234039694106751E-2</v>
+        <v>9.9939828678483361E-2</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7292311579134337E-3</v>
+        <v>0.36492444403756585</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23436247578243213</v>
+        <v>0.60502938225156067</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4938182358924203E-3</v>
+        <v>0.21174058011446789</v>
       </c>
       <c r="AA31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.687014040096699E-2</v>
+        <v>4.8371454183385162E-2</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32300382509334463</v>
+        <v>0.29601610318086907</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.568731014783539E-2</v>
+        <v>7.9223594848296039E-3</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34604214633420971</v>
+        <v>2.2640157929241359E-2</v>
       </c>
       <c r="AE31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5360400103961231E-3</v>
+        <v>0.11670152634215485</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.5528440560222393E-3</v>
+        <v>7.4941039120725566E-3</v>
       </c>
       <c r="AG31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.65211787677495248</v>
+        <v>7.7643723019594421E-3</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6908783685563249E-2</v>
+        <v>3.0404527263672917E-2</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.7861696297663863</v>
+        <v>1.8538961710023345</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.3">
@@ -9249,67 +9144,67 @@
       </c>
       <c r="T32" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.50279274910152572</v>
+        <v>0.65167666643712541</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5718966530921973E-3</v>
+        <v>1.1332839696445777E-2</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53287391759983738</v>
+        <v>0.22731076733472733</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.39702119082320253</v>
+        <v>1.9987965735696674E-2</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9563080421220905E-2</v>
+        <v>5.2132063433937982E-2</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.7651031576013389E-3</v>
+        <v>0.52940070947011564</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3055455153789731E-3</v>
+        <v>1.0082884767355613E-2</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3587675501208738E-3</v>
+        <v>1.2092863545846291E-2</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0375478136668079E-2</v>
+        <v>7.4004025795217268E-2</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5137462029567079E-2</v>
+        <v>7.9223594848296039E-2</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8869184666917059E-3</v>
+        <v>7.5467193097471189E-3</v>
       </c>
       <c r="AE32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6987022314632201E-3</v>
+        <v>0.35010457902646452</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1317064336133438E-3</v>
+        <v>3.3723467604326506E-2</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2457541863883604E-2</v>
+        <v>0.41927610430580992</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6621621060361419E-3</v>
+        <v>9.1213581791018752E-2</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6936022220899032</v>
+        <v>2.5691088331021303</v>
       </c>
     </row>
     <row r="33" spans="19:35" x14ac:dyDescent="0.3">
@@ -9318,67 +9213,67 @@
       </c>
       <c r="T33" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.75418912365228852</v>
+        <v>9.0510648116267408E-3</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9147069877829778E-2</v>
+        <v>9.0662717571566215E-2</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.776246391999458E-2</v>
+        <v>1.2628375963040405E-2</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1028366411755624E-2</v>
+        <v>1.1104425408720373E-2</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3912616084244182E-2</v>
+        <v>2.6066031716968991E-2</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.70308742734729646</v>
+        <v>1.0804096111635011E-2</v>
       </c>
       <c r="Z33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23377745649212714</v>
+        <v>3.024865430206684E-2</v>
       </c>
       <c r="AA33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.687014040096699E-2</v>
+        <v>0.24185727091692583</v>
       </c>
       <c r="AB33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2018773906833404</v>
+        <v>3.7002012897608634E-2</v>
       </c>
       <c r="AC33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.568731014783539E-2</v>
+        <v>3.9611797424148019E-2</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41525057560105161</v>
+        <v>1.1320078964620679E-2</v>
       </c>
       <c r="AE33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6126171547384264E-3</v>
+        <v>8.3358233101539173E-3</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5658532168066718E-2</v>
+        <v>0.40468161125191804</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8114385465970901E-2</v>
+        <v>2.3293116905878326E-2</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13527026948450599</v>
+        <v>0.54728149074611254</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.7402457448920128</v>
+        <v>1.5039485683029907</v>
       </c>
     </row>
     <row r="34" spans="19:35" x14ac:dyDescent="0.3">
@@ -9387,67 +9282,67 @@
       </c>
       <c r="T34" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33519516606768379</v>
+        <v>1.3576597217440112E-2</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4786767469457444E-2</v>
+        <v>1.8132543514313242E-2</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10657478351996748</v>
+        <v>7.5770255778242437E-2</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.2712748088167188E-3</v>
+        <v>4.9969914339241681E-2</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7292311579134337E-3</v>
+        <v>5.2132063433937982E-2</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9530206315202678E-2</v>
+        <v>8.4031858646050096E-3</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17533309236909536</v>
+        <v>1.0082884767355613E-2</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3374028080193398E-2</v>
+        <v>9.6742908366770325E-2</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28262834695667655</v>
+        <v>0.44402415477130364</v>
       </c>
       <c r="AC34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2614551691305898E-2</v>
+        <v>0.15844718969659208</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9208429266841939E-2</v>
+        <v>4.5280315858482717E-2</v>
       </c>
       <c r="AE34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12057664016633797</v>
+        <v>0.52515686853969679</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20526825734453374</v>
+        <v>9.6352764583790013E-3</v>
       </c>
       <c r="AG34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50720279304718519</v>
+        <v>1.7469837679408746E-2</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54108107793802396</v>
+        <v>9.1213581791018752E-2</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.4193746461992358</v>
+        <v>1.6160375780767879</v>
       </c>
     </row>
     <row r="35" spans="19:35" x14ac:dyDescent="0.3">
@@ -9456,67 +9351,67 @@
       </c>
       <c r="T35" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6759758303384189E-2</v>
+        <v>0.24437874991392203</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5718966530921973E-3</v>
+        <v>1.295181679593803E-2</v>
       </c>
       <c r="V35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.776246391999458E-2</v>
+        <v>1.0824322254034633E-2</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19851059541160126</v>
+        <v>0.6995788007493835</v>
       </c>
       <c r="X35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20868924126366273</v>
+        <v>1.7377354477979327E-2</v>
       </c>
       <c r="Y35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6040275086936904E-2</v>
+        <v>1.8907168195361271E-2</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8444364123031785E-2</v>
+        <v>6.049730860413368E-2</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53496112320773592</v>
+        <v>2.4185727091692581E-2</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36337930323001272</v>
+        <v>1.2334004299202877E-2</v>
       </c>
       <c r="AC35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52981117103484776</v>
+        <v>0.27728258196903616</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.460421463342097E-2</v>
+        <v>5.0311462064980793E-3</v>
       </c>
       <c r="AE35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0288320083168985E-2</v>
+        <v>5.8350763171077423E-2</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.5528440560222393E-3</v>
+        <v>1.1241155868108834E-2</v>
       </c>
       <c r="AG35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43474525118330165</v>
+        <v>6.9879350717634986E-2</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5150149713614431E-3</v>
+        <v>0.82092223611916881</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5066358371615753</v>
+        <v>2.3437424864331717</v>
       </c>
     </row>
     <row r="36" spans="19:35" x14ac:dyDescent="0.3">
@@ -9525,67 +9420,67 @@
       </c>
       <c r="T36" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>2.7932930505640316E-2</v>
+        <v>1.3576597217440112E-2</v>
       </c>
       <c r="U36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9147069877829778E-2</v>
+        <v>1.5110452928594368E-2</v>
       </c>
       <c r="V36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.776246391999458E-2</v>
+        <v>0.22731076733472733</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.617019847053375E-2</v>
+        <v>9.9939828678483361E-2</v>
       </c>
       <c r="X36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7292311579134337E-3</v>
+        <v>0.36492444403756585</v>
       </c>
       <c r="Y36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6040275086936904E-2</v>
+        <v>3.7814336390722542E-2</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9222182061515892E-2</v>
+        <v>6.049730860413368E-2</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20061042120290096</v>
+        <v>0.43534308765046648</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2018773906833404</v>
+        <v>0.14800805159043454</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.568731014783539E-2</v>
+        <v>6.601966237358003E-3</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6510536583552424E-3</v>
+        <v>0.31696221100937905</v>
       </c>
       <c r="AE36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18086496024950696</v>
+        <v>0.35010457902646452</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5658532168066718E-2</v>
+        <v>6.7446935208653011E-2</v>
       </c>
       <c r="AG36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8114385465970901E-2</v>
+        <v>1.1646558452939163E-2</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.35270269484506E-2</v>
+        <v>1.5202263631836459E-2</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.95899543160479184</v>
+        <v>2.1704893879991984</v>
       </c>
     </row>
     <row r="37" spans="19:35" x14ac:dyDescent="0.3">
@@ -9594,67 +9489,67 @@
       </c>
       <c r="T37" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33519516606768379</v>
+        <v>8.1459583304640676E-2</v>
       </c>
       <c r="U37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35488241926697867</v>
+        <v>0.54397630542939734</v>
       </c>
       <c r="V37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1314956703993498E-2</v>
+        <v>7.5770255778242437E-2</v>
       </c>
       <c r="W37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3085099235266875E-2</v>
+        <v>2.498495716962084E-2</v>
       </c>
       <c r="X37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9375829173172711E-3</v>
+        <v>0.10426412686787596</v>
       </c>
       <c r="Y37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31248330104324284</v>
+        <v>1.5125734556289017E-2</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35066618473819072</v>
+        <v>0.1512432715103342</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4300156001074428E-3</v>
+        <v>0.43534308765046648</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0375478136668079E-2</v>
+        <v>1.2334004299202877E-2</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30274924059134156</v>
+        <v>0.11883539227244405</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8869184666917059E-3</v>
+        <v>0.18112126343393087</v>
       </c>
       <c r="AE37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.004805334719483E-2</v>
+        <v>5.8350763171077423E-2</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10263412867226687</v>
+        <v>0.40468161125191804</v>
       </c>
       <c r="AG37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2457541863883604E-2</v>
+        <v>6.9879350717634986E-2</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27054053896901198</v>
+        <v>2.2803395447754688E-2</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2336866256198395</v>
+        <v>2.3001731028608301</v>
       </c>
     </row>
     <row r="38" spans="19:35" x14ac:dyDescent="0.3">
@@ -9663,67 +9558,67 @@
       </c>
       <c r="T38" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3966465252820158E-2</v>
+        <v>0.57021708313248476</v>
       </c>
       <c r="U38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11829413975565956</v>
+        <v>1.5110452928594368E-2</v>
       </c>
       <c r="V38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1314956703993498E-2</v>
+        <v>7.5770255778242437E-2</v>
       </c>
       <c r="W38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52936158776427</v>
+        <v>0.79951862942786689</v>
       </c>
       <c r="X38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20868924126366273</v>
+        <v>0.36492444403756585</v>
       </c>
       <c r="Y38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15624165052162142</v>
+        <v>0.60502938225156067</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3491948747188259E-3</v>
+        <v>5.0414423836778067E-3</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26748056160386796</v>
+        <v>0.14511436255015547</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28262834695667655</v>
+        <v>7.4004025795217268E-2</v>
       </c>
       <c r="AC38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.7843655073917695E-2</v>
+        <v>6.601966237358003E-3</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6510536583552424E-3</v>
+        <v>4.5280315858482717E-2</v>
       </c>
       <c r="AE38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54259488074852091</v>
+        <v>6.4834181301197131E-3</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12829266084033358</v>
+        <v>0.40468161125191804</v>
       </c>
       <c r="AG38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8114385465970901E-2</v>
+        <v>0.27951740287053994</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7635134742252995E-2</v>
+        <v>9.1213581791018752E-2</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.4094579152266422</v>
+        <v>3.4885083744248035</v>
       </c>
     </row>
   </sheetData>
@@ -9779,12 +9674,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">+Valor!AJ7</f>
-        <v>7.845107489310725E-2</v>
+        <f>+Valor!AJ7</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">+Coste!AJ7</f>
-        <v>8.3798791516920948E-2</v>
+        <v>8.1459583304640676E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -9792,12 +9687,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">+Valor!AJ8</f>
-        <v>7.2727453194264768E-2</v>
+        <f>+Valor!AJ8</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">+Coste!AJ8</f>
-        <v>5.9147069877829778E-2</v>
+        <v>9.0662717571566215E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -9805,12 +9700,12 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">+Valor!AJ9</f>
-        <v>4.7901694036430569E-2</v>
+        <f>+Valor!AJ9</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">+Coste!AJ9</f>
-        <v>0.10657478351996748</v>
+        <v>7.5770255778242437E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -9818,12 +9713,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">+Valor!AJ10</f>
-        <v>6.1959494613610125E-2</v>
+        <f>+Valor!AJ10</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">+Coste!AJ10</f>
-        <v>6.617019847053375E-2</v>
+        <v>9.9939828678483361E-2</v>
       </c>
       <c r="M6" s="59" t="s">
         <v>17</v>
@@ -9835,12 +9730,12 @@
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">+Valor!AJ11</f>
-        <v>6.851707106703317E-2</v>
+        <f>+Valor!AJ11</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">+Coste!AJ11</f>
-        <v>6.9563080421220905E-2</v>
+        <v>5.2132063433937982E-2</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -9854,12 +9749,12 @@
         <v>21</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">+Valor!AJ12</f>
-        <v>3.0535108222720687E-2</v>
+        <f>+Valor!AJ12</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">+Coste!AJ12</f>
-        <v>7.8120825260810711E-2</v>
+        <v>7.5628672781445083E-2</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -9873,12 +9768,12 @@
         <v>22</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">+Valor!AJ13</f>
-        <v>0.11064855251316505</v>
+        <f>+Valor!AJ13</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">+Coste!AJ13</f>
-        <v>5.8444364123031785E-2</v>
+        <v>3.024865430206684E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -9886,12 +9781,12 @@
         <v>23</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">+Valor!AJ14</f>
-        <v>8.7564843590997338E-2</v>
+        <f>+Valor!AJ14</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">+Coste!AJ14</f>
-        <v>6.687014040096699E-2</v>
+        <v>4.8371454183385162E-2</v>
       </c>
       <c r="M10" s="59" t="s">
         <v>18</v>
@@ -9903,12 +9798,12 @@
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">+Valor!AJ15</f>
-        <v>6.7033925510483511E-2</v>
+        <f>+Valor!AJ15</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">+Coste!AJ15</f>
-        <v>4.0375478136668079E-2</v>
+        <v>7.4004025795217268E-2</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -9922,12 +9817,12 @@
         <v>25</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">+Valor!AJ16</f>
-        <v>4.9172009387241554E-2</v>
+        <f>+Valor!AJ16</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">+Coste!AJ16</f>
-        <v>7.568731014783539E-2</v>
+        <v>3.9611797424148019E-2</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
@@ -9941,12 +9836,12 @@
         <v>26</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">+Valor!AJ17</f>
-        <v>7.0320077096408043E-2</v>
+        <f>+Valor!AJ17</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">+Coste!AJ17</f>
-        <v>6.9208429266841939E-2</v>
+        <v>4.5280315858482717E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -9954,12 +9849,12 @@
         <v>27</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">+Valor!AJ18</f>
-        <v>7.6891888756973642E-2</v>
+        <f>+Valor!AJ18</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">+Coste!AJ18</f>
-        <v>6.0288320083168985E-2</v>
+        <v>5.8350763171077423E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -9967,12 +9862,12 @@
         <v>28</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">+Valor!AJ19</f>
-        <v>6.3100913774593578E-2</v>
+        <f>+Valor!AJ19</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">+Coste!AJ19</f>
-        <v>2.5658532168066718E-2</v>
+        <v>6.7446935208653011E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -9980,12 +9875,12 @@
         <v>29</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">+Valor!AJ20</f>
-        <v>6.3795953113207668E-2</v>
+        <f>+Valor!AJ20</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">+Coste!AJ20</f>
-        <v>7.2457541863883604E-2</v>
+        <v>6.9879350717634986E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -9993,12 +9888,12 @@
         <v>30</v>
       </c>
       <c r="B17" s="2">
-        <f ca="1">+Valor!AJ21</f>
-        <v>5.1379940229763048E-2</v>
+        <f>+Valor!AJ21</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">+Coste!AJ21</f>
-        <v>6.7635134742252995E-2</v>
+        <v>9.1213581791018752E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10013,12 +9908,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10251,15 +10143,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10284,18 +10188,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Requisitos_PJA.xlsx
+++ b/Requisitos_PJA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Enxeñaría Informática\Terceiro\1º Cuatrimestre\Enxeñaría do Software\Prácticas\Practica5_2_REM\enso-specREM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estin\Documents\GitHub\enso-specREM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DF4381-B617-469C-870E-7D78801DDFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BF1991-0748-41B9-95AC-CFE732C81E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="7" r:id="rId1"/>
@@ -993,7 +993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3700F33-B4B0-4640-86C7-0AA255F13F4C}" type="CELLRANGE">
+                    <a:fld id="{240D398C-08AE-4960-B3FD-1475BBF2CF34}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1027,7 +1027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{121267C7-448E-49BD-9186-76DED942117E}" type="CELLRANGE">
+                    <a:fld id="{7310CBBF-0477-4D05-9041-753C55C5E4CE}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1061,7 +1061,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5700901-7C36-45D4-9B99-361A7213CE73}" type="CELLRANGE">
+                    <a:fld id="{4B87D879-08FE-42D1-B419-E159CE447FF3}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1095,7 +1095,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA142FAF-2136-4C17-960E-2F12B30C70DA}" type="CELLRANGE">
+                    <a:fld id="{D6E17918-8903-4164-BE51-007C74EBA2B1}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1129,7 +1129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F359B9A-5BDA-4BDE-94D2-52DDE5DC3382}" type="CELLRANGE">
+                    <a:fld id="{EBB10EF5-5AEE-4059-846A-968B29E79605}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1163,7 +1163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7089C644-B29B-4A3D-9EF0-2EA650D3BABD}" type="CELLRANGE">
+                    <a:fld id="{AE760A6A-3DEA-4FA8-BCD8-97B22B25D99C}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1197,7 +1197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0022CA9C-70D3-46C7-81C1-2553A16842A4}" type="CELLRANGE">
+                    <a:fld id="{4AE00E9E-7AC8-446A-A0AF-55C455F328BD}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1231,7 +1231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E113D63-B160-4AB4-80E6-81295746EE50}" type="CELLRANGE">
+                    <a:fld id="{A16E39AC-C907-4AD7-8649-542AFF63A9D9}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1265,7 +1265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8960575D-6050-44B9-90ED-FB80B27F0E8C}" type="CELLRANGE">
+                    <a:fld id="{62F63EB5-3A2E-495A-BDC4-70623C9C9166}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1299,7 +1299,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDB2C594-43EB-4921-A6EA-6ED24EE3AEAF}" type="CELLRANGE">
+                    <a:fld id="{2A6795A5-371A-4FAB-BB30-0C165CAE5CE0}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1333,7 +1333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37DD2C76-B3A6-4B7F-AC73-06C3366F9FF2}" type="CELLRANGE">
+                    <a:fld id="{20CA3661-345C-450C-9792-DEDFC50F8F16}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1367,7 +1367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8917AA10-DAE9-4992-86B0-CE533A6FC180}" type="CELLRANGE">
+                    <a:fld id="{D5C36702-3009-4B21-A01D-8BAA40658FF8}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1401,7 +1401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D8C7CEA-1BBB-4F65-89F3-986FF1CB072A}" type="CELLRANGE">
+                    <a:fld id="{B5A495AB-251C-4709-B35E-71DD1BE9788F}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1435,7 +1435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9292BD0-C118-444B-9C1F-96FAD4EB421E}" type="CELLRANGE">
+                    <a:fld id="{19D36E8D-B121-4057-A844-284F08D99A22}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1491,49 +1491,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>8.1459583304640676E-2</c:v>
+                  <c:v>7.6452806417286412E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0662717571566215E-2</c:v>
+                  <c:v>5.1633247224796258E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5770255778242437E-2</c:v>
+                  <c:v>5.3620210342350726E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9939828678483361E-2</c:v>
+                  <c:v>7.4251543236194928E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2132063433937982E-2</c:v>
+                  <c:v>0.12011938696674143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5628672781445083E-2</c:v>
+                  <c:v>6.4411082252863155E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.024865430206684E-2</c:v>
+                  <c:v>5.6902930523318747E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8371454183385162E-2</c:v>
+                  <c:v>7.2129005903396562E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4004025795217268E-2</c:v>
+                  <c:v>9.5912912637192232E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9611797424148019E-2</c:v>
+                  <c:v>5.3901043464090637E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5280315858482717E-2</c:v>
+                  <c:v>3.5601746622560264E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8350763171077423E-2</c:v>
+                  <c:v>3.7179949004707745E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7446935208653011E-2</c:v>
+                  <c:v>5.1001807597811921E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9879350717634986E-2</c:v>
+                  <c:v>9.3039605453245869E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.1213581791018752E-2</c:v>
+                  <c:v>6.3842722353443113E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,49 +1545,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.14653629536000032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.14653629536000032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>2.6555945203898892E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>5.7804925015501184E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>9.8984622105457044E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.11035214358845193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>1.4649909774377318E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>4.1767711392683288E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>9.6961312532543822E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.13463001844260183</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>9.2066402827111052E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>3.4805234269429226E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>1.2469473317550812E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>5.2273246648984133E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>2.2692624056320127E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,7 +2300,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A3" sqref="A3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2506,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AM38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,16 +2584,16 @@
     <row r="3" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56">
         <f>SUM(AM7:AM21)/AJ6</f>
-        <v>14.999999999999998</v>
+        <v>17.946894763052139</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="23">
         <f>+(B3-$AJ$6)/($AJ$6-1)</f>
-        <v>-1.2688263138573217E-16</v>
+        <v>0.21049248307515281</v>
       </c>
       <c r="E3" s="6">
         <f>D3/+HLOOKUP(AJ6,T2:AH3,2,FALSE)</f>
-        <v>-7.9800397097944751E-17</v>
+        <v>0.13238520948122817</v>
       </c>
       <c r="T3" s="11">
         <v>0</v>
@@ -2790,125 +2790,125 @@
         <v>1</v>
       </c>
       <c r="E7" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H7" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J7" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K7" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O7" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P7" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S7" s="26" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="28">
         <f>+IF(ISNUMBER(C7),C7/C$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18245004344048646</v>
       </c>
       <c r="U7" s="28">
         <f t="shared" ref="U7:AH7" si="0">+IF(ISNUMBER(D7),D7/D$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18245004344048646</v>
       </c>
       <c r="V7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12497874511137561</v>
       </c>
       <c r="W7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11717660187854553</v>
       </c>
       <c r="X7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="Y7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.28028028028028029</v>
       </c>
       <c r="Z7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.502262443438915E-2</v>
       </c>
       <c r="AA7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14544950824213881</v>
       </c>
       <c r="AB7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.16365761787245101</v>
       </c>
       <c r="AC7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.24812918471839307</v>
       </c>
       <c r="AD7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12787334449687929</v>
       </c>
       <c r="AE7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10188239860275566</v>
       </c>
       <c r="AF7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7136929460580922E-2</v>
       </c>
       <c r="AG7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15116613878491217</v>
       </c>
       <c r="AH7" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10993119952138797</v>
       </c>
       <c r="AI7" s="30">
         <f>SUM(T7:AH7)</f>
-        <v>0.99999999999999989</v>
+        <v>2.1980444304000049</v>
       </c>
       <c r="AJ7" s="18">
         <f>+$AI7/$AJ$6</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="AK7" s="58" t="s">
         <v>43</v>
       </c>
       <c r="AL7" s="19">
         <f>+AI24</f>
-        <v>0.99999999999999989</v>
+        <v>2.6929551276307064</v>
       </c>
       <c r="AM7" s="19">
         <f>IF(AJ7&lt;&gt;0,+AL7/AJ7,0)</f>
-        <v>14.999999999999998</v>
+        <v>18.377393266390683</v>
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.3">
@@ -2923,123 +2923,123 @@
         <v>1</v>
       </c>
       <c r="E8" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H8" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K8" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O8" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P8" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S8" s="26" t="s">
         <v>1</v>
       </c>
       <c r="T8" s="28">
         <f t="shared" ref="T8:T21" si="1">+IF(ISNUMBER(C8),C8/C$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18245004344048646</v>
       </c>
       <c r="U8" s="28">
         <f t="shared" ref="U8:U21" si="2">+IF(ISNUMBER(D8),D8/D$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18245004344048646</v>
       </c>
       <c r="V8" s="28">
         <f t="shared" ref="V8:V21" si="3">+IF(ISNUMBER(E8),E8/E$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12497874511137561</v>
       </c>
       <c r="W8" s="28">
         <f t="shared" ref="W8:W21" si="4">+IF(ISNUMBER(F8),F8/F$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11717660187854553</v>
       </c>
       <c r="X8" s="28">
         <f t="shared" ref="X8:X21" si="5">+IF(ISNUMBER(G8),G8/G$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="Y8" s="28">
         <f t="shared" ref="Y8:Y21" si="6">+IF(ISNUMBER(H8),H8/H$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.28028028028028029</v>
       </c>
       <c r="Z8" s="28">
         <f t="shared" ref="Z8:Z21" si="7">+IF(ISNUMBER(I8),I8/I$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>9.502262443438915E-2</v>
       </c>
       <c r="AA8" s="28">
         <f t="shared" ref="AA8:AA21" si="8">+IF(ISNUMBER(J8),J8/J$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14544950824213881</v>
       </c>
       <c r="AB8" s="28">
         <f t="shared" ref="AB8:AB21" si="9">+IF(ISNUMBER(K8),K8/K$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.16365761787245101</v>
       </c>
       <c r="AC8" s="28">
         <f t="shared" ref="AC8:AC21" si="10">+IF(ISNUMBER(L8),L8/L$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.24812918471839307</v>
       </c>
       <c r="AD8" s="28">
         <f t="shared" ref="AD8:AD21" si="11">+IF(ISNUMBER(M8),M8/M$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12787334449687929</v>
       </c>
       <c r="AE8" s="28">
         <f t="shared" ref="AE8:AE21" si="12">+IF(ISNUMBER(N8),N8/N$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10188239860275566</v>
       </c>
       <c r="AF8" s="28">
         <f t="shared" ref="AF8:AF21" si="13">+IF(ISNUMBER(O8),O8/O$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7136929460580922E-2</v>
       </c>
       <c r="AG8" s="28">
         <f t="shared" ref="AG8:AG21" si="14">+IF(ISNUMBER(P8),P8/P$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15116613878491217</v>
       </c>
       <c r="AH8" s="28">
         <f t="shared" ref="AH8:AH21" si="15">+IF(ISNUMBER(Q8),Q8/Q$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10993119952138797</v>
       </c>
       <c r="AI8" s="30">
         <f t="shared" ref="AI8:AI20" si="16">SUM(T8:AH8)</f>
-        <v>0.99999999999999989</v>
+        <v>2.1980444304000049</v>
       </c>
       <c r="AJ8" s="18">
         <f t="shared" ref="AJ8:AJ21" si="17">+$AI8/$AJ$6</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="AK8" s="58"/>
       <c r="AL8" s="19">
         <f t="shared" ref="AL8:AL21" si="18">+AI25</f>
-        <v>0.99999999999999989</v>
+        <v>2.6929551276307064</v>
       </c>
       <c r="AM8" s="19">
         <f t="shared" ref="AM8:AM21" si="19">IF(AJ8&lt;&gt;0,+AL8/AJ8,0)</f>
-        <v>14.999999999999998</v>
+        <v>18.377393266390683</v>
       </c>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.3">
@@ -3048,130 +3048,130 @@
       </c>
       <c r="C9" s="28">
         <f>IF(ISNUMBER(E7),1/E7,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D9" s="28">
         <f>IF(ISNUMBER(E8),1/E8,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E9" s="33">
         <v>1</v>
       </c>
       <c r="F9" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H9" s="32">
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I9" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" s="32">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K9" s="32">
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L9" s="32">
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M9" s="32">
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N9" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O9" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q9" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="T9" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="U9" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="V9" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.785410644448223E-2</v>
       </c>
       <c r="W9" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.9529433646424253E-2</v>
       </c>
       <c r="X9" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="Y9" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3346680013346681E-2</v>
       </c>
       <c r="Z9" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.7873303167420823E-2</v>
       </c>
       <c r="AA9" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.2724754121069411E-3</v>
       </c>
       <c r="AB9" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.1689829848032214E-2</v>
       </c>
       <c r="AC9" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.7723513194170933E-2</v>
       </c>
       <c r="AD9" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.1338103212056636E-3</v>
       </c>
       <c r="AE9" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.7921599068503768E-3</v>
       </c>
       <c r="AF9" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.7344398340248962E-2</v>
       </c>
       <c r="AG9" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0077742585660812E-2</v>
       </c>
       <c r="AH9" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.7113371223451987E-2</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>0.3983391780584834</v>
       </c>
       <c r="AJ9" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6555945203898892E-2</v>
       </c>
       <c r="AK9" s="58"/>
       <c r="AL9" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>0.4468204963490931</v>
       </c>
       <c r="AM9" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>16.825629549931886</v>
       </c>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.3">
@@ -3180,131 +3180,131 @@
       </c>
       <c r="C10" s="28">
         <f>IF(ISNUMBER(F7),1/F7,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D10" s="28">
         <f>IF(ISNUMBER(F8),1/F8,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E10" s="28">
         <f>IF(ISNUMBER(F9),1/F9,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="33">
         <v>1</v>
       </c>
       <c r="G10" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H10" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J10" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K10" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L10" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="32">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N10" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O10" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P10" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q10" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.0816681146828817E-2</v>
       </c>
       <c r="U10" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.0816681146828817E-2</v>
       </c>
       <c r="V10" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.5708212888964461E-2</v>
       </c>
       <c r="W10" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.9058867292848506E-2</v>
       </c>
       <c r="X10" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="Y10" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.6713380046713382E-2</v>
       </c>
       <c r="Z10" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.1447963800904993E-2</v>
       </c>
       <c r="AA10" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11635960659371106</v>
       </c>
       <c r="AB10" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.72762696454085E-2</v>
       </c>
       <c r="AC10" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.481291847183931E-2</v>
       </c>
       <c r="AD10" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.5984168062109911E-2</v>
       </c>
       <c r="AE10" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10188239860275566</v>
       </c>
       <c r="AF10" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7136929460580922E-2</v>
       </c>
       <c r="AG10" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0077742585660812E-2</v>
       </c>
       <c r="AH10" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.8522285372419981E-2</v>
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>0.86707387523251778</v>
       </c>
       <c r="AJ10" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7804925015501184E-2</v>
       </c>
       <c r="AK10" s="58"/>
       <c r="AL10" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>1.0625063527890855</v>
       </c>
       <c r="AM10" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>18.380896653774048</v>
       </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.3">
@@ -3313,132 +3313,132 @@
       </c>
       <c r="C11" s="28">
         <f>IF(ISNUMBER(G7),1/G7,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D11" s="28">
         <f>IF(ISNUMBER(G8),1/G8,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E11" s="28">
         <f>IF(ISNUMBER(G9),1/G9,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F11" s="28">
         <f>IF(ISNUMBER(G10),1/G10,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G11" s="33">
         <v>1</v>
       </c>
       <c r="H11" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J11" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K11" s="32">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L11" s="32">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M11" s="32">
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N11" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O11" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P11" s="32">
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Q11" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="S11" s="26" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="U11" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="V11" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.5505866349260328E-3</v>
       </c>
       <c r="W11" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.5798381846926441E-3</v>
       </c>
       <c r="X11" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.1494252873563218E-2</v>
       </c>
       <c r="Y11" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.8685352018685354E-2</v>
       </c>
       <c r="Z11" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.5248868778280547E-3</v>
       </c>
       <c r="AA11" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.8179803296855527E-3</v>
       </c>
       <c r="AB11" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.0920898818028333E-3</v>
       </c>
       <c r="AC11" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3784954706577392E-2</v>
       </c>
       <c r="AD11" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.1338103212056636E-3</v>
       </c>
       <c r="AE11" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.0752959441102271E-3</v>
       </c>
       <c r="AF11" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.1493775933609959E-3</v>
       </c>
       <c r="AG11" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.3190325367117761E-3</v>
       </c>
       <c r="AH11" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.1408914148967995E-3</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>0.14847693315818555</v>
       </c>
       <c r="AJ11" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.8984622105457044E-3</v>
       </c>
       <c r="AK11" s="58"/>
       <c r="AL11" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>0.16113318511789043</v>
       </c>
       <c r="AM11" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>16.278607897923887</v>
       </c>
     </row>
     <row r="12" spans="2:39" x14ac:dyDescent="0.3">
@@ -3447,133 +3447,133 @@
       </c>
       <c r="C12" s="28">
         <f>IF(ISNUMBER(H7),1/H7,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D12" s="28">
         <f>IF(ISNUMBER(H8),1/H8,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E12" s="28">
         <f>IF(ISNUMBER(H9),1/H9,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F12" s="28">
         <f>IF(ISNUMBER(H10),1/H10,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="28">
         <f>IF(ISNUMBER(H11),1/H11,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" s="33">
         <v>1</v>
       </c>
       <c r="I12" s="32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J12" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="32">
         <v>1</v>
       </c>
       <c r="M12" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O12" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P12" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="T12" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.0816681146828817E-2</v>
       </c>
       <c r="U12" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.0816681146828817E-2</v>
       </c>
       <c r="V12" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12497874511137561</v>
       </c>
       <c r="W12" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.8117734585697013E-2</v>
       </c>
       <c r="X12" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7471264367816091E-2</v>
       </c>
       <c r="Y12" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.3426760093426764E-2</v>
       </c>
       <c r="Z12" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10859728506787332</v>
       </c>
       <c r="AA12" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11635960659371106</v>
       </c>
       <c r="AB12" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.16365761787245101</v>
       </c>
       <c r="AC12" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12406459235919653</v>
       </c>
       <c r="AD12" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.19181001674531895</v>
       </c>
       <c r="AE12" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14263535804385793</v>
       </c>
       <c r="AF12" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7136929460580922E-2</v>
       </c>
       <c r="AG12" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15116613878491217</v>
       </c>
       <c r="AH12" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.4226742446903974E-2</v>
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>1.6552821538267788</v>
       </c>
       <c r="AJ12" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11035214358845193</v>
       </c>
       <c r="AK12" s="58"/>
       <c r="AL12" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>2.1765036911192843</v>
       </c>
       <c r="AM12" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>19.723257023772486</v>
       </c>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.3">
@@ -3582,134 +3582,134 @@
       </c>
       <c r="C13" s="28">
         <f>IF(ISNUMBER(I7),1/I7,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D13" s="28">
         <f>IF(ISNUMBER(I8),1/I8,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E13" s="28">
         <f>IF(ISNUMBER(I9),1/I9,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="28">
         <f>IF(ISNUMBER(I10),1/I10,"")</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G13" s="28">
         <f>IF(ISNUMBER(I11),1/I11,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="28">
         <f>IF(ISNUMBER(I12),1/I12,"")</f>
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="I13" s="33">
         <v>1</v>
       </c>
       <c r="J13" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K13" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L13" s="32">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M13" s="32">
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N13" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O13" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P13" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S13" s="26" t="s">
         <v>22</v>
       </c>
       <c r="T13" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="U13" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="V13" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.5708212888964463E-3</v>
       </c>
       <c r="W13" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.5098112154747508E-3</v>
       </c>
       <c r="X13" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="Y13" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.1678345011678345E-2</v>
       </c>
       <c r="Z13" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3574660633484165E-2</v>
       </c>
       <c r="AA13" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.8179803296855527E-3</v>
       </c>
       <c r="AB13" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.6365761787245102E-2</v>
       </c>
       <c r="AC13" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3784954706577392E-2</v>
       </c>
       <c r="AD13" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.1338103212056636E-3</v>
       </c>
       <c r="AE13" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.0752959441102271E-3</v>
       </c>
       <c r="AF13" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.7344398340248962E-2</v>
       </c>
       <c r="AG13" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.0466455513964873E-3</v>
       </c>
       <c r="AH13" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.2348190248279981E-3</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>0.21974864661565977</v>
       </c>
       <c r="AJ13" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.4649909774377318E-2</v>
       </c>
       <c r="AK13" s="58"/>
       <c r="AL13" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>0.23319753366383764</v>
       </c>
       <c r="AM13" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>15.918018421635603</v>
       </c>
     </row>
     <row r="14" spans="2:39" x14ac:dyDescent="0.3">
@@ -3718,135 +3718,135 @@
       </c>
       <c r="C14" s="28">
         <f>IF(ISNUMBER(J7),1/J7,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D14" s="28">
         <f>IF(ISNUMBER(J8),1/J8,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="28">
         <f>IF(ISNUMBER(J9),1/J9,"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="28">
         <f>IF(ISNUMBER(J10),1/J10,"")</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="28">
         <f>IF(ISNUMBER(J11),1/J11,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" s="28">
         <f>IF(ISNUMBER(J12),1/J12,"")</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I14" s="28">
         <f>IF(ISNUMBER(J13),1/J13,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J14" s="33">
         <v>1</v>
       </c>
       <c r="K14" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L14" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M14" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N14" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P14" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q14" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="T14" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.6490008688097299E-2</v>
       </c>
       <c r="U14" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.6490008688097299E-2</v>
       </c>
       <c r="V14" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.1416425777928921E-2</v>
       </c>
       <c r="W14" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.7647168232121266E-3</v>
       </c>
       <c r="X14" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7471264367816091E-2</v>
       </c>
       <c r="Y14" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.3356690023356691E-2</v>
       </c>
       <c r="Z14" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.7873303167420823E-2</v>
       </c>
       <c r="AA14" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9089901648427764E-2</v>
       </c>
       <c r="AB14" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.72762696454085E-2</v>
       </c>
       <c r="AC14" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.481291847183931E-2</v>
       </c>
       <c r="AD14" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.1312224082813216E-2</v>
       </c>
       <c r="AE14" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.11294391616534E-2</v>
       </c>
       <c r="AF14" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7136929460580922E-2</v>
       </c>
       <c r="AG14" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0077742585660812E-2</v>
       </c>
       <c r="AH14" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.2817828297935988E-2</v>
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>0.62651567089024929</v>
       </c>
       <c r="AJ14" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.1767711392683288E-2</v>
       </c>
       <c r="AK14" s="58"/>
       <c r="AL14" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>0.76121930737570631</v>
       </c>
       <c r="AM14" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>18.225066253188434</v>
       </c>
     </row>
     <row r="15" spans="2:39" x14ac:dyDescent="0.3">
@@ -3855,136 +3855,136 @@
       </c>
       <c r="C15" s="28">
         <f>IF(ISNUMBER(K7),1/K7,"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="28">
         <f>IF(ISNUMBER(K8),1/K8,"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="28">
         <f>IF(ISNUMBER(K9),1/K9,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F15" s="28">
         <f>IF(ISNUMBER(K10),1/K10,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="28">
         <f>IF(ISNUMBER(K11),1/K11,"")</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H15" s="28">
         <f>IF(ISNUMBER(K12),1/K12,"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="28">
         <f>IF(ISNUMBER(K13),1/K13,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15" s="28">
         <f>IF(ISNUMBER(K14),1/K14,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" s="33">
         <v>1</v>
       </c>
       <c r="L15" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O15" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S15" s="26" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.122502172024323E-2</v>
       </c>
       <c r="U15" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.122502172024323E-2</v>
       </c>
       <c r="V15" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12497874511137561</v>
       </c>
       <c r="W15" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11717660187854553</v>
       </c>
       <c r="X15" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="Y15" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.6713380046713382E-2</v>
       </c>
       <c r="Z15" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.7873303167420823E-2</v>
       </c>
       <c r="AA15" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7269704945283286E-2</v>
       </c>
       <c r="AB15" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.1828808936225503E-2</v>
       </c>
       <c r="AC15" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.1354864119732174E-2</v>
       </c>
       <c r="AD15" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.19181001674531895</v>
       </c>
       <c r="AE15" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10188239860275566</v>
       </c>
       <c r="AF15" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.2240663900414939E-2</v>
       </c>
       <c r="AG15" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15116613878491217</v>
       </c>
       <c r="AH15" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.4226742446903974E-2</v>
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>1.4544196879881572</v>
       </c>
       <c r="AJ15" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.6961312532543822E-2</v>
       </c>
       <c r="AK15" s="58"/>
       <c r="AL15" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>1.9005903109186892</v>
       </c>
       <c r="AM15" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>19.60153241820835</v>
       </c>
     </row>
     <row r="16" spans="2:39" x14ac:dyDescent="0.3">
@@ -3993,23 +3993,23 @@
       </c>
       <c r="C16" s="28">
         <f>IF(ISNUMBER(L7),1/L7,"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="28">
         <f>IF(ISNUMBER(L8),1/L8,"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="28">
         <f>IF(ISNUMBER(L9),1/L9,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16" s="28">
         <f>IF(ISNUMBER(L10),1/L10,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" s="28">
         <f>IF(ISNUMBER(L11),1/L11,"")</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H16" s="28">
         <f>IF(ISNUMBER(L12),1/L12,"")</f>
@@ -4017,113 +4017,113 @@
       </c>
       <c r="I16" s="28">
         <f>IF(ISNUMBER(L13),1/L13,"")</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J16" s="28">
         <f>IF(ISNUMBER(L14),1/L14,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K16" s="28">
         <f>IF(ISNUMBER(L15),1/L15,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" s="33">
         <v>1</v>
       </c>
       <c r="M16" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O16" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P16" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S16" s="26" t="s">
         <v>25</v>
       </c>
       <c r="T16" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.122502172024323E-2</v>
       </c>
       <c r="U16" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.122502172024323E-2</v>
       </c>
       <c r="V16" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12497874511137561</v>
       </c>
       <c r="W16" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.19529433646424255</v>
       </c>
       <c r="X16" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="Y16" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.3426760093426764E-2</v>
       </c>
       <c r="Z16" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12217194570135748</v>
       </c>
       <c r="AA16" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14544950824213881</v>
       </c>
       <c r="AB16" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.24548642680867649</v>
       </c>
       <c r="AC16" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12406459235919653</v>
       </c>
       <c r="AD16" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.19181001674531895</v>
       </c>
       <c r="AE16" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14263535804385793</v>
       </c>
       <c r="AF16" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7136929460580922E-2</v>
       </c>
       <c r="AG16" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15116613878491217</v>
       </c>
       <c r="AH16" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10993119952138797</v>
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>2.0194502766390277</v>
       </c>
       <c r="AJ16" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13463001844260183</v>
       </c>
       <c r="AK16" s="58"/>
       <c r="AL16" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>2.6144293045505624</v>
       </c>
       <c r="AM16" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>19.419363785240794</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.3">
@@ -4132,138 +4132,138 @@
       </c>
       <c r="C17" s="28">
         <f>IF(ISNUMBER(M7),1/M7,"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="28">
         <f>IF(ISNUMBER(M8),1/M8,"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="28">
         <f>IF(ISNUMBER(M9),1/M9,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F17" s="28">
         <f>IF(ISNUMBER(M10),1/M10,"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="28">
         <f>IF(ISNUMBER(M11),1/M11,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H17" s="28">
         <f>IF(ISNUMBER(M12),1/M12,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I17" s="28">
         <f>IF(ISNUMBER(M13),1/M13,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J17" s="28">
         <f>IF(ISNUMBER(M14),1/M14,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" s="28">
         <f>IF(ISNUMBER(M15),1/M15,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L17" s="28">
         <f>IF(ISNUMBER(M16),1/M16,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="33">
         <v>1</v>
       </c>
       <c r="N17" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O17" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P17" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S17" s="26" t="s">
         <v>26</v>
       </c>
       <c r="T17" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.122502172024323E-2</v>
       </c>
       <c r="U17" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.122502172024323E-2</v>
       </c>
       <c r="V17" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12497874511137561</v>
       </c>
       <c r="W17" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15623546917139403</v>
       </c>
       <c r="X17" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="Y17" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.1142253364475587E-2</v>
       </c>
       <c r="Z17" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.502262443438915E-2</v>
       </c>
       <c r="AA17" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7269704945283286E-2</v>
       </c>
       <c r="AB17" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.72762696454085E-2</v>
       </c>
       <c r="AC17" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.1354864119732174E-2</v>
       </c>
       <c r="AD17" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.3936672248439644E-2</v>
       </c>
       <c r="AE17" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14263535804385793</v>
       </c>
       <c r="AF17" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7136929460580922E-2</v>
       </c>
       <c r="AG17" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15116613878491217</v>
       </c>
       <c r="AH17" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10993119952138797</v>
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>1.3809960424066658</v>
       </c>
       <c r="AJ17" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.2066402827111052E-2</v>
       </c>
       <c r="AK17" s="58"/>
       <c r="AL17" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>1.8179744656848071</v>
       </c>
       <c r="AM17" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>19.746339705470312</v>
       </c>
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.3">
@@ -4272,139 +4272,139 @@
       </c>
       <c r="C18" s="28">
         <f>IF(ISNUMBER(N7),1/N7,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D18" s="28">
         <f>IF(ISNUMBER(N8),1/N8,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="28">
         <f>IF(ISNUMBER(N9),1/N9,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="28">
         <f>IF(ISNUMBER(N10),1/N10,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G18" s="28">
         <f>IF(ISNUMBER(N11),1/N11,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18" s="28">
         <f>IF(ISNUMBER(N12),1/N12,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I18" s="28">
         <f>IF(ISNUMBER(N13),1/N13,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" s="28">
         <f>IF(ISNUMBER(N14),1/N14,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K18" s="28">
         <f>IF(ISNUMBER(N15),1/N15,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="28">
         <f>IF(ISNUMBER(N16),1/N16,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M18" s="28">
         <f>IF(ISNUMBER(N17),1/N17,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N18" s="33">
         <v>1</v>
       </c>
       <c r="O18" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P18" s="32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q18" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="T18" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.6490008688097299E-2</v>
       </c>
       <c r="U18" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.6490008688097299E-2</v>
       </c>
       <c r="V18" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.3562319333446691E-2</v>
       </c>
       <c r="W18" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.8117734585697023E-3</v>
       </c>
       <c r="X18" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7471264367816091E-2</v>
       </c>
       <c r="Y18" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3346680013346681E-2</v>
       </c>
       <c r="Z18" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.7873303167420823E-2</v>
       </c>
       <c r="AA18" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.6966338828092542E-3</v>
       </c>
       <c r="AB18" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.6365761787245102E-2</v>
       </c>
       <c r="AC18" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.7723513194170933E-2</v>
       </c>
       <c r="AD18" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.1338103212056636E-3</v>
       </c>
       <c r="AE18" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0376479720551132E-2</v>
       </c>
       <c r="AF18" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7136929460580922E-2</v>
       </c>
       <c r="AG18" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0077742585660812E-2</v>
       </c>
       <c r="AH18" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.8522285372419981E-2</v>
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>0.52207851404143835</v>
       </c>
       <c r="AJ18" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.4805234269429226E-2</v>
       </c>
       <c r="AK18" s="58"/>
       <c r="AL18" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>0.60702890995743353</v>
       </c>
       <c r="AM18" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>17.440736219684357</v>
       </c>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.3">
@@ -4413,140 +4413,140 @@
       </c>
       <c r="C19" s="28">
         <f>IF(ISNUMBER(O7),1/O7,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D19" s="28">
         <f>IF(ISNUMBER(O8),1/O8,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E19" s="28">
         <f>IF(ISNUMBER(O9),1/O9,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F19" s="28">
         <f>IF(ISNUMBER(O10),1/O10,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G19" s="28">
         <f>IF(ISNUMBER(O11),1/O11,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="28">
         <f>IF(ISNUMBER(O12),1/O12,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I19" s="28">
         <f>IF(ISNUMBER(O13),1/O13,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J19" s="28">
         <f>IF(ISNUMBER(O14),1/O14,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K19" s="28">
         <f>IF(ISNUMBER(O15),1/O15,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L19" s="28">
         <f>IF(ISNUMBER(O16),1/O16,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M19" s="28">
         <f>IF(ISNUMBER(O17),1/O17,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N19" s="28">
         <f>IF(ISNUMBER(O18),1/O18,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O19" s="33">
         <v>1</v>
       </c>
       <c r="P19" s="32">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" s="32">
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S19" s="26" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="U19" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="V19" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.9513688148274098E-3</v>
       </c>
       <c r="W19" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.5798381846926441E-3</v>
       </c>
       <c r="X19" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="Y19" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3346680013346681E-2</v>
       </c>
       <c r="Z19" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.5248868778280547E-3</v>
       </c>
       <c r="AA19" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.1557002354896799E-3</v>
       </c>
       <c r="AB19" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.6365761787245102E-2</v>
       </c>
       <c r="AC19" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.7723513194170933E-2</v>
       </c>
       <c r="AD19" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.1338103212056636E-3</v>
       </c>
       <c r="AE19" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9109256743644475E-3</v>
       </c>
       <c r="AF19" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.2448132780082988E-2</v>
       </c>
       <c r="AG19" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.0466455513964873E-3</v>
       </c>
       <c r="AH19" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.2434938677834281E-3</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>0.18704209976326219</v>
       </c>
       <c r="AJ19" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.2469473317550812E-2</v>
       </c>
       <c r="AK19" s="58"/>
       <c r="AL19" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>0.19820300682283787</v>
       </c>
       <c r="AM19" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>15.895058417893777</v>
       </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.3">
@@ -4555,141 +4555,141 @@
       </c>
       <c r="C20" s="28">
         <f>IF(ISNUMBER(P7),1/P7,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D20" s="28">
         <f>IF(ISNUMBER(P8),1/P8,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="28">
         <f>IF(ISNUMBER(P9),1/P9,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="28">
         <f>IF(ISNUMBER(P10),1/P10,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="28">
         <f>IF(ISNUMBER(P11),1/P11,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H20" s="28">
         <f>IF(ISNUMBER(P12),1/P12,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="28">
         <f>IF(ISNUMBER(P13),1/P13,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" s="28">
         <f>IF(ISNUMBER(P14),1/P14,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" s="28">
         <f>IF(ISNUMBER(P15),1/P15,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L20" s="28">
         <f>IF(ISNUMBER(P16),1/P16,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M20" s="28">
         <f>IF(ISNUMBER(P17),1/P17,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N20" s="28">
         <f>IF(ISNUMBER(P18),1/P18,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" s="28">
         <f>IF(ISNUMBER(P19),1/P19,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P20" s="33">
         <v>1</v>
       </c>
       <c r="Q20" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S20" s="26" t="s">
         <v>29</v>
       </c>
       <c r="T20" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.6490008688097299E-2</v>
       </c>
       <c r="U20" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.6490008688097299E-2</v>
       </c>
       <c r="V20" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.3562319333446691E-2</v>
       </c>
       <c r="W20" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11717660187854553</v>
       </c>
       <c r="X20" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="Y20" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.8685352018685354E-2</v>
       </c>
       <c r="Z20" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.7873303167420823E-2</v>
       </c>
       <c r="AA20" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7269704945283286E-2</v>
       </c>
       <c r="AB20" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.6365761787245102E-2</v>
       </c>
       <c r="AC20" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.481291847183931E-2</v>
       </c>
       <c r="AD20" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.278733444968793E-2</v>
       </c>
       <c r="AE20" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.11294391616534E-2</v>
       </c>
       <c r="AF20" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.2240663900414939E-2</v>
       </c>
       <c r="AG20" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.0233227756982436E-2</v>
       </c>
       <c r="AH20" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.8522285372419981E-2</v>
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
+        <v>0.78409869973476198</v>
       </c>
       <c r="AJ20" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.2273246648984133E-2</v>
       </c>
       <c r="AK20" s="58"/>
       <c r="AL20" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>0.99884045913072506</v>
       </c>
       <c r="AM20" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>19.108062405956112</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.3">
@@ -4698,59 +4698,59 @@
       </c>
       <c r="C21" s="28">
         <f>IF(ISNUMBER(Q7),1/Q7,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D21" s="28">
         <f>IF(ISNUMBER(Q8),1/Q8,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E21" s="28">
         <f>IF(ISNUMBER(Q9),1/Q9,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F21" s="28">
         <f>IF(ISNUMBER(Q10),1/Q10,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G21" s="28">
         <f>IF(ISNUMBER(Q11),1/Q11,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21" s="28">
         <f>IF(ISNUMBER(Q12),1/Q12,"")</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I21" s="28">
         <f>IF(ISNUMBER(Q13),1/Q13,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" s="28">
         <f>IF(ISNUMBER(Q14),1/Q14,"")</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K21" s="28">
         <f>IF(ISNUMBER(Q15),1/Q15,"")</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L21" s="28">
         <f>IF(ISNUMBER(Q16),1/Q16,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M21" s="28">
         <f>IF(ISNUMBER(Q17),1/Q17,"")</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N21" s="28">
         <f>IF(ISNUMBER(Q18),1/Q18,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O21" s="28">
         <f>IF(ISNUMBER(Q19),1/Q19,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P21" s="28">
         <f>IF(ISNUMBER(Q20),1/Q20,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q21" s="33">
         <v>1</v>
@@ -4760,80 +4760,80 @@
       </c>
       <c r="T21" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="U21" s="28">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6064291920069496E-2</v>
       </c>
       <c r="V21" s="28">
         <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.9513688148274098E-3</v>
       </c>
       <c r="W21" s="28">
         <f t="shared" si="4"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.8117734585697023E-3</v>
       </c>
       <c r="X21" s="28">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7471264367816091E-2</v>
       </c>
       <c r="Y21" s="28">
         <f t="shared" si="6"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.5571126682237793E-2</v>
       </c>
       <c r="Z21" s="28">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.0723981900452497E-2</v>
       </c>
       <c r="AA21" s="28">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.2724754121069411E-3</v>
       </c>
       <c r="AB21" s="28">
         <f t="shared" si="9"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.363813482270425E-2</v>
       </c>
       <c r="AC21" s="28">
         <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.7723513194170933E-2</v>
       </c>
       <c r="AD21" s="28">
         <f t="shared" si="11"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.1338103212056636E-3</v>
       </c>
       <c r="AE21" s="28">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.0752959441102271E-3</v>
       </c>
       <c r="AF21" s="28">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7136929460580922E-2</v>
       </c>
       <c r="AG21" s="28">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.0466455513964873E-3</v>
       </c>
       <c r="AH21" s="28">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.5704457074483997E-2</v>
       </c>
       <c r="AI21" s="30">
         <f t="shared" ref="AI21" si="20">SUM(T21:AH21)</f>
-        <v>0.99999999999999989</v>
+        <v>0.34038936084480192</v>
       </c>
       <c r="AJ21" s="18">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.2692624056320127E-2</v>
       </c>
       <c r="AK21" s="58"/>
       <c r="AL21" s="19">
         <f t="shared" si="18"/>
-        <v>0.99999999999999989</v>
+        <v>0.36049652710998609</v>
       </c>
       <c r="AM21" s="19">
         <f t="shared" si="19"/>
-        <v>14.999999999999998</v>
+        <v>15.886066160320675</v>
       </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.3">
@@ -4842,63 +4842,63 @@
       </c>
       <c r="C22" s="30">
         <f>SUM(C7:C21)</f>
-        <v>15</v>
+        <v>5.4809523809523828</v>
       </c>
       <c r="D22" s="30">
         <f t="shared" ref="D22:Q22" si="21">SUM(D7:D21)</f>
-        <v>15</v>
+        <v>5.4809523809523828</v>
       </c>
       <c r="E22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>56.009523809523813</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>25.602380952380951</v>
       </c>
       <c r="G22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="H22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>10.703571428571427</v>
       </c>
       <c r="I22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>73.666666666666657</v>
       </c>
       <c r="J22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>34.376190476190473</v>
       </c>
       <c r="K22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>12.220634920634918</v>
       </c>
       <c r="L22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>8.0603174603174601</v>
       </c>
       <c r="M22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>15.640476190476189</v>
       </c>
       <c r="N22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>49.076190476190483</v>
       </c>
       <c r="O22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>80.333333333333329</v>
       </c>
       <c r="P22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>33.076190476190476</v>
       </c>
       <c r="Q22" s="30">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>63.676190476190477</v>
       </c>
       <c r="S22">
         <f>+AJ6</f>
@@ -4906,63 +4906,63 @@
       </c>
       <c r="T22" s="20">
         <f>+AJ7</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="U22" s="20">
         <f>+AJ8</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="V22" s="20">
         <f>+AJ9</f>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6555945203898892E-2</v>
       </c>
       <c r="W22" s="20">
         <f>+AJ10</f>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7804925015501184E-2</v>
       </c>
       <c r="X22" s="20">
         <f>+AJ11</f>
-        <v>6.6666666666666666E-2</v>
+        <v>9.8984622105457044E-3</v>
       </c>
       <c r="Y22" s="20">
         <f>+AJ12</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11035214358845193</v>
       </c>
       <c r="Z22" s="20">
         <f>+AJ13</f>
-        <v>6.6666666666666666E-2</v>
+        <v>1.4649909774377318E-2</v>
       </c>
       <c r="AA22" s="20">
         <f>+AJ14</f>
-        <v>6.6666666666666666E-2</v>
+        <v>4.1767711392683288E-2</v>
       </c>
       <c r="AB22" s="20">
         <f>+AJ15</f>
-        <v>6.6666666666666666E-2</v>
+        <v>9.6961312532543822E-2</v>
       </c>
       <c r="AC22" s="20">
         <f>+AJ16</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13463001844260183</v>
       </c>
       <c r="AD22" s="20">
         <f>+AJ17</f>
-        <v>6.6666666666666666E-2</v>
+        <v>9.2066402827111052E-2</v>
       </c>
       <c r="AE22" s="20">
         <f>+AJ18</f>
-        <v>6.6666666666666666E-2</v>
+        <v>3.4805234269429226E-2</v>
       </c>
       <c r="AF22" s="20">
         <f>+AJ19</f>
-        <v>6.6666666666666666E-2</v>
+        <v>1.2469473317550812E-2</v>
       </c>
       <c r="AG22" s="20">
         <f>+AJ20</f>
-        <v>6.6666666666666666E-2</v>
+        <v>5.2273246648984133E-2</v>
       </c>
       <c r="AH22" s="20">
         <f>+AJ21</f>
-        <v>6.6666666666666666E-2</v>
+        <v>2.2692624056320127E-2</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.3">
@@ -4971,67 +4971,67 @@
       </c>
       <c r="T24" s="8">
         <f>+IF(ISNUMBER(C7),C7*T$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" ref="U24:AH24" si="22">+IF(ISNUMBER(D7),D7*U$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18589161642729224</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.17341477504650354</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9289235473819932E-2</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.33105643076535579</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10254936842064123</v>
       </c>
       <c r="AA24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.20883855696341644</v>
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.19392262506508764</v>
       </c>
       <c r="AC24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.26926003688520367</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.1841328056542221</v>
       </c>
       <c r="AE24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.17402617134714612</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7286313222855683E-2</v>
       </c>
       <c r="AG24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.26136623324492064</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="22"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15884836839424088</v>
       </c>
       <c r="AI24" s="8">
         <f>+SUM(T24:AH24)</f>
-        <v>0.99999999999999989</v>
+        <v>2.6929551276307064</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.3">
@@ -5040,67 +5040,67 @@
       </c>
       <c r="T25" s="8">
         <f t="shared" ref="T25:T38" si="23">+IF(ISNUMBER(C8),C8*T$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" ref="U25:U38" si="24">+IF(ISNUMBER(D8),D8*U$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" ref="V25:V38" si="25">+IF(ISNUMBER(E8),E8*V$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18589161642729224</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" ref="W25:W38" si="26">+IF(ISNUMBER(F8),F8*W$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.17341477504650354</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" ref="X25:X38" si="27">+IF(ISNUMBER(G8),G8*X$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9289235473819932E-2</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" ref="Y25:Y38" si="28">+IF(ISNUMBER(H8),H8*Y$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.33105643076535579</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ref="Z25:Z38" si="29">+IF(ISNUMBER(I8),I8*Z$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10254936842064123</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" ref="AA25:AA38" si="30">+IF(ISNUMBER(J8),J8*AA$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.20883855696341644</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" ref="AB25:AB38" si="31">+IF(ISNUMBER(K8),K8*AB$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.19392262506508764</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" ref="AC25:AC38" si="32">+IF(ISNUMBER(L8),L8*AC$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.26926003688520367</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" ref="AD25:AD38" si="33">+IF(ISNUMBER(M8),M8*AD$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.1841328056542221</v>
       </c>
       <c r="AE25" s="8">
         <f t="shared" ref="AE25:AE38" si="34">+IF(ISNUMBER(N8),N8*AE$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.17402617134714612</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" ref="AF25:AF38" si="35">+IF(ISNUMBER(O8),O8*AF$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7286313222855683E-2</v>
       </c>
       <c r="AG25" s="8">
         <f t="shared" ref="AG25:AG38" si="36">+IF(ISNUMBER(P8),P8*AG$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.26136623324492064</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" ref="AH25:AH38" si="37">+IF(ISNUMBER(Q8),Q8*AH$22,"")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15884836839424088</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" ref="AI25:AI38" si="38">+SUM(T25:AH25)</f>
-        <v>0.99999999999999989</v>
+        <v>2.6929551276307064</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.3">
@@ -5109,67 +5109,67 @@
       </c>
       <c r="T26" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6555945203898892E-2</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.8902462507750592E-2</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9289235473819932E-2</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.5764591941207415E-2</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3249548871886588E-2</v>
       </c>
       <c r="AA26" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0441927848170822E-2</v>
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3851616076077688E-2</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.9232859777514547E-2</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3152343261015864E-2</v>
       </c>
       <c r="AE26" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.1601744756476408E-2</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.7408419952652434E-2</v>
       </c>
       <c r="AG26" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.7424415549661378E-2</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.8077872168960385E-2</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.4468204963490931</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.3">
@@ -5178,67 +5178,67 @@
       </c>
       <c r="T27" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.8845431786666768E-2</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.8845431786666768E-2</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.3111890407797784E-2</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7804925015501184E-2</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9289235473819932E-2</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.5176071794225963E-2</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7899458646263917E-2</v>
       </c>
       <c r="AA27" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.16707084557073315</v>
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.2320437510847941E-2</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.692600368852037E-2</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.3016600706777763E-2</v>
       </c>
       <c r="AE27" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.17402617134714612</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7286313222855683E-2</v>
       </c>
       <c r="AG27" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.7424415549661378E-2</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11346312028160063</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>1.0625063527890855</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.3">
@@ -5247,67 +5247,67 @@
       </c>
       <c r="T28" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.7937064576998416E-3</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.2578464307858836E-3</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.8984622105457044E-3</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.2070428717690386E-2</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.8833032581257728E-3</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.3535422785366575E-3</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0773479170282646E-2</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.495889093806687E-2</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3152343261015864E-2</v>
       </c>
       <c r="AE28" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.961046853885846E-3</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.1564911058502704E-3</v>
       </c>
       <c r="AG28" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.4676066641405896E-3</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.538524811264026E-3</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.16113318511789043</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.3">
@@ -5316,67 +5316,67 @@
       </c>
       <c r="T29" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.8845431786666768E-2</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.8845431786666768E-2</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18589161642729224</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11560985003100237</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.949231105272852E-2</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11035214358845193</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11719927819501855</v>
       </c>
       <c r="AA29" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.16707084557073315</v>
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.19392262506508764</v>
       </c>
       <c r="AC29" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13463001844260183</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.27619920848133317</v>
       </c>
       <c r="AE29" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.24363663988600459</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7286313222855683E-2</v>
       </c>
       <c r="AG29" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.26136623324492064</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13615574433792077</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>2.1765036911192843</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.3">
@@ -5385,67 +5385,67 @@
       </c>
       <c r="T30" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.3111890407797789E-3</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.6341541692501961E-3</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9695386631637115E-2</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3794017948556491E-2</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.4649909774377318E-2</v>
       </c>
       <c r="AA30" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.3535422785366575E-3</v>
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.9392262506508766E-2</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.495889093806687E-2</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3152343261015864E-2</v>
       </c>
       <c r="AE30" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.961046853885846E-3</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.7408419952652434E-2</v>
       </c>
       <c r="AG30" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0454649329796827E-2</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.5642080187733754E-3</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.23319753366383764</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.3">
@@ -5454,67 +5454,67 @@
       </c>
       <c r="T31" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9307259072000064E-2</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9307259072000064E-2</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10622378081559557</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.4451231253875296E-2</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.949231105272852E-2</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.7588035897112981E-2</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3249548871886588E-2</v>
       </c>
       <c r="AA31" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.1767711392683288E-2</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.2320437510847941E-2</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.692600368852037E-2</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.0688800942370351E-2</v>
       </c>
       <c r="AE31" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10441570280828769</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7286313222855683E-2</v>
       </c>
       <c r="AG31" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.7424415549661378E-2</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.0770496225280509E-2</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.76121930737570631</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.3">
@@ -5523,67 +5523,67 @@
       </c>
       <c r="T32" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3268147680000159E-2</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3268147680000159E-2</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18589161642729224</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.17341477504650354</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.9086159894911338E-2</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.5176071794225963E-2</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3249548871886588E-2</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12530313417804986</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.6961312532543822E-2</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.4876672814200609E-2</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.27619920848133317</v>
       </c>
       <c r="AE32" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.17402617134714612</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.2347366587754062E-2</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.26136623324492064</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13615574433792077</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>1.9005903109186892</v>
       </c>
     </row>
     <row r="33" spans="19:35" x14ac:dyDescent="0.3">
@@ -5592,67 +5592,67 @@
       </c>
       <c r="T33" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3268147680000159E-2</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3268147680000159E-2</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18589161642729224</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.28902462507750593</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.9086159894911338E-2</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11035214358845193</v>
       </c>
       <c r="Z33" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13184918796939588</v>
       </c>
       <c r="AA33" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.20883855696341644</v>
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.29088393759763148</v>
       </c>
       <c r="AC33" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13463001844260183</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.27619920848133317</v>
       </c>
       <c r="AE33" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.24363663988600459</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7286313222855683E-2</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.26136623324492064</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15884836839424088</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>2.6144293045505624</v>
       </c>
     </row>
     <row r="34" spans="19:35" x14ac:dyDescent="0.3">
@@ -5661,67 +5661,67 @@
       </c>
       <c r="T34" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3268147680000159E-2</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3268147680000159E-2</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.18589161642729224</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.23121970006200473</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9289235473819932E-2</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.6784047862817304E-2</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10254936842064123</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12530313417804986</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.2320437510847941E-2</v>
       </c>
       <c r="AC34" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.4876672814200609E-2</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>9.2066402827111052E-2</v>
       </c>
       <c r="AE34" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.24363663988600459</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7286313222855683E-2</v>
       </c>
       <c r="AG34" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.26136623324492064</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15884836839424088</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>1.8179744656848071</v>
       </c>
     </row>
     <row r="35" spans="19:35" x14ac:dyDescent="0.3">
@@ -5730,67 +5730,67 @@
       </c>
       <c r="T35" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9307259072000064E-2</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9307259072000064E-2</v>
       </c>
       <c r="V35" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.9667835611696672E-2</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.1560985003100238E-2</v>
       </c>
       <c r="X35" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.949231105272852E-2</v>
       </c>
       <c r="Y35" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.5764591941207415E-2</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3249548871886588E-2</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3922570464227763E-2</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.9392262506508766E-2</v>
       </c>
       <c r="AC35" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.9232859777514547E-2</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3152343261015864E-2</v>
       </c>
       <c r="AE35" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.4805234269429226E-2</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7286313222855683E-2</v>
       </c>
       <c r="AG35" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.7424415549661378E-2</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11346312028160063</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.60702890995743353</v>
       </c>
     </row>
     <row r="36" spans="19:35" x14ac:dyDescent="0.3">
@@ -5799,67 +5799,67 @@
       </c>
       <c r="T36" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="U36" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="V36" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8519817346329639E-3</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.2578464307858836E-3</v>
       </c>
       <c r="X36" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9695386631637115E-2</v>
       </c>
       <c r="Y36" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.5764591941207415E-2</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.8833032581257728E-3</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.9668159132404697E-3</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.9392262506508766E-2</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.9232859777514547E-2</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3152343261015864E-2</v>
       </c>
       <c r="AE36" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.9721763242041748E-3</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.2469473317550812E-2</v>
       </c>
       <c r="AG36" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0454649329796827E-2</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.241803436617161E-3</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.19820300682283787</v>
       </c>
     </row>
     <row r="37" spans="19:35" x14ac:dyDescent="0.3">
@@ -5868,67 +5868,67 @@
       </c>
       <c r="T37" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9307259072000064E-2</v>
       </c>
       <c r="U37" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.9307259072000064E-2</v>
       </c>
       <c r="V37" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.9667835611696672E-2</v>
       </c>
       <c r="W37" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.17341477504650354</v>
       </c>
       <c r="X37" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9289235473819932E-2</v>
       </c>
       <c r="Y37" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.2070428717690386E-2</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3249548871886588E-2</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12530313417804986</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.9392262506508766E-2</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.692600368852037E-2</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.841328056542221E-2</v>
       </c>
       <c r="AE37" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.10441570280828769</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.2347366587754062E-2</v>
       </c>
       <c r="AG37" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.2273246648984133E-2</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11346312028160063</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.99884045913072506</v>
       </c>
     </row>
     <row r="38" spans="19:35" x14ac:dyDescent="0.3">
@@ -5937,67 +5937,67 @@
       </c>
       <c r="T38" s="8">
         <f t="shared" si="23"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="U38" s="8">
         <f t="shared" si="24"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.0933756480000044E-2</v>
       </c>
       <c r="V38" s="8">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8519817346329639E-3</v>
       </c>
       <c r="W38" s="8">
         <f t="shared" si="26"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.1560985003100238E-2</v>
       </c>
       <c r="X38" s="8">
         <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.949231105272852E-2</v>
       </c>
       <c r="Y38" s="8">
         <f t="shared" si="28"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.8392023931408652E-2</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" si="29"/>
-        <v>6.6666666666666666E-2</v>
+        <v>4.3949729323131959E-2</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" si="30"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0441927848170822E-2</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.616021875542397E-2</v>
       </c>
       <c r="AC38" s="8">
         <f t="shared" si="32"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.9232859777514547E-2</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="33"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.3152343261015864E-2</v>
       </c>
       <c r="AE38" s="8">
         <f t="shared" si="34"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.961046853885846E-3</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="35"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.7286313222855683E-2</v>
       </c>
       <c r="AG38" s="8">
         <f t="shared" si="36"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.0454649329796827E-2</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="37"/>
-        <v>6.6666666666666666E-2</v>
+        <v>2.2692624056320127E-2</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.36049652710998609</v>
       </c>
     </row>
   </sheetData>
@@ -6022,7 +6022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -6100,16 +6100,16 @@
     <row r="3" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56">
         <f ca="1">SUM(AM7:AM21)/AJ6</f>
-        <v>35.917536163120552</v>
+        <v>31.828169338464043</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="23">
         <f ca="1">+(B3-$AJ$6)/($AJ$6-1)</f>
-        <v>1.4941097259371823</v>
+        <v>1.2020120956045746</v>
       </c>
       <c r="E3" s="6">
         <f ca="1">D3/+HLOOKUP(AJ6,T2:AH3,2,FALSE)</f>
-        <v>0.93969165153281897</v>
+        <v>0.75598245006577014</v>
       </c>
       <c r="T3" s="11">
         <v>0</v>
@@ -6304,141 +6304,141 @@
       </c>
       <c r="D7" s="37">
         <f t="shared" ref="D7:Q20" ca="1" si="0">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
-        <v>3</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E7" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F7" s="37">
+      <c r="H7" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="G7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H7" s="37">
+      <c r="I7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
       <c r="K7" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L7" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="P7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q7" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
-      </c>
-      <c r="M7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
       </c>
       <c r="S7" s="35" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="3">
         <f ca="1">+IF(ISNUMBER(C7),C7/C$22,"")</f>
-        <v>3.2657716033383438E-2</v>
+        <v>2.4215634459232208E-2</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" ref="U7:AH21" ca="1" si="1">+IF(ISNUMBER(D7),D7/D$22,"")</f>
-        <v>0.12336009398864303</v>
+        <v>3.4066713981547201E-3</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8701594533029617E-2</v>
+        <v>6.5002901915264089E-2</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22114130979841543</v>
+        <v>4.5365761451704361E-3</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7602931666307398E-2</v>
+        <v>3.0743704860433343E-2</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.888457403276794E-3</v>
+        <v>0.19516728624535315</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2191780821917804E-2</v>
+        <v>0.15423063191717243</v>
       </c>
       <c r="AA7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1128653006382264</v>
+        <v>4.5372050816696917E-3</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8539181501192877E-3</v>
+        <v>5.309398900195942E-2</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17131979695431473</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14624238320920785</v>
+        <v>9.3437152391546166E-2</v>
       </c>
       <c r="AE7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0576373718702727E-3</v>
+        <v>8.6074392868121727E-3</v>
       </c>
       <c r="AF7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16714569975679858</v>
+        <v>5.364327223960662E-3</v>
       </c>
       <c r="AG7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.044035048303752E-2</v>
+        <v>5.3304904051172716E-3</v>
       </c>
       <c r="AH7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.424778761061946E-3</v>
+        <v>0.24311808592745043</v>
       </c>
       <c r="AI7" s="4">
         <f ca="1">SUM(T7:AH7)</f>
-        <v>1.2218937495696101</v>
+        <v>1.1467920962592961</v>
       </c>
       <c r="AJ7" s="18">
         <f ca="1">+$AI7/$AJ$6</f>
-        <v>8.1459583304640676E-2</v>
+        <v>7.6452806417286412E-2</v>
       </c>
       <c r="AK7" s="58" t="s">
         <v>43</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">+AI24</f>
-        <v>2.8440642509189118</v>
+        <v>2.3456228698328694</v>
       </c>
       <c r="AM7" s="19">
         <f ca="1">IF(AJ7&lt;&gt;0,+AL7/AJ7,0)</f>
-        <v>34.913807995834517</v>
+        <v>30.680664056074608</v>
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.3">
@@ -6447,142 +6447,142 @@
       </c>
       <c r="C8" s="3">
         <f ca="1">IF(ISNUMBER(D7),1/D7,"")</f>
-        <v>0.33333333333333331</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="H8" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F8" s="37">
+      <c r="I8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>0.14285714285714285</v>
-      </c>
-      <c r="G8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="H8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
       </c>
       <c r="S8" s="35" t="s">
         <v>1</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" ref="T8:T21" ca="1" si="2">+IF(ISNUMBER(C8),C8/C$22,"")</f>
-        <v>1.0885905344461147E-2</v>
+        <v>0.16950944121462547</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1120031329547675E-2</v>
+        <v>2.384669978708304E-2</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7403189066059235E-2</v>
+        <v>4.0626813697040055E-3</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.513087955069702E-3</v>
+        <v>0.18146304580681744</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4669109721922835E-3</v>
+        <v>7.6859262151083357E-3</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.087680729175023E-2</v>
+        <v>2.7881040892193308E-2</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13150684931506848</v>
+        <v>4.284184219921456E-3</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1316761840779308</v>
+        <v>3.1760435571687839E-2</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24665076160763441</v>
+        <v>5.309398900195942E-2</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9035532994923859E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12186865267433987</v>
+        <v>1.1679644048943271E-2</v>
       </c>
       <c r="AE8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14821038480927573</v>
+        <v>6.4555794651091304E-3</v>
       </c>
       <c r="AF8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16714569975679858</v>
+        <v>0.16092981671881987</v>
       </c>
       <c r="AG8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.740058413839586E-3</v>
+        <v>2.3987206823027723E-2</v>
       </c>
       <c r="AH8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18584070796460173</v>
+        <v>3.8590172369436576E-3</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" ref="AI8:AI20" ca="1" si="3">SUM(T8:AH8)</f>
-        <v>1.3599407635734932</v>
+        <v>0.7744987083719439</v>
       </c>
       <c r="AJ8" s="18">
         <f t="shared" ref="AJ8:AJ21" ca="1" si="4">+$AI8/$AJ$6</f>
-        <v>9.0662717571566215E-2</v>
+        <v>5.1633247224796258E-2</v>
       </c>
       <c r="AK8" s="58"/>
       <c r="AL8" s="19">
         <f t="shared" ref="AL8:AL21" ca="1" si="5">+AI25</f>
-        <v>3.334110992578637</v>
+        <v>1.9410184949581031</v>
       </c>
       <c r="AM8" s="19">
         <f t="shared" ref="AM8:AM21" ca="1" si="6">IF(AJ8&lt;&gt;0,+AL8/AJ8,0)</f>
-        <v>36.774884780469961</v>
+        <v>37.592415726004383</v>
       </c>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.3">
@@ -6591,142 +6591,142 @@
       </c>
       <c r="C9" s="3">
         <f ca="1">IF(ISNUMBER(E7),1/E7,"")</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">IF(ISNUMBER(E8),1/E8,"")</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" s="38">
         <v>1</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="G9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H9" s="37">
         <f ca="1">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K9" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N9" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O9" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="P9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="S9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5315432066766876E-2</v>
+        <v>1.2107817229616104E-2</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1120031329547675E-2</v>
+        <v>0.19077359829666432</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7403189066059235E-2</v>
+        <v>3.2501450957632044E-2</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.318323137097584E-3</v>
+        <v>0.13609728435511309</v>
       </c>
       <c r="X9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20694115111015307</v>
+        <v>8.7839156744095263E-3</v>
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.087680729175023E-2</v>
+        <v>2.7881040892193308E-2</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13150684931506848</v>
+        <v>2.5705105319528739E-2</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1692979509573396</v>
+        <v>1.058681185722928E-2</v>
       </c>
       <c r="AB9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0277115066984767E-2</v>
+        <v>5.309398900195942E-2</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11421319796954316</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4373730534867976E-2</v>
+        <v>7.0077864293659614E-2</v>
       </c>
       <c r="AE9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14821038480927573</v>
+        <v>0.18075622502305566</v>
       </c>
       <c r="AF9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2858722087110317E-3</v>
+        <v>8.9405453732677685E-3</v>
       </c>
       <c r="AG9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.044035048303752E-2</v>
+        <v>9.5948827292110898E-3</v>
       </c>
       <c r="AH9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0973451327433621E-2</v>
+        <v>5.402624131721121E-3</v>
       </c>
       <c r="AI9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1365538366736365</v>
+        <v>0.80430315513526085</v>
       </c>
       <c r="AJ9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5770255778242437E-2</v>
+        <v>5.3620210342350726E-2</v>
       </c>
       <c r="AK9" s="58"/>
       <c r="AL9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6458933218032623</v>
+        <v>1.6781946850301943</v>
       </c>
       <c r="AM9" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>34.9199470772149</v>
+        <v>31.297801226727188</v>
       </c>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.3">
@@ -6735,22 +6735,22 @@
       </c>
       <c r="C10" s="3">
         <f ca="1">IF(ISNUMBER(F7),1/F7,"")</f>
-        <v>0.14285714285714285</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">IF(ISNUMBER(F8),1/F8,"")</f>
-        <v>7</v>
+        <v>0.125</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">IF(ISNUMBER(F9),1/F9,"")</f>
-        <v>5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F10" s="38">
         <v>1</v>
       </c>
       <c r="G10" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H10" s="37">
         <f t="shared" ca="1" si="0"/>
@@ -6758,119 +6758,119 @@
       </c>
       <c r="I10" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N10" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="37">
+      <c r="O10" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="L10" s="37">
+      <c r="P10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q10" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
-      </c>
-      <c r="M10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="O10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.125</v>
       </c>
       <c r="S10" s="35" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6653880047690622E-3</v>
+        <v>0.12107817229616104</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28784021930683373</v>
+        <v>2.98083747338538E-3</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28701594533029617</v>
+        <v>5.4169084929386732E-3</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.159161568548792E-2</v>
+        <v>2.2682880725852179E-2</v>
       </c>
       <c r="X10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1735287777538268E-3</v>
+        <v>6.8319344134296313E-3</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16175361458350046</v>
+        <v>0.22304832713754646</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13150684931506848</v>
+        <v>1.285255265976437E-2</v>
       </c>
       <c r="AA10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8810883439704402E-2</v>
+        <v>0.1588021778584392</v>
       </c>
       <c r="AB10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15415672600477151</v>
+        <v>1.7697996333986474E-2</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17131979695431473</v>
+        <v>0.128</v>
       </c>
       <c r="AD10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8747461069735952E-2</v>
+        <v>3.3370411568409341E-3</v>
       </c>
       <c r="AE10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0247017308015454E-3</v>
+        <v>2.5822317860436522E-2</v>
       </c>
       <c r="AF10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7857616626133095E-2</v>
+        <v>0.13410818059901655</v>
       </c>
       <c r="AG10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16176140193215008</v>
+        <v>7.9957356076759065E-3</v>
       </c>
       <c r="AH10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8716814159292026E-3</v>
+        <v>0.24311808592745043</v>
       </c>
       <c r="AI10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4990974301772504</v>
+        <v>1.1137731485429239</v>
       </c>
       <c r="AJ10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9939828678483361E-2</v>
+        <v>7.4251543236194928E-2</v>
       </c>
       <c r="AK10" s="58"/>
       <c r="AL10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2146724940617704</v>
+        <v>2.5245793819251379</v>
       </c>
       <c r="AM10" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>32.16607969585079</v>
+        <v>34.000362442224599</v>
       </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.3">
@@ -6879,142 +6879,142 @@
       </c>
       <c r="C11" s="3">
         <f ca="1">IF(ISNUMBER(G7),1/G7,"")</f>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">IF(ISNUMBER(G8),1/G8,"")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">IF(ISNUMBER(G9),1/G9,"")</f>
-        <v>0.125</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3">
         <f ca="1">IF(ISNUMBER(G10),1/G10,"")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G11" s="39">
         <v>1</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O11" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="I11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="K11" s="37">
+      <c r="P11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
-      </c>
-      <c r="L11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="P11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
       </c>
       <c r="S11" s="35" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0885905344461147E-2</v>
+        <v>4.8431268918464415E-2</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1644801253181907</v>
+        <v>0.19077359829666432</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1753986332574043E-3</v>
+        <v>0.22751015670342428</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15795807842743959</v>
+        <v>0.20414592653266964</v>
       </c>
       <c r="X11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5867643888769134E-2</v>
+        <v>6.1487409720866686E-2</v>
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16175361458350046</v>
+        <v>5.5762081784386623E-3</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.575342465753424E-2</v>
+        <v>0.10282042127811496</v>
       </c>
       <c r="AA11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6872690628149142E-3</v>
+        <v>0.2223230490018149</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0831345200954301E-2</v>
+        <v>8.8489981669932372E-3</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8071065989847719E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4373730534867976E-2</v>
+        <v>0.1167964404894327</v>
       </c>
       <c r="AE11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3518736346832458E-2</v>
+        <v>5.1644635720873043E-2</v>
       </c>
       <c r="AF11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9796595180190131E-3</v>
+        <v>0.21457308895842647</v>
       </c>
       <c r="AG11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.022017524151876E-2</v>
+        <v>0.28784648187633266</v>
       </c>
       <c r="AH11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.424778761061946E-3</v>
+        <v>2.7013120658605602E-2</v>
       </c>
       <c r="AI11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78198095150906977</v>
+        <v>1.8017908045011215</v>
       </c>
       <c r="AJ11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2132063433937982E-2</v>
+        <v>0.12011938696674143</v>
       </c>
       <c r="AK11" s="58"/>
       <c r="AL11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1152064502369479</v>
+        <v>3.8274432948707702</v>
       </c>
       <c r="AM11" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>40.574002080645599</v>
+        <v>31.863659909707248</v>
       </c>
     </row>
     <row r="12" spans="2:39" x14ac:dyDescent="0.3">
@@ -7023,15 +7023,15 @@
       </c>
       <c r="C12" s="3">
         <f ca="1">IF(ISNUMBER(H7),1/H7,"")</f>
-        <v>7</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D12" s="3">
         <f ca="1">IF(ISNUMBER(H8),1/H8,"")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">IF(ISNUMBER(H9),1/H9,"")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <f ca="1">IF(ISNUMBER(H10),1/H10,"")</f>
@@ -7039,126 +7039,126 @@
       </c>
       <c r="G12" s="3">
         <f ca="1">IF(ISNUMBER(H11),1/H11,"")</f>
-        <v>0.125</v>
+        <v>5</v>
       </c>
       <c r="H12" s="38">
         <v>1</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J12" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="K12" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="L12" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M12" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N12" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="O12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
       <c r="P12" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.125</v>
+        <v>4</v>
       </c>
       <c r="S12" s="35" t="s">
         <v>21</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22860401223368407</v>
+        <v>3.4593763513188869E-3</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0280007832386919E-2</v>
+        <v>2.384669978708304E-2</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4350797266514809E-2</v>
+        <v>3.2501450957632044E-2</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.94895196068599E-3</v>
+        <v>2.8353600907315224E-3</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2334554860961417E-3</v>
+        <v>0.30743704860433341</v>
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0219201822937558E-2</v>
+        <v>2.7881040892193308E-2</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14794520547945206</v>
+        <v>2.8561228132809708E-3</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3513604299630502E-3</v>
+        <v>6.3520871143375679E-2</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4044778858506146E-3</v>
+        <v>5.309398900195942E-2</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13324873096446702</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21936357481381177</v>
+        <v>0.14015572858731923</v>
       </c>
       <c r="AE12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4691648462443272E-2</v>
+        <v>5.1644635720873043E-2</v>
       </c>
       <c r="AF12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.571523325226619E-2</v>
+        <v>0.10728654447921324</v>
       </c>
       <c r="AG12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20220175241518759</v>
+        <v>9.5948827292110898E-3</v>
       </c>
       <c r="AH12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8716814159292026E-3</v>
+        <v>0.10805248263442241</v>
       </c>
       <c r="AI12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1344300917216763</v>
+        <v>0.9661662337929473</v>
       </c>
       <c r="AJ12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5628672781445083E-2</v>
+        <v>6.4411082252863155E-2</v>
       </c>
       <c r="AK12" s="58"/>
       <c r="AL12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4092201090510392</v>
+        <v>1.8568156814308723</v>
       </c>
       <c r="AM12" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>31.855908882776571</v>
+        <v>28.827580852335927</v>
       </c>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.3">
@@ -7167,19 +7167,19 @@
       </c>
       <c r="C13" s="3">
         <f ca="1">IF(ISNUMBER(I7),1/I7,"")</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D13" s="3">
         <f ca="1">IF(ISNUMBER(I8),1/I8,"")</f>
-        <v>0.125</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
         <f ca="1">IF(ISNUMBER(I9),1/I9,"")</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
         <f ca="1">IF(ISNUMBER(I10),1/I10,"")</f>
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
         <f ca="1">IF(ISNUMBER(I11),1/I11,"")</f>
@@ -7187,122 +7187,122 @@
       </c>
       <c r="H13" s="3">
         <f ca="1">IF(ISNUMBER(I12),1/I12,"")</f>
-        <v>0.1111111111111111</v>
+        <v>9</v>
       </c>
       <c r="I13" s="38">
         <v>1</v>
       </c>
       <c r="J13" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N13" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L13" s="37">
+      <c r="O13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="P13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q13" s="37">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
-      </c>
-      <c r="M13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="O13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="P13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
       </c>
       <c r="S13" s="35" t="s">
         <v>22</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5315432066766887E-3</v>
+        <v>4.0359390765387013E-3</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1400039161934594E-3</v>
+        <v>0.14308019872249825</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1753986332574043E-3</v>
+        <v>3.2501450957632044E-2</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.94895196068599E-3</v>
+        <v>4.5365761451704359E-2</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4669109721922835E-3</v>
+        <v>1.5371852430216671E-2</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2465779803263952E-3</v>
+        <v>0.25092936802973975</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.643835616438356E-2</v>
+        <v>2.5705105319528739E-2</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6872690628149142E-3</v>
+        <v>0.25408348457350272</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2494035602862915E-2</v>
+        <v>1.0618797800391886E-2</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9035532994923859E-2</v>
+        <v>1.0666666666666666E-2</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3121191604603925E-2</v>
+        <v>7.7864293659621799E-3</v>
       </c>
       <c r="AE13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0586456057805409E-2</v>
+        <v>3.6889025514909315E-3</v>
       </c>
       <c r="AF13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3928808313066548E-2</v>
+        <v>6.7054090299508273E-3</v>
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0880700966075043E-3</v>
+        <v>1.5991471215351813E-2</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18584070796460173</v>
+        <v>2.7013120658605602E-2</v>
       </c>
       <c r="AI13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45372981453100258</v>
+        <v>0.85354395784978121</v>
       </c>
       <c r="AJ13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>3.024865430206684E-2</v>
+        <v>5.6902930523318747E-2</v>
       </c>
       <c r="AK13" s="58"/>
       <c r="AL13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1298046131448571</v>
+        <v>1.9302641225810311</v>
       </c>
       <c r="AM13" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>37.350574404483822</v>
+        <v>33.92205119892747</v>
       </c>
     </row>
     <row r="14" spans="2:39" x14ac:dyDescent="0.3">
@@ -7311,42 +7311,42 @@
       </c>
       <c r="C14" s="3">
         <f ca="1">IF(ISNUMBER(J7),1/J7,"")</f>
-        <v>0.16666666666666666</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3">
         <f ca="1">IF(ISNUMBER(J8),1/J8,"")</f>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <f ca="1">IF(ISNUMBER(J9),1/J9,"")</f>
-        <v>0.1111111111111111</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <f ca="1">IF(ISNUMBER(J10),1/J10,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G14" s="3">
         <f ca="1">IF(ISNUMBER(J11),1/J11,"")</f>
-        <v>7</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H14" s="3">
         <f ca="1">IF(ISNUMBER(J12),1/J12,"")</f>
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="3">
         <f ca="1">IF(ISNUMBER(J13),1/J13,"")</f>
-        <v>7</v>
+        <v>0.125</v>
       </c>
       <c r="J14" s="38">
         <v>1</v>
       </c>
       <c r="K14" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L14" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="M14" s="37">
         <f t="shared" ca="1" si="0"/>
@@ -7354,99 +7354,99 @@
       </c>
       <c r="N14" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O14" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="O14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
       <c r="P14" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="S14" s="35" t="s">
         <v>23</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4429526722305733E-3</v>
+        <v>0.16950944121462547</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8742901899353824E-3</v>
+        <v>2.384669978708304E-2</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3781321184510258E-3</v>
+        <v>9.7504352872896119E-2</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.159161568548792E-2</v>
+        <v>4.5365761451704361E-3</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18107350722138393</v>
+        <v>8.7839156744095263E-3</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16175361458350046</v>
+        <v>1.3940520446096654E-2</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11506849315068493</v>
+        <v>3.2131381649410924E-3</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8810883439704402E-2</v>
+        <v>3.1760435571687839E-2</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12332538080381721</v>
+        <v>1.7697996333986474E-2</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8071065989847717E-3</v>
+        <v>0.224</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2186865267433988E-2</v>
+        <v>1.1679644048943271E-2</v>
       </c>
       <c r="AE14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2345824231221636E-2</v>
+        <v>0.15493390716261912</v>
       </c>
       <c r="AF14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0952907362370103E-3</v>
+        <v>5.3643272239606618E-2</v>
       </c>
       <c r="AG14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4933722758930573E-3</v>
+        <v>0.23987206823027721</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0324483775811208E-2</v>
+        <v>2.7013120658605602E-2</v>
       </c>
       <c r="AI14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72557181275077742</v>
+        <v>1.0819350885509484</v>
       </c>
       <c r="AJ14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8371454183385162E-2</v>
+        <v>7.2129005903396562E-2</v>
       </c>
       <c r="AK14" s="58"/>
       <c r="AL14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8538961710023345</v>
+        <v>2.172324364871677</v>
       </c>
       <c r="AM14" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>38.326244317027765</v>
+        <v>30.117209265036912</v>
       </c>
     </row>
     <row r="15" spans="2:39" x14ac:dyDescent="0.3">
@@ -7455,142 +7455,142 @@
       </c>
       <c r="C15" s="3">
         <f ca="1">IF(ISNUMBER(K7),1/K7,"")</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <f ca="1">IF(ISNUMBER(K8),1/K8,"")</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <f ca="1">IF(ISNUMBER(K9),1/K9,"")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
         <f ca="1">IF(ISNUMBER(K10),1/K10,"")</f>
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <f ca="1">IF(ISNUMBER(K11),1/K11,"")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
         <f ca="1">IF(ISNUMBER(K12),1/K12,"")</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <f ca="1">IF(ISNUMBER(K13),1/K13,"")</f>
-        <v>0.33333333333333331</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <f ca="1">IF(ISNUMBER(K14),1/K14,"")</f>
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="K15" s="38">
         <v>1</v>
       </c>
       <c r="L15" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M15" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N15" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O15" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P15" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="N15" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O15" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="P15" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
       <c r="Q15" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26126172826706751</v>
+        <v>2.4215634459232208E-2</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1400039161934594E-3</v>
+        <v>2.384669978708304E-2</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1722095671981777</v>
+        <v>3.2501450957632044E-2</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.318323137097584E-3</v>
+        <v>6.8048642177556545E-2</v>
       </c>
       <c r="X15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5867643888769134E-2</v>
+        <v>0.3689244583252001</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14153441276056292</v>
+        <v>2.7881040892193308E-2</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4794520547945197E-3</v>
+        <v>0.12852552659764369</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7027208599261005E-3</v>
+        <v>9.5281306715063532E-2</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0831345200954301E-2</v>
+        <v>5.309398900195942E-2</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8071065989847719E-2</v>
+        <v>5.3333333333333332E-3</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.062288422477996E-3</v>
+        <v>7.0077864293659614E-2</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12703747269366492</v>
+        <v>0.12911158930218261</v>
       </c>
       <c r="AF15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3928808313066548E-2</v>
+        <v>0.18775145283862316</v>
       </c>
       <c r="AG15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2426421028982251</v>
+        <v>7.9957356076759065E-3</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0973451327433621E-2</v>
+        <v>0.21610496526884482</v>
       </c>
       <c r="AI15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.110060386928259</v>
+        <v>1.4386936895578835</v>
       </c>
       <c r="AJ15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4004025795217268E-2</v>
+        <v>9.5912912637192232E-2</v>
       </c>
       <c r="AK15" s="58"/>
       <c r="AL15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5691088331021303</v>
+        <v>2.9713524057666434</v>
       </c>
       <c r="AM15" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>34.715798302802149</v>
+        <v>30.979691097551338</v>
       </c>
     </row>
     <row r="16" spans="2:39" x14ac:dyDescent="0.3">
@@ -7599,142 +7599,142 @@
       </c>
       <c r="C16" s="3">
         <f ca="1">IF(ISNUMBER(L7),1/L7,"")</f>
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">IF(ISNUMBER(L8),1/L8,"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="3">
         <f ca="1">IF(ISNUMBER(L9),1/L9,"")</f>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <f ca="1">IF(ISNUMBER(L10),1/L10,"")</f>
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="G16" s="3">
         <f ca="1">IF(ISNUMBER(L11),1/L11,"")</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <f ca="1">IF(ISNUMBER(L12),1/L12,"")</f>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
         <f ca="1">IF(ISNUMBER(L13),1/L13,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
         <f ca="1">IF(ISNUMBER(L14),1/L14,"")</f>
-        <v>5</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K16" s="3">
         <f ca="1">IF(ISNUMBER(L15),1/L15,"")</f>
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="L16" s="38">
         <v>1</v>
       </c>
       <c r="M16" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="N16" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>4</v>
       </c>
       <c r="O16" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P16" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
-      </c>
-      <c r="Q16" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
       </c>
       <c r="S16" s="35" t="s">
         <v>25</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6286351148203818E-3</v>
+        <v>3.0269543074040259E-3</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1120031329547675E-2</v>
+        <v>1.192334989354152E-2</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5671981776765391E-3</v>
+        <v>3.2501450957632044E-2</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5101795206097684E-3</v>
+        <v>5.6707201814630449E-3</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2933821944384567E-2</v>
+        <v>6.1487409720866686E-2</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.888457403276794E-3</v>
+        <v>2.7881040892193308E-2</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.643835616438356E-2</v>
+        <v>7.7115315958586214E-2</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4054417198522006E-2</v>
+        <v>4.5372050816696917E-3</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5415672600477151E-2</v>
+        <v>0.31856393401175653</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9035532994923859E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.093432633716994E-3</v>
+        <v>4.6718576195773083E-2</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0247017308015454E-3</v>
+        <v>0.10328927144174609</v>
       </c>
       <c r="AF16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16714569975679858</v>
+        <v>2.6821636119803309E-2</v>
       </c>
       <c r="AG16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3480116827679172E-2</v>
+        <v>4.7974413646055446E-2</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18584070796460173</v>
+        <v>9.0043735528685335E-3</v>
       </c>
       <c r="AI16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59417696136222031</v>
+        <v>0.80851565196135955</v>
       </c>
       <c r="AJ16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9611797424148019E-2</v>
+        <v>5.3901043464090637E-2</v>
       </c>
       <c r="AK16" s="58"/>
       <c r="AL16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5039485683029907</v>
+        <v>1.4877238541094051</v>
       </c>
       <c r="AM16" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>37.967188214139412</v>
+        <v>27.601021399530794</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.3">
@@ -7743,31 +7743,31 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">IF(ISNUMBER(M7),1/M7,"")</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">IF(ISNUMBER(M8),1/M8,"")</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">IF(ISNUMBER(M9),1/M9,"")</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F17" s="3">
         <f ca="1">IF(ISNUMBER(M10),1/M10,"")</f>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="G17" s="3">
         <f ca="1">IF(ISNUMBER(M11),1/M11,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H17" s="3">
         <f ca="1">IF(ISNUMBER(M12),1/M12,"")</f>
-        <v>0.1111111111111111</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I17" s="3">
         <f ca="1">IF(ISNUMBER(M13),1/M13,"")</f>
-        <v>0.33333333333333331</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
         <f ca="1">IF(ISNUMBER(M14),1/M14,"")</f>
@@ -7775,110 +7775,110 @@
       </c>
       <c r="K17" s="3">
         <f ca="1">IF(ISNUMBER(M15),1/M15,"")</f>
-        <v>6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L17" s="3">
         <f ca="1">IF(ISNUMBER(M16),1/M16,"")</f>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="M17" s="38">
         <v>1</v>
       </c>
       <c r="N17" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O17" s="37">
         <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="P17" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q17" s="37">
+        <f t="shared" ca="1" si="0"/>
         <v>0.14285714285714285</v>
-      </c>
-      <c r="P17" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q17" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
       </c>
       <c r="S17" s="35" t="s">
         <v>26</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4429526722305733E-3</v>
+        <v>6.0539086148080519E-3</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2240062659095364E-3</v>
+        <v>4.769339957416608E-2</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7403189066059235E-2</v>
+        <v>1.0833816985877346E-2</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.579580784274396E-2</v>
+        <v>0.15878016508096526</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5867643888769134E-2</v>
+        <v>1.2297481944173337E-2</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2465779803263952E-3</v>
+        <v>4.6468401486988841E-3</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4794520547945197E-3</v>
+        <v>7.7115315958586214E-2</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7621766879408804E-2</v>
+        <v>6.3520871143375679E-2</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18498807120572583</v>
+        <v>1.7697996333986474E-2</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6142131979695438E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4373730534867976E-2</v>
+        <v>2.3359288097886542E-2</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19055620904049739</v>
+        <v>7.7466953581309561E-2</v>
       </c>
       <c r="AF17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9796595180190131E-3</v>
+        <v>6.7054090299508273E-3</v>
       </c>
       <c r="AG17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.011008762075938E-2</v>
+        <v>7.9957356076759065E-3</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0973451327433621E-2</v>
+        <v>3.8590172369436576E-3</v>
       </c>
       <c r="AI17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67920473787724078</v>
+        <v>0.53402619933840401</v>
       </c>
       <c r="AJ17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5280315858482717E-2</v>
+        <v>3.5601746622560264E-2</v>
       </c>
       <c r="AK17" s="58"/>
       <c r="AL17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6160375780767879</v>
+        <v>1.2531802912640584</v>
       </c>
       <c r="AM17" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>35.68962688174453</v>
+        <v>35.199966578885146</v>
       </c>
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.3">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="D18" s="3">
         <f ca="1">IF(ISNUMBER(N8),1/N8,"")</f>
-        <v>0.14285714285714285</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
         <f ca="1">IF(ISNUMBER(N9),1/N9,"")</f>
@@ -7899,42 +7899,42 @@
       </c>
       <c r="F18" s="3">
         <f ca="1">IF(ISNUMBER(N10),1/N10,"")</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
         <f ca="1">IF(ISNUMBER(N11),1/N11,"")</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="3">
         <f ca="1">IF(ISNUMBER(N12),1/N12,"")</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="3">
         <f ca="1">IF(ISNUMBER(N13),1/N13,"")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J18" s="3">
         <f ca="1">IF(ISNUMBER(N14),1/N14,"")</f>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K18" s="3">
         <f ca="1">IF(ISNUMBER(N15),1/N15,"")</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="3">
         <f ca="1">IF(ISNUMBER(N16),1/N16,"")</f>
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="M18" s="3">
         <f ca="1">IF(ISNUMBER(N17),1/N17,"")</f>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N18" s="38">
         <v>1</v>
       </c>
       <c r="O18" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P18" s="37">
         <f t="shared" ca="1" si="0"/>
@@ -7942,87 +7942,87 @@
       </c>
       <c r="Q18" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="S18" s="35" t="s">
         <v>27</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7973148100150315E-2</v>
+        <v>7.2646903377696623E-2</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8742901899353824E-3</v>
+        <v>9.538679914833216E-2</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2004555808656045E-3</v>
+        <v>4.6430644225188625E-3</v>
       </c>
       <c r="W18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22114130979841543</v>
+        <v>2.2682880725852179E-2</v>
       </c>
       <c r="X18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6225479629230429E-3</v>
+        <v>3.0743704860433343E-2</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0548004557343894E-3</v>
+        <v>1.3940520446096654E-2</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.287671232876712E-2</v>
+        <v>0.17993573723670117</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4054417198522009E-3</v>
+        <v>5.2934059286146402E-3</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1385575334923833E-3</v>
+        <v>1.0618797800391886E-2</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13324873096446702</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7081922816519972E-3</v>
+        <v>7.7864293659621799E-3</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1172912115610818E-2</v>
+        <v>2.5822317860436522E-2</v>
       </c>
       <c r="AF18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6429361043555158E-3</v>
+        <v>2.6821636119803309E-2</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.044035048303752E-2</v>
+        <v>4.7974413646055446E-2</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27876106194690259</v>
+        <v>5.402624131721121E-3</v>
       </c>
       <c r="AI18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87526144756616131</v>
+        <v>0.55769923507061614</v>
       </c>
       <c r="AJ18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8350763171077423E-2</v>
+        <v>3.7179949004707745E-2</v>
       </c>
       <c r="AK18" s="58"/>
       <c r="AL18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3437424864331717</v>
+        <v>1.2589252294871816</v>
       </c>
       <c r="AM18" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>40.166441003720905</v>
+        <v>33.86032695547204</v>
       </c>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.3">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="C19" s="3">
         <f ca="1">IF(ISNUMBER(O7),1/O7,"")</f>
-        <v>0.16666666666666666</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
         <f ca="1">IF(ISNUMBER(O8),1/O8,"")</f>
@@ -8043,130 +8043,130 @@
       </c>
       <c r="F19" s="3">
         <f ca="1">IF(ISNUMBER(O10),1/O10,"")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G19" s="3">
         <f ca="1">IF(ISNUMBER(O11),1/O11,"")</f>
-        <v>7</v>
+        <v>0.125</v>
       </c>
       <c r="H19" s="3">
         <f ca="1">IF(ISNUMBER(O12),1/O12,"")</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I19" s="3">
         <f ca="1">IF(ISNUMBER(O13),1/O13,"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" s="3">
         <f ca="1">IF(ISNUMBER(O14),1/O14,"")</f>
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="K19" s="3">
         <f ca="1">IF(ISNUMBER(O15),1/O15,"")</f>
-        <v>2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L19" s="3">
         <f ca="1">IF(ISNUMBER(O16),1/O16,"")</f>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19" s="3">
         <f ca="1">IF(ISNUMBER(O17),1/O17,"")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N19" s="3">
         <f ca="1">IF(ISNUMBER(O18),1/O18,"")</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O19" s="38">
         <v>1</v>
       </c>
       <c r="P19" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="S19" s="35" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4429526722305733E-3</v>
+        <v>0.12107817229616104</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8533385549246128E-3</v>
+        <v>3.97444996451384E-3</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1722095671981777</v>
+        <v>9.7504352872896119E-2</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.159161568548792E-2</v>
+        <v>4.5365761451704361E-3</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18107350722138393</v>
+        <v>7.6859262151083357E-3</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0109600911468779E-2</v>
+        <v>6.970260223048327E-3</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.287671232876712E-2</v>
+        <v>0.10282042127811496</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1692979509573396</v>
+        <v>1.588021778584392E-2</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1662690401908603E-2</v>
+        <v>7.5848555717084884E-3</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1725888324873096E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17061611374407581</v>
+        <v>9.3437152391546166E-2</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12703747269366492</v>
+        <v>2.5822317860436522E-2</v>
       </c>
       <c r="AF19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7857616626133095E-2</v>
+        <v>2.6821636119803309E-2</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.740058413839586E-3</v>
+        <v>0.19189765458422178</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1622418879056038E-3</v>
+        <v>2.7013120658605602E-2</v>
       </c>
       <c r="AI19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0117040281297951</v>
+        <v>0.76502711396717882</v>
       </c>
       <c r="AJ19" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7446935208653011E-2</v>
+        <v>5.1001807597811921E-2</v>
       </c>
       <c r="AK19" s="58"/>
       <c r="AL19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1704893879991984</v>
+        <v>1.5955672073296214</v>
       </c>
       <c r="AM19" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>32.18069703663479</v>
+        <v>31.284522695977437</v>
       </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.3">
@@ -8175,47 +8175,47 @@
       </c>
       <c r="C20" s="3">
         <f ca="1">IF(ISNUMBER(P7),1/P7,"")</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
         <f ca="1">IF(ISNUMBER(P8),1/P8,"")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3">
         <f ca="1">IF(ISNUMBER(P9),1/P9,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3">
         <f ca="1">IF(ISNUMBER(P10),1/P10,"")</f>
-        <v>0.25</v>
+        <v>6</v>
       </c>
       <c r="G20" s="3">
         <f ca="1">IF(ISNUMBER(P11),1/P11,"")</f>
-        <v>2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H20" s="3">
         <f ca="1">IF(ISNUMBER(P12),1/P12,"")</f>
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="I20" s="3">
         <f ca="1">IF(ISNUMBER(P13),1/P13,"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3">
         <f ca="1">IF(ISNUMBER(P14),1/P14,"")</f>
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="K20" s="3">
         <f ca="1">IF(ISNUMBER(P15),1/P15,"")</f>
-        <v>0.16666666666666666</v>
+        <v>6</v>
       </c>
       <c r="L20" s="3">
         <f ca="1">IF(ISNUMBER(P16),1/P16,"")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3">
         <f ca="1">IF(ISNUMBER(P17),1/P17,"")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N20" s="3">
         <f ca="1">IF(ISNUMBER(P18),1/P18,"")</f>
@@ -8223,94 +8223,94 @@
       </c>
       <c r="O20" s="3">
         <f ca="1">IF(ISNUMBER(P19),1/P19,"")</f>
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="P20" s="38">
         <v>1</v>
       </c>
       <c r="Q20" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S20" s="35" t="s">
         <v>29</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2657716033383438E-2</v>
+        <v>0.21794071013308988</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24672018797728607</v>
+        <v>4.769339957416608E-2</v>
       </c>
       <c r="V20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7403189066059235E-2</v>
+        <v>0.16250725478816019</v>
       </c>
       <c r="W20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.89790392137198E-3</v>
+        <v>0.13609728435511309</v>
       </c>
       <c r="X20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1735287777538268E-2</v>
+        <v>1.0247901620144446E-2</v>
       </c>
       <c r="Y20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.043840364587512E-3</v>
+        <v>0.13940520446096655</v>
       </c>
       <c r="Z20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2191780821917804E-2</v>
+        <v>7.7115315958586214E-2</v>
       </c>
       <c r="AA20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1692979509573396</v>
+        <v>6.3520871143375691E-3</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1385575334923833E-3</v>
+        <v>0.31856393401175653</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7106598984771578E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7494922139471904E-2</v>
+        <v>0.14015572858731923</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1172912115610818E-2</v>
+        <v>2.5822317860436522E-2</v>
       </c>
       <c r="AF20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16714569975679858</v>
+        <v>6.7054090299508273E-3</v>
       </c>
       <c r="AG20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.044035048303752E-2</v>
+        <v>4.7974413646055446E-2</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7433628318584052E-3</v>
+        <v>2.7013120658605602E-2</v>
       </c>
       <c r="AI20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0481902607645248</v>
+        <v>1.395594081798688</v>
       </c>
       <c r="AJ20" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9879350717634986E-2</v>
+        <v>9.3039605453245869E-2</v>
       </c>
       <c r="AK20" s="58"/>
       <c r="AL20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3001731028608301</v>
+        <v>3.0819636929102905</v>
       </c>
       <c r="AM20" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>32.916349096534333</v>
+        <v>33.125287643862961</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.3">
@@ -8319,59 +8319,59 @@
       </c>
       <c r="C21" s="3">
         <f ca="1">IF(ISNUMBER(Q7),1/Q7,"")</f>
-        <v>7</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D21" s="3">
         <f ca="1">IF(ISNUMBER(Q8),1/Q8,"")</f>
-        <v>0.16666666666666666</v>
+        <v>7</v>
       </c>
       <c r="E21" s="3">
         <f ca="1">IF(ISNUMBER(Q9),1/Q9,"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <f ca="1">IF(ISNUMBER(Q10),1/Q10,"")</f>
-        <v>8</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G21" s="3">
         <f ca="1">IF(ISNUMBER(Q11),1/Q11,"")</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
         <f ca="1">IF(ISNUMBER(Q12),1/Q12,"")</f>
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="I21" s="3">
         <f ca="1">IF(ISNUMBER(Q13),1/Q13,"")</f>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
         <f ca="1">IF(ISNUMBER(Q14),1/Q14,"")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="3">
         <f ca="1">IF(ISNUMBER(Q15),1/Q15,"")</f>
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="L21" s="3">
         <f ca="1">IF(ISNUMBER(Q16),1/Q16,"")</f>
-        <v>0.16666666666666666</v>
+        <v>3</v>
       </c>
       <c r="M21" s="3">
         <f ca="1">IF(ISNUMBER(Q17),1/Q17,"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N21" s="3">
         <f ca="1">IF(ISNUMBER(Q18),1/Q18,"")</f>
-        <v>0.1111111111111111</v>
+        <v>5</v>
       </c>
       <c r="O21" s="3">
         <f ca="1">IF(ISNUMBER(Q19),1/Q19,"")</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P21" s="3">
         <f ca="1">IF(ISNUMBER(Q20),1/Q20,"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="38">
         <v>1</v>
@@ -8381,80 +8381,80 @@
       </c>
       <c r="T21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22860401223368407</v>
+        <v>2.690626051025801E-3</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8533385549246128E-3</v>
+        <v>0.16692689850958128</v>
       </c>
       <c r="V21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7403189066059235E-2</v>
+        <v>0.16250725478816019</v>
       </c>
       <c r="W21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25273292548390336</v>
+        <v>2.5203200806502421E-3</v>
       </c>
       <c r="X21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18107350722138393</v>
+        <v>6.1487409720866686E-2</v>
       </c>
       <c r="Y21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16175361458350046</v>
+        <v>6.970260223048327E-3</v>
       </c>
       <c r="Z21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7397260273972599E-3</v>
+        <v>2.5705105319528739E-2</v>
       </c>
       <c r="AA21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6432650319113202E-2</v>
+        <v>3.1760435571687839E-2</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0831345200954301E-2</v>
+        <v>6.6367486252449275E-3</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1725888324873096E-3</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AD21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4373730534867976E-2</v>
+        <v>0.16351501668520579</v>
       </c>
       <c r="AE21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3525457906234241E-3</v>
+        <v>0.12911158930218261</v>
       </c>
       <c r="AF21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16714569975679858</v>
+        <v>2.6821636119803309E-2</v>
       </c>
       <c r="AG21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16176140193215008</v>
+        <v>4.7974413646055446E-2</v>
       </c>
       <c r="AH21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0973451327433621E-2</v>
+        <v>2.7013120658605602E-2</v>
       </c>
       <c r="AI21" s="4">
         <f t="shared" ref="AI21" ca="1" si="7">SUM(T21:AH21)</f>
-        <v>1.3682037268652814</v>
+        <v>0.95764083530164679</v>
       </c>
       <c r="AJ21" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1213581791018752E-2</v>
+        <v>6.3842722353443113E-2</v>
       </c>
       <c r="AK21" s="58"/>
       <c r="AL21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4885083744248035</v>
+        <v>1.7282211552391575</v>
       </c>
       <c r="AM21" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>38.245492676928251</v>
+        <v>27.069979028642607</v>
       </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.3">
@@ -8463,63 +8463,63 @@
       </c>
       <c r="C22" s="4">
         <f ca="1">SUM(C7:C21)</f>
-        <v>30.620634920634924</v>
+        <v>41.295634920634924</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ref="D22:Q22" ca="1" si="8">SUM(D7:D21)</f>
-        <v>24.31904761904762</v>
+        <v>41.934523809523803</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>17.420634920634917</v>
+        <v>30.767857142857139</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>31.653968253968252</v>
+        <v>44.086111111111116</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>38.658333333333331</v>
+        <v>16.263492063492063</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>49.457936507936516</v>
+        <v>35.866666666666667</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.833333333333336</v>
+        <v>38.902777777777779</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>53.160714285714285</v>
+        <v>31.485714285714284</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>32.43452380952381</v>
+        <v>18.834523809523809</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>52.533333333333331</v>
+        <v>31.25</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>41.027777777777779</v>
+        <v>42.80952380952381</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>47.230158730158735</v>
+        <v>38.726190476190474</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>35.896825396825399</v>
+        <v>37.283333333333331</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>24.727777777777778</v>
+        <v>20.844444444444441</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>32.285714285714292</v>
+        <v>37.019047619047626</v>
       </c>
       <c r="S22">
         <f ca="1">+AJ6</f>
@@ -8527,63 +8527,63 @@
       </c>
       <c r="T22" s="20">
         <f ca="1">+AJ7</f>
-        <v>8.1459583304640676E-2</v>
+        <v>7.6452806417286412E-2</v>
       </c>
       <c r="U22" s="20">
         <f ca="1">+AJ8</f>
-        <v>9.0662717571566215E-2</v>
+        <v>5.1633247224796258E-2</v>
       </c>
       <c r="V22" s="20">
         <f ca="1">+AJ9</f>
-        <v>7.5770255778242437E-2</v>
+        <v>5.3620210342350726E-2</v>
       </c>
       <c r="W22" s="20">
         <f ca="1">+AJ10</f>
-        <v>9.9939828678483361E-2</v>
+        <v>7.4251543236194928E-2</v>
       </c>
       <c r="X22" s="20">
         <f ca="1">+AJ11</f>
-        <v>5.2132063433937982E-2</v>
+        <v>0.12011938696674143</v>
       </c>
       <c r="Y22" s="20">
         <f ca="1">+AJ12</f>
-        <v>7.5628672781445083E-2</v>
+        <v>6.4411082252863155E-2</v>
       </c>
       <c r="Z22" s="20">
         <f ca="1">+AJ13</f>
-        <v>3.024865430206684E-2</v>
+        <v>5.6902930523318747E-2</v>
       </c>
       <c r="AA22" s="20">
         <f ca="1">+AJ14</f>
-        <v>4.8371454183385162E-2</v>
+        <v>7.2129005903396562E-2</v>
       </c>
       <c r="AB22" s="20">
         <f ca="1">+AJ15</f>
-        <v>7.4004025795217268E-2</v>
+        <v>9.5912912637192232E-2</v>
       </c>
       <c r="AC22" s="20">
         <f ca="1">+AJ16</f>
-        <v>3.9611797424148019E-2</v>
+        <v>5.3901043464090637E-2</v>
       </c>
       <c r="AD22" s="20">
         <f ca="1">+AJ17</f>
-        <v>4.5280315858482717E-2</v>
+        <v>3.5601746622560264E-2</v>
       </c>
       <c r="AE22" s="20">
         <f ca="1">+AJ18</f>
-        <v>5.8350763171077423E-2</v>
+        <v>3.7179949004707745E-2</v>
       </c>
       <c r="AF22" s="20">
         <f ca="1">+AJ19</f>
-        <v>6.7446935208653011E-2</v>
+        <v>5.1001807597811921E-2</v>
       </c>
       <c r="AG22" s="20">
         <f ca="1">+AJ20</f>
-        <v>6.9879350717634986E-2</v>
+        <v>9.3039605453245869E-2</v>
       </c>
       <c r="AH22" s="20">
         <f ca="1">+AJ21</f>
-        <v>9.1213581791018752E-2</v>
+        <v>6.3842722353443113E-2</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.3">
@@ -8592,67 +8592,67 @@
       </c>
       <c r="T24" s="8">
         <f ca="1">+IF(ISNUMBER(C7),C7*T$22,"")</f>
-        <v>8.1459583304640676E-2</v>
+        <v>7.6452806417286412E-2</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" ref="U24:AH38" ca="1" si="9">+IF(ISNUMBER(D7),D7*U$22,"")</f>
-        <v>0.27198815271469867</v>
+        <v>7.3761781749708934E-3</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.7885127889121219E-2</v>
+        <v>0.10724042068470145</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6995788007493835</v>
+        <v>1.4850308647238986E-2</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15639619030181395</v>
+        <v>6.0059693483370716E-2</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0804096111635011E-2</v>
+        <v>0.45087757577004206</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1512432715103342</v>
+        <v>0.34141758313991249</v>
       </c>
       <c r="AA24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29022872510031095</v>
+        <v>1.0304143700485222E-2</v>
       </c>
       <c r="AB24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.2505032244021585E-3</v>
+        <v>9.5912912637192232E-2</v>
       </c>
       <c r="AC24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35650617681733215</v>
+        <v>0.43120834771272509</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2716818951508963</v>
+        <v>0.14240698649024106</v>
       </c>
       <c r="AE24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9450254390359141E-2</v>
+        <v>1.2393316334902581E-2</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40468161125191804</v>
+        <v>1.0200361519562384E-2</v>
       </c>
       <c r="AG24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9879350717634986E-2</v>
+        <v>1.0337733939249541E-2</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3030511684431249E-2</v>
+        <v>0.57458450118098803</v>
       </c>
       <c r="AI24" s="8">
         <f ca="1">+SUM(T24:AH24)</f>
-        <v>2.8440642509189118</v>
+        <v>2.3456228698328694</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.3">
@@ -8661,67 +8661,67 @@
       </c>
       <c r="T25" s="8">
         <f t="shared" ref="T25:T38" ca="1" si="10">+IF(ISNUMBER(C8),C8*T$22,"")</f>
-        <v>2.7153194434880224E-2</v>
+        <v>0.53516964492100483</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.0662717571566215E-2</v>
+        <v>5.1633247224796258E-2</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5770255778242437E-2</v>
+        <v>6.7025262927938407E-3</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.427711838264048E-2</v>
+        <v>0.59401234588955942</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3033015858484496E-2</v>
+        <v>1.5014923370842679E-2</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30251469112578033</v>
+        <v>6.4411082252863155E-2</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24198923441653472</v>
+        <v>9.4838217538864567E-3</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33860017928369612</v>
+        <v>7.2129005903396562E-2</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59203220636173814</v>
+        <v>9.5912912637192232E-2</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9611797424148019E-2</v>
+        <v>0.10780208692818127</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22640157929241359</v>
+        <v>1.7800873311280132E-2</v>
       </c>
       <c r="AE25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40845534219754198</v>
+        <v>9.2949872511769362E-3</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40468161125191804</v>
+        <v>0.30601084558687153</v>
       </c>
       <c r="AG25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1646558452939163E-2</v>
+        <v>4.6519802726622934E-2</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54728149074611254</v>
+        <v>9.1203889076347296E-3</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" ref="AI25:AI38" ca="1" si="11">+SUM(T25:AH25)</f>
-        <v>3.334110992578637</v>
+        <v>1.9410184949581031</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.3">
@@ -8730,67 +8730,67 @@
       </c>
       <c r="T26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16291916660928135</v>
+        <v>3.8226403208643206E-2</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.0662717571566215E-2</v>
+        <v>0.41306597779837007</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5770255778242437E-2</v>
+        <v>5.3620210342350726E-2</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9987965735696674E-2</v>
+        <v>0.44550925941716957</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41705650747150386</v>
+        <v>1.7159912423820204E-2</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30251469112578033</v>
+        <v>6.4411082252863155E-2</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24198923441653472</v>
+        <v>5.6902930523318747E-2</v>
       </c>
       <c r="AA26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43534308765046648</v>
+        <v>2.4043001967798853E-2</v>
       </c>
       <c r="AB26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4668008598405754E-2</v>
+        <v>9.5912912637192232E-2</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2376707845448881</v>
+        <v>5.3901043464090637E-2</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5280315858482717E-2</v>
+        <v>0.10680523986768078</v>
       </c>
       <c r="AE26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40845534219754198</v>
+        <v>0.26025964303295424</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2482311736217668E-2</v>
+        <v>1.7000602532603971E-2</v>
       </c>
       <c r="AG26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9879350717634986E-2</v>
+        <v>1.8607921090649175E-2</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1213581791018752E-2</v>
+        <v>1.2768544470688623E-2</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.6458933218032623</v>
+        <v>1.6781946850301943</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.3">
@@ -8799,67 +8799,67 @@
       </c>
       <c r="T27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1637083329234382E-2</v>
+        <v>0.38226403208643206</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.63463902300096353</v>
+        <v>6.4541559030995323E-3</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37885127889121217</v>
+        <v>8.9367017237251198E-3</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9939828678483361E-2</v>
+        <v>7.4251543236194928E-2</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0426412686787597E-2</v>
+        <v>1.3346598551860158E-2</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60502938225156067</v>
+        <v>0.51528865802290524</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24198923441653472</v>
+        <v>2.8451465261659373E-2</v>
       </c>
       <c r="AA27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8371454183385162E-2</v>
+        <v>0.3606450295169828</v>
       </c>
       <c r="AB27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37002012897608633</v>
+        <v>3.1970970879064073E-2</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35650617681733215</v>
+        <v>0.21560417385636255</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.0560631716965434E-2</v>
+        <v>5.0859638032228942E-3</v>
       </c>
       <c r="AE27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3358233101539173E-3</v>
+        <v>3.7179949004707745E-2</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7446935208653011E-2</v>
+        <v>0.25500903798905961</v>
       </c>
       <c r="AG27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27951740287053994</v>
+        <v>1.5506600908874311E-2</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1401697723877344E-2</v>
+        <v>0.57458450118098803</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2146724940617704</v>
+        <v>2.5245793819251379</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.3">
@@ -8868,67 +8868,67 @@
       </c>
       <c r="T28" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>2.7153194434880224E-2</v>
+        <v>0.15290561283457282</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36265087028626486</v>
+        <v>0.41306597779837007</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4712819722803047E-3</v>
+        <v>0.3753414723964551</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.49969914339241683</v>
+        <v>0.66826388912575441</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2132063433937982E-2</v>
+        <v>0.12011938696674143</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60502938225156067</v>
+        <v>1.2882216450572631E-2</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12099461720826736</v>
+        <v>0.22761172209327499</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9102077404835944E-3</v>
+        <v>0.50490304132377595</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4004025795217268E-2</v>
+        <v>1.5985485439532036E-2</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9223594848296039E-2</v>
+        <v>5.3901043464090637E-2</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5280315858482717E-2</v>
+        <v>0.17800873311280133</v>
       </c>
       <c r="AE28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17505228951323226</v>
+        <v>7.435989800941549E-2</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6352764583790013E-3</v>
+        <v>0.40801446078249537</v>
       </c>
       <c r="AG28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.4939675358817493E-2</v>
+        <v>0.55823763271947524</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3030511684431249E-2</v>
+        <v>6.3842722353443113E-2</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.1152064502369479</v>
+        <v>3.8274432948707702</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.3">
@@ -8937,67 +8937,67 @@
       </c>
       <c r="T29" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57021708313248476</v>
+        <v>1.0921829488183772E-2</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2665679392891554E-2</v>
+        <v>5.1633247224796258E-2</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8942563944560609E-2</v>
+        <v>5.3620210342350726E-2</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.249247858481042E-2</v>
+        <v>9.281442904524366E-3</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5165079292422478E-3</v>
+        <v>0.60059693483370713</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5628672781445083E-2</v>
+        <v>6.4411082252863155E-2</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27223788871860155</v>
+        <v>6.322547835924305E-3</v>
       </c>
       <c r="AA29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0464317729231453E-3</v>
+        <v>0.14425801180679312</v>
       </c>
       <c r="AB29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0572003685031037E-2</v>
+        <v>9.5912912637192232E-2</v>
       </c>
       <c r="AC29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27728258196903616</v>
+        <v>5.3901043464090637E-2</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40752284272634443</v>
+        <v>0.21361047973536157</v>
       </c>
       <c r="AE29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23340305268430969</v>
+        <v>7.435989800941549E-2</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13489387041730602</v>
+        <v>0.20400723039124768</v>
       </c>
       <c r="AG29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3493967535881749</v>
+        <v>1.8607921090649175E-2</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1401697723877344E-2</v>
+        <v>0.25537088941377245</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.4092201090510392</v>
+        <v>1.8568156814308723</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.3">
@@ -9006,67 +9006,67 @@
       </c>
       <c r="T30" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6291916660928135E-2</v>
+        <v>1.2742134402881067E-2</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1332839696445777E-2</v>
+        <v>0.30979948334877755</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4712819722803047E-3</v>
+        <v>5.3620210342350726E-2</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.249247858481042E-2</v>
+        <v>0.14850308647238986</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3033015858484496E-2</v>
+        <v>3.0029846741685358E-2</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4031858646050096E-3</v>
+        <v>0.57969974027576843</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.024865430206684E-2</v>
+        <v>5.6902930523318747E-2</v>
       </c>
       <c r="AA30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9102077404835944E-3</v>
+        <v>0.5770320472271725</v>
       </c>
       <c r="AB30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22201207738565182</v>
+        <v>1.9182582527438447E-2</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9611797424148019E-2</v>
+        <v>1.796701448803021E-2</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13584094757544815</v>
+        <v>1.1867248874186755E-2</v>
       </c>
       <c r="AE30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9175381585538711E-2</v>
+        <v>5.3114212863868207E-3</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3723467604326506E-2</v>
+        <v>1.275045189945298E-2</v>
       </c>
       <c r="AG30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3975870143526997E-2</v>
+        <v>3.1013201817748623E-2</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54728149074611254</v>
+        <v>6.3842722353443113E-2</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>1.1298046131448571</v>
+        <v>1.9302641225810311</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.3">
@@ -9075,67 +9075,67 @@
       </c>
       <c r="T31" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3576597217440112E-2</v>
+        <v>0.53516964492100483</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.295181679593803E-2</v>
+        <v>5.1633247224796258E-2</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4189173086936034E-3</v>
+        <v>0.16086063102705217</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9939828678483361E-2</v>
+        <v>1.4850308647238986E-2</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36492444403756585</v>
+        <v>1.7159912423820204E-2</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60502938225156067</v>
+        <v>3.2205541126431578E-2</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.21174058011446789</v>
+        <v>7.1128663154148434E-3</v>
       </c>
       <c r="AA31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8371454183385162E-2</v>
+        <v>7.2129005903396562E-2</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29601610318086907</v>
+        <v>3.1970970879064073E-2</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9223594848296039E-3</v>
+        <v>0.37730730424863446</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2640157929241359E-2</v>
+        <v>1.7800873311280132E-2</v>
       </c>
       <c r="AE31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11670152634215485</v>
+        <v>0.22307969402824646</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4941039120725566E-3</v>
+        <v>0.10200361519562384</v>
       </c>
       <c r="AG31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7643723019594421E-3</v>
+        <v>0.46519802726622933</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.0404527263672917E-2</v>
+        <v>6.3842722353443113E-2</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8538961710023345</v>
+        <v>2.172324364871677</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.3">
@@ -9144,67 +9144,67 @@
       </c>
       <c r="T32" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.65167666643712541</v>
+        <v>7.6452806417286412E-2</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1332839696445777E-2</v>
+        <v>5.1633247224796258E-2</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22731076733472733</v>
+        <v>5.3620210342350726E-2</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9987965735696674E-2</v>
+        <v>0.22275462970858478</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2132063433937982E-2</v>
+        <v>0.72071632180044864</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52940070947011564</v>
+        <v>6.4411082252863155E-2</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0082884767355613E-2</v>
+        <v>0.28451465261659376</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2092863545846291E-2</v>
+        <v>0.2163870177101897</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4004025795217268E-2</v>
+        <v>9.5912912637192232E-2</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9223594848296039E-2</v>
+        <v>8.9835072440151049E-3</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5467193097471189E-3</v>
+        <v>0.10680523986768078</v>
       </c>
       <c r="AE32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35010457902646452</v>
+        <v>0.18589974502353873</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3723467604326506E-2</v>
+        <v>0.35701265318468345</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41927610430580992</v>
+        <v>1.5506600908874311E-2</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1213581791018752E-2</v>
+        <v>0.5107417788275449</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5691088331021303</v>
+        <v>2.9713524057666434</v>
       </c>
     </row>
     <row r="33" spans="19:35" x14ac:dyDescent="0.3">
@@ -9213,67 +9213,67 @@
       </c>
       <c r="T33" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>9.0510648116267408E-3</v>
+        <v>9.5566008021608015E-3</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.0662717571566215E-2</v>
+        <v>2.5816623612398129E-2</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2628375963040405E-2</v>
+        <v>5.3620210342350726E-2</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1104425408720373E-2</v>
+        <v>1.8562885809048732E-2</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6066031716968991E-2</v>
+        <v>0.12011938696674143</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0804096111635011E-2</v>
+        <v>6.4411082252863155E-2</v>
       </c>
       <c r="Z33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.024865430206684E-2</v>
+        <v>0.17070879156995625</v>
       </c>
       <c r="AA33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24185727091692583</v>
+        <v>1.0304143700485222E-2</v>
       </c>
       <c r="AB33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.7002012897608634E-2</v>
+        <v>0.57547747582315334</v>
       </c>
       <c r="AC33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9611797424148019E-2</v>
+        <v>5.3901043464090637E-2</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1320078964620679E-2</v>
+        <v>7.1203493245120528E-2</v>
       </c>
       <c r="AE33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3358233101539173E-3</v>
+        <v>0.14871979601883098</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40468161125191804</v>
+        <v>5.1001807597811921E-2</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3293116905878326E-2</v>
+        <v>9.3039605453245869E-2</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54728149074611254</v>
+        <v>2.1280907451147704E-2</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5039485683029907</v>
+        <v>1.4877238541094051</v>
       </c>
     </row>
     <row r="34" spans="19:35" x14ac:dyDescent="0.3">
@@ -9282,67 +9282,67 @@
       </c>
       <c r="T34" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3576597217440112E-2</v>
+        <v>1.9113201604321603E-2</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8132543514313242E-2</v>
+        <v>0.10326649444959252</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5770255778242437E-2</v>
+        <v>1.787340344745024E-2</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9969914339241681E-2</v>
+        <v>0.51976080265336444</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2132063433937982E-2</v>
+        <v>2.4023877393348287E-2</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4031858646050096E-3</v>
+        <v>1.0735180375477191E-2</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0082884767355613E-2</v>
+        <v>0.17070879156995625</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6742908366770325E-2</v>
+        <v>0.14425801180679312</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44402415477130364</v>
+        <v>3.1970970879064073E-2</v>
       </c>
       <c r="AC34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15844718969659208</v>
+        <v>2.6950521732045318E-2</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5280315858482717E-2</v>
+        <v>3.5601746622560264E-2</v>
       </c>
       <c r="AE34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52515686853969679</v>
+        <v>0.11153984701412323</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6352764583790013E-3</v>
+        <v>1.275045189945298E-2</v>
       </c>
       <c r="AG34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7469837679408746E-2</v>
+        <v>1.5506600908874311E-2</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1213581791018752E-2</v>
+        <v>9.1203889076347296E-3</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6160375780767879</v>
+        <v>1.2531802912640584</v>
       </c>
     </row>
     <row r="35" spans="19:35" x14ac:dyDescent="0.3">
@@ -9351,67 +9351,67 @@
       </c>
       <c r="T35" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.24437874991392203</v>
+        <v>0.22935841925185924</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.295181679593803E-2</v>
+        <v>0.20653298889918503</v>
       </c>
       <c r="V35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0824322254034633E-2</v>
+        <v>7.6600300489072463E-3</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6995788007493835</v>
+        <v>7.4251543236194928E-2</v>
       </c>
       <c r="X35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7377354477979327E-2</v>
+        <v>6.0059693483370716E-2</v>
       </c>
       <c r="Y35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8907168195361271E-2</v>
+        <v>3.2205541126431578E-2</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.049730860413368E-2</v>
+        <v>0.39832051366323123</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4185727091692581E-2</v>
+        <v>1.2021500983899426E-2</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2334004299202877E-2</v>
+        <v>1.9182582527438447E-2</v>
       </c>
       <c r="AC35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27728258196903616</v>
+        <v>1.3475260866022659E-2</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0311462064980793E-3</v>
+        <v>1.1867248874186755E-2</v>
       </c>
       <c r="AE35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8350763171077423E-2</v>
+        <v>3.7179949004707745E-2</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1241155868108834E-2</v>
+        <v>5.1001807597811921E-2</v>
       </c>
       <c r="AG35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9879350717634986E-2</v>
+        <v>9.3039605453245869E-2</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.82092223611916881</v>
+        <v>1.2768544470688623E-2</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3437424864331717</v>
+        <v>1.2589252294871816</v>
       </c>
     </row>
     <row r="36" spans="19:35" x14ac:dyDescent="0.3">
@@ -9420,67 +9420,67 @@
       </c>
       <c r="T36" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3576597217440112E-2</v>
+        <v>0.38226403208643206</v>
       </c>
       <c r="U36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5110452928594368E-2</v>
+        <v>8.6055412041327085E-3</v>
       </c>
       <c r="V36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22731076733472733</v>
+        <v>0.16086063102705217</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9939828678483361E-2</v>
+        <v>1.4850308647238986E-2</v>
       </c>
       <c r="X36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36492444403756585</v>
+        <v>1.5014923370842679E-2</v>
       </c>
       <c r="Y36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>3.7814336390722542E-2</v>
+        <v>1.6102770563215789E-2</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.049730860413368E-2</v>
+        <v>0.22761172209327499</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43534308765046648</v>
+        <v>3.6064502951698281E-2</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14800805159043454</v>
+        <v>1.3701844662456032E-2</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.601966237358003E-3</v>
+        <v>5.3901043464090637E-2</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31696221100937905</v>
+        <v>0.14240698649024106</v>
       </c>
       <c r="AE36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35010457902646452</v>
+        <v>3.7179949004707745E-2</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7446935208653011E-2</v>
+        <v>5.1001807597811921E-2</v>
       </c>
       <c r="AG36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1646558452939163E-2</v>
+        <v>0.37215842181298348</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5202263631836459E-2</v>
+        <v>6.3842722353443113E-2</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.1704893879991984</v>
+        <v>1.5955672073296214</v>
       </c>
     </row>
     <row r="37" spans="19:35" x14ac:dyDescent="0.3">
@@ -9489,67 +9489,67 @@
       </c>
       <c r="T37" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1459583304640676E-2</v>
+        <v>0.68807525775557776</v>
       </c>
       <c r="U37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54397630542939734</v>
+        <v>0.10326649444959252</v>
       </c>
       <c r="V37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5770255778242437E-2</v>
+        <v>0.26810105171175364</v>
       </c>
       <c r="W37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.498495716962084E-2</v>
+        <v>0.44550925941716957</v>
       </c>
       <c r="X37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10426412686787596</v>
+        <v>2.0019897827790237E-2</v>
       </c>
       <c r="Y37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5125734556289017E-2</v>
+        <v>0.32205541126431581</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1512432715103342</v>
+        <v>0.17070879156995625</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43534308765046648</v>
+        <v>1.4425801180679314E-2</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2334004299202877E-2</v>
+        <v>0.57547747582315334</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11883539227244405</v>
+        <v>5.3901043464090637E-2</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18112126343393087</v>
+        <v>0.21361047973536157</v>
       </c>
       <c r="AE37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8350763171077423E-2</v>
+        <v>3.7179949004707745E-2</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40468161125191804</v>
+        <v>1.275045189945298E-2</v>
       </c>
       <c r="AG37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9879350717634986E-2</v>
+        <v>9.3039605453245869E-2</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2803395447754688E-2</v>
+        <v>6.3842722353443113E-2</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3001731028608301</v>
+        <v>3.0819636929102905</v>
       </c>
     </row>
     <row r="38" spans="19:35" x14ac:dyDescent="0.3">
@@ -9558,67 +9558,67 @@
       </c>
       <c r="T38" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57021708313248476</v>
+        <v>8.4947562685873789E-3</v>
       </c>
       <c r="U38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5110452928594368E-2</v>
+        <v>0.36143273057357383</v>
       </c>
       <c r="V38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5770255778242437E-2</v>
+        <v>0.26810105171175364</v>
       </c>
       <c r="W38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.79951862942786689</v>
+        <v>8.2501714706883257E-3</v>
       </c>
       <c r="X38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36492444403756585</v>
+        <v>0.12011938696674143</v>
       </c>
       <c r="Y38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60502938225156067</v>
+        <v>1.6102770563215789E-2</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0414423836778067E-3</v>
+        <v>5.6902930523318747E-2</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14511436255015547</v>
+        <v>7.2129005903396562E-2</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4004025795217268E-2</v>
+        <v>1.1989114079649029E-2</v>
       </c>
       <c r="AC38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.601966237358003E-3</v>
+        <v>0.16170313039227191</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5280315858482717E-2</v>
+        <v>0.24921222635792184</v>
       </c>
       <c r="AE38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4834181301197131E-3</v>
+        <v>0.18589974502353873</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40468161125191804</v>
+        <v>5.1001807597811921E-2</v>
       </c>
       <c r="AG38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27951740287053994</v>
+        <v>9.3039605453245869E-2</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1213581791018752E-2</v>
+        <v>6.3842722353443113E-2</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4885083744248035</v>
+        <v>1.7282211552391575</v>
       </c>
     </row>
   </sheetData>
@@ -9675,11 +9675,11 @@
       </c>
       <c r="B3" s="2">
         <f>+Valor!AJ7</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">+Coste!AJ7</f>
-        <v>8.1459583304640676E-2</v>
+        <v>7.6452806417286412E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -9688,11 +9688,11 @@
       </c>
       <c r="B4" s="2">
         <f>+Valor!AJ8</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.14653629536000032</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">+Coste!AJ8</f>
-        <v>9.0662717571566215E-2</v>
+        <v>5.1633247224796258E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -9701,11 +9701,11 @@
       </c>
       <c r="B5" s="2">
         <f>+Valor!AJ9</f>
-        <v>6.6666666666666666E-2</v>
+        <v>2.6555945203898892E-2</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">+Coste!AJ9</f>
-        <v>7.5770255778242437E-2</v>
+        <v>5.3620210342350726E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -9714,11 +9714,11 @@
       </c>
       <c r="B6" s="2">
         <f>+Valor!AJ10</f>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7804925015501184E-2</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">+Coste!AJ10</f>
-        <v>9.9939828678483361E-2</v>
+        <v>7.4251543236194928E-2</v>
       </c>
       <c r="M6" s="59" t="s">
         <v>17</v>
@@ -9731,11 +9731,11 @@
       </c>
       <c r="B7" s="2">
         <f>+Valor!AJ11</f>
-        <v>6.6666666666666666E-2</v>
+        <v>9.8984622105457044E-3</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">+Coste!AJ11</f>
-        <v>5.2132063433937982E-2</v>
+        <v>0.12011938696674143</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -9750,11 +9750,11 @@
       </c>
       <c r="B8" s="2">
         <f>+Valor!AJ12</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.11035214358845193</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">+Coste!AJ12</f>
-        <v>7.5628672781445083E-2</v>
+        <v>6.4411082252863155E-2</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -9769,11 +9769,11 @@
       </c>
       <c r="B9" s="2">
         <f>+Valor!AJ13</f>
-        <v>6.6666666666666666E-2</v>
+        <v>1.4649909774377318E-2</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">+Coste!AJ13</f>
-        <v>3.024865430206684E-2</v>
+        <v>5.6902930523318747E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -9782,11 +9782,11 @@
       </c>
       <c r="B10" s="2">
         <f>+Valor!AJ14</f>
-        <v>6.6666666666666666E-2</v>
+        <v>4.1767711392683288E-2</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">+Coste!AJ14</f>
-        <v>4.8371454183385162E-2</v>
+        <v>7.2129005903396562E-2</v>
       </c>
       <c r="M10" s="59" t="s">
         <v>18</v>
@@ -9799,11 +9799,11 @@
       </c>
       <c r="B11" s="2">
         <f>+Valor!AJ15</f>
-        <v>6.6666666666666666E-2</v>
+        <v>9.6961312532543822E-2</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">+Coste!AJ15</f>
-        <v>7.4004025795217268E-2</v>
+        <v>9.5912912637192232E-2</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -9818,11 +9818,11 @@
       </c>
       <c r="B12" s="2">
         <f>+Valor!AJ16</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13463001844260183</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">+Coste!AJ16</f>
-        <v>3.9611797424148019E-2</v>
+        <v>5.3901043464090637E-2</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
@@ -9837,11 +9837,11 @@
       </c>
       <c r="B13" s="2">
         <f>+Valor!AJ17</f>
-        <v>6.6666666666666666E-2</v>
+        <v>9.2066402827111052E-2</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">+Coste!AJ17</f>
-        <v>4.5280315858482717E-2</v>
+        <v>3.5601746622560264E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -9850,11 +9850,11 @@
       </c>
       <c r="B14" s="2">
         <f>+Valor!AJ18</f>
-        <v>6.6666666666666666E-2</v>
+        <v>3.4805234269429226E-2</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">+Coste!AJ18</f>
-        <v>5.8350763171077423E-2</v>
+        <v>3.7179949004707745E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -9863,11 +9863,11 @@
       </c>
       <c r="B15" s="2">
         <f>+Valor!AJ19</f>
-        <v>6.6666666666666666E-2</v>
+        <v>1.2469473317550812E-2</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">+Coste!AJ19</f>
-        <v>6.7446935208653011E-2</v>
+        <v>5.1001807597811921E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -9876,11 +9876,11 @@
       </c>
       <c r="B16" s="2">
         <f>+Valor!AJ20</f>
-        <v>6.6666666666666666E-2</v>
+        <v>5.2273246648984133E-2</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">+Coste!AJ20</f>
-        <v>6.9879350717634986E-2</v>
+        <v>9.3039605453245869E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -9889,11 +9889,11 @@
       </c>
       <c r="B17" s="2">
         <f>+Valor!AJ21</f>
-        <v>6.6666666666666666E-2</v>
+        <v>2.2692624056320127E-2</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">+Coste!AJ21</f>
-        <v>9.1213581791018752E-2</v>
+        <v>6.3842722353443113E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9908,9 +9908,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10143,27 +10146,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10188,9 +10179,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Requisitos_PJA.xlsx
+++ b/Requisitos_PJA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estin\Documents\GitHub\enso-specREM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Enxeñaría Informática\Terceiro\1º Cuatrimestre\Enxeñaría do Software\Prácticas\Practica5_2_REM\enso-specREM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BF1991-0748-41B9-95AC-CFE732C81E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD70B8D1-EF1D-48F7-8F77-FAD65706DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="7" r:id="rId1"/>
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,10 +765,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -824,6 +820,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,7 +1012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F839BCF5-41A7-4113-AFB4-13826D20A88C}" type="CELLRANGE">
+                    <a:fld id="{4895928B-D19E-4D45-BB4C-02AA6A02A7D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -969,7 +1021,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -988,13 +1040,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.844155844155844E-2"/>
+                  <c:y val="-2.4116181988356734E-17"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{240D398C-08AE-4960-B3FD-1475BBF2CF34}" type="CELLRANGE">
-                      <a:rPr lang="es-ES"/>
+                    <a:fld id="{20B8BF10-C991-4D14-B79B-D15962ECF95D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1002,7 +1060,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1012,7 +1070,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1027,7 +1084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7310CBBF-0477-4D05-9041-753C55C5E4CE}" type="CELLRANGE">
+                    <a:fld id="{9322A0CF-3F2F-4B5B-93A9-1A5503DE4CDD}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1036,7 +1093,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1061,7 +1118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B87D879-08FE-42D1-B419-E159CE447FF3}" type="CELLRANGE">
+                    <a:fld id="{0A651046-3630-43B2-8194-136DC3B1E27D}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1070,7 +1127,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1095,7 +1152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6E17918-8903-4164-BE51-007C74EBA2B1}" type="CELLRANGE">
+                    <a:fld id="{B53BF29A-3052-4742-9C2B-C02108B5271C}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1104,7 +1161,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1129,7 +1186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBB10EF5-5AEE-4059-846A-968B29E79605}" type="CELLRANGE">
+                    <a:fld id="{489A3E05-3EB0-4253-B681-49FFA5BFC9DB}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1138,7 +1195,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1163,7 +1220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE760A6A-3DEA-4FA8-BCD8-97B22B25D99C}" type="CELLRANGE">
+                    <a:fld id="{6486E4E6-0595-4F32-8C6B-753D3EF05E26}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1172,7 +1229,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1197,7 +1254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AE00E9E-7AC8-446A-A0AF-55C455F328BD}" type="CELLRANGE">
+                    <a:fld id="{C0755DBF-70FE-4711-9F10-D92B29541F40}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1206,7 +1263,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1231,7 +1288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A16E39AC-C907-4AD7-8649-542AFF63A9D9}" type="CELLRANGE">
+                    <a:fld id="{BC305046-79F1-4469-B5C5-5B1301000464}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1240,7 +1297,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1265,7 +1322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62F63EB5-3A2E-495A-BDC4-70623C9C9166}" type="CELLRANGE">
+                    <a:fld id="{3BD212B0-E435-4D8A-9A04-BB3B0928B3B2}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1274,7 +1331,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1299,7 +1356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A6795A5-371A-4FAB-BB30-0C165CAE5CE0}" type="CELLRANGE">
+                    <a:fld id="{29A2015E-63B8-463E-8F6C-F7789093BDF2}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1308,7 +1365,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1333,7 +1390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20CA3661-345C-450C-9792-DEDFC50F8F16}" type="CELLRANGE">
+                    <a:fld id="{8D5E37C6-5CF0-44F1-9DAE-9F409B9ABB8B}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1342,7 +1399,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1367,7 +1424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5C36702-3009-4B21-A01D-8BAA40658FF8}" type="CELLRANGE">
+                    <a:fld id="{1557DB6C-CFA8-4E70-B873-4E1698C3B664}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1376,7 +1433,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1401,7 +1458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5A495AB-251C-4709-B35E-71DD1BE9788F}" type="CELLRANGE">
+                    <a:fld id="{15F48BA5-55DF-475C-BA22-A3D8F7ABA274}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1410,7 +1467,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1435,7 +1492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19D36E8D-B121-4057-A844-284F08D99A22}" type="CELLRANGE">
+                    <a:fld id="{F56EEB21-318D-4897-9DF6-3F399EB66B98}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1444,7 +1501,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1469,7 +1526,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1491,49 +1548,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.6452806417286412E-2</c:v>
+                  <c:v>1.7744581969364473E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1633247224796258E-2</c:v>
+                  <c:v>1.6757818322592485E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3620210342350726E-2</c:v>
+                  <c:v>4.2729398277574986E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4251543236194928E-2</c:v>
+                  <c:v>3.1486260195622472E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12011938696674143</c:v>
+                  <c:v>1.5196581852666787E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4411082252863155E-2</c:v>
+                  <c:v>0.11189232819531503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6902930523318747E-2</c:v>
+                  <c:v>2.9922970202731981E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2129005903396562E-2</c:v>
+                  <c:v>3.3211052434236901E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5912912637192232E-2</c:v>
+                  <c:v>8.1309587801092223E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3901043464090637E-2</c:v>
+                  <c:v>0.11130592331124127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5601746622560264E-2</c:v>
+                  <c:v>9.3678140744354196E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7179949004707745E-2</c:v>
+                  <c:v>0.19589256469848809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1001807597811921E-2</c:v>
+                  <c:v>1.9892670355344481E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3039605453245869E-2</c:v>
+                  <c:v>7.7621069217308866E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3842722353443113E-2</c:v>
+                  <c:v>0.12135905242206574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,7 +1837,7 @@
         <c:axId val="413791663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.15000000000000002"/>
+          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1861,7 +1918,7 @@
         <c:axId val="413792079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.15000000000000002"/>
+          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2300,7 +2357,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2311,185 +2368,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="40" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2506,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -2525,10 +2582,10 @@
   <sheetData>
     <row r="1" spans="2:39" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
@@ -2582,11 +2639,11 @@
       </c>
     </row>
     <row r="3" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="56">
+      <c r="B3" s="55">
         <f>SUM(AM7:AM21)/AJ6</f>
         <v>17.946894763052139</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="23">
         <f>+(B3-$AJ$6)/($AJ$6-1)</f>
         <v>0.21049248307515281</v>
@@ -2668,10 +2725,10 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AL5" s="53" t="s">
+      <c r="AL5" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="AM5" s="53"/>
+      <c r="AM5" s="52"/>
     </row>
     <row r="6" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
@@ -2776,8 +2833,8 @@
       <c r="AK6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
@@ -2899,7 +2956,7 @@
         <f>+$AI7/$AJ$6</f>
         <v>0.14653629536000032</v>
       </c>
-      <c r="AK7" s="58" t="s">
+      <c r="AK7" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AL7" s="19">
@@ -3032,7 +3089,7 @@
         <f t="shared" ref="AJ8:AJ21" si="17">+$AI8/$AJ$6</f>
         <v>0.14653629536000032</v>
       </c>
-      <c r="AK8" s="58"/>
+      <c r="AK8" s="57"/>
       <c r="AL8" s="19">
         <f t="shared" ref="AL8:AL21" si="18">+AI25</f>
         <v>2.6929551276307064</v>
@@ -3164,7 +3221,7 @@
         <f t="shared" si="17"/>
         <v>2.6555945203898892E-2</v>
       </c>
-      <c r="AK9" s="58"/>
+      <c r="AK9" s="57"/>
       <c r="AL9" s="19">
         <f t="shared" si="18"/>
         <v>0.4468204963490931</v>
@@ -3297,7 +3354,7 @@
         <f t="shared" si="17"/>
         <v>5.7804925015501184E-2</v>
       </c>
-      <c r="AK10" s="58"/>
+      <c r="AK10" s="57"/>
       <c r="AL10" s="19">
         <f t="shared" si="18"/>
         <v>1.0625063527890855</v>
@@ -3431,7 +3488,7 @@
         <f t="shared" si="17"/>
         <v>9.8984622105457044E-3</v>
       </c>
-      <c r="AK11" s="58"/>
+      <c r="AK11" s="57"/>
       <c r="AL11" s="19">
         <f t="shared" si="18"/>
         <v>0.16113318511789043</v>
@@ -3566,7 +3623,7 @@
         <f t="shared" si="17"/>
         <v>0.11035214358845193</v>
       </c>
-      <c r="AK12" s="58"/>
+      <c r="AK12" s="57"/>
       <c r="AL12" s="19">
         <f t="shared" si="18"/>
         <v>2.1765036911192843</v>
@@ -3702,7 +3759,7 @@
         <f t="shared" si="17"/>
         <v>1.4649909774377318E-2</v>
       </c>
-      <c r="AK13" s="58"/>
+      <c r="AK13" s="57"/>
       <c r="AL13" s="19">
         <f t="shared" si="18"/>
         <v>0.23319753366383764</v>
@@ -3839,7 +3896,7 @@
         <f t="shared" si="17"/>
         <v>4.1767711392683288E-2</v>
       </c>
-      <c r="AK14" s="58"/>
+      <c r="AK14" s="57"/>
       <c r="AL14" s="19">
         <f t="shared" si="18"/>
         <v>0.76121930737570631</v>
@@ -3977,7 +4034,7 @@
         <f t="shared" si="17"/>
         <v>9.6961312532543822E-2</v>
       </c>
-      <c r="AK15" s="58"/>
+      <c r="AK15" s="57"/>
       <c r="AL15" s="19">
         <f t="shared" si="18"/>
         <v>1.9005903109186892</v>
@@ -4116,7 +4173,7 @@
         <f t="shared" si="17"/>
         <v>0.13463001844260183</v>
       </c>
-      <c r="AK16" s="58"/>
+      <c r="AK16" s="57"/>
       <c r="AL16" s="19">
         <f t="shared" si="18"/>
         <v>2.6144293045505624</v>
@@ -4256,7 +4313,7 @@
         <f t="shared" si="17"/>
         <v>9.2066402827111052E-2</v>
       </c>
-      <c r="AK17" s="58"/>
+      <c r="AK17" s="57"/>
       <c r="AL17" s="19">
         <f t="shared" si="18"/>
         <v>1.8179744656848071</v>
@@ -4397,7 +4454,7 @@
         <f t="shared" si="17"/>
         <v>3.4805234269429226E-2</v>
       </c>
-      <c r="AK18" s="58"/>
+      <c r="AK18" s="57"/>
       <c r="AL18" s="19">
         <f t="shared" si="18"/>
         <v>0.60702890995743353</v>
@@ -4539,7 +4596,7 @@
         <f t="shared" si="17"/>
         <v>1.2469473317550812E-2</v>
       </c>
-      <c r="AK19" s="58"/>
+      <c r="AK19" s="57"/>
       <c r="AL19" s="19">
         <f t="shared" si="18"/>
         <v>0.19820300682283787</v>
@@ -4682,7 +4739,7 @@
         <f t="shared" si="17"/>
         <v>5.2273246648984133E-2</v>
       </c>
-      <c r="AK20" s="58"/>
+      <c r="AK20" s="57"/>
       <c r="AL20" s="19">
         <f t="shared" si="18"/>
         <v>0.99884045913072506</v>
@@ -4826,7 +4883,7 @@
         <f t="shared" si="17"/>
         <v>2.2692624056320127E-2</v>
       </c>
-      <c r="AK21" s="58"/>
+      <c r="AK21" s="57"/>
       <c r="AL21" s="19">
         <f t="shared" si="18"/>
         <v>0.36049652710998609</v>
@@ -6022,8 +6079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AM38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6041,10 +6098,10 @@
   <sheetData>
     <row r="1" spans="2:39" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
@@ -6098,18 +6155,18 @@
       </c>
     </row>
     <row r="3" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="56">
-        <f ca="1">SUM(AM7:AM21)/AJ6</f>
-        <v>31.828169338464043</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="B3" s="55">
+        <f>SUM(AM7:AM21)/AJ6</f>
+        <v>16.657034420574284</v>
+      </c>
+      <c r="C3" s="56"/>
       <c r="D3" s="23">
-        <f ca="1">+(B3-$AJ$6)/($AJ$6-1)</f>
-        <v>1.2020120956045746</v>
+        <f>+(B3-$AJ$6)/($AJ$6-1)</f>
+        <v>0.11835960146959172</v>
       </c>
       <c r="E3" s="6">
-        <f ca="1">D3/+HLOOKUP(AJ6,T2:AH3,2,FALSE)</f>
-        <v>0.75598245006577014</v>
+        <f>D3/+HLOOKUP(AJ6,T2:AH3,2,FALSE)</f>
+        <v>7.4440000924271513E-2</v>
       </c>
       <c r="T3" s="11">
         <v>0</v>
@@ -6184,10 +6241,10 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AL5" s="53" t="s">
+      <c r="AL5" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="AM5" s="53"/>
+      <c r="AM5" s="52"/>
     </row>
     <row r="6" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="34"/>
@@ -6286,14 +6343,14 @@
         <v>13</v>
       </c>
       <c r="AJ6" s="16">
-        <f ca="1">+COUNTA(C7:Q7)</f>
+        <f>+COUNTA(C7:Q7)</f>
         <v>15</v>
       </c>
       <c r="AK6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B7" s="34" t="s">
@@ -6302,143 +6359,129 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="37">
-        <f t="shared" ref="D7:Q20" ca="1" si="0">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
+      <c r="D7" s="59">
+        <v>1</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G7" s="59">
+        <v>1</v>
+      </c>
+      <c r="H7" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="59">
+        <v>1</v>
+      </c>
+      <c r="J7" s="59">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K7" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="59">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F7" s="37">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N7" s="59">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O7" s="59">
+        <v>1</v>
+      </c>
+      <c r="P7" s="59">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q7" s="59">
         <v>0.2</v>
-      </c>
-      <c r="G7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="K7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="P7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="Q7" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
       </c>
       <c r="S7" s="35" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <f ca="1">+IF(ISNUMBER(C7),C7/C$22,"")</f>
-        <v>2.4215634459232208E-2</v>
+        <f>+IF(ISNUMBER(C7),C7/C$22,"")</f>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" ref="U7:AH21" ca="1" si="1">+IF(ISNUMBER(D7),D7/D$22,"")</f>
-        <v>3.4066713981547201E-3</v>
+        <f t="shared" ref="U7:AH21" si="0">+IF(ISNUMBER(D7),D7/D$22,"")</f>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.5002901915264089E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111101E-2</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5365761451704361E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.0645161290322578E-3</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.0743704860433343E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19516728624535315</v>
+        <f t="shared" si="0"/>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15423063191717243</v>
+        <f t="shared" si="0"/>
+        <v>2.5052192066805846E-2</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5372050816696917E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.9285714285714298E-3</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.309398900195942E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1439466158245948E-2</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25600000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.8461538461538463E-2</v>
       </c>
       <c r="AD7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.3437152391546166E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1146875845279944E-3</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.6074392868121727E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.43445907269605E-2</v>
       </c>
       <c r="AF7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.364327223960662E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="AG7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3304904051172716E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.0470829068577279E-2</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.24311808592745043</v>
+        <f t="shared" si="0"/>
+        <v>2.2944550669216059E-2</v>
       </c>
       <c r="AI7" s="4">
-        <f ca="1">SUM(T7:AH7)</f>
-        <v>1.1467920962592961</v>
+        <f>SUM(T7:AH7)</f>
+        <v>0.26616872954046711</v>
       </c>
       <c r="AJ7" s="18">
-        <f ca="1">+$AI7/$AJ$6</f>
-        <v>7.6452806417286412E-2</v>
-      </c>
-      <c r="AK7" s="58" t="s">
+        <f>+$AI7/$AJ$6</f>
+        <v>1.7744581969364473E-2</v>
+      </c>
+      <c r="AK7" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AL7" s="19">
-        <f ca="1">+AI24</f>
-        <v>2.3456228698328694</v>
+        <f>+AI24</f>
+        <v>0.28773783805824921</v>
       </c>
       <c r="AM7" s="19">
-        <f ca="1">IF(AJ7&lt;&gt;0,+AL7/AJ7,0)</f>
-        <v>30.680664056074608</v>
+        <f>IF(AJ7&lt;&gt;0,+AL7/AJ7,0)</f>
+        <v>16.215532073678634</v>
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.3">
@@ -6446,143 +6489,130 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">IF(ISNUMBER(D7),1/D7,"")</f>
-        <v>7</v>
+        <f>IF(ISNUMBER(D7),1/D7,"")</f>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="F8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H8" s="37">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E8" s="60">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G8" s="60">
         <v>1</v>
       </c>
-      <c r="I8" s="37">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H8" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="60">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J8" s="60">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K8" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="60">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N8" s="60">
         <v>0.16666666666666666</v>
       </c>
-      <c r="J8" s="37">
-        <f t="shared" ca="1" si="0"/>
+      <c r="O8" s="60">
         <v>1</v>
       </c>
-      <c r="K8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
+      <c r="P8" s="60">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q8" s="60">
+        <v>0.16666666666666666</v>
       </c>
       <c r="S8" s="35" t="s">
         <v>1</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" ref="T8:T21" ca="1" si="2">+IF(ISNUMBER(C8),C8/C$22,"")</f>
-        <v>0.16950944121462547</v>
+        <f t="shared" ref="T8:T21" si="1">+IF(ISNUMBER(C8),C8/C$22,"")</f>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.384669978708304E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.0626813697040055E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18146304580681744</v>
+        <f t="shared" si="0"/>
+        <v>8.0645161290322578E-3</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6859262151083357E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7881040892193308E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.284184219921456E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.350730688935281E-3</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1760435571687839E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.9285714285714298E-3</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.309398900195942E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1439466158245948E-2</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.4000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.8461538461538463E-2</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1679644048943271E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1146875845279944E-3</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.4555794651091304E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.0068689181453919E-2</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16092981671881987</v>
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3987206823027723E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0470829068577279E-2</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8590172369436576E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.9120458891013378E-2</v>
       </c>
       <c r="AI8" s="4">
-        <f t="shared" ref="AI8:AI20" ca="1" si="3">SUM(T8:AH8)</f>
-        <v>0.7744987083719439</v>
+        <f t="shared" ref="AI8:AI20" si="2">SUM(T8:AH8)</f>
+        <v>0.25136727483888727</v>
       </c>
       <c r="AJ8" s="18">
-        <f t="shared" ref="AJ8:AJ21" ca="1" si="4">+$AI8/$AJ$6</f>
-        <v>5.1633247224796258E-2</v>
-      </c>
-      <c r="AK8" s="58"/>
+        <f t="shared" ref="AJ8:AJ21" si="3">+$AI8/$AJ$6</f>
+        <v>1.6757818322592485E-2</v>
+      </c>
+      <c r="AK8" s="57"/>
       <c r="AL8" s="19">
-        <f t="shared" ref="AL8:AL21" ca="1" si="5">+AI25</f>
-        <v>1.9410184949581031</v>
+        <f t="shared" ref="AL8:AL21" si="4">+AI25</f>
+        <v>0.26840799819232308</v>
       </c>
       <c r="AM8" s="19">
-        <f t="shared" ref="AM8:AM21" ca="1" si="6">IF(AJ8&lt;&gt;0,+AL8/AJ8,0)</f>
-        <v>37.592415726004383</v>
+        <f t="shared" ref="AM8:AM21" si="5">IF(AJ8&lt;&gt;0,+AL8/AJ8,0)</f>
+        <v>16.016881972664777</v>
       </c>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.3">
@@ -6590,143 +6620,131 @@
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">IF(ISNUMBER(E7),1/E7,"")</f>
+        <f>IF(ISNUMBER(E7),1/E7,"")</f>
+        <v>3.0000000000000031</v>
+      </c>
+      <c r="D9" s="3">
+        <f>IF(ISNUMBER(E8),1/E8,"")</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+      <c r="F9" s="61">
+        <v>3</v>
+      </c>
+      <c r="G9" s="61">
+        <v>3</v>
+      </c>
+      <c r="H9" s="61">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I9" s="61">
+        <v>3</v>
+      </c>
+      <c r="J9" s="61">
+        <v>1</v>
+      </c>
+      <c r="K9" s="61">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L9" s="61">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M9" s="61">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N9" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="61">
+        <v>3</v>
+      </c>
+      <c r="P9" s="61">
         <v>0.5</v>
       </c>
-      <c r="D9" s="3">
-        <f ca="1">IF(ISNUMBER(E8),1/E8,"")</f>
-        <v>8</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H9" s="37">
-        <f ca="1">IF(RANDBETWEEN(0,1)&gt;0,RANDBETWEEN(1,9),1/RANDBETWEEN(1,9))</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q9" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+      <c r="Q9" s="61">
+        <v>0.25</v>
       </c>
       <c r="S9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2107817229616104E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8823529411764768E-2</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19077359829666432</v>
+        <f t="shared" si="0"/>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2501450957632044E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.333333333333334E-2</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13609728435511309</v>
+        <f t="shared" si="0"/>
+        <v>7.2580645161290314E-2</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.7839156744095263E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7881040892193308E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5705105319528739E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.5156576200417546E-2</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.058681185722928E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.6785714285714288E-2</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.309398900195942E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9065776930409912E-2</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.0769230769230767E-2</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.0077864293659614E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.4671355152826601E-3</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18075622502305566</v>
+        <f t="shared" si="0"/>
+        <v>4.8082427017744706E-2</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.9405453732677685E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.741573033707865E-2</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.5948827292110898E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0706243602865918E-2</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.402624131721121E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.8680688336520072E-2</v>
       </c>
       <c r="AI9" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.80430315513526085</v>
+        <f t="shared" si="2"/>
+        <v>0.64094097416362483</v>
       </c>
       <c r="AJ9" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3620210342350726E-2</v>
-      </c>
-      <c r="AK9" s="58"/>
+        <f t="shared" si="3"/>
+        <v>4.2729398277574986E-2</v>
+      </c>
+      <c r="AK9" s="57"/>
       <c r="AL9" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.6781946850301943</v>
+        <f t="shared" si="4"/>
+        <v>0.69438754662059032</v>
       </c>
       <c r="AM9" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>31.297801226727188</v>
+        <f t="shared" si="5"/>
+        <v>16.25081500351984</v>
       </c>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.3">
@@ -6734,143 +6752,132 @@
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">IF(ISNUMBER(F7),1/F7,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(F7),1/F7,"")</f>
+        <v>3</v>
       </c>
       <c r="D10" s="3">
-        <f ca="1">IF(ISNUMBER(F8),1/F8,"")</f>
-        <v>0.125</v>
+        <f>IF(ISNUMBER(F8),1/F8,"")</f>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <f ca="1">IF(ISNUMBER(F9),1/F9,"")</f>
+        <f>IF(ISNUMBER(F9),1/F9,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F10" s="37">
+        <v>1</v>
+      </c>
+      <c r="G10" s="62">
+        <v>3</v>
+      </c>
+      <c r="H10" s="62">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F10" s="38">
+      <c r="I10" s="62">
         <v>1</v>
       </c>
-      <c r="G10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K10" s="37">
-        <f t="shared" ca="1" si="0"/>
+      <c r="J10" s="62">
+        <v>1</v>
+      </c>
+      <c r="K10" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="62">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N10" s="62">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O10" s="62">
+        <v>3</v>
+      </c>
+      <c r="P10" s="62">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="N10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q10" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+      <c r="Q10" s="62">
+        <v>0.25</v>
       </c>
       <c r="S10" s="35" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12107817229616104</v>
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.98083747338538E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="V10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4169084929386732E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2682880725852179E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8319344134296313E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22304832713754646</v>
+        <f t="shared" si="0"/>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.285255265976437E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.5052192066805846E-2</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1588021778584392</v>
+        <f t="shared" si="0"/>
+        <v>2.6785714285714288E-2</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7697996333986474E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4299332697807435E-2</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.128</v>
+        <f t="shared" si="0"/>
+        <v>2.3076923076923075E-2</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3370411568409341E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.1146875845279944E-3</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5822317860436522E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0068689181453919E-2</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13410818059901655</v>
+        <f t="shared" si="0"/>
+        <v>6.741573033707865E-2</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9957356076759065E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.0470829068577279E-2</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.24311808592745043</v>
+        <f t="shared" si="0"/>
+        <v>2.8680688336520072E-2</v>
       </c>
       <c r="AI10" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1137731485429239</v>
+        <f t="shared" si="2"/>
+        <v>0.47229390293433704</v>
       </c>
       <c r="AJ10" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.4251543236194928E-2</v>
-      </c>
-      <c r="AK10" s="58"/>
+        <f t="shared" si="3"/>
+        <v>3.1486260195622472E-2</v>
+      </c>
+      <c r="AK10" s="57"/>
       <c r="AL10" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.5245793819251379</v>
+        <f t="shared" si="4"/>
+        <v>0.48668577739826535</v>
       </c>
       <c r="AM10" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>34.000362442224599</v>
+        <f t="shared" si="5"/>
+        <v>15.457084276586432</v>
       </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.3">
@@ -6878,143 +6885,133 @@
         <v>20</v>
       </c>
       <c r="C11" s="3">
-        <f ca="1">IF(ISNUMBER(G7),1/G7,"")</f>
-        <v>2</v>
+        <f>IF(ISNUMBER(G7),1/G7,"")</f>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <f ca="1">IF(ISNUMBER(G8),1/G8,"")</f>
-        <v>8</v>
+        <f>IF(ISNUMBER(G8),1/G8,"")</f>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
-        <f ca="1">IF(ISNUMBER(G9),1/G9,"")</f>
-        <v>7</v>
+        <f>IF(ISNUMBER(G9),1/G9,"")</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F11" s="3">
-        <f ca="1">IF(ISNUMBER(G10),1/G10,"")</f>
-        <v>9</v>
-      </c>
-      <c r="G11" s="39">
+        <f>IF(ISNUMBER(G10),1/G10,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G11" s="38">
         <v>1</v>
       </c>
-      <c r="H11" s="37">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H11" s="63">
         <v>0.2</v>
       </c>
-      <c r="I11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K11" s="37">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I11" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K11" s="63">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q11" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+      <c r="L11" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="63">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N11" s="63">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O11" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" s="63">
+        <v>0.16666666666666666</v>
       </c>
       <c r="S11" s="35" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.8431268918464415E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19077359829666432</v>
+        <f t="shared" si="0"/>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22751015670342428</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20414592653266964</v>
+        <f t="shared" si="0"/>
+        <v>8.0645161290322578E-3</v>
       </c>
       <c r="X11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1487409720866686E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.5762081784386623E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10282042127811496</v>
+        <f t="shared" si="0"/>
+        <v>6.2630480167014616E-3</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2223230490018149</v>
+        <f t="shared" si="0"/>
+        <v>8.9285714285714298E-3</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.8489981669932372E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5328884652049559E-3</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.8461538461538463E-2</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1167964404894327</v>
+        <f t="shared" si="0"/>
+        <v>8.1146875845279944E-3</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.1644635720873043E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0068689181453919E-2</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21457308895842647</v>
+        <f t="shared" si="0"/>
+        <v>1.1235955056179775E-2</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28784648187633266</v>
+        <f t="shared" si="0"/>
+        <v>1.2282497441146369E-2</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7013120658605602E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9120458891013378E-2</v>
       </c>
       <c r="AI11" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.8017908045011215</v>
+        <f t="shared" si="2"/>
+        <v>0.2279487277900018</v>
       </c>
       <c r="AJ11" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.12011938696674143</v>
-      </c>
-      <c r="AK11" s="58"/>
+        <f t="shared" si="3"/>
+        <v>1.5196581852666787E-2</v>
+      </c>
+      <c r="AK11" s="57"/>
       <c r="AL11" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.8274432948707702</v>
+        <f t="shared" si="4"/>
+        <v>0.24290828667541223</v>
       </c>
       <c r="AM11" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>31.863659909707248</v>
+        <f t="shared" si="5"/>
+        <v>15.984402876281369</v>
       </c>
     </row>
     <row r="12" spans="2:39" x14ac:dyDescent="0.3">
@@ -7022,143 +7019,134 @@
         <v>21</v>
       </c>
       <c r="C12" s="3">
-        <f ca="1">IF(ISNUMBER(H7),1/H7,"")</f>
-        <v>0.14285714285714285</v>
+        <f>IF(ISNUMBER(H7),1/H7,"")</f>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
-        <f ca="1">IF(ISNUMBER(H8),1/H8,"")</f>
+        <f>IF(ISNUMBER(H8),1/H8,"")</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <f>IF(ISNUMBER(H9),1/H9,"")</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <f>IF(ISNUMBER(H10),1/H10,"")</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <f>IF(ISNUMBER(H11),1/H11,"")</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
-        <f ca="1">IF(ISNUMBER(H9),1/H9,"")</f>
+      <c r="I12" s="64">
+        <v>5</v>
+      </c>
+      <c r="J12" s="64">
+        <v>3</v>
+      </c>
+      <c r="K12" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="64">
+        <v>3</v>
+      </c>
+      <c r="M12" s="64">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
-        <f ca="1">IF(ISNUMBER(H10),1/H10,"")</f>
-        <v>0.125</v>
-      </c>
-      <c r="G12" s="3">
-        <f ca="1">IF(ISNUMBER(H11),1/H11,"")</f>
+      <c r="N12" s="64">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O12" s="64">
         <v>5</v>
       </c>
-      <c r="H12" s="38">
+      <c r="P12" s="64">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="64">
         <v>1</v>
-      </c>
-      <c r="I12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q12" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
       </c>
       <c r="S12" s="35" t="s">
         <v>21</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.4593763513188869E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.384669978708304E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2501450957632044E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8353600907315224E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.14516129032258063</v>
       </c>
       <c r="X12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30743704860433341</v>
+        <f t="shared" si="0"/>
+        <v>8.6206896551724144E-2</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7881040892193308E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8561228132809708E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.12526096033402923</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.3520871143375679E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0357142857142863E-2</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.309398900195942E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.859866539561487E-2</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.27692307692307688</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14015572858731923</v>
+        <f t="shared" si="0"/>
+        <v>5.6802813091695957E-2</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.1644635720873043E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0137378362907838E-2</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10728654447921324</v>
+        <f t="shared" si="0"/>
+        <v>0.11235955056179775</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.5948827292110898E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.18423746161719551</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10805248263442241</v>
+        <f t="shared" si="0"/>
+        <v>0.11472275334608029</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.9661662337929473</v>
+        <f t="shared" si="2"/>
+        <v>1.6783849229297254</v>
       </c>
       <c r="AJ12" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.4411082252863155E-2</v>
-      </c>
-      <c r="AK12" s="58"/>
+        <f t="shared" si="3"/>
+        <v>0.11189232819531503</v>
+      </c>
+      <c r="AK12" s="57"/>
       <c r="AL12" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.8568156814308723</v>
+        <f t="shared" si="4"/>
+        <v>1.9139748412367656</v>
       </c>
       <c r="AM12" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>28.827580852335927</v>
+        <f t="shared" si="5"/>
+        <v>17.105505552586262</v>
       </c>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.3">
@@ -7166,143 +7154,135 @@
         <v>22</v>
       </c>
       <c r="C13" s="3">
-        <f ca="1">IF(ISNUMBER(I7),1/I7,"")</f>
+        <f>IF(ISNUMBER(I7),1/I7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f>IF(ISNUMBER(I8),1/I8,"")</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <f>IF(ISNUMBER(I9),1/I9,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F13" s="3">
+        <f>IF(ISNUMBER(I10),1/I10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <f>IF(ISNUMBER(I11),1/I11,"")</f>
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <f>IF(ISNUMBER(I12),1/I12,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+      <c r="J13" s="65">
+        <v>1</v>
+      </c>
+      <c r="K13" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="65">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N13" s="65">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D13" s="3">
-        <f ca="1">IF(ISNUMBER(I8),1/I8,"")</f>
-        <v>6</v>
-      </c>
-      <c r="E13" s="3">
-        <f ca="1">IF(ISNUMBER(I9),1/I9,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <f ca="1">IF(ISNUMBER(I10),1/I10,"")</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="3">
-        <f ca="1">IF(ISNUMBER(I11),1/I11,"")</f>
+      <c r="O13" s="65">
+        <v>3</v>
+      </c>
+      <c r="P13" s="65">
         <v>0.25</v>
       </c>
-      <c r="H13" s="3">
-        <f ca="1">IF(ISNUMBER(I12),1/I12,"")</f>
-        <v>9</v>
-      </c>
-      <c r="I13" s="38">
-        <v>1</v>
-      </c>
-      <c r="J13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K13" s="37">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Q13" s="65">
         <v>0.2</v>
-      </c>
-      <c r="L13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="O13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="P13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q13" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
       </c>
       <c r="S13" s="35" t="s">
         <v>22</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.0359390765387013E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14308019872249825</v>
+        <f t="shared" si="0"/>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2501450957632044E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5365761451704359E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5371852430216671E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25092936802973975</v>
+        <f t="shared" si="0"/>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5705105319528739E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.5052192066805846E-2</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25408348457350272</v>
+        <f t="shared" si="0"/>
+        <v>2.6785714285714288E-2</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0618797800391886E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4299332697807435E-2</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0666666666666666E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.8461538461538463E-2</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7864293659621799E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.893427103056532E-2</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.6889025514909315E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.0068689181453919E-2</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7054090299508273E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.741573033707865E-2</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5991471215351813E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5353121801432959E-2</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7013120658605602E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.2944550669216059E-2</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.85354395784978121</v>
+        <f t="shared" si="2"/>
+        <v>0.4488445530409797</v>
       </c>
       <c r="AJ13" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.6902930523318747E-2</v>
-      </c>
-      <c r="AK13" s="58"/>
+        <f t="shared" si="3"/>
+        <v>2.9922970202731981E-2</v>
+      </c>
+      <c r="AK13" s="57"/>
       <c r="AL13" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.9302641225810311</v>
+        <f t="shared" si="4"/>
+        <v>0.46986472374381633</v>
       </c>
       <c r="AM13" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>33.92205119892747</v>
+        <f t="shared" si="5"/>
+        <v>15.702476076419629</v>
       </c>
     </row>
     <row r="14" spans="2:39" x14ac:dyDescent="0.3">
@@ -7310,143 +7290,136 @@
         <v>23</v>
       </c>
       <c r="C14" s="3">
-        <f ca="1">IF(ISNUMBER(J7),1/J7,"")</f>
-        <v>7</v>
+        <f>IF(ISNUMBER(J7),1/J7,"")</f>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
-        <f ca="1">IF(ISNUMBER(J8),1/J8,"")</f>
+        <f>IF(ISNUMBER(J8),1/J8,"")</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IF(ISNUMBER(J9),1/J9,"")</f>
         <v>1</v>
       </c>
-      <c r="E14" s="3">
-        <f ca="1">IF(ISNUMBER(J9),1/J9,"")</f>
+      <c r="F14" s="3">
+        <f>IF(ISNUMBER(J10),1/J10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <f>IF(ISNUMBER(J11),1/J11,"")</f>
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <f ca="1">IF(ISNUMBER(J10),1/J10,"")</f>
+      <c r="H14" s="3">
+        <f>IF(ISNUMBER(J12),1/J12,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I14" s="3">
+        <f>IF(ISNUMBER(J13),1/J13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="37">
+        <v>1</v>
+      </c>
+      <c r="K14" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="66">
         <v>0.2</v>
       </c>
-      <c r="G14" s="3">
-        <f ca="1">IF(ISNUMBER(J11),1/J11,"")</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H14" s="3">
-        <f ca="1">IF(ISNUMBER(J12),1/J12,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="3">
-        <f ca="1">IF(ISNUMBER(J13),1/J13,"")</f>
-        <v>0.125</v>
-      </c>
-      <c r="J14" s="38">
-        <v>1</v>
-      </c>
-      <c r="K14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="N14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q14" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+      <c r="M14" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O14" s="66">
+        <v>3</v>
+      </c>
+      <c r="P14" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="Q14" s="66">
+        <v>0.2</v>
       </c>
       <c r="S14" s="35" t="s">
         <v>23</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16950944121462547</v>
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.384669978708304E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.7504352872896119E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.333333333333334E-2</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5365761451704361E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.7839156744095263E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3940520446096654E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2131381649410924E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.5052192066805846E-2</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1760435571687839E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.6785714285714288E-2</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7697996333986474E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4299332697807435E-2</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.224</v>
+        <f t="shared" si="0"/>
+        <v>1.8461538461538463E-2</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1679644048943271E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1360562618339192E-2</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15493390716261912</v>
+        <f t="shared" si="0"/>
+        <v>4.0068689181453919E-2</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3643272239606618E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.741573033707865E-2</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.23987206823027721</v>
+        <f t="shared" si="0"/>
+        <v>1.5353121801432959E-2</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7013120658605602E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.2944550669216059E-2</v>
       </c>
       <c r="AI14" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0819350885509484</v>
+        <f t="shared" si="2"/>
+        <v>0.49816578651355348</v>
       </c>
       <c r="AJ14" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.2129005903396562E-2</v>
-      </c>
-      <c r="AK14" s="58"/>
+        <f t="shared" si="3"/>
+        <v>3.3211052434236901E-2</v>
+      </c>
+      <c r="AK14" s="57"/>
       <c r="AL14" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.172324364871677</v>
+        <f t="shared" si="4"/>
+        <v>0.52107212967505667</v>
       </c>
       <c r="AM14" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>30.117209265036912</v>
+        <f t="shared" si="5"/>
+        <v>15.689720484072623</v>
       </c>
     </row>
     <row r="15" spans="2:39" x14ac:dyDescent="0.3">
@@ -7454,143 +7427,137 @@
         <v>24</v>
       </c>
       <c r="C15" s="3">
-        <f ca="1">IF(ISNUMBER(K7),1/K7,"")</f>
+        <f>IF(ISNUMBER(K7),1/K7,"")</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <f>IF(ISNUMBER(K8),1/K8,"")</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IF(ISNUMBER(K9),1/K9,"")</f>
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <f>IF(ISNUMBER(K10),1/K10,"")</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <f>IF(ISNUMBER(K11),1/K11,"")</f>
+        <v>6</v>
+      </c>
+      <c r="H15" s="3">
+        <f>IF(ISNUMBER(K12),1/K12,"")</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <f>IF(ISNUMBER(K13),1/K13,"")</f>
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <f>IF(ISNUMBER(K14),1/K14,"")</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="37">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
-        <f ca="1">IF(ISNUMBER(K8),1/K8,"")</f>
+      <c r="L15" s="67">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M15" s="67">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
-        <f ca="1">IF(ISNUMBER(K9),1/K9,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <f ca="1">IF(ISNUMBER(K10),1/K10,"")</f>
+      <c r="N15" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="67">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <f ca="1">IF(ISNUMBER(K11),1/K11,"")</f>
-        <v>6</v>
-      </c>
-      <c r="H15" s="3">
-        <f ca="1">IF(ISNUMBER(K12),1/K12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <f ca="1">IF(ISNUMBER(K13),1/K13,"")</f>
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <f ca="1">IF(ISNUMBER(K14),1/K14,"")</f>
-        <v>3</v>
-      </c>
-      <c r="K15" s="38">
-        <v>1</v>
-      </c>
-      <c r="L15" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M15" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N15" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O15" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P15" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q15" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+      <c r="P15" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="67">
+        <v>0.33333333333333331</v>
       </c>
       <c r="S15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4215634459232208E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.384669978708304E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2501450957632044E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8048642177556545E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3689244583252001</v>
+        <f t="shared" si="0"/>
+        <v>0.10344827586206896</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7881040892193308E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.19047619047619047</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12852552659764369</v>
+        <f t="shared" si="0"/>
+        <v>0.10020876826722339</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.5281306715063532E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10714285714285715</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.309398900195942E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.7197330791229739E-2</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3333333333333332E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0769230769230767E-2</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.0077864293659614E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6802813091695957E-2</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12911158930218261</v>
+        <f t="shared" si="0"/>
+        <v>4.8082427017744706E-2</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18775145283862316</v>
+        <f t="shared" si="0"/>
+        <v>6.741573033707865E-2</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9957356076759065E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0706243602865918E-2</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21610496526884482</v>
+        <f t="shared" si="0"/>
+        <v>3.8240917782026755E-2</v>
       </c>
       <c r="AI15" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.4386936895578835</v>
+        <f t="shared" si="2"/>
+        <v>1.2196438170163832</v>
       </c>
       <c r="AJ15" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.5912912637192232E-2</v>
-      </c>
-      <c r="AK15" s="58"/>
+        <f t="shared" si="3"/>
+        <v>8.1309587801092223E-2</v>
+      </c>
+      <c r="AK15" s="57"/>
       <c r="AL15" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.9713524057666434</v>
+        <f t="shared" si="4"/>
+        <v>1.3843552542004403</v>
       </c>
       <c r="AM15" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>30.979691097551338</v>
+        <f t="shared" si="5"/>
+        <v>17.025732040199131</v>
       </c>
     </row>
     <row r="16" spans="2:39" x14ac:dyDescent="0.3">
@@ -7598,143 +7565,138 @@
         <v>25</v>
       </c>
       <c r="C16" s="3">
-        <f ca="1">IF(ISNUMBER(L7),1/L7,"")</f>
-        <v>0.125</v>
+        <f>IF(ISNUMBER(L7),1/L7,"")</f>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
-        <f ca="1">IF(ISNUMBER(L8),1/L8,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER(L8),1/L8,"")</f>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
-        <f ca="1">IF(ISNUMBER(L9),1/L9,"")</f>
+        <f>IF(ISNUMBER(L9),1/L9,"")</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <f>IF(ISNUMBER(L10),1/L10,"")</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <f>IF(ISNUMBER(L11),1/L11,"")</f>
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <f>IF(ISNUMBER(L12),1/L12,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I16" s="3">
+        <f>IF(ISNUMBER(L13),1/L13,"")</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <f>IF(ISNUMBER(L14),1/L14,"")</f>
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
+        <f>IF(ISNUMBER(L15),1/L15,"")</f>
+        <v>3</v>
+      </c>
+      <c r="L16" s="37">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
-        <f ca="1">IF(ISNUMBER(L10),1/L10,"")</f>
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="3">
-        <f ca="1">IF(ISNUMBER(L11),1/L11,"")</f>
+      <c r="M16" s="68">
+        <v>3</v>
+      </c>
+      <c r="N16" s="68">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O16" s="68">
+        <v>4</v>
+      </c>
+      <c r="P16" s="68">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="68">
         <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <f ca="1">IF(ISNUMBER(L12),1/L12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <f ca="1">IF(ISNUMBER(L13),1/L13,"")</f>
-        <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <f ca="1">IF(ISNUMBER(L14),1/L14,"")</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="K16" s="3">
-        <f ca="1">IF(ISNUMBER(L15),1/L15,"")</f>
-        <v>6</v>
-      </c>
-      <c r="L16" s="38">
-        <v>1</v>
-      </c>
-      <c r="M16" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N16" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O16" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
       </c>
       <c r="S16" s="35" t="s">
         <v>25</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.0269543074040259E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.192334989354152E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2501450957632044E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6707201814630449E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1487409720866686E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.6206896551724144E-2</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7881040892193308E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7115315958586214E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.12526096033402923</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5372050816696917E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.13392857142857145</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31856393401175653</v>
+        <f t="shared" si="0"/>
+        <v>0.17159199237368922</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.2307692307692299E-2</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.6718576195773083E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17040843927508789</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10328927144174609</v>
+        <f t="shared" si="0"/>
+        <v>8.0137378362907838E-2</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6821636119803309E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.98876404494382E-2</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.7974413646055446E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.18423746161719551</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.0043735528685335E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.11472275334608029</v>
       </c>
       <c r="AI16" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.80851565196135955</v>
+        <f t="shared" si="2"/>
+        <v>1.6695888496686191</v>
       </c>
       <c r="AJ16" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3901043464090637E-2</v>
-      </c>
-      <c r="AK16" s="58"/>
+        <f t="shared" si="3"/>
+        <v>0.11130592331124127</v>
+      </c>
+      <c r="AK16" s="57"/>
       <c r="AL16" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4877238541094051</v>
+        <f t="shared" si="4"/>
+        <v>1.990955274264063</v>
       </c>
       <c r="AM16" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>27.601021399530794</v>
+        <f t="shared" si="5"/>
+        <v>17.887235602878178</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.3">
@@ -7742,143 +7704,139 @@
         <v>26</v>
       </c>
       <c r="C17" s="3">
-        <f ca="1">IF(ISNUMBER(M7),1/M7,"")</f>
+        <f>IF(ISNUMBER(M7),1/M7,"")</f>
+        <v>7</v>
+      </c>
+      <c r="D17" s="3">
+        <f>IF(ISNUMBER(M8),1/M8,"")</f>
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <f>IF(ISNUMBER(M9),1/M9,"")</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <f>IF(ISNUMBER(M10),1/M10,"")</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="3">
+        <f>IF(ISNUMBER(M11),1/M11,"")</f>
+        <v>7</v>
+      </c>
+      <c r="H17" s="3">
+        <f>IF(ISNUMBER(M12),1/M12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <f>IF(ISNUMBER(M13),1/M13,"")</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <f>IF(ISNUMBER(M14),1/M14,"")</f>
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <f>IF(ISNUMBER(M15),1/M15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <f>IF(ISNUMBER(M16),1/M16,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M17" s="37">
+        <v>1</v>
+      </c>
+      <c r="N17" s="69">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O17" s="69">
+        <v>3</v>
+      </c>
+      <c r="P17" s="69">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q17" s="69">
         <v>0.25</v>
-      </c>
-      <c r="D17" s="3">
-        <f ca="1">IF(ISNUMBER(M8),1/M8,"")</f>
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <f ca="1">IF(ISNUMBER(M9),1/M9,"")</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F17" s="3">
-        <f ca="1">IF(ISNUMBER(M10),1/M10,"")</f>
-        <v>7</v>
-      </c>
-      <c r="G17" s="3">
-        <f ca="1">IF(ISNUMBER(M11),1/M11,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="3">
-        <f ca="1">IF(ISNUMBER(M12),1/M12,"")</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I17" s="3">
-        <f ca="1">IF(ISNUMBER(M13),1/M13,"")</f>
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <f ca="1">IF(ISNUMBER(M14),1/M14,"")</f>
-        <v>2</v>
-      </c>
-      <c r="K17" s="3">
-        <f ca="1">IF(ISNUMBER(M15),1/M15,"")</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L17" s="3">
-        <f ca="1">IF(ISNUMBER(M16),1/M16,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="38">
-        <v>1</v>
-      </c>
-      <c r="N17" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O17" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="P17" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q17" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14285714285714285</v>
       </c>
       <c r="S17" s="35" t="s">
         <v>26</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.0539086148080519E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.13725490196078433</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.769339957416608E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13207547169811321</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0833816985877346E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15878016508096526</v>
+        <f t="shared" si="0"/>
+        <v>0.16935483870967741</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2297481944173337E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1206896551724138</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.6468401486988841E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7115315958586214E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.5156576200417546E-2</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.3520871143375679E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13392857142857145</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7697996333986474E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.7197330791229739E-2</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.0769230769230767E-2</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3359288097886542E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6802813091695957E-2</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7466953581309561E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0137378362907838E-2</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7054090299508273E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.741573033707865E-2</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9957356076759065E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.0470829068577279E-2</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8590172369436576E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.8680688336520072E-2</v>
       </c>
       <c r="AI17" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.53402619933840401</v>
+        <f t="shared" si="2"/>
+        <v>1.405172111165313</v>
       </c>
       <c r="AJ17" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.5601746622560264E-2</v>
-      </c>
-      <c r="AK17" s="58"/>
+        <f t="shared" si="3"/>
+        <v>9.3678140744354196E-2</v>
+      </c>
+      <c r="AK17" s="57"/>
       <c r="AL17" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.2531802912640584</v>
+        <f t="shared" si="4"/>
+        <v>1.5856682754812113</v>
       </c>
       <c r="AM17" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>35.199966578885146</v>
+        <f t="shared" si="5"/>
+        <v>16.926769285573982</v>
       </c>
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.3">
@@ -7886,143 +7844,140 @@
         <v>27</v>
       </c>
       <c r="C18" s="3">
-        <f ca="1">IF(ISNUMBER(N7),1/N7,"")</f>
+        <f>IF(ISNUMBER(N7),1/N7,"")</f>
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <f>IF(ISNUMBER(N8),1/N8,"")</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <f>IF(ISNUMBER(N9),1/N9,"")</f>
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <f>IF(ISNUMBER(N10),1/N10,"")</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <f>IF(ISNUMBER(N11),1/N11,"")</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
+        <f>IF(ISNUMBER(N12),1/N12,"")</f>
         <v>3</v>
       </c>
-      <c r="D18" s="3">
-        <f ca="1">IF(ISNUMBER(N8),1/N8,"")</f>
+      <c r="I18" s="3">
+        <f>IF(ISNUMBER(N13),1/N13,"")</f>
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
+        <f>IF(ISNUMBER(N14),1/N14,"")</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="3">
+        <f>IF(ISNUMBER(N15),1/N15,"")</f>
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
+        <f>IF(ISNUMBER(N16),1/N16,"")</f>
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <f>IF(ISNUMBER(N17),1/N17,"")</f>
+        <v>3</v>
+      </c>
+      <c r="N18" s="37">
+        <v>1</v>
+      </c>
+      <c r="O18" s="70">
+        <v>5</v>
+      </c>
+      <c r="P18" s="70">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <f ca="1">IF(ISNUMBER(N9),1/N9,"")</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F18" s="3">
-        <f ca="1">IF(ISNUMBER(N10),1/N10,"")</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <f ca="1">IF(ISNUMBER(N11),1/N11,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="3">
-        <f ca="1">IF(ISNUMBER(N12),1/N12,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="3">
-        <f ca="1">IF(ISNUMBER(N13),1/N13,"")</f>
-        <v>7</v>
-      </c>
-      <c r="J18" s="3">
-        <f ca="1">IF(ISNUMBER(N14),1/N14,"")</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K18" s="3">
-        <f ca="1">IF(ISNUMBER(N15),1/N15,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="3">
-        <f ca="1">IF(ISNUMBER(N16),1/N16,"")</f>
-        <v>0.25</v>
-      </c>
-      <c r="M18" s="3">
-        <f ca="1">IF(ISNUMBER(N17),1/N17,"")</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N18" s="38">
-        <v>1</v>
-      </c>
-      <c r="O18" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+      <c r="Q18" s="70">
+        <v>3</v>
       </c>
       <c r="S18" s="35" t="s">
         <v>27</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2646903377696623E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.13725490196078433</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.538679914833216E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11320754716981132</v>
       </c>
       <c r="V18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.6430644225188625E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.16666666666666669</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2682880725852179E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.14516129032258063</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.0743704860433343E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10344827586206896</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3940520446096654E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17993573723670117</v>
+        <f t="shared" si="0"/>
+        <v>0.15031315240083509</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.2934059286146402E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.16071428571428573</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0618797800391886E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.2859866539561487</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.27692307692307688</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7864293659621799E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.17040843927508789</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5822317860436522E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.2404121350887235</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6821636119803309E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11235955056179775</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.7974413646055446E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.24564994882292734</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.402624131721121E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.34416826003824086</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.55769923507061614</v>
+        <f t="shared" si="2"/>
+        <v>2.9383884704773213</v>
       </c>
       <c r="AJ18" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.7179949004707745E-2</v>
-      </c>
-      <c r="AK18" s="58"/>
+        <f t="shared" si="3"/>
+        <v>0.19589256469848809</v>
+      </c>
+      <c r="AK18" s="57"/>
       <c r="AL18" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.2589252294871816</v>
+        <f t="shared" si="4"/>
+        <v>3.424401629589366</v>
       </c>
       <c r="AM18" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>33.86032695547204</v>
+        <f t="shared" si="5"/>
+        <v>17.481018919018705</v>
       </c>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.3">
@@ -8030,143 +7985,141 @@
         <v>28</v>
       </c>
       <c r="C19" s="3">
-        <f ca="1">IF(ISNUMBER(O7),1/O7,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(O7),1/O7,"")</f>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <f ca="1">IF(ISNUMBER(O8),1/O8,"")</f>
-        <v>0.16666666666666666</v>
+        <f>IF(ISNUMBER(O8),1/O8,"")</f>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <f ca="1">IF(ISNUMBER(O9),1/O9,"")</f>
-        <v>3</v>
+        <f>IF(ISNUMBER(O9),1/O9,"")</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F19" s="3">
-        <f ca="1">IF(ISNUMBER(O10),1/O10,"")</f>
+        <f>IF(ISNUMBER(O10),1/O10,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G19" s="3">
+        <f>IF(ISNUMBER(O11),1/O11,"")</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <f>IF(ISNUMBER(O12),1/O12,"")</f>
         <v>0.2</v>
       </c>
-      <c r="G19" s="3">
-        <f ca="1">IF(ISNUMBER(O11),1/O11,"")</f>
-        <v>0.125</v>
-      </c>
-      <c r="H19" s="3">
-        <f ca="1">IF(ISNUMBER(O12),1/O12,"")</f>
+      <c r="I19" s="3">
+        <f>IF(ISNUMBER(O13),1/O13,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J19" s="3">
+        <f>IF(ISNUMBER(O14),1/O14,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K19" s="3">
+        <f>IF(ISNUMBER(O15),1/O15,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L19" s="3">
+        <f>IF(ISNUMBER(O16),1/O16,"")</f>
         <v>0.25</v>
       </c>
-      <c r="I19" s="3">
-        <f ca="1">IF(ISNUMBER(O13),1/O13,"")</f>
-        <v>4</v>
-      </c>
-      <c r="J19" s="3">
-        <f ca="1">IF(ISNUMBER(O14),1/O14,"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="3">
-        <f ca="1">IF(ISNUMBER(O15),1/O15,"")</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="L19" s="3">
-        <f ca="1">IF(ISNUMBER(O16),1/O16,"")</f>
+      <c r="M19" s="3">
+        <f>IF(ISNUMBER(O17),1/O17,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N19" s="3">
+        <f>IF(ISNUMBER(O18),1/O18,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="O19" s="37">
         <v>1</v>
       </c>
-      <c r="M19" s="3">
-        <f ca="1">IF(ISNUMBER(O17),1/O17,"")</f>
-        <v>4</v>
-      </c>
-      <c r="N19" s="3">
-        <f ca="1">IF(ISNUMBER(O18),1/O18,"")</f>
-        <v>1</v>
-      </c>
-      <c r="O19" s="38">
-        <v>1</v>
-      </c>
-      <c r="P19" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q19" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+      <c r="P19" s="71">
+        <v>0.25</v>
+      </c>
+      <c r="Q19" s="71">
+        <v>0.2</v>
       </c>
       <c r="S19" s="35" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12107817229616104</v>
+        <f t="shared" si="1"/>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.97444996451384E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.7504352872896119E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5365761451704361E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.0645161290322578E-3</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6859262151083357E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.970260223048327E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10282042127811496</v>
+        <f t="shared" si="0"/>
+        <v>8.350730688935281E-3</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.588021778584392E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.9285714285714298E-3</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5848555717084884E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.9065776930409912E-2</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3076923076923075E-2</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.3437152391546166E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.893427103056532E-2</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5822317860436522E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.8082427017744706E-2</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6821636119803309E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19189765458422178</v>
+        <f t="shared" si="0"/>
+        <v>1.5353121801432959E-2</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7013120658605602E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.2944550669216059E-2</v>
       </c>
       <c r="AI19" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.76502711396717882</v>
+        <f t="shared" si="2"/>
+        <v>0.29839005533016721</v>
       </c>
       <c r="AJ19" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1001807597811921E-2</v>
-      </c>
-      <c r="AK19" s="58"/>
+        <f t="shared" si="3"/>
+        <v>1.9892670355344481E-2</v>
+      </c>
+      <c r="AK19" s="57"/>
       <c r="AL19" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.5955672073296214</v>
+        <f t="shared" si="4"/>
+        <v>0.32196124143315058</v>
       </c>
       <c r="AM19" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>31.284522695977437</v>
+        <f t="shared" si="5"/>
+        <v>16.18491814733413</v>
       </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.3">
@@ -8174,143 +8127,142 @@
         <v>29</v>
       </c>
       <c r="C20" s="3">
-        <f ca="1">IF(ISNUMBER(P7),1/P7,"")</f>
-        <v>9</v>
+        <f>IF(ISNUMBER(P7),1/P7,"")</f>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <f ca="1">IF(ISNUMBER(P8),1/P8,"")</f>
+        <f>IF(ISNUMBER(P8),1/P8,"")</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <f>IF(ISNUMBER(P9),1/P9,"")</f>
         <v>2</v>
       </c>
-      <c r="E20" s="3">
-        <f ca="1">IF(ISNUMBER(P9),1/P9,"")</f>
+      <c r="F20" s="3">
+        <f>IF(ISNUMBER(P10),1/P10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <f>IF(ISNUMBER(P11),1/P11,"")</f>
         <v>5</v>
       </c>
-      <c r="F20" s="3">
-        <f ca="1">IF(ISNUMBER(P10),1/P10,"")</f>
-        <v>6</v>
-      </c>
-      <c r="G20" s="3">
-        <f ca="1">IF(ISNUMBER(P11),1/P11,"")</f>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="H20" s="3">
-        <f ca="1">IF(ISNUMBER(P12),1/P12,"")</f>
-        <v>5</v>
+        <f>IF(ISNUMBER(P12),1/P12,"")</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I20" s="3">
-        <f ca="1">IF(ISNUMBER(P13),1/P13,"")</f>
+        <f>IF(ISNUMBER(P13),1/P13,"")</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(ISNUMBER(P14),1/P14,"")</f>
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <f>IF(ISNUMBER(P15),1/P15,"")</f>
+        <v>2</v>
+      </c>
+      <c r="L20" s="3">
+        <f>IF(ISNUMBER(P16),1/P16,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M20" s="3">
+        <f>IF(ISNUMBER(P17),1/P17,"")</f>
         <v>3</v>
       </c>
-      <c r="J20" s="3">
-        <f ca="1">IF(ISNUMBER(P14),1/P14,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="3">
-        <f ca="1">IF(ISNUMBER(P15),1/P15,"")</f>
-        <v>6</v>
-      </c>
-      <c r="L20" s="3">
-        <f ca="1">IF(ISNUMBER(P16),1/P16,"")</f>
+      <c r="N20" s="3">
+        <f>IF(ISNUMBER(P18),1/P18,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="3">
+        <f>IF(ISNUMBER(P19),1/P19,"")</f>
+        <v>4</v>
+      </c>
+      <c r="P20" s="37">
         <v>1</v>
       </c>
-      <c r="M20" s="3">
-        <f ca="1">IF(ISNUMBER(P17),1/P17,"")</f>
-        <v>6</v>
-      </c>
-      <c r="N20" s="3">
-        <f ca="1">IF(ISNUMBER(P18),1/P18,"")</f>
-        <v>1</v>
-      </c>
-      <c r="O20" s="3">
-        <f ca="1">IF(ISNUMBER(P19),1/P19,"")</f>
-        <v>0.25</v>
-      </c>
-      <c r="P20" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+      <c r="Q20" s="72">
+        <v>0.5</v>
       </c>
       <c r="S20" s="35" t="s">
         <v>29</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21794071013308988</v>
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.769339957416608E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="V20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16250725478816019</v>
+        <f t="shared" si="0"/>
+        <v>6.666666666666668E-2</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13609728435511309</v>
+        <f t="shared" si="0"/>
+        <v>7.2580645161290314E-2</v>
       </c>
       <c r="X20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0247901620144446E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.6206896551724144E-2</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13940520446096655</v>
+        <f t="shared" si="0"/>
+        <v>3.1746031746031744E-2</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7115315958586214E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10020876826722339</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.3520871143375691E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.10714285714285715</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31856393401175653</v>
+        <f t="shared" si="0"/>
+        <v>0.11439466158245948</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.0769230769230767E-2</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14015572858731923</v>
+        <f t="shared" si="0"/>
+        <v>0.17040843927508789</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5822317860436522E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.0103033772180875E-2</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7054090299508273E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.98876404494382E-2</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.7974413646055446E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.1412487205731836E-2</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7013120658605602E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.7361376673040143E-2</v>
       </c>
       <c r="AI20" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.395594081798688</v>
+        <f t="shared" si="2"/>
+        <v>1.1643160382596329</v>
       </c>
       <c r="AJ20" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.3039605453245869E-2</v>
-      </c>
-      <c r="AK20" s="58"/>
+        <f t="shared" si="3"/>
+        <v>7.7621069217308866E-2</v>
+      </c>
+      <c r="AK20" s="57"/>
       <c r="AL20" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.0819636929102905</v>
+        <f t="shared" si="4"/>
+        <v>1.3968412108575383</v>
       </c>
       <c r="AM20" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>33.125287643862961</v>
+        <f t="shared" si="5"/>
+        <v>17.995645060581747</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.3">
@@ -8318,143 +8270,143 @@
         <v>30</v>
       </c>
       <c r="C21" s="3">
-        <f ca="1">IF(ISNUMBER(Q7),1/Q7,"")</f>
-        <v>0.1111111111111111</v>
+        <f>IF(ISNUMBER(Q7),1/Q7,"")</f>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <f ca="1">IF(ISNUMBER(Q8),1/Q8,"")</f>
-        <v>7</v>
+        <f>IF(ISNUMBER(Q8),1/Q8,"")</f>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
-        <f ca="1">IF(ISNUMBER(Q9),1/Q9,"")</f>
+        <f>IF(ISNUMBER(Q9),1/Q9,"")</f>
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <f>IF(ISNUMBER(Q10),1/Q10,"")</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <f>IF(ISNUMBER(Q11),1/Q11,"")</f>
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
+        <f>IF(ISNUMBER(Q12),1/Q12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <f>IF(ISNUMBER(Q13),1/Q13,"")</f>
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <f ca="1">IF(ISNUMBER(Q10),1/Q10,"")</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G21" s="3">
-        <f ca="1">IF(ISNUMBER(Q11),1/Q11,"")</f>
+      <c r="J21" s="3">
+        <f>IF(ISNUMBER(Q14),1/Q14,"")</f>
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
+        <f>IF(ISNUMBER(Q15),1/Q15,"")</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
+        <f>IF(ISNUMBER(Q16),1/Q16,"")</f>
         <v>1</v>
       </c>
-      <c r="H21" s="3">
-        <f ca="1">IF(ISNUMBER(Q12),1/Q12,"")</f>
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="3">
-        <f ca="1">IF(ISNUMBER(Q13),1/Q13,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <f ca="1">IF(ISNUMBER(Q14),1/Q14,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <f ca="1">IF(ISNUMBER(Q15),1/Q15,"")</f>
-        <v>0.125</v>
-      </c>
-      <c r="L21" s="3">
-        <f ca="1">IF(ISNUMBER(Q16),1/Q16,"")</f>
-        <v>3</v>
-      </c>
       <c r="M21" s="3">
-        <f ca="1">IF(ISNUMBER(Q17),1/Q17,"")</f>
-        <v>7</v>
+        <f>IF(ISNUMBER(Q17),1/Q17,"")</f>
+        <v>4</v>
       </c>
       <c r="N21" s="3">
-        <f ca="1">IF(ISNUMBER(Q18),1/Q18,"")</f>
+        <f>IF(ISNUMBER(Q18),1/Q18,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O21" s="3">
+        <f>IF(ISNUMBER(Q19),1/Q19,"")</f>
         <v>5</v>
       </c>
-      <c r="O21" s="3">
-        <f ca="1">IF(ISNUMBER(Q19),1/Q19,"")</f>
-        <v>1</v>
-      </c>
       <c r="P21" s="3">
-        <f ca="1">IF(ISNUMBER(Q20),1/Q20,"")</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="38">
+        <f>IF(ISNUMBER(Q20),1/Q20,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Q21" s="37">
         <v>1</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>30</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.690626051025801E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16692689850958128</v>
+        <f t="shared" si="0"/>
+        <v>0.11320754716981132</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16250725478816019</v>
+        <f t="shared" si="0"/>
+        <v>0.13333333333333336</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5203200806502421E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1487409720866686E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10344827586206896</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.970260223048327E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5705105319528739E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.12526096033402923</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1760435571687839E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13392857142857145</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.6367486252449275E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.17159199237368922</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.6000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.2307692307692299E-2</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16351501668520579</v>
+        <f t="shared" si="0"/>
+        <v>0.22721125236678383</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12911158930218261</v>
+        <f t="shared" si="0"/>
+        <v>8.0137378362907838E-2</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6821636119803309E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11235955056179775</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.7974413646055446E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.12282497441146367</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7013120658605602E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11472275334608029</v>
       </c>
       <c r="AI21" s="4">
-        <f t="shared" ref="AI21" ca="1" si="7">SUM(T21:AH21)</f>
-        <v>0.95764083530164679</v>
+        <f t="shared" ref="AI21" si="6">SUM(T21:AH21)</f>
+        <v>1.820385786330986</v>
       </c>
       <c r="AJ21" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.3842722353443113E-2</v>
-      </c>
-      <c r="AK21" s="58"/>
+        <f t="shared" si="3"/>
+        <v>0.12135905242206574</v>
+      </c>
+      <c r="AK21" s="57"/>
       <c r="AL21" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.7282211552391575</v>
+        <f t="shared" si="4"/>
+        <v>2.1761837000628308</v>
       </c>
       <c r="AM21" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>27.069979028642607</v>
+        <f t="shared" si="5"/>
+        <v>17.931778937218802</v>
       </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.3">
@@ -8462,128 +8414,128 @@
         <v>13</v>
       </c>
       <c r="C22" s="4">
-        <f ca="1">SUM(C7:C21)</f>
-        <v>41.295634920634924</v>
+        <f>SUM(C7:C21)</f>
+        <v>51</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" ref="D22:Q22" ca="1" si="8">SUM(D7:D21)</f>
-        <v>41.934523809523803</v>
+        <f t="shared" ref="D22:Q22" si="7">SUM(D7:D21)</f>
+        <v>53</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>30.767857142857139</v>
+        <f t="shared" si="7"/>
+        <v>29.999999999999996</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>44.086111111111116</v>
+        <f t="shared" si="7"/>
+        <v>41.333333333333336</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>16.263492063492063</v>
+        <f t="shared" si="7"/>
+        <v>58</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>35.866666666666667</v>
+        <f t="shared" si="7"/>
+        <v>10.5</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>38.902777777777779</v>
+        <f t="shared" si="7"/>
+        <v>39.916666666666664</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>31.485714285714284</v>
+        <f t="shared" si="7"/>
+        <v>37.333333333333329</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18.834523809523809</v>
+        <f t="shared" si="7"/>
+        <v>17.483333333333334</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>31.25</v>
+        <f t="shared" si="7"/>
+        <v>10.833333333333334</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>42.80952380952381</v>
+        <f t="shared" si="7"/>
+        <v>17.604761904761908</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>38.726190476190474</v>
+        <f t="shared" si="7"/>
+        <v>4.1595238095238098</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>37.283333333333331</v>
+        <f t="shared" si="7"/>
+        <v>44.5</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>20.844444444444441</v>
+        <f t="shared" si="7"/>
+        <v>16.283333333333331</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>37.019047619047626</v>
+        <f t="shared" si="7"/>
+        <v>8.7166666666666686</v>
       </c>
       <c r="S22">
-        <f ca="1">+AJ6</f>
+        <f>+AJ6</f>
         <v>15</v>
       </c>
       <c r="T22" s="20">
-        <f ca="1">+AJ7</f>
-        <v>7.6452806417286412E-2</v>
+        <f>+AJ7</f>
+        <v>1.7744581969364473E-2</v>
       </c>
       <c r="U22" s="20">
-        <f ca="1">+AJ8</f>
-        <v>5.1633247224796258E-2</v>
+        <f>+AJ8</f>
+        <v>1.6757818322592485E-2</v>
       </c>
       <c r="V22" s="20">
-        <f ca="1">+AJ9</f>
-        <v>5.3620210342350726E-2</v>
+        <f>+AJ9</f>
+        <v>4.2729398277574986E-2</v>
       </c>
       <c r="W22" s="20">
-        <f ca="1">+AJ10</f>
-        <v>7.4251543236194928E-2</v>
+        <f>+AJ10</f>
+        <v>3.1486260195622472E-2</v>
       </c>
       <c r="X22" s="20">
-        <f ca="1">+AJ11</f>
-        <v>0.12011938696674143</v>
+        <f>+AJ11</f>
+        <v>1.5196581852666787E-2</v>
       </c>
       <c r="Y22" s="20">
-        <f ca="1">+AJ12</f>
-        <v>6.4411082252863155E-2</v>
+        <f>+AJ12</f>
+        <v>0.11189232819531503</v>
       </c>
       <c r="Z22" s="20">
-        <f ca="1">+AJ13</f>
-        <v>5.6902930523318747E-2</v>
+        <f>+AJ13</f>
+        <v>2.9922970202731981E-2</v>
       </c>
       <c r="AA22" s="20">
-        <f ca="1">+AJ14</f>
-        <v>7.2129005903396562E-2</v>
+        <f>+AJ14</f>
+        <v>3.3211052434236901E-2</v>
       </c>
       <c r="AB22" s="20">
-        <f ca="1">+AJ15</f>
-        <v>9.5912912637192232E-2</v>
+        <f>+AJ15</f>
+        <v>8.1309587801092223E-2</v>
       </c>
       <c r="AC22" s="20">
-        <f ca="1">+AJ16</f>
-        <v>5.3901043464090637E-2</v>
+        <f>+AJ16</f>
+        <v>0.11130592331124127</v>
       </c>
       <c r="AD22" s="20">
-        <f ca="1">+AJ17</f>
-        <v>3.5601746622560264E-2</v>
+        <f>+AJ17</f>
+        <v>9.3678140744354196E-2</v>
       </c>
       <c r="AE22" s="20">
-        <f ca="1">+AJ18</f>
-        <v>3.7179949004707745E-2</v>
+        <f>+AJ18</f>
+        <v>0.19589256469848809</v>
       </c>
       <c r="AF22" s="20">
-        <f ca="1">+AJ19</f>
-        <v>5.1001807597811921E-2</v>
+        <f>+AJ19</f>
+        <v>1.9892670355344481E-2</v>
       </c>
       <c r="AG22" s="20">
-        <f ca="1">+AJ20</f>
-        <v>9.3039605453245869E-2</v>
+        <f>+AJ20</f>
+        <v>7.7621069217308866E-2</v>
       </c>
       <c r="AH22" s="20">
-        <f ca="1">+AJ21</f>
-        <v>6.3842722353443113E-2</v>
+        <f>+AJ21</f>
+        <v>0.12135905242206574</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.3">
@@ -8591,68 +8543,68 @@
         <v>0</v>
       </c>
       <c r="T24" s="8">
-        <f ca="1">+IF(ISNUMBER(C7),C7*T$22,"")</f>
-        <v>7.6452806417286412E-2</v>
+        <f>+IF(ISNUMBER(C7),C7*T$22,"")</f>
+        <v>1.7744581969364473E-2</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" ref="U24:AH38" ca="1" si="9">+IF(ISNUMBER(D7),D7*U$22,"")</f>
-        <v>7.3761781749708934E-3</v>
+        <f t="shared" ref="U24:AH38" si="8">+IF(ISNUMBER(D7),D7*U$22,"")</f>
+        <v>1.6757818322592485E-2</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10724042068470145</v>
+        <f t="shared" si="8"/>
+        <v>1.4243132759191647E-2</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.4850308647238986E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.0495420065207491E-2</v>
       </c>
       <c r="X24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.0059693483370716E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5196581852666787E-2</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.45087757577004206</v>
+        <f t="shared" si="8"/>
+        <v>2.2378465639063008E-2</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.34141758313991249</v>
+        <f t="shared" si="8"/>
+        <v>2.9922970202731981E-2</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.0304143700485222E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.10703508114123E-2</v>
       </c>
       <c r="AB24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.5912912637192232E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6261917560218445E-2</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.43120834771272509</v>
+        <f t="shared" si="8"/>
+        <v>2.2261184662248256E-2</v>
       </c>
       <c r="AD24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14240698649024106</v>
+        <f t="shared" si="8"/>
+        <v>1.3382591534907742E-2</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2393316334902581E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7984652099784013E-2</v>
       </c>
       <c r="AF24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.0200361519562384E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9892670355344481E-2</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.0337733939249541E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.5873689739102954E-2</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.57458450118098803</v>
+        <f t="shared" si="8"/>
+        <v>2.427181048441315E-2</v>
       </c>
       <c r="AI24" s="8">
-        <f ca="1">+SUM(T24:AH24)</f>
-        <v>2.3456228698328694</v>
+        <f>+SUM(T24:AH24)</f>
+        <v>0.28773783805824921</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.3">
@@ -8660,68 +8612,68 @@
         <v>1</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" ref="T25:T38" ca="1" si="10">+IF(ISNUMBER(C8),C8*T$22,"")</f>
-        <v>0.53516964492100483</v>
+        <f t="shared" ref="T25:T38" si="9">+IF(ISNUMBER(C8),C8*T$22,"")</f>
+        <v>1.7744581969364473E-2</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1633247224796258E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6757818322592485E-2</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.7025262927938407E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.4243132759191661E-2</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.59401234588955942</v>
+        <f t="shared" si="8"/>
+        <v>1.0495420065207491E-2</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.5014923370842679E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5196581852666787E-2</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4411082252863155E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2378465639063008E-2</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.4838217538864567E-3</v>
+        <f t="shared" si="8"/>
+        <v>9.9743234009106591E-3</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.2129005903396562E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.10703508114123E-2</v>
       </c>
       <c r="AB25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.5912912637192232E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6261917560218445E-2</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10780208692818127</v>
+        <f t="shared" si="8"/>
+        <v>2.2261184662248256E-2</v>
       </c>
       <c r="AD25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.7800873311280132E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.3382591534907742E-2</v>
       </c>
       <c r="AE25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.2949872511769362E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.2648760783081349E-2</v>
       </c>
       <c r="AF25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.30601084558687153</v>
+        <f t="shared" si="8"/>
+        <v>1.9892670355344481E-2</v>
       </c>
       <c r="AG25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.6519802726622934E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.5873689739102954E-2</v>
       </c>
       <c r="AH25" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.1203889076347296E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.0226508737010956E-2</v>
       </c>
       <c r="AI25" s="8">
-        <f t="shared" ref="AI25:AI38" ca="1" si="11">+SUM(T25:AH25)</f>
-        <v>1.9410184949581031</v>
+        <f t="shared" ref="AI25:AI38" si="10">+SUM(T25:AH25)</f>
+        <v>0.26840799819232308</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.3">
@@ -8729,68 +8681,68 @@
         <v>2</v>
       </c>
       <c r="T26" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>3.8226403208643206E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.3233745908093474E-2</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.41306597779837007</v>
+        <f t="shared" si="8"/>
+        <v>5.0273454967777451E-2</v>
       </c>
       <c r="V26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3620210342350726E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.2729398277574986E-2</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.44550925941716957</v>
+        <f t="shared" si="8"/>
+        <v>9.4458780586867408E-2</v>
       </c>
       <c r="X26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.7159912423820204E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.5589745558000362E-2</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4411082252863155E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.7297442731771671E-2</v>
       </c>
       <c r="Z26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.6902930523318747E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.9768910608195945E-2</v>
       </c>
       <c r="AA26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.4043001967798853E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.3211052434236901E-2</v>
       </c>
       <c r="AB26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.5912912637192232E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7103195933697408E-2</v>
       </c>
       <c r="AC26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3901043464090637E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.7101974437080423E-2</v>
       </c>
       <c r="AD26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10680523986768078</v>
+        <f t="shared" si="8"/>
+        <v>1.5613023457392365E-2</v>
       </c>
       <c r="AE26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.26025964303295424</v>
+        <f t="shared" si="8"/>
+        <v>3.9178512939697624E-2</v>
       </c>
       <c r="AF26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.7000602532603971E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.9678011066033446E-2</v>
       </c>
       <c r="AG26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.8607921090649175E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.8810534608654433E-2</v>
       </c>
       <c r="AH26" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2768544470688623E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.0339763105516435E-2</v>
       </c>
       <c r="AI26" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.6781946850301943</v>
+        <f t="shared" si="10"/>
+        <v>0.69438754662059032</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.3">
@@ -8798,68 +8750,68 @@
         <v>3</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.38226403208643206</v>
+        <f t="shared" si="9"/>
+        <v>5.3233745908093419E-2</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4541559030995323E-3</v>
+        <f t="shared" si="8"/>
+        <v>5.0273454967777451E-2</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.9367017237251198E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.4243132759191661E-2</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.4251543236194928E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.1486260195622472E-2</v>
       </c>
       <c r="X27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.3346598551860158E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.5589745558000362E-2</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.51528865802290524</v>
+        <f t="shared" si="8"/>
+        <v>1.8648721365885836E-2</v>
       </c>
       <c r="Z27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.8451465261659373E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.9922970202731981E-2</v>
       </c>
       <c r="AA27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.3606450295169828</v>
+        <f t="shared" si="8"/>
+        <v>3.3211052434236901E-2</v>
       </c>
       <c r="AB27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.1970970879064073E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.0327396950273056E-2</v>
       </c>
       <c r="AC27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.21560417385636255</v>
+        <f t="shared" si="8"/>
+        <v>2.7826480827810317E-2</v>
       </c>
       <c r="AD27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.0859638032228942E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.3382591534907742E-2</v>
       </c>
       <c r="AE27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.7179949004707745E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.2648760783081349E-2</v>
       </c>
       <c r="AF27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.25500903798905961</v>
+        <f t="shared" si="8"/>
+        <v>5.9678011066033446E-2</v>
       </c>
       <c r="AG27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.5506600908874311E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.5873689739102954E-2</v>
       </c>
       <c r="AH27" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.57458450118098803</v>
+        <f t="shared" si="8"/>
+        <v>3.0339763105516435E-2</v>
       </c>
       <c r="AI27" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.5245793819251379</v>
+        <f t="shared" si="10"/>
+        <v>0.48668577739826535</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.3">
@@ -8867,68 +8819,68 @@
         <v>20</v>
       </c>
       <c r="T28" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.15290561283457282</v>
+        <f t="shared" si="9"/>
+        <v>1.7744581969364473E-2</v>
       </c>
       <c r="U28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.41306597779837007</v>
+        <f t="shared" si="8"/>
+        <v>1.6757818322592485E-2</v>
       </c>
       <c r="V28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.3753414723964551</v>
+        <f t="shared" si="8"/>
+        <v>1.4243132759191661E-2</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.66826388912575441</v>
+        <f t="shared" si="8"/>
+        <v>1.0495420065207491E-2</v>
       </c>
       <c r="X28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12011938696674143</v>
+        <f t="shared" si="8"/>
+        <v>1.5196581852666787E-2</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2882216450572631E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2378465639063008E-2</v>
       </c>
       <c r="Z28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.22761172209327499</v>
+        <f t="shared" si="8"/>
+        <v>7.4807425506829952E-3</v>
       </c>
       <c r="AA28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.50490304132377595</v>
+        <f t="shared" si="8"/>
+        <v>1.10703508114123E-2</v>
       </c>
       <c r="AB28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.5985485439532036E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.3551597966848704E-2</v>
       </c>
       <c r="AC28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3901043464090637E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2261184662248256E-2</v>
       </c>
       <c r="AD28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.17800873311280133</v>
+        <f t="shared" si="8"/>
+        <v>1.3382591534907742E-2</v>
       </c>
       <c r="AE28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.435989800941549E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.2648760783081349E-2</v>
       </c>
       <c r="AF28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.40801446078249537</v>
+        <f t="shared" si="8"/>
+        <v>9.9463351776722404E-3</v>
       </c>
       <c r="AG28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.55823763271947524</v>
+        <f t="shared" si="8"/>
+        <v>1.5524213843461775E-2</v>
       </c>
       <c r="AH28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3842722353443113E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.0226508737010956E-2</v>
       </c>
       <c r="AI28" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>3.8274432948707702</v>
+        <f t="shared" si="10"/>
+        <v>0.24290828667541223</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.3">
@@ -8936,68 +8888,68 @@
         <v>21</v>
       </c>
       <c r="T29" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0921829488183772E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.8722909846822365E-2</v>
       </c>
       <c r="U29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1633247224796258E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.3789091612962427E-2</v>
       </c>
       <c r="V29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3620210342350726E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.12818819483272495</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.281442904524366E-3</v>
+        <f t="shared" si="8"/>
+        <v>0.18891756117373482</v>
       </c>
       <c r="X29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.60059693483370713</v>
+        <f t="shared" si="8"/>
+        <v>7.5982909263333939E-2</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4411082252863155E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.11189232819531503</v>
       </c>
       <c r="Z29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.322547835924305E-3</v>
+        <f t="shared" si="8"/>
+        <v>0.1496148510136599</v>
       </c>
       <c r="AA29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14425801180679312</v>
+        <f t="shared" si="8"/>
+        <v>9.9633157302710704E-2</v>
       </c>
       <c r="AB29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.5912912637192232E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.0654793900546111E-2</v>
       </c>
       <c r="AC29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3901043464090637E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.3339177699337238</v>
       </c>
       <c r="AD29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.21361047973536157</v>
+        <f t="shared" si="8"/>
+        <v>9.3678140744354196E-2</v>
       </c>
       <c r="AE29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.435989800941549E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.5297521566162697E-2</v>
       </c>
       <c r="AF29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.20400723039124768</v>
+        <f t="shared" si="8"/>
+        <v>9.94633517767224E-2</v>
       </c>
       <c r="AG29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.8607921090649175E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.23286320765192658</v>
       </c>
       <c r="AH29" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.25537088941377245</v>
+        <f t="shared" si="8"/>
+        <v>0.12135905242206574</v>
       </c>
       <c r="AI29" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.8568156814308723</v>
+        <f t="shared" si="10"/>
+        <v>1.9139748412367656</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.3">
@@ -9005,68 +8957,68 @@
         <v>22</v>
       </c>
       <c r="T30" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2742134402881067E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.7744581969364473E-2</v>
       </c>
       <c r="U30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.30979948334877755</v>
+        <f t="shared" si="8"/>
+        <v>5.0273454967777451E-2</v>
       </c>
       <c r="V30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3620210342350726E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.4243132759191661E-2</v>
       </c>
       <c r="W30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14850308647238986</v>
+        <f t="shared" si="8"/>
+        <v>3.1486260195622472E-2</v>
       </c>
       <c r="X30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.0029846741685358E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.0786327410667147E-2</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.57969974027576843</v>
+        <f t="shared" si="8"/>
+        <v>2.2378465639063008E-2</v>
       </c>
       <c r="Z30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.6902930523318747E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.9922970202731981E-2</v>
       </c>
       <c r="AA30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.5770320472271725</v>
+        <f t="shared" si="8"/>
+        <v>3.3211052434236901E-2</v>
       </c>
       <c r="AB30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.9182582527438447E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.0327396950273056E-2</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.796701448803021E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2261184662248256E-2</v>
       </c>
       <c r="AD30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.1867248874186755E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.1226046914784731E-2</v>
       </c>
       <c r="AE30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3114212863868207E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.2648760783081349E-2</v>
       </c>
       <c r="AF30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.275045189945298E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.9678011066033446E-2</v>
       </c>
       <c r="AG30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.1013201817748623E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9405267304327217E-2</v>
       </c>
       <c r="AH30" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3842722353443113E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.427181048441315E-2</v>
       </c>
       <c r="AI30" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.9302641225810311</v>
+        <f t="shared" si="10"/>
+        <v>0.46986472374381633</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.3">
@@ -9074,68 +9026,68 @@
         <v>23</v>
       </c>
       <c r="T31" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.53516964492100483</v>
+        <f t="shared" si="9"/>
+        <v>5.3233745908093419E-2</v>
       </c>
       <c r="U31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1633247224796258E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.0273454967777451E-2</v>
       </c>
       <c r="V31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.16086063102705217</v>
+        <f t="shared" si="8"/>
+        <v>4.2729398277574986E-2</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.4850308647238986E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.1486260195622472E-2</v>
       </c>
       <c r="X31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.7159912423820204E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.5589745558000362E-2</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.2205541126431578E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.7297442731771671E-2</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.1128663154148434E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.9922970202731981E-2</v>
       </c>
       <c r="AA31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.2129005903396562E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.3211052434236901E-2</v>
       </c>
       <c r="AB31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.1970970879064073E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.0327396950273056E-2</v>
       </c>
       <c r="AC31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.37730730424863446</v>
+        <f t="shared" si="8"/>
+        <v>2.2261184662248256E-2</v>
       </c>
       <c r="AD31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.7800873311280132E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.873562814887084E-2</v>
       </c>
       <c r="AE31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.22307969402824646</v>
+        <f t="shared" si="8"/>
+        <v>3.2648760783081349E-2</v>
       </c>
       <c r="AF31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10200361519562384</v>
+        <f t="shared" si="8"/>
+        <v>5.9678011066033446E-2</v>
       </c>
       <c r="AG31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.46519802726622933</v>
+        <f t="shared" si="8"/>
+        <v>1.9405267304327217E-2</v>
       </c>
       <c r="AH31" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3842722353443113E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.427181048441315E-2</v>
       </c>
       <c r="AI31" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.172324364871677</v>
+        <f t="shared" si="10"/>
+        <v>0.52107212967505667</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.3">
@@ -9143,68 +9095,68 @@
         <v>24</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.6452806417286412E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.8722909846822365E-2</v>
       </c>
       <c r="U32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1633247224796258E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.3789091612962427E-2</v>
       </c>
       <c r="V32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3620210342350726E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.12818819483272495</v>
       </c>
       <c r="W32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.22275462970858478</v>
+        <f t="shared" si="8"/>
+        <v>0.12594504078248989</v>
       </c>
       <c r="X32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.72071632180044864</v>
+        <f t="shared" si="8"/>
+        <v>9.1179491116000724E-2</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4411082252863155E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.22378465639063005</v>
       </c>
       <c r="Z32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.28451465261659376</v>
+        <f t="shared" si="8"/>
+        <v>0.11969188081092792</v>
       </c>
       <c r="AA32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.2163870177101897</v>
+        <f t="shared" si="8"/>
+        <v>0.1328442097369476</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.5912912637192232E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.1309587801092223E-2</v>
       </c>
       <c r="AC32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.9835072440151049E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.7101974437080423E-2</v>
       </c>
       <c r="AD32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10680523986768078</v>
+        <f t="shared" si="8"/>
+        <v>9.3678140744354196E-2</v>
       </c>
       <c r="AE32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.18589974502353873</v>
+        <f t="shared" si="8"/>
+        <v>3.9178512939697624E-2</v>
       </c>
       <c r="AF32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.35701265318468345</v>
+        <f t="shared" si="8"/>
+        <v>5.9678011066033446E-2</v>
       </c>
       <c r="AG32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.5506600908874311E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.8810534608654433E-2</v>
       </c>
       <c r="AH32" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.5107417788275449</v>
+        <f t="shared" si="8"/>
+        <v>4.0453017474021913E-2</v>
       </c>
       <c r="AI32" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.9713524057666434</v>
+        <f t="shared" si="10"/>
+        <v>1.3843552542004403</v>
       </c>
     </row>
     <row r="33" spans="19:35" x14ac:dyDescent="0.3">
@@ -9212,68 +9164,68 @@
         <v>25</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.5566008021608015E-3</v>
+        <f t="shared" si="9"/>
+        <v>8.8722909846822365E-2</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.5816623612398129E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.3789091612962427E-2</v>
       </c>
       <c r="V33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3620210342350726E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.12818819483272495</v>
       </c>
       <c r="W33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.8562885809048732E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.12594504078248989</v>
       </c>
       <c r="X33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12011938696674143</v>
+        <f t="shared" si="8"/>
+        <v>7.5982909263333939E-2</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4411082252863155E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.7297442731771671E-2</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.17070879156995625</v>
+        <f t="shared" si="8"/>
+        <v>0.1496148510136599</v>
       </c>
       <c r="AA33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.0304143700485222E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.16605526217118449</v>
       </c>
       <c r="AB33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.57547747582315334</v>
+        <f t="shared" si="8"/>
+        <v>0.24392876340327668</v>
       </c>
       <c r="AC33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3901043464090637E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.11130592331124127</v>
       </c>
       <c r="AD33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.1203493245120528E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.28103442223306258</v>
       </c>
       <c r="AE33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14871979601883098</v>
+        <f t="shared" si="8"/>
+        <v>6.5297521566162697E-2</v>
       </c>
       <c r="AF33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1001807597811921E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.9570681421377923E-2</v>
       </c>
       <c r="AG33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.3039605453245869E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.23286320765192658</v>
       </c>
       <c r="AH33" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.1280907451147704E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.12135905242206574</v>
       </c>
       <c r="AI33" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.4877238541094051</v>
+        <f t="shared" si="10"/>
+        <v>1.990955274264063</v>
       </c>
     </row>
     <row r="34" spans="19:35" x14ac:dyDescent="0.3">
@@ -9281,68 +9233,68 @@
         <v>26</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.9113201604321603E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.12421207378555131</v>
       </c>
       <c r="U34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10326649444959252</v>
+        <f t="shared" si="8"/>
+        <v>0.11730472825814739</v>
       </c>
       <c r="V34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.787340344745024E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.2563763896654499</v>
       </c>
       <c r="W34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.51976080265336444</v>
+        <f t="shared" si="8"/>
+        <v>0.22040382136935729</v>
       </c>
       <c r="X34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.4023877393348287E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.10637607296866751</v>
       </c>
       <c r="Y34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.0735180375477191E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.11189232819531503</v>
       </c>
       <c r="Z34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.17070879156995625</v>
+        <f t="shared" si="8"/>
+        <v>8.9768910608195945E-2</v>
       </c>
       <c r="AA34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14425801180679312</v>
+        <f t="shared" si="8"/>
+        <v>0.16605526217118449</v>
       </c>
       <c r="AB34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.1970970879064073E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.1309587801092223E-2</v>
       </c>
       <c r="AC34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.6950521732045318E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.7101974437080423E-2</v>
       </c>
       <c r="AD34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.5601746622560264E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.3678140744354196E-2</v>
       </c>
       <c r="AE34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.11153984701412323</v>
+        <f t="shared" si="8"/>
+        <v>6.5297521566162697E-2</v>
       </c>
       <c r="AF34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.275045189945298E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.9678011066033446E-2</v>
       </c>
       <c r="AG34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.5506600908874311E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.5873689739102954E-2</v>
       </c>
       <c r="AH34" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.1203889076347296E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.0339763105516435E-2</v>
       </c>
       <c r="AI34" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.2531802912640584</v>
+        <f t="shared" si="10"/>
+        <v>1.5856682754812113</v>
       </c>
     </row>
     <row r="35" spans="19:35" x14ac:dyDescent="0.3">
@@ -9350,68 +9302,68 @@
         <v>27</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.22935841925185924</v>
+        <f t="shared" si="9"/>
+        <v>0.12421207378555131</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.20653298889918503</v>
+        <f t="shared" si="8"/>
+        <v>0.1005469099355549</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.6600300489072463E-3</v>
+        <f t="shared" si="8"/>
+        <v>0.21364699138787493</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.4251543236194928E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.18891756117373482</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.0059693483370716E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.1179491116000724E-2</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.2205541126431578E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.33567698458594508</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.39832051366323123</v>
+        <f t="shared" si="8"/>
+        <v>0.17953782121639189</v>
       </c>
       <c r="AA35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2021500983899426E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.19926631460542141</v>
       </c>
       <c r="AB35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.9182582527438447E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.4065479390054611</v>
       </c>
       <c r="AC35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.3475260866022659E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.3339177699337238</v>
       </c>
       <c r="AD35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.1867248874186755E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.28103442223306258</v>
       </c>
       <c r="AE35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.7179949004707745E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.19589256469848809</v>
       </c>
       <c r="AF35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1001807597811921E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.94633517767224E-2</v>
       </c>
       <c r="AG35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.3039605453245869E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.31048427686923546</v>
       </c>
       <c r="AH35" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2768544470688623E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.36407715726619722</v>
       </c>
       <c r="AI35" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.2589252294871816</v>
+        <f t="shared" si="10"/>
+        <v>3.424401629589366</v>
       </c>
     </row>
     <row r="36" spans="19:35" x14ac:dyDescent="0.3">
@@ -9419,68 +9371,68 @@
         <v>28</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.38226403208643206</v>
+        <f t="shared" si="9"/>
+        <v>1.7744581969364473E-2</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.6055412041327085E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.6757818322592485E-2</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.16086063102705217</v>
+        <f t="shared" si="8"/>
+        <v>1.4243132759191661E-2</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.4850308647238986E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.0495420065207491E-2</v>
       </c>
       <c r="X36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.5014923370842679E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.0393163705333574E-2</v>
       </c>
       <c r="Y36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.6102770563215789E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2378465639063008E-2</v>
       </c>
       <c r="Z36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.22761172209327499</v>
+        <f t="shared" si="8"/>
+        <v>9.9743234009106591E-3</v>
       </c>
       <c r="AA36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.6064502951698281E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.10703508114123E-2</v>
       </c>
       <c r="AB36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.3701844662456032E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7103195933697408E-2</v>
       </c>
       <c r="AC36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3901043464090637E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7826480827810317E-2</v>
       </c>
       <c r="AD36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14240698649024106</v>
+        <f t="shared" si="8"/>
+        <v>3.1226046914784731E-2</v>
       </c>
       <c r="AE36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.7179949004707745E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.9178512939697624E-2</v>
       </c>
       <c r="AF36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1001807597811921E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9892670355344481E-2</v>
       </c>
       <c r="AG36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.37215842181298348</v>
+        <f t="shared" si="8"/>
+        <v>1.9405267304327217E-2</v>
       </c>
       <c r="AH36" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3842722353443113E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.427181048441315E-2</v>
       </c>
       <c r="AI36" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.5955672073296214</v>
+        <f t="shared" si="10"/>
+        <v>0.32196124143315058</v>
       </c>
     </row>
     <row r="37" spans="19:35" x14ac:dyDescent="0.3">
@@ -9488,68 +9440,68 @@
         <v>29</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.68807525775557776</v>
+        <f t="shared" si="9"/>
+        <v>5.3233745908093419E-2</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10326649444959252</v>
+        <f t="shared" si="8"/>
+        <v>5.0273454967777451E-2</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.26810105171175364</v>
+        <f t="shared" si="8"/>
+        <v>8.5458796555149971E-2</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.44550925941716957</v>
+        <f t="shared" si="8"/>
+        <v>9.4458780586867408E-2</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.0019897827790237E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.5982909263333939E-2</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.32205541126431581</v>
+        <f t="shared" si="8"/>
+        <v>3.7297442731771671E-2</v>
       </c>
       <c r="Z37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.17070879156995625</v>
+        <f t="shared" si="8"/>
+        <v>0.11969188081092792</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.4425801180679314E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.1328442097369476</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.57547747582315334</v>
+        <f t="shared" si="8"/>
+        <v>0.16261917560218445</v>
       </c>
       <c r="AC37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3901043464090637E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.7101974437080423E-2</v>
       </c>
       <c r="AD37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.21361047973536157</v>
+        <f t="shared" si="8"/>
+        <v>0.28103442223306258</v>
       </c>
       <c r="AE37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.7179949004707745E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.8973141174622023E-2</v>
       </c>
       <c r="AF37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.275045189945298E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.9570681421377923E-2</v>
       </c>
       <c r="AG37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.3039605453245869E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.7621069217308866E-2</v>
       </c>
       <c r="AH37" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3842722353443113E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.0679526211032869E-2</v>
       </c>
       <c r="AI37" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>3.0819636929102905</v>
+        <f t="shared" si="10"/>
+        <v>1.3968412108575383</v>
       </c>
     </row>
     <row r="38" spans="19:35" x14ac:dyDescent="0.3">
@@ -9557,68 +9509,68 @@
         <v>30</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.4947562685873789E-3</v>
+        <f t="shared" si="9"/>
+        <v>8.8722909846822365E-2</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.36143273057357383</v>
+        <f t="shared" si="8"/>
+        <v>0.1005469099355549</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.26810105171175364</v>
+        <f t="shared" si="8"/>
+        <v>0.17091759311029994</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.2501714706883257E-3</v>
+        <f t="shared" si="8"/>
+        <v>0.12594504078248989</v>
       </c>
       <c r="X38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12011938696674143</v>
+        <f t="shared" si="8"/>
+        <v>9.1179491116000724E-2</v>
       </c>
       <c r="Y38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.6102770563215789E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.11189232819531503</v>
       </c>
       <c r="Z38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.6902930523318747E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.1496148510136599</v>
       </c>
       <c r="AA38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.2129005903396562E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.16605526217118449</v>
       </c>
       <c r="AB38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.1989114079649029E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.24392876340327668</v>
       </c>
       <c r="AC38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.16170313039227191</v>
+        <f t="shared" si="8"/>
+        <v>0.11130592331124127</v>
       </c>
       <c r="AD38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.24921222635792184</v>
+        <f t="shared" si="8"/>
+        <v>0.37471256297741679</v>
       </c>
       <c r="AE38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.18589974502353873</v>
+        <f t="shared" si="8"/>
+        <v>6.5297521566162697E-2</v>
       </c>
       <c r="AF38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1001807597811921E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.94633517767224E-2</v>
       </c>
       <c r="AG38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.3039605453245869E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.15524213843461773</v>
       </c>
       <c r="AH38" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3842722353443113E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.12135905242206574</v>
       </c>
       <c r="AI38" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.7282211552391575</v>
+        <f t="shared" si="10"/>
+        <v>2.1761837000628308</v>
       </c>
     </row>
   </sheetData>
@@ -9643,8 +9595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9678,8 +9630,8 @@
         <v>0.14653629536000032</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">+Coste!AJ7</f>
-        <v>7.6452806417286412E-2</v>
+        <f>+Coste!AJ7</f>
+        <v>1.7744581969364473E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -9691,8 +9643,8 @@
         <v>0.14653629536000032</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">+Coste!AJ8</f>
-        <v>5.1633247224796258E-2</v>
+        <f>+Coste!AJ8</f>
+        <v>1.6757818322592485E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -9704,8 +9656,8 @@
         <v>2.6555945203898892E-2</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">+Coste!AJ9</f>
-        <v>5.3620210342350726E-2</v>
+        <f>+Coste!AJ9</f>
+        <v>4.2729398277574986E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -9717,13 +9669,13 @@
         <v>5.7804925015501184E-2</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">+Coste!AJ10</f>
-        <v>7.4251543236194928E-2</v>
-      </c>
-      <c r="M6" s="59" t="s">
+        <f>+Coste!AJ10</f>
+        <v>3.1486260195622472E-2</v>
+      </c>
+      <c r="M6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="59"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -9734,8 +9686,8 @@
         <v>9.8984622105457044E-3</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">+Coste!AJ11</f>
-        <v>0.12011938696674143</v>
+        <f>+Coste!AJ11</f>
+        <v>1.5196581852666787E-2</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -9753,8 +9705,8 @@
         <v>0.11035214358845193</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">+Coste!AJ12</f>
-        <v>6.4411082252863155E-2</v>
+        <f>+Coste!AJ12</f>
+        <v>0.11189232819531503</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -9772,8 +9724,8 @@
         <v>1.4649909774377318E-2</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">+Coste!AJ13</f>
-        <v>5.6902930523318747E-2</v>
+        <f>+Coste!AJ13</f>
+        <v>2.9922970202731981E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -9785,13 +9737,13 @@
         <v>4.1767711392683288E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">+Coste!AJ14</f>
-        <v>7.2129005903396562E-2</v>
-      </c>
-      <c r="M10" s="59" t="s">
+        <f>+Coste!AJ14</f>
+        <v>3.3211052434236901E-2</v>
+      </c>
+      <c r="M10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="59"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
@@ -9802,8 +9754,8 @@
         <v>9.6961312532543822E-2</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">+Coste!AJ15</f>
-        <v>9.5912912637192232E-2</v>
+        <f>+Coste!AJ15</f>
+        <v>8.1309587801092223E-2</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -9821,8 +9773,8 @@
         <v>0.13463001844260183</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">+Coste!AJ16</f>
-        <v>5.3901043464090637E-2</v>
+        <f>+Coste!AJ16</f>
+        <v>0.11130592331124127</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
@@ -9840,8 +9792,8 @@
         <v>9.2066402827111052E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">+Coste!AJ17</f>
-        <v>3.5601746622560264E-2</v>
+        <f>+Coste!AJ17</f>
+        <v>9.3678140744354196E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -9853,8 +9805,8 @@
         <v>3.4805234269429226E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">+Coste!AJ18</f>
-        <v>3.7179949004707745E-2</v>
+        <f>+Coste!AJ18</f>
+        <v>0.19589256469848809</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -9866,8 +9818,8 @@
         <v>1.2469473317550812E-2</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">+Coste!AJ19</f>
-        <v>5.1001807597811921E-2</v>
+        <f>+Coste!AJ19</f>
+        <v>1.9892670355344481E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -9879,8 +9831,8 @@
         <v>5.2273246648984133E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">+Coste!AJ20</f>
-        <v>9.3039605453245869E-2</v>
+        <f>+Coste!AJ20</f>
+        <v>7.7621069217308866E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -9892,8 +9844,8 @@
         <v>2.2692624056320127E-2</v>
       </c>
       <c r="C17" s="2">
-        <f ca="1">+Coste!AJ21</f>
-        <v>6.3842722353443113E-2</v>
+        <f>+Coste!AJ21</f>
+        <v>0.12135905242206574</v>
       </c>
     </row>
   </sheetData>
@@ -9908,12 +9860,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10146,15 +10095,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10179,18 +10140,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Requisitos_PJA.xlsx
+++ b/Requisitos_PJA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Enxeñaría Informática\Terceiro\1º Cuatrimestre\Enxeñaría do Software\Prácticas\Practica5_2_REM\enso-specREM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estin\Documents\GitHub\enso-specREM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD70B8D1-EF1D-48F7-8F77-FAD65706DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08E69D1-4DCC-497D-B236-DD34D080C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="7" r:id="rId1"/>
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -797,6 +797,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -820,62 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,7 +1032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9322A0CF-3F2F-4B5B-93A9-1A5503DE4CDD}" type="CELLRANGE">
+                    <a:fld id="{1E1F3687-502D-49AF-8B11-C47C53D6351D}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1118,7 +1066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A651046-3630-43B2-8194-136DC3B1E27D}" type="CELLRANGE">
+                    <a:fld id="{5CDECA4D-78DC-49FE-ADE7-BFA476A3E666}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1152,7 +1100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B53BF29A-3052-4742-9C2B-C02108B5271C}" type="CELLRANGE">
+                    <a:fld id="{AD44DDDB-0E31-4224-82A1-DE6776BD4741}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1186,7 +1134,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{489A3E05-3EB0-4253-B681-49FFA5BFC9DB}" type="CELLRANGE">
+                    <a:fld id="{16005283-81E6-44D8-AE1B-E8011EA41109}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1220,7 +1168,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6486E4E6-0595-4F32-8C6B-753D3EF05E26}" type="CELLRANGE">
+                    <a:fld id="{CC3F2340-A2F2-4682-9AEC-BD0AB918CBAC}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1254,7 +1202,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0755DBF-70FE-4711-9F10-D92B29541F40}" type="CELLRANGE">
+                    <a:fld id="{BA796A9A-822A-4B56-BBC4-21CB404C9CE6}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1288,7 +1236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC305046-79F1-4469-B5C5-5B1301000464}" type="CELLRANGE">
+                    <a:fld id="{697EA34C-442D-46C7-BB00-4A24E05C2BD5}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1322,7 +1270,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BD212B0-E435-4D8A-9A04-BB3B0928B3B2}" type="CELLRANGE">
+                    <a:fld id="{693504BC-32CF-4B2D-A725-0F444347BC4B}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1356,7 +1304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29A2015E-63B8-463E-8F6C-F7789093BDF2}" type="CELLRANGE">
+                    <a:fld id="{A0706E51-F8ED-4529-BD89-7BC19696A8ED}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1390,7 +1338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D5E37C6-5CF0-44F1-9DAE-9F409B9ABB8B}" type="CELLRANGE">
+                    <a:fld id="{4886A97B-1DFC-4D76-9705-CAB22B999040}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1424,7 +1372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1557DB6C-CFA8-4E70-B873-4E1698C3B664}" type="CELLRANGE">
+                    <a:fld id="{25357CFB-53E1-4309-8068-C14D1B02A2AC}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1458,7 +1406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15F48BA5-55DF-475C-BA22-A3D8F7ABA274}" type="CELLRANGE">
+                    <a:fld id="{610AB005-A808-4FD6-AD45-3768F0E2FE5A}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1492,7 +1440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F56EEB21-318D-4897-9DF6-3F399EB66B98}" type="CELLRANGE">
+                    <a:fld id="{963862E8-B25A-4833-A007-27D89C0D5C38}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1602,49 +1550,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.14653629536000032</c:v>
+                  <c:v>0.15209877727419194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14653629536000032</c:v>
+                  <c:v>0.15209877727419194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6555945203898892E-2</c:v>
+                  <c:v>2.7672414745956761E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7804925015501184E-2</c:v>
+                  <c:v>5.7712040508838602E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8984622105457044E-3</c:v>
+                  <c:v>1.0032042972331014E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11035214358845193</c:v>
+                  <c:v>0.10672020050486732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4649909774377318E-2</c:v>
+                  <c:v>1.4850420429290233E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1767711392683288E-2</c:v>
+                  <c:v>4.4130194190911312E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6961312532543822E-2</c:v>
+                  <c:v>9.0274105733973084E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13463001844260183</c:v>
+                  <c:v>0.12972382539781818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2066402827111052E-2</c:v>
+                  <c:v>8.543991546255901E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4805234269429226E-2</c:v>
+                  <c:v>3.660934858830487E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2469473317550812E-2</c:v>
+                  <c:v>1.2581922968232127E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2273246648984133E-2</c:v>
+                  <c:v>5.4058050269131332E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2692624056320127E-2</c:v>
+                  <c:v>2.5997963679402138E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,11 +2316,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
@@ -2563,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AM38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -2582,10 +2530,10 @@
   <sheetData>
     <row r="1" spans="2:39" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
@@ -2639,18 +2587,18 @@
       </c>
     </row>
     <row r="3" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="55">
+      <c r="B3" s="56">
         <f>SUM(AM7:AM21)/AJ6</f>
-        <v>17.946894763052139</v>
-      </c>
-      <c r="C3" s="56"/>
+        <v>17.456099687594012</v>
+      </c>
+      <c r="C3" s="57"/>
       <c r="D3" s="23">
         <f>+(B3-$AJ$6)/($AJ$6-1)</f>
-        <v>0.21049248307515281</v>
+        <v>0.17543569197100087</v>
       </c>
       <c r="E3" s="6">
         <f>D3/+HLOOKUP(AJ6,T2:AH3,2,FALSE)</f>
-        <v>0.13238520948122817</v>
+        <v>0.11033691318930872</v>
       </c>
       <c r="T3" s="11">
         <v>0</v>
@@ -2725,10 +2673,10 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AL5" s="52" t="s">
+      <c r="AL5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AM5" s="52"/>
+      <c r="AM5" s="53"/>
     </row>
     <row r="6" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
@@ -2833,8 +2781,8 @@
       <c r="AK6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
@@ -2902,7 +2850,7 @@
       </c>
       <c r="W7" s="28">
         <f t="shared" si="0"/>
-        <v>0.11717660187854553</v>
+        <v>0.11656952539550375</v>
       </c>
       <c r="X7" s="28">
         <f t="shared" si="0"/>
@@ -2910,7 +2858,7 @@
       </c>
       <c r="Y7" s="28">
         <f t="shared" si="0"/>
-        <v>0.28028028028028029</v>
+        <v>0.27453971020808365</v>
       </c>
       <c r="Z7" s="28">
         <f t="shared" si="0"/>
@@ -2922,19 +2870,19 @@
       </c>
       <c r="AB7" s="28">
         <f t="shared" si="0"/>
-        <v>0.16365761787245101</v>
+        <v>0.15805318615153033</v>
       </c>
       <c r="AC7" s="28">
         <f t="shared" si="0"/>
-        <v>0.24812918471839307</v>
+        <v>0.24073366450133743</v>
       </c>
       <c r="AD7" s="28">
         <f t="shared" si="0"/>
-        <v>0.12787334449687929</v>
+        <v>0.12483281319661167</v>
       </c>
       <c r="AE7" s="28">
         <f t="shared" si="0"/>
-        <v>0.10188239860275566</v>
+        <v>0.13085742771684944</v>
       </c>
       <c r="AF7" s="28">
         <f t="shared" si="0"/>
@@ -2942,30 +2890,30 @@
       </c>
       <c r="AG7" s="28">
         <f t="shared" si="0"/>
-        <v>0.15116613878491217</v>
+        <v>0.19703509101144681</v>
       </c>
       <c r="AH7" s="28">
         <f t="shared" si="0"/>
-        <v>0.10993119952138797</v>
+        <v>0.14091257668711657</v>
       </c>
       <c r="AI7" s="30">
         <f>SUM(T7:AH7)</f>
-        <v>2.1980444304000049</v>
+        <v>2.2814816591128793</v>
       </c>
       <c r="AJ7" s="18">
         <f>+$AI7/$AJ$6</f>
-        <v>0.14653629536000032</v>
-      </c>
-      <c r="AK7" s="57" t="s">
+        <v>0.15209877727419194</v>
+      </c>
+      <c r="AK7" s="58" t="s">
         <v>43</v>
       </c>
       <c r="AL7" s="19">
         <f>+AI24</f>
-        <v>2.6929551276307064</v>
+        <v>2.7203012895864265</v>
       </c>
       <c r="AM7" s="19">
         <f>IF(AJ7&lt;&gt;0,+AL7/AJ7,0)</f>
-        <v>18.377393266390683</v>
+        <v>17.885096371829981</v>
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.3">
@@ -3035,7 +2983,7 @@
       </c>
       <c r="W8" s="28">
         <f t="shared" ref="W8:W21" si="4">+IF(ISNUMBER(F8),F8/F$22,"")</f>
-        <v>0.11717660187854553</v>
+        <v>0.11656952539550375</v>
       </c>
       <c r="X8" s="28">
         <f t="shared" ref="X8:X21" si="5">+IF(ISNUMBER(G8),G8/G$22,"")</f>
@@ -3043,7 +2991,7 @@
       </c>
       <c r="Y8" s="28">
         <f t="shared" ref="Y8:Y21" si="6">+IF(ISNUMBER(H8),H8/H$22,"")</f>
-        <v>0.28028028028028029</v>
+        <v>0.27453971020808365</v>
       </c>
       <c r="Z8" s="28">
         <f t="shared" ref="Z8:Z21" si="7">+IF(ISNUMBER(I8),I8/I$22,"")</f>
@@ -3055,19 +3003,19 @@
       </c>
       <c r="AB8" s="28">
         <f t="shared" ref="AB8:AB21" si="9">+IF(ISNUMBER(K8),K8/K$22,"")</f>
-        <v>0.16365761787245101</v>
+        <v>0.15805318615153033</v>
       </c>
       <c r="AC8" s="28">
         <f t="shared" ref="AC8:AC21" si="10">+IF(ISNUMBER(L8),L8/L$22,"")</f>
-        <v>0.24812918471839307</v>
+        <v>0.24073366450133743</v>
       </c>
       <c r="AD8" s="28">
         <f t="shared" ref="AD8:AD21" si="11">+IF(ISNUMBER(M8),M8/M$22,"")</f>
-        <v>0.12787334449687929</v>
+        <v>0.12483281319661167</v>
       </c>
       <c r="AE8" s="28">
         <f t="shared" ref="AE8:AE21" si="12">+IF(ISNUMBER(N8),N8/N$22,"")</f>
-        <v>0.10188239860275566</v>
+        <v>0.13085742771684944</v>
       </c>
       <c r="AF8" s="28">
         <f t="shared" ref="AF8:AF21" si="13">+IF(ISNUMBER(O8),O8/O$22,"")</f>
@@ -3075,28 +3023,28 @@
       </c>
       <c r="AG8" s="28">
         <f t="shared" ref="AG8:AG21" si="14">+IF(ISNUMBER(P8),P8/P$22,"")</f>
-        <v>0.15116613878491217</v>
+        <v>0.19703509101144681</v>
       </c>
       <c r="AH8" s="28">
         <f t="shared" ref="AH8:AH21" si="15">+IF(ISNUMBER(Q8),Q8/Q$22,"")</f>
-        <v>0.10993119952138797</v>
+        <v>0.14091257668711657</v>
       </c>
       <c r="AI8" s="30">
         <f t="shared" ref="AI8:AI20" si="16">SUM(T8:AH8)</f>
-        <v>2.1980444304000049</v>
+        <v>2.2814816591128793</v>
       </c>
       <c r="AJ8" s="18">
         <f t="shared" ref="AJ8:AJ21" si="17">+$AI8/$AJ$6</f>
-        <v>0.14653629536000032</v>
-      </c>
-      <c r="AK8" s="57"/>
+        <v>0.15209877727419194</v>
+      </c>
+      <c r="AK8" s="58"/>
       <c r="AL8" s="19">
         <f t="shared" ref="AL8:AL21" si="18">+AI25</f>
-        <v>2.6929551276307064</v>
+        <v>2.7203012895864265</v>
       </c>
       <c r="AM8" s="19">
         <f t="shared" ref="AM8:AM21" si="19">IF(AJ8&lt;&gt;0,+AL8/AJ8,0)</f>
-        <v>18.377393266390683</v>
+        <v>17.885096371829981</v>
       </c>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.3">
@@ -3167,7 +3115,7 @@
       </c>
       <c r="W9" s="28">
         <f t="shared" si="4"/>
-        <v>1.9529433646424253E-2</v>
+        <v>1.9428254232583958E-2</v>
       </c>
       <c r="X9" s="28">
         <f t="shared" si="5"/>
@@ -3175,7 +3123,7 @@
       </c>
       <c r="Y9" s="28">
         <f t="shared" si="6"/>
-        <v>1.3346680013346681E-2</v>
+        <v>1.3073319533718269E-2</v>
       </c>
       <c r="Z9" s="28">
         <f t="shared" si="7"/>
@@ -3187,19 +3135,19 @@
       </c>
       <c r="AB9" s="28">
         <f t="shared" si="9"/>
-        <v>1.1689829848032214E-2</v>
+        <v>1.128951329653788E-2</v>
       </c>
       <c r="AC9" s="28">
         <f t="shared" si="10"/>
-        <v>1.7723513194170933E-2</v>
+        <v>1.7195261750095531E-2</v>
       </c>
       <c r="AD9" s="28">
         <f t="shared" si="11"/>
-        <v>9.1338103212056636E-3</v>
+        <v>8.9166295140436901E-3</v>
       </c>
       <c r="AE9" s="28">
         <f t="shared" si="12"/>
-        <v>6.7921599068503768E-3</v>
+        <v>8.7238285144566278E-3</v>
       </c>
       <c r="AF9" s="28">
         <f t="shared" si="13"/>
@@ -3207,28 +3155,28 @@
       </c>
       <c r="AG9" s="28">
         <f t="shared" si="14"/>
-        <v>1.0077742585660812E-2</v>
+        <v>1.3135672734096455E-2</v>
       </c>
       <c r="AH9" s="28">
         <f t="shared" si="15"/>
-        <v>4.7113371223451987E-2</v>
+        <v>6.0391104294478526E-2</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="16"/>
-        <v>0.3983391780584834</v>
+        <v>0.4150862211893514</v>
       </c>
       <c r="AJ9" s="18">
         <f t="shared" si="17"/>
-        <v>2.6555945203898892E-2</v>
-      </c>
-      <c r="AK9" s="57"/>
+        <v>2.7672414745956761E-2</v>
+      </c>
+      <c r="AK9" s="58"/>
       <c r="AL9" s="19">
         <f t="shared" si="18"/>
-        <v>0.4468204963490931</v>
+        <v>0.46033602725067302</v>
       </c>
       <c r="AM9" s="19">
         <f t="shared" si="19"/>
-        <v>16.825629549931886</v>
+        <v>16.6351954275307</v>
       </c>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.3">
@@ -3272,7 +3220,7 @@
         <v>0.25</v>
       </c>
       <c r="N10" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10" s="32">
         <v>7</v>
@@ -3300,7 +3248,7 @@
       </c>
       <c r="W10" s="28">
         <f t="shared" si="4"/>
-        <v>3.9058867292848506E-2</v>
+        <v>3.8856508465167916E-2</v>
       </c>
       <c r="X10" s="28">
         <f t="shared" si="5"/>
@@ -3308,7 +3256,7 @@
       </c>
       <c r="Y10" s="28">
         <f t="shared" si="6"/>
-        <v>4.6713380046713382E-2</v>
+        <v>4.5756618368013945E-2</v>
       </c>
       <c r="Z10" s="28">
         <f t="shared" si="7"/>
@@ -3320,19 +3268,19 @@
       </c>
       <c r="AB10" s="28">
         <f t="shared" si="9"/>
-        <v>2.72762696454085E-2</v>
+        <v>2.6342197691921723E-2</v>
       </c>
       <c r="AC10" s="28">
         <f t="shared" si="10"/>
-        <v>2.481291847183931E-2</v>
+        <v>2.4073366450133745E-2</v>
       </c>
       <c r="AD10" s="28">
         <f t="shared" si="11"/>
-        <v>1.5984168062109911E-2</v>
+        <v>1.5604101649576459E-2</v>
       </c>
       <c r="AE10" s="28">
         <f t="shared" si="12"/>
-        <v>0.10188239860275566</v>
+        <v>7.8514456630109655E-2</v>
       </c>
       <c r="AF10" s="28">
         <f t="shared" si="13"/>
@@ -3340,28 +3288,28 @@
       </c>
       <c r="AG10" s="28">
         <f t="shared" si="14"/>
-        <v>1.0077742585660812E-2</v>
+        <v>1.3135672734096455E-2</v>
       </c>
       <c r="AH10" s="28">
         <f t="shared" si="15"/>
-        <v>7.8522285372419981E-2</v>
+        <v>0.10065184049079755</v>
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="16"/>
-        <v>0.86707387523251778</v>
+        <v>0.86568060763257904</v>
       </c>
       <c r="AJ10" s="18">
         <f t="shared" si="17"/>
-        <v>5.7804925015501184E-2</v>
-      </c>
-      <c r="AK10" s="57"/>
+        <v>5.7712040508838602E-2</v>
+      </c>
+      <c r="AK10" s="58"/>
       <c r="AL10" s="19">
         <f t="shared" si="18"/>
-        <v>1.0625063527890855</v>
+        <v>1.026970542800806</v>
       </c>
       <c r="AM10" s="19">
         <f t="shared" si="19"/>
-        <v>18.380896653774048</v>
+        <v>17.794736310588871</v>
       </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.3">
@@ -3434,7 +3382,7 @@
       </c>
       <c r="W11" s="28">
         <f t="shared" si="4"/>
-        <v>5.5798381846926441E-3</v>
+        <v>5.550929780738274E-3</v>
       </c>
       <c r="X11" s="28">
         <f t="shared" si="5"/>
@@ -3442,7 +3390,7 @@
       </c>
       <c r="Y11" s="28">
         <f t="shared" si="6"/>
-        <v>1.8685352018685354E-2</v>
+        <v>1.8302647347205579E-2</v>
       </c>
       <c r="Z11" s="28">
         <f t="shared" si="7"/>
@@ -3454,19 +3402,19 @@
       </c>
       <c r="AB11" s="28">
         <f t="shared" si="9"/>
-        <v>9.0920898818028333E-3</v>
+        <v>8.7807325639739069E-3</v>
       </c>
       <c r="AC11" s="28">
         <f t="shared" si="10"/>
-        <v>1.3784954706577392E-2</v>
+        <v>1.3374092472296524E-2</v>
       </c>
       <c r="AD11" s="28">
         <f t="shared" si="11"/>
-        <v>9.1338103212056636E-3</v>
+        <v>8.9166295140436901E-3</v>
       </c>
       <c r="AE11" s="28">
         <f t="shared" si="12"/>
-        <v>4.0752959441102271E-3</v>
+        <v>5.2342971086739775E-3</v>
       </c>
       <c r="AF11" s="28">
         <f t="shared" si="13"/>
@@ -3474,28 +3422,28 @@
       </c>
       <c r="AG11" s="28">
         <f t="shared" si="14"/>
-        <v>4.3190325367117761E-3</v>
+        <v>5.62957402889848E-3</v>
       </c>
       <c r="AH11" s="28">
         <f t="shared" si="15"/>
-        <v>3.1408914148967995E-3</v>
+        <v>4.026073619631902E-3</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="16"/>
-        <v>0.14847693315818555</v>
+        <v>0.15048064458496521</v>
       </c>
       <c r="AJ11" s="18">
         <f t="shared" si="17"/>
-        <v>9.8984622105457044E-3</v>
-      </c>
-      <c r="AK11" s="57"/>
+        <v>1.0032042972331014E-2</v>
+      </c>
+      <c r="AK11" s="58"/>
       <c r="AL11" s="19">
         <f t="shared" si="18"/>
-        <v>0.16113318511789043</v>
+        <v>0.16189476704890646</v>
       </c>
       <c r="AM11" s="19">
         <f t="shared" si="19"/>
-        <v>16.278607897923887</v>
+        <v>16.137766504332376</v>
       </c>
     </row>
     <row r="12" spans="2:39" x14ac:dyDescent="0.3">
@@ -3541,16 +3489,16 @@
         <v>3</v>
       </c>
       <c r="N12" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O12" s="32">
         <v>7</v>
       </c>
       <c r="P12" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="32">
         <v>5</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>6</v>
       </c>
       <c r="S12" s="26" t="s">
         <v>21</v>
@@ -3569,7 +3517,7 @@
       </c>
       <c r="W12" s="28">
         <f t="shared" si="4"/>
-        <v>7.8117734585697013E-2</v>
+        <v>7.7713016930335832E-2</v>
       </c>
       <c r="X12" s="28">
         <f t="shared" si="5"/>
@@ -3577,7 +3525,7 @@
       </c>
       <c r="Y12" s="28">
         <f t="shared" si="6"/>
-        <v>9.3426760093426764E-2</v>
+        <v>9.1513236736027889E-2</v>
       </c>
       <c r="Z12" s="28">
         <f t="shared" si="7"/>
@@ -3589,19 +3537,19 @@
       </c>
       <c r="AB12" s="28">
         <f t="shared" si="9"/>
-        <v>0.16365761787245101</v>
+        <v>0.15805318615153033</v>
       </c>
       <c r="AC12" s="28">
         <f t="shared" si="10"/>
-        <v>0.12406459235919653</v>
+        <v>0.12036683225066871</v>
       </c>
       <c r="AD12" s="28">
         <f t="shared" si="11"/>
-        <v>0.19181001674531895</v>
+        <v>0.18724921979491752</v>
       </c>
       <c r="AE12" s="28">
         <f t="shared" si="12"/>
-        <v>0.14263535804385793</v>
+        <v>0.13085742771684944</v>
       </c>
       <c r="AF12" s="28">
         <f t="shared" si="13"/>
@@ -3609,28 +3557,28 @@
       </c>
       <c r="AG12" s="28">
         <f t="shared" si="14"/>
-        <v>0.15116613878491217</v>
+        <v>0.11822105460686809</v>
       </c>
       <c r="AH12" s="28">
         <f t="shared" si="15"/>
-        <v>9.4226742446903974E-2</v>
+        <v>0.10065184049079755</v>
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="16"/>
-        <v>1.6552821538267788</v>
+        <v>1.6008030075730098</v>
       </c>
       <c r="AJ12" s="18">
         <f t="shared" si="17"/>
-        <v>0.11035214358845193</v>
-      </c>
-      <c r="AK12" s="57"/>
+        <v>0.10672020050486732</v>
+      </c>
+      <c r="AK12" s="58"/>
       <c r="AL12" s="19">
         <f t="shared" si="18"/>
-        <v>2.1765036911192843</v>
+        <v>1.9926106808303203</v>
       </c>
       <c r="AM12" s="19">
         <f t="shared" si="19"/>
-        <v>19.723257023772486</v>
+        <v>18.671354358441643</v>
       </c>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.3">
@@ -3705,7 +3653,7 @@
       </c>
       <c r="W13" s="28">
         <f t="shared" si="4"/>
-        <v>6.5098112154747508E-3</v>
+        <v>6.476084744194653E-3</v>
       </c>
       <c r="X13" s="28">
         <f t="shared" si="5"/>
@@ -3713,7 +3661,7 @@
       </c>
       <c r="Y13" s="28">
         <f t="shared" si="6"/>
-        <v>1.1678345011678345E-2</v>
+        <v>1.1439154592003486E-2</v>
       </c>
       <c r="Z13" s="28">
         <f t="shared" si="7"/>
@@ -3725,19 +3673,19 @@
       </c>
       <c r="AB13" s="28">
         <f t="shared" si="9"/>
-        <v>1.6365761787245102E-2</v>
+        <v>1.5805318615153035E-2</v>
       </c>
       <c r="AC13" s="28">
         <f t="shared" si="10"/>
-        <v>1.3784954706577392E-2</v>
+        <v>1.3374092472296524E-2</v>
       </c>
       <c r="AD13" s="28">
         <f t="shared" si="11"/>
-        <v>9.1338103212056636E-3</v>
+        <v>8.9166295140436901E-3</v>
       </c>
       <c r="AE13" s="28">
         <f t="shared" si="12"/>
-        <v>4.0752959441102271E-3</v>
+        <v>5.2342971086739775E-3</v>
       </c>
       <c r="AF13" s="28">
         <f t="shared" si="13"/>
@@ -3745,28 +3693,28 @@
       </c>
       <c r="AG13" s="28">
         <f t="shared" si="14"/>
-        <v>6.0466455513964873E-3</v>
+        <v>7.8814036404578729E-3</v>
       </c>
       <c r="AH13" s="28">
         <f t="shared" si="15"/>
-        <v>5.2348190248279981E-3</v>
+        <v>6.7101226993865025E-3</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="16"/>
-        <v>0.21974864661565977</v>
+        <v>0.22275630643935349</v>
       </c>
       <c r="AJ13" s="18">
         <f t="shared" si="17"/>
-        <v>1.4649909774377318E-2</v>
-      </c>
-      <c r="AK13" s="57"/>
+        <v>1.4850420429290233E-2</v>
+      </c>
+      <c r="AK13" s="58"/>
       <c r="AL13" s="19">
         <f t="shared" si="18"/>
-        <v>0.23319753366383764</v>
+        <v>0.23494208142440168</v>
       </c>
       <c r="AM13" s="19">
         <f t="shared" si="19"/>
-        <v>15.918018421635603</v>
+        <v>15.820567676388041</v>
       </c>
     </row>
     <row r="14" spans="2:39" x14ac:dyDescent="0.3">
@@ -3842,7 +3790,7 @@
       </c>
       <c r="W14" s="28">
         <f t="shared" si="4"/>
-        <v>9.7647168232121266E-3</v>
+        <v>9.714127116291979E-3</v>
       </c>
       <c r="X14" s="28">
         <f t="shared" si="5"/>
@@ -3850,7 +3798,7 @@
       </c>
       <c r="Y14" s="28">
         <f t="shared" si="6"/>
-        <v>2.3356690023356691E-2</v>
+        <v>2.2878309184006972E-2</v>
       </c>
       <c r="Z14" s="28">
         <f t="shared" si="7"/>
@@ -3862,19 +3810,19 @@
       </c>
       <c r="AB14" s="28">
         <f t="shared" si="9"/>
-        <v>2.72762696454085E-2</v>
+        <v>2.6342197691921723E-2</v>
       </c>
       <c r="AC14" s="28">
         <f t="shared" si="10"/>
-        <v>2.481291847183931E-2</v>
+        <v>2.4073366450133745E-2</v>
       </c>
       <c r="AD14" s="28">
         <f t="shared" si="11"/>
-        <v>2.1312224082813216E-2</v>
+        <v>2.0805468866101944E-2</v>
       </c>
       <c r="AE14" s="28">
         <f t="shared" si="12"/>
-        <v>6.11294391616534E-2</v>
+        <v>7.8514456630109655E-2</v>
       </c>
       <c r="AF14" s="28">
         <f t="shared" si="13"/>
@@ -3882,28 +3830,28 @@
       </c>
       <c r="AG14" s="28">
         <f t="shared" si="14"/>
-        <v>1.0077742585660812E-2</v>
+        <v>1.3135672734096455E-2</v>
       </c>
       <c r="AH14" s="28">
         <f t="shared" si="15"/>
-        <v>6.2817828297935988E-2</v>
+        <v>8.052147239263803E-2</v>
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="16"/>
-        <v>0.62651567089024929</v>
+        <v>0.66195291286366964</v>
       </c>
       <c r="AJ14" s="18">
         <f t="shared" si="17"/>
-        <v>4.1767711392683288E-2</v>
-      </c>
-      <c r="AK14" s="57"/>
+        <v>4.4130194190911312E-2</v>
+      </c>
+      <c r="AK14" s="58"/>
       <c r="AL14" s="19">
         <f t="shared" si="18"/>
-        <v>0.76121930737570631</v>
+        <v>0.78560855817421393</v>
       </c>
       <c r="AM14" s="19">
         <f t="shared" si="19"/>
-        <v>18.225066253188434</v>
+        <v>17.802064381942181</v>
       </c>
     </row>
     <row r="15" spans="2:39" x14ac:dyDescent="0.3">
@@ -3952,16 +3900,16 @@
         <v>3</v>
       </c>
       <c r="N15" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O15" s="32">
         <v>5</v>
       </c>
       <c r="P15" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S15" s="26" t="s">
         <v>24</v>
@@ -3980,7 +3928,7 @@
       </c>
       <c r="W15" s="28">
         <f t="shared" si="4"/>
-        <v>0.11717660187854553</v>
+        <v>0.11656952539550375</v>
       </c>
       <c r="X15" s="28">
         <f t="shared" si="5"/>
@@ -3988,7 +3936,7 @@
       </c>
       <c r="Y15" s="28">
         <f t="shared" si="6"/>
-        <v>4.6713380046713382E-2</v>
+        <v>4.5756618368013945E-2</v>
       </c>
       <c r="Z15" s="28">
         <f t="shared" si="7"/>
@@ -4000,19 +3948,19 @@
       </c>
       <c r="AB15" s="28">
         <f t="shared" si="9"/>
-        <v>8.1828808936225503E-2</v>
+        <v>7.9026593075765164E-2</v>
       </c>
       <c r="AC15" s="28">
         <f t="shared" si="10"/>
-        <v>4.1354864119732174E-2</v>
+        <v>4.0122277416889569E-2</v>
       </c>
       <c r="AD15" s="28">
         <f t="shared" si="11"/>
-        <v>0.19181001674531895</v>
+        <v>0.18724921979491752</v>
       </c>
       <c r="AE15" s="28">
         <f t="shared" si="12"/>
-        <v>0.10188239860275566</v>
+        <v>7.8514456630109655E-2</v>
       </c>
       <c r="AF15" s="28">
         <f t="shared" si="13"/>
@@ -4020,28 +3968,28 @@
       </c>
       <c r="AG15" s="28">
         <f t="shared" si="14"/>
-        <v>0.15116613878491217</v>
+        <v>0.11822105460686809</v>
       </c>
       <c r="AH15" s="28">
         <f t="shared" si="15"/>
-        <v>9.4226742446903974E-2</v>
+        <v>6.0391104294478526E-2</v>
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="16"/>
-        <v>1.4544196879881572</v>
+        <v>1.3541115860095962</v>
       </c>
       <c r="AJ15" s="18">
         <f t="shared" si="17"/>
-        <v>9.6961312532543822E-2</v>
-      </c>
-      <c r="AK15" s="57"/>
+        <v>9.0274105733973084E-2</v>
+      </c>
+      <c r="AK15" s="58"/>
       <c r="AL15" s="19">
         <f t="shared" si="18"/>
-        <v>1.9005903109186892</v>
+        <v>1.6719738034509346</v>
       </c>
       <c r="AM15" s="19">
         <f t="shared" si="19"/>
-        <v>19.60153241820835</v>
+        <v>18.521078551340516</v>
       </c>
     </row>
     <row r="16" spans="2:39" x14ac:dyDescent="0.3">
@@ -4091,16 +4039,16 @@
         <v>3</v>
       </c>
       <c r="N16" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O16" s="32">
         <v>7</v>
       </c>
       <c r="P16" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="32">
         <v>5</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>7</v>
       </c>
       <c r="S16" s="26" t="s">
         <v>25</v>
@@ -4119,7 +4067,7 @@
       </c>
       <c r="W16" s="28">
         <f t="shared" si="4"/>
-        <v>0.19529433646424255</v>
+        <v>0.19428254232583958</v>
       </c>
       <c r="X16" s="28">
         <f t="shared" si="5"/>
@@ -4127,7 +4075,7 @@
       </c>
       <c r="Y16" s="28">
         <f t="shared" si="6"/>
-        <v>9.3426760093426764E-2</v>
+        <v>9.1513236736027889E-2</v>
       </c>
       <c r="Z16" s="28">
         <f t="shared" si="7"/>
@@ -4139,19 +4087,19 @@
       </c>
       <c r="AB16" s="28">
         <f t="shared" si="9"/>
-        <v>0.24548642680867649</v>
+        <v>0.23707977922729551</v>
       </c>
       <c r="AC16" s="28">
         <f t="shared" si="10"/>
-        <v>0.12406459235919653</v>
+        <v>0.12036683225066871</v>
       </c>
       <c r="AD16" s="28">
         <f t="shared" si="11"/>
-        <v>0.19181001674531895</v>
+        <v>0.18724921979491752</v>
       </c>
       <c r="AE16" s="28">
         <f t="shared" si="12"/>
-        <v>0.14263535804385793</v>
+        <v>0.13085742771684944</v>
       </c>
       <c r="AF16" s="28">
         <f t="shared" si="13"/>
@@ -4159,28 +4107,28 @@
       </c>
       <c r="AG16" s="28">
         <f t="shared" si="14"/>
-        <v>0.15116613878491217</v>
+        <v>0.11822105460686809</v>
       </c>
       <c r="AH16" s="28">
         <f t="shared" si="15"/>
-        <v>0.10993119952138797</v>
+        <v>0.10065184049079755</v>
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="16"/>
-        <v>2.0194502766390277</v>
+        <v>1.9458573809672726</v>
       </c>
       <c r="AJ16" s="18">
         <f t="shared" si="17"/>
-        <v>0.13463001844260183</v>
-      </c>
-      <c r="AK16" s="57"/>
+        <v>0.12972382539781818</v>
+      </c>
+      <c r="AK16" s="58"/>
       <c r="AL16" s="19">
         <f t="shared" si="18"/>
-        <v>2.6144293045505624</v>
+        <v>2.4058292870250657</v>
       </c>
       <c r="AM16" s="19">
         <f t="shared" si="19"/>
-        <v>19.419363785240794</v>
+        <v>18.545778153297732</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.3">
@@ -4231,16 +4179,16 @@
         <v>1</v>
       </c>
       <c r="N17" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O17" s="32">
         <v>7</v>
       </c>
       <c r="P17" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="32">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S17" s="26" t="s">
         <v>26</v>
@@ -4259,7 +4207,7 @@
       </c>
       <c r="W17" s="28">
         <f t="shared" si="4"/>
-        <v>0.15623546917139403</v>
+        <v>0.15542603386067166</v>
       </c>
       <c r="X17" s="28">
         <f t="shared" si="5"/>
@@ -4267,7 +4215,7 @@
       </c>
       <c r="Y17" s="28">
         <f t="shared" si="6"/>
-        <v>3.1142253364475587E-2</v>
+        <v>3.050441224534263E-2</v>
       </c>
       <c r="Z17" s="28">
         <f t="shared" si="7"/>
@@ -4279,19 +4227,19 @@
       </c>
       <c r="AB17" s="28">
         <f t="shared" si="9"/>
-        <v>2.72762696454085E-2</v>
+        <v>2.6342197691921723E-2</v>
       </c>
       <c r="AC17" s="28">
         <f t="shared" si="10"/>
-        <v>4.1354864119732174E-2</v>
+        <v>4.0122277416889569E-2</v>
       </c>
       <c r="AD17" s="28">
         <f t="shared" si="11"/>
-        <v>6.3936672248439644E-2</v>
+        <v>6.2416406598305836E-2</v>
       </c>
       <c r="AE17" s="28">
         <f t="shared" si="12"/>
-        <v>0.14263535804385793</v>
+        <v>0.13085742771684944</v>
       </c>
       <c r="AF17" s="28">
         <f t="shared" si="13"/>
@@ -4299,28 +4247,28 @@
       </c>
       <c r="AG17" s="28">
         <f t="shared" si="14"/>
-        <v>0.15116613878491217</v>
+        <v>0.11822105460686809</v>
       </c>
       <c r="AH17" s="28">
         <f t="shared" si="15"/>
-        <v>0.10993119952138797</v>
+        <v>6.0391104294478526E-2</v>
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="16"/>
-        <v>1.3809960424066658</v>
+        <v>1.2815987319383852</v>
       </c>
       <c r="AJ17" s="18">
         <f t="shared" si="17"/>
-        <v>9.2066402827111052E-2</v>
-      </c>
-      <c r="AK17" s="57"/>
+        <v>8.543991546255901E-2</v>
+      </c>
+      <c r="AK17" s="58"/>
       <c r="AL17" s="19">
         <f t="shared" si="18"/>
-        <v>1.8179744656848071</v>
+        <v>1.588855873821521</v>
       </c>
       <c r="AM17" s="19">
         <f t="shared" si="19"/>
-        <v>19.746339705470312</v>
+        <v>18.59617797161539</v>
       </c>
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.3">
@@ -4341,7 +4289,7 @@
       </c>
       <c r="F18" s="28">
         <f>IF(ISNUMBER(N10),1/N10,"")</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G18" s="28">
         <f>IF(ISNUMBER(N11),1/N11,"")</f>
@@ -4349,7 +4297,7 @@
       </c>
       <c r="H18" s="28">
         <f>IF(ISNUMBER(N12),1/N12,"")</f>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="28">
         <f>IF(ISNUMBER(N13),1/N13,"")</f>
@@ -4361,15 +4309,15 @@
       </c>
       <c r="K18" s="28">
         <f>IF(ISNUMBER(N15),1/N15,"")</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L18" s="28">
         <f>IF(ISNUMBER(N16),1/N16,"")</f>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="M18" s="28">
         <f>IF(ISNUMBER(N17),1/N17,"")</f>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="N18" s="33">
         <v>1</v>
@@ -4378,10 +4326,10 @@
         <v>7</v>
       </c>
       <c r="P18" s="32">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S18" s="26" t="s">
         <v>27</v>
@@ -4400,7 +4348,7 @@
       </c>
       <c r="W18" s="28">
         <f t="shared" si="4"/>
-        <v>7.8117734585697023E-3</v>
+        <v>1.2952169488389306E-2</v>
       </c>
       <c r="X18" s="28">
         <f t="shared" si="5"/>
@@ -4408,7 +4356,7 @@
       </c>
       <c r="Y18" s="28">
         <f t="shared" si="6"/>
-        <v>1.3346680013346681E-2</v>
+        <v>1.8302647347205579E-2</v>
       </c>
       <c r="Z18" s="28">
         <f t="shared" si="7"/>
@@ -4420,19 +4368,19 @@
       </c>
       <c r="AB18" s="28">
         <f t="shared" si="9"/>
-        <v>1.6365761787245102E-2</v>
+        <v>2.6342197691921723E-2</v>
       </c>
       <c r="AC18" s="28">
         <f t="shared" si="10"/>
-        <v>1.7723513194170933E-2</v>
+        <v>2.4073366450133745E-2</v>
       </c>
       <c r="AD18" s="28">
         <f t="shared" si="11"/>
-        <v>9.1338103212056636E-3</v>
+        <v>1.2483281319661168E-2</v>
       </c>
       <c r="AE18" s="28">
         <f t="shared" si="12"/>
-        <v>2.0376479720551132E-2</v>
+        <v>2.6171485543369885E-2</v>
       </c>
       <c r="AF18" s="28">
         <f t="shared" si="13"/>
@@ -4440,28 +4388,28 @@
       </c>
       <c r="AG18" s="28">
         <f t="shared" si="14"/>
-        <v>1.0077742585660812E-2</v>
+        <v>1.9703509101144684E-2</v>
       </c>
       <c r="AH18" s="28">
         <f t="shared" si="15"/>
-        <v>7.8522285372419981E-2</v>
+        <v>6.0391104294478526E-2</v>
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="16"/>
-        <v>0.52207851404143835</v>
+        <v>0.54914022882457303</v>
       </c>
       <c r="AJ18" s="18">
         <f t="shared" si="17"/>
-        <v>3.4805234269429226E-2</v>
-      </c>
-      <c r="AK18" s="57"/>
+        <v>3.660934858830487E-2</v>
+      </c>
+      <c r="AK18" s="58"/>
       <c r="AL18" s="19">
         <f t="shared" si="18"/>
-        <v>0.60702890995743353</v>
+        <v>0.6263903661119784</v>
       </c>
       <c r="AM18" s="19">
         <f t="shared" si="19"/>
-        <v>17.440736219684357</v>
+        <v>17.110120509275696</v>
       </c>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.3">
@@ -4542,7 +4490,7 @@
       </c>
       <c r="W19" s="28">
         <f t="shared" si="4"/>
-        <v>5.5798381846926441E-3</v>
+        <v>5.550929780738274E-3</v>
       </c>
       <c r="X19" s="28">
         <f t="shared" si="5"/>
@@ -4550,7 +4498,7 @@
       </c>
       <c r="Y19" s="28">
         <f t="shared" si="6"/>
-        <v>1.3346680013346681E-2</v>
+        <v>1.3073319533718269E-2</v>
       </c>
       <c r="Z19" s="28">
         <f t="shared" si="7"/>
@@ -4562,19 +4510,19 @@
       </c>
       <c r="AB19" s="28">
         <f t="shared" si="9"/>
-        <v>1.6365761787245102E-2</v>
+        <v>1.5805318615153035E-2</v>
       </c>
       <c r="AC19" s="28">
         <f t="shared" si="10"/>
-        <v>1.7723513194170933E-2</v>
+        <v>1.7195261750095531E-2</v>
       </c>
       <c r="AD19" s="28">
         <f t="shared" si="11"/>
-        <v>9.1338103212056636E-3</v>
+        <v>8.9166295140436901E-3</v>
       </c>
       <c r="AE19" s="28">
         <f t="shared" si="12"/>
-        <v>2.9109256743644475E-3</v>
+        <v>3.7387836490528409E-3</v>
       </c>
       <c r="AF19" s="28">
         <f t="shared" si="13"/>
@@ -4582,28 +4530,28 @@
       </c>
       <c r="AG19" s="28">
         <f t="shared" si="14"/>
-        <v>6.0466455513964873E-3</v>
+        <v>7.8814036404578729E-3</v>
       </c>
       <c r="AH19" s="28">
         <f t="shared" si="15"/>
-        <v>2.2434938677834281E-3</v>
+        <v>2.875766871165644E-3</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="16"/>
-        <v>0.18704209976326219</v>
+        <v>0.1887288445234819</v>
       </c>
       <c r="AJ19" s="18">
         <f t="shared" si="17"/>
-        <v>1.2469473317550812E-2</v>
-      </c>
-      <c r="AK19" s="57"/>
+        <v>1.2581922968232127E-2</v>
+      </c>
+      <c r="AK19" s="58"/>
       <c r="AL19" s="19">
         <f t="shared" si="18"/>
-        <v>0.19820300682283787</v>
+        <v>0.19865176760346437</v>
       </c>
       <c r="AM19" s="19">
         <f t="shared" si="19"/>
-        <v>15.895058417893777</v>
+        <v>15.788665063761451</v>
       </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.3">
@@ -4632,7 +4580,7 @@
       </c>
       <c r="H20" s="28">
         <f>IF(ISNUMBER(P12),1/P12,"")</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I20" s="28">
         <f>IF(ISNUMBER(P13),1/P13,"")</f>
@@ -4644,19 +4592,19 @@
       </c>
       <c r="K20" s="28">
         <f>IF(ISNUMBER(P15),1/P15,"")</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L20" s="28">
         <f>IF(ISNUMBER(P16),1/P16,"")</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M20" s="28">
         <f>IF(ISNUMBER(P17),1/P17,"")</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N20" s="28">
         <f>IF(ISNUMBER(P18),1/P18,"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" s="28">
         <f>IF(ISNUMBER(P19),1/P19,"")</f>
@@ -4666,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S20" s="26" t="s">
         <v>29</v>
@@ -4685,7 +4633,7 @@
       </c>
       <c r="W20" s="28">
         <f t="shared" si="4"/>
-        <v>0.11717660187854553</v>
+        <v>0.11656952539550375</v>
       </c>
       <c r="X20" s="28">
         <f t="shared" si="5"/>
@@ -4693,7 +4641,7 @@
       </c>
       <c r="Y20" s="28">
         <f t="shared" si="6"/>
-        <v>1.8685352018685354E-2</v>
+        <v>3.050441224534263E-2</v>
       </c>
       <c r="Z20" s="28">
         <f t="shared" si="7"/>
@@ -4705,19 +4653,19 @@
       </c>
       <c r="AB20" s="28">
         <f t="shared" si="9"/>
-        <v>1.6365761787245102E-2</v>
+        <v>2.6342197691921723E-2</v>
       </c>
       <c r="AC20" s="28">
         <f t="shared" si="10"/>
-        <v>2.481291847183931E-2</v>
+        <v>4.0122277416889569E-2</v>
       </c>
       <c r="AD20" s="28">
         <f t="shared" si="11"/>
-        <v>1.278733444968793E-2</v>
+        <v>2.0805468866101944E-2</v>
       </c>
       <c r="AE20" s="28">
         <f t="shared" si="12"/>
-        <v>6.11294391616534E-2</v>
+        <v>5.234297108673977E-2</v>
       </c>
       <c r="AF20" s="28">
         <f t="shared" si="13"/>
@@ -4725,28 +4673,28 @@
       </c>
       <c r="AG20" s="28">
         <f t="shared" si="14"/>
-        <v>3.0233227756982436E-2</v>
+        <v>3.9407018202289368E-2</v>
       </c>
       <c r="AH20" s="28">
         <f t="shared" si="15"/>
-        <v>7.8522285372419981E-2</v>
+        <v>6.0391104294478526E-2</v>
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="16"/>
-        <v>0.78409869973476198</v>
+        <v>0.81087075403696995</v>
       </c>
       <c r="AJ20" s="18">
         <f t="shared" si="17"/>
-        <v>5.2273246648984133E-2</v>
-      </c>
-      <c r="AK20" s="57"/>
+        <v>5.4058050269131332E-2</v>
+      </c>
+      <c r="AK20" s="58"/>
       <c r="AL20" s="19">
         <f t="shared" si="18"/>
-        <v>0.99884045913072506</v>
+        <v>0.99942613122441248</v>
       </c>
       <c r="AM20" s="19">
         <f t="shared" si="19"/>
-        <v>19.108062405956112</v>
+        <v>18.488016608973279</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.3">
@@ -4775,7 +4723,7 @@
       </c>
       <c r="H21" s="28">
         <f>IF(ISNUMBER(Q12),1/Q12,"")</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="28">
         <f>IF(ISNUMBER(Q13),1/Q13,"")</f>
@@ -4787,19 +4735,19 @@
       </c>
       <c r="K21" s="28">
         <f>IF(ISNUMBER(Q15),1/Q15,"")</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L21" s="28">
         <f>IF(ISNUMBER(Q16),1/Q16,"")</f>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="M21" s="28">
         <f>IF(ISNUMBER(Q17),1/Q17,"")</f>
-        <v>0.14285714285714285</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N21" s="28">
         <f>IF(ISNUMBER(Q18),1/Q18,"")</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O21" s="28">
         <f>IF(ISNUMBER(Q19),1/Q19,"")</f>
@@ -4807,7 +4755,7 @@
       </c>
       <c r="P21" s="28">
         <f>IF(ISNUMBER(Q20),1/Q20,"")</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q21" s="33">
         <v>1</v>
@@ -4829,7 +4777,7 @@
       </c>
       <c r="W21" s="28">
         <f t="shared" si="4"/>
-        <v>7.8117734585697023E-3</v>
+        <v>7.7713016930335841E-3</v>
       </c>
       <c r="X21" s="28">
         <f t="shared" si="5"/>
@@ -4837,7 +4785,7 @@
       </c>
       <c r="Y21" s="28">
         <f t="shared" si="6"/>
-        <v>1.5571126682237793E-2</v>
+        <v>1.8302647347205579E-2</v>
       </c>
       <c r="Z21" s="28">
         <f t="shared" si="7"/>
@@ -4849,19 +4797,19 @@
       </c>
       <c r="AB21" s="28">
         <f t="shared" si="9"/>
-        <v>1.363813482270425E-2</v>
+        <v>2.6342197691921723E-2</v>
       </c>
       <c r="AC21" s="28">
         <f t="shared" si="10"/>
-        <v>1.7723513194170933E-2</v>
+        <v>2.4073366450133745E-2</v>
       </c>
       <c r="AD21" s="28">
         <f t="shared" si="11"/>
-        <v>9.1338103212056636E-3</v>
+        <v>2.0805468866101944E-2</v>
       </c>
       <c r="AE21" s="28">
         <f t="shared" si="12"/>
-        <v>4.0752959441102271E-3</v>
+        <v>8.7238285144566278E-3</v>
       </c>
       <c r="AF21" s="28">
         <f t="shared" si="13"/>
@@ -4869,28 +4817,28 @@
       </c>
       <c r="AG21" s="28">
         <f t="shared" si="14"/>
-        <v>6.0466455513964873E-3</v>
+        <v>1.3135672734096455E-2</v>
       </c>
       <c r="AH21" s="28">
         <f t="shared" si="15"/>
-        <v>1.5704457074483997E-2</v>
+        <v>2.0130368098159507E-2</v>
       </c>
       <c r="AI21" s="30">
         <f t="shared" ref="AI21" si="20">SUM(T21:AH21)</f>
-        <v>0.34038936084480192</v>
+        <v>0.38996945519103204</v>
       </c>
       <c r="AJ21" s="18">
         <f t="shared" si="17"/>
-        <v>2.2692624056320127E-2</v>
-      </c>
-      <c r="AK21" s="57"/>
+        <v>2.5997963679402138E-2</v>
+      </c>
+      <c r="AK21" s="58"/>
       <c r="AL21" s="19">
         <f t="shared" si="18"/>
-        <v>0.36049652710998609</v>
+        <v>0.42012140087680583</v>
       </c>
       <c r="AM21" s="19">
         <f t="shared" si="19"/>
-        <v>15.886066160320675</v>
+        <v>16.159781052762327</v>
       </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.3">
@@ -4911,7 +4859,7 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" si="21"/>
-        <v>25.602380952380951</v>
+        <v>25.735714285714284</v>
       </c>
       <c r="G22" s="30">
         <f t="shared" si="21"/>
@@ -4919,7 +4867,7 @@
       </c>
       <c r="H22" s="30">
         <f t="shared" si="21"/>
-        <v>10.703571428571427</v>
+        <v>10.927380952380952</v>
       </c>
       <c r="I22" s="30">
         <f t="shared" si="21"/>
@@ -4931,19 +4879,19 @@
       </c>
       <c r="K22" s="30">
         <f t="shared" si="21"/>
-        <v>12.220634920634918</v>
+        <v>12.653968253968255</v>
       </c>
       <c r="L22" s="30">
         <f t="shared" si="21"/>
-        <v>8.0603174603174601</v>
+        <v>8.3079365079365068</v>
       </c>
       <c r="M22" s="30">
         <f t="shared" si="21"/>
-        <v>15.640476190476189</v>
+        <v>16.021428571428572</v>
       </c>
       <c r="N22" s="30">
         <f t="shared" si="21"/>
-        <v>49.076190476190483</v>
+        <v>38.209523809523816</v>
       </c>
       <c r="O22" s="30">
         <f t="shared" si="21"/>
@@ -4951,11 +4899,11 @@
       </c>
       <c r="P22" s="30">
         <f t="shared" si="21"/>
-        <v>33.076190476190476</v>
+        <v>25.376190476190473</v>
       </c>
       <c r="Q22" s="30">
         <f t="shared" si="21"/>
-        <v>63.676190476190477</v>
+        <v>49.676190476190477</v>
       </c>
       <c r="S22">
         <f>+AJ6</f>
@@ -4963,63 +4911,63 @@
       </c>
       <c r="T22" s="20">
         <f>+AJ7</f>
-        <v>0.14653629536000032</v>
+        <v>0.15209877727419194</v>
       </c>
       <c r="U22" s="20">
         <f>+AJ8</f>
-        <v>0.14653629536000032</v>
+        <v>0.15209877727419194</v>
       </c>
       <c r="V22" s="20">
         <f>+AJ9</f>
-        <v>2.6555945203898892E-2</v>
+        <v>2.7672414745956761E-2</v>
       </c>
       <c r="W22" s="20">
         <f>+AJ10</f>
-        <v>5.7804925015501184E-2</v>
+        <v>5.7712040508838602E-2</v>
       </c>
       <c r="X22" s="20">
         <f>+AJ11</f>
-        <v>9.8984622105457044E-3</v>
+        <v>1.0032042972331014E-2</v>
       </c>
       <c r="Y22" s="20">
         <f>+AJ12</f>
-        <v>0.11035214358845193</v>
+        <v>0.10672020050486732</v>
       </c>
       <c r="Z22" s="20">
         <f>+AJ13</f>
-        <v>1.4649909774377318E-2</v>
+        <v>1.4850420429290233E-2</v>
       </c>
       <c r="AA22" s="20">
         <f>+AJ14</f>
-        <v>4.1767711392683288E-2</v>
+        <v>4.4130194190911312E-2</v>
       </c>
       <c r="AB22" s="20">
         <f>+AJ15</f>
-        <v>9.6961312532543822E-2</v>
+        <v>9.0274105733973084E-2</v>
       </c>
       <c r="AC22" s="20">
         <f>+AJ16</f>
-        <v>0.13463001844260183</v>
+        <v>0.12972382539781818</v>
       </c>
       <c r="AD22" s="20">
         <f>+AJ17</f>
-        <v>9.2066402827111052E-2</v>
+        <v>8.543991546255901E-2</v>
       </c>
       <c r="AE22" s="20">
         <f>+AJ18</f>
-        <v>3.4805234269429226E-2</v>
+        <v>3.660934858830487E-2</v>
       </c>
       <c r="AF22" s="20">
         <f>+AJ19</f>
-        <v>1.2469473317550812E-2</v>
+        <v>1.2581922968232127E-2</v>
       </c>
       <c r="AG22" s="20">
         <f>+AJ20</f>
-        <v>5.2273246648984133E-2</v>
+        <v>5.4058050269131332E-2</v>
       </c>
       <c r="AH22" s="20">
         <f>+AJ21</f>
-        <v>2.2692624056320127E-2</v>
+        <v>2.5997963679402138E-2</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.3">
@@ -5028,67 +4976,67 @@
       </c>
       <c r="T24" s="8">
         <f>+IF(ISNUMBER(C7),C7*T$22,"")</f>
-        <v>0.14653629536000032</v>
+        <v>0.15209877727419194</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" ref="U24:AH24" si="22">+IF(ISNUMBER(D7),D7*U$22,"")</f>
-        <v>0.14653629536000032</v>
+        <v>0.15209877727419194</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="22"/>
-        <v>0.18589161642729224</v>
+        <v>0.19370690322169731</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="22"/>
-        <v>0.17341477504650354</v>
+        <v>0.17313612152651581</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="22"/>
-        <v>6.9289235473819932E-2</v>
+        <v>7.02243008063171E-2</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="22"/>
-        <v>0.33105643076535579</v>
+        <v>0.32016060151460196</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" si="22"/>
-        <v>0.10254936842064123</v>
+        <v>0.10395294300503163</v>
       </c>
       <c r="AA24" s="8">
         <f t="shared" si="22"/>
-        <v>0.20883855696341644</v>
+        <v>0.22065097095455655</v>
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="22"/>
-        <v>0.19392262506508764</v>
+        <v>0.18054821146794617</v>
       </c>
       <c r="AC24" s="8">
         <f t="shared" si="22"/>
-        <v>0.26926003688520367</v>
+        <v>0.25944765079563636</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="22"/>
-        <v>0.1841328056542221</v>
+        <v>0.17087983092511802</v>
       </c>
       <c r="AE24" s="8">
         <f t="shared" si="22"/>
-        <v>0.17402617134714612</v>
+        <v>0.18304674294152434</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="22"/>
-        <v>8.7286313222855683E-2</v>
+        <v>8.8073460777624887E-2</v>
       </c>
       <c r="AG24" s="8">
         <f t="shared" si="22"/>
-        <v>0.26136623324492064</v>
+        <v>0.27029025134565665</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="22"/>
-        <v>0.15884836839424088</v>
+        <v>0.18198574575581497</v>
       </c>
       <c r="AI24" s="8">
         <f>+SUM(T24:AH24)</f>
-        <v>2.6929551276307064</v>
+        <v>2.7203012895864265</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.3">
@@ -5097,67 +5045,67 @@
       </c>
       <c r="T25" s="8">
         <f t="shared" ref="T25:T38" si="23">+IF(ISNUMBER(C8),C8*T$22,"")</f>
-        <v>0.14653629536000032</v>
+        <v>0.15209877727419194</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" ref="U25:U38" si="24">+IF(ISNUMBER(D8),D8*U$22,"")</f>
-        <v>0.14653629536000032</v>
+        <v>0.15209877727419194</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" ref="V25:V38" si="25">+IF(ISNUMBER(E8),E8*V$22,"")</f>
-        <v>0.18589161642729224</v>
+        <v>0.19370690322169731</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" ref="W25:W38" si="26">+IF(ISNUMBER(F8),F8*W$22,"")</f>
-        <v>0.17341477504650354</v>
+        <v>0.17313612152651581</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" ref="X25:X38" si="27">+IF(ISNUMBER(G8),G8*X$22,"")</f>
-        <v>6.9289235473819932E-2</v>
+        <v>7.02243008063171E-2</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" ref="Y25:Y38" si="28">+IF(ISNUMBER(H8),H8*Y$22,"")</f>
-        <v>0.33105643076535579</v>
+        <v>0.32016060151460196</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ref="Z25:Z38" si="29">+IF(ISNUMBER(I8),I8*Z$22,"")</f>
-        <v>0.10254936842064123</v>
+        <v>0.10395294300503163</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" ref="AA25:AA38" si="30">+IF(ISNUMBER(J8),J8*AA$22,"")</f>
-        <v>0.20883855696341644</v>
+        <v>0.22065097095455655</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" ref="AB25:AB38" si="31">+IF(ISNUMBER(K8),K8*AB$22,"")</f>
-        <v>0.19392262506508764</v>
+        <v>0.18054821146794617</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" ref="AC25:AC38" si="32">+IF(ISNUMBER(L8),L8*AC$22,"")</f>
-        <v>0.26926003688520367</v>
+        <v>0.25944765079563636</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" ref="AD25:AD38" si="33">+IF(ISNUMBER(M8),M8*AD$22,"")</f>
-        <v>0.1841328056542221</v>
+        <v>0.17087983092511802</v>
       </c>
       <c r="AE25" s="8">
         <f t="shared" ref="AE25:AE38" si="34">+IF(ISNUMBER(N8),N8*AE$22,"")</f>
-        <v>0.17402617134714612</v>
+        <v>0.18304674294152434</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" ref="AF25:AF38" si="35">+IF(ISNUMBER(O8),O8*AF$22,"")</f>
-        <v>8.7286313222855683E-2</v>
+        <v>8.8073460777624887E-2</v>
       </c>
       <c r="AG25" s="8">
         <f t="shared" ref="AG25:AG38" si="36">+IF(ISNUMBER(P8),P8*AG$22,"")</f>
-        <v>0.26136623324492064</v>
+        <v>0.27029025134565665</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" ref="AH25:AH38" si="37">+IF(ISNUMBER(Q8),Q8*AH$22,"")</f>
-        <v>0.15884836839424088</v>
+        <v>0.18198574575581497</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" ref="AI25:AI38" si="38">+SUM(T25:AH25)</f>
-        <v>2.6929551276307064</v>
+        <v>2.7203012895864265</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.3">
@@ -5166,67 +5114,67 @@
       </c>
       <c r="T26" s="8">
         <f t="shared" si="23"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="24"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="25"/>
-        <v>2.6555945203898892E-2</v>
+        <v>2.7672414745956761E-2</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="26"/>
-        <v>2.8902462507750592E-2</v>
+        <v>2.8856020254419301E-2</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="27"/>
-        <v>6.9289235473819932E-2</v>
+        <v>7.02243008063171E-2</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="28"/>
-        <v>1.5764591941207415E-2</v>
+        <v>1.5245742929266759E-2</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" si="29"/>
-        <v>7.3249548871886588E-2</v>
+        <v>7.4252102146451171E-2</v>
       </c>
       <c r="AA26" s="8">
         <f t="shared" si="30"/>
-        <v>1.0441927848170822E-2</v>
+        <v>1.1032548547727828E-2</v>
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="31"/>
-        <v>1.3851616076077688E-2</v>
+        <v>1.2896300819139011E-2</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" si="32"/>
-        <v>1.9232859777514547E-2</v>
+        <v>1.8531975056831167E-2</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="33"/>
-        <v>1.3152343261015864E-2</v>
+        <v>1.2205702208937E-2</v>
       </c>
       <c r="AE26" s="8">
         <f t="shared" si="34"/>
-        <v>1.1601744756476408E-2</v>
+        <v>1.2203116196101623E-2</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="35"/>
-        <v>3.7408419952652434E-2</v>
+        <v>3.7745768904696379E-2</v>
       </c>
       <c r="AG26" s="8">
         <f t="shared" si="36"/>
-        <v>1.7424415549661378E-2</v>
+        <v>1.8019350089710444E-2</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="37"/>
-        <v>6.8077872168960385E-2</v>
+        <v>7.799389103820642E-2</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="38"/>
-        <v>0.4468204963490931</v>
+        <v>0.46033602725067302</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.3">
@@ -5235,67 +5183,67 @@
       </c>
       <c r="T27" s="8">
         <f t="shared" si="23"/>
-        <v>4.8845431786666768E-2</v>
+        <v>5.0699592424730641E-2</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="24"/>
-        <v>4.8845431786666768E-2</v>
+        <v>5.0699592424730641E-2</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="25"/>
-        <v>5.3111890407797784E-2</v>
+        <v>5.5344829491913522E-2</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="26"/>
-        <v>5.7804925015501184E-2</v>
+        <v>5.7712040508838602E-2</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="27"/>
-        <v>6.9289235473819932E-2</v>
+        <v>7.02243008063171E-2</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="28"/>
-        <v>5.5176071794225963E-2</v>
+        <v>5.3360100252433658E-2</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" si="29"/>
-        <v>8.7899458646263917E-2</v>
+        <v>8.9102522575741402E-2</v>
       </c>
       <c r="AA27" s="8">
         <f t="shared" si="30"/>
-        <v>0.16707084557073315</v>
+        <v>0.17652077676364525</v>
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="31"/>
-        <v>3.2320437510847941E-2</v>
+        <v>3.0091368577991027E-2</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" si="32"/>
-        <v>2.692600368852037E-2</v>
+        <v>2.5944765079563639E-2</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="33"/>
-        <v>2.3016600706777763E-2</v>
+        <v>2.1359978865639753E-2</v>
       </c>
       <c r="AE27" s="8">
         <f t="shared" si="34"/>
-        <v>0.17402617134714612</v>
+        <v>0.10982804576491462</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="35"/>
-        <v>8.7286313222855683E-2</v>
+        <v>8.8073460777624887E-2</v>
       </c>
       <c r="AG27" s="8">
         <f t="shared" si="36"/>
-        <v>1.7424415549661378E-2</v>
+        <v>1.8019350089710444E-2</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="37"/>
-        <v>0.11346312028160063</v>
+        <v>0.12998981839701068</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="38"/>
-        <v>1.0625063527890855</v>
+        <v>1.026970542800806</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.3">
@@ -5304,67 +5252,67 @@
       </c>
       <c r="T28" s="8">
         <f t="shared" si="23"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="24"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="25"/>
-        <v>3.7937064576998416E-3</v>
+        <v>3.9532021065652517E-3</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="26"/>
-        <v>8.2578464307858836E-3</v>
+        <v>8.244577215548372E-3</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="27"/>
-        <v>9.8984622105457044E-3</v>
+        <v>1.0032042972331014E-2</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="28"/>
-        <v>2.2070428717690386E-2</v>
+        <v>2.1344040100973464E-2</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" si="29"/>
-        <v>4.8833032581257728E-3</v>
+        <v>4.9501401430967441E-3</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" si="30"/>
-        <v>8.3535422785366575E-3</v>
+        <v>8.8260388381822628E-3</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="31"/>
-        <v>1.0773479170282646E-2</v>
+        <v>1.0030456192663675E-2</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" si="32"/>
-        <v>1.495889093806687E-2</v>
+        <v>1.4413758377535352E-2</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="33"/>
-        <v>1.3152343261015864E-2</v>
+        <v>1.2205702208937E-2</v>
       </c>
       <c r="AE28" s="8">
         <f t="shared" si="34"/>
-        <v>6.961046853885846E-3</v>
+        <v>7.321869717660974E-3</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="35"/>
-        <v>4.1564911058502704E-3</v>
+        <v>4.193974322744042E-3</v>
       </c>
       <c r="AG28" s="8">
         <f t="shared" si="36"/>
-        <v>7.4676066641405896E-3</v>
+        <v>7.722578609875904E-3</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="37"/>
-        <v>4.538524811264026E-3</v>
+        <v>5.1995927358804281E-3</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="38"/>
-        <v>0.16113318511789043</v>
+        <v>0.16189476704890646</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.3">
@@ -5373,67 +5321,67 @@
       </c>
       <c r="T29" s="8">
         <f t="shared" si="23"/>
-        <v>4.8845431786666768E-2</v>
+        <v>5.0699592424730641E-2</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="24"/>
-        <v>4.8845431786666768E-2</v>
+        <v>5.0699592424730641E-2</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="25"/>
-        <v>0.18589161642729224</v>
+        <v>0.19370690322169731</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="26"/>
-        <v>0.11560985003100237</v>
+        <v>0.1154240810176772</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="27"/>
-        <v>4.949231105272852E-2</v>
+        <v>5.0160214861655068E-2</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="28"/>
-        <v>0.11035214358845193</v>
+        <v>0.10672020050486732</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" si="29"/>
-        <v>0.11719927819501855</v>
+        <v>0.11880336343432187</v>
       </c>
       <c r="AA29" s="8">
         <f t="shared" si="30"/>
-        <v>0.16707084557073315</v>
+        <v>0.17652077676364525</v>
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="31"/>
-        <v>0.19392262506508764</v>
+        <v>0.18054821146794617</v>
       </c>
       <c r="AC29" s="8">
         <f t="shared" si="32"/>
-        <v>0.13463001844260183</v>
+        <v>0.12972382539781818</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="33"/>
-        <v>0.27619920848133317</v>
+        <v>0.25631974638767702</v>
       </c>
       <c r="AE29" s="8">
         <f t="shared" si="34"/>
-        <v>0.24363663988600459</v>
+        <v>0.18304674294152434</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="35"/>
-        <v>8.7286313222855683E-2</v>
+        <v>8.8073460777624887E-2</v>
       </c>
       <c r="AG29" s="8">
         <f t="shared" si="36"/>
-        <v>0.26136623324492064</v>
+        <v>0.162174150807394</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="37"/>
-        <v>0.13615574433792077</v>
+        <v>0.12998981839701068</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="38"/>
-        <v>2.1765036911192843</v>
+        <v>1.9926106808303203</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.3">
@@ -5442,67 +5390,67 @@
       </c>
       <c r="T30" s="8">
         <f t="shared" si="23"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="24"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="25"/>
-        <v>5.3111890407797789E-3</v>
+        <v>5.5344829491913525E-3</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="26"/>
-        <v>9.6341541692501961E-3</v>
+        <v>9.6186734181397671E-3</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="27"/>
-        <v>2.9695386631637115E-2</v>
+        <v>3.0096128916993044E-2</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="28"/>
-        <v>1.3794017948556491E-2</v>
+        <v>1.3340025063108414E-2</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" si="29"/>
-        <v>1.4649909774377318E-2</v>
+        <v>1.4850420429290233E-2</v>
       </c>
       <c r="AA30" s="8">
         <f t="shared" si="30"/>
-        <v>8.3535422785366575E-3</v>
+        <v>8.8260388381822628E-3</v>
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="31"/>
-        <v>1.9392262506508766E-2</v>
+        <v>1.8054821146794617E-2</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" si="32"/>
-        <v>1.495889093806687E-2</v>
+        <v>1.4413758377535352E-2</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="33"/>
-        <v>1.3152343261015864E-2</v>
+        <v>1.2205702208937E-2</v>
       </c>
       <c r="AE30" s="8">
         <f t="shared" si="34"/>
-        <v>6.961046853885846E-3</v>
+        <v>7.321869717660974E-3</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="35"/>
-        <v>3.7408419952652434E-2</v>
+        <v>3.7745768904696379E-2</v>
       </c>
       <c r="AG30" s="8">
         <f t="shared" si="36"/>
-        <v>1.0454649329796827E-2</v>
+        <v>1.0811610053826267E-2</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="37"/>
-        <v>7.5642080187733754E-3</v>
+        <v>8.6659878931340459E-3</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="38"/>
-        <v>0.23319753366383764</v>
+        <v>0.23494208142440168</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.3">
@@ -5511,67 +5459,67 @@
       </c>
       <c r="T31" s="8">
         <f t="shared" si="23"/>
-        <v>2.9307259072000064E-2</v>
+        <v>3.0419755454838389E-2</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="24"/>
-        <v>2.9307259072000064E-2</v>
+        <v>3.0419755454838389E-2</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="25"/>
-        <v>0.10622378081559557</v>
+        <v>0.11068965898382704</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="26"/>
-        <v>1.4451231253875296E-2</v>
+        <v>1.4428010127209651E-2</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="27"/>
-        <v>4.949231105272852E-2</v>
+        <v>5.0160214861655068E-2</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="28"/>
-        <v>2.7588035897112981E-2</v>
+        <v>2.6680050126216829E-2</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" si="29"/>
-        <v>7.3249548871886588E-2</v>
+        <v>7.4252102146451171E-2</v>
       </c>
       <c r="AA31" s="8">
         <f t="shared" si="30"/>
-        <v>4.1767711392683288E-2</v>
+        <v>4.4130194190911312E-2</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="31"/>
-        <v>3.2320437510847941E-2</v>
+        <v>3.0091368577991027E-2</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" si="32"/>
-        <v>2.692600368852037E-2</v>
+        <v>2.5944765079563639E-2</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="33"/>
-        <v>3.0688800942370351E-2</v>
+        <v>2.8479971820853003E-2</v>
       </c>
       <c r="AE31" s="8">
         <f t="shared" si="34"/>
-        <v>0.10441570280828769</v>
+        <v>0.10982804576491462</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="35"/>
-        <v>8.7286313222855683E-2</v>
+        <v>8.8073460777624887E-2</v>
       </c>
       <c r="AG31" s="8">
         <f t="shared" si="36"/>
-        <v>1.7424415549661378E-2</v>
+        <v>1.8019350089710444E-2</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="37"/>
-        <v>9.0770496225280509E-2</v>
+        <v>0.10399185471760855</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="38"/>
-        <v>0.76121930737570631</v>
+        <v>0.78560855817421393</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.3">
@@ -5580,67 +5528,67 @@
       </c>
       <c r="T32" s="8">
         <f t="shared" si="23"/>
-        <v>7.3268147680000159E-2</v>
+        <v>7.6049388637095969E-2</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="24"/>
-        <v>7.3268147680000159E-2</v>
+        <v>7.6049388637095969E-2</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="25"/>
-        <v>0.18589161642729224</v>
+        <v>0.19370690322169731</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="26"/>
-        <v>0.17341477504650354</v>
+        <v>0.17313612152651581</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="27"/>
-        <v>8.9086159894911338E-2</v>
+        <v>9.0288386750979124E-2</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="28"/>
-        <v>5.5176071794225963E-2</v>
+        <v>5.3360100252433658E-2</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" si="29"/>
-        <v>7.3249548871886588E-2</v>
+        <v>7.4252102146451171E-2</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" si="30"/>
-        <v>0.12530313417804986</v>
+        <v>0.13239058257273395</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="31"/>
-        <v>9.6961312532543822E-2</v>
+        <v>9.0274105733973084E-2</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" si="32"/>
-        <v>4.4876672814200609E-2</v>
+        <v>4.3241275132606061E-2</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="33"/>
-        <v>0.27619920848133317</v>
+        <v>0.25631974638767702</v>
       </c>
       <c r="AE32" s="8">
         <f t="shared" si="34"/>
-        <v>0.17402617134714612</v>
+        <v>0.10982804576491462</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="35"/>
-        <v>6.2347366587754062E-2</v>
+        <v>6.290961484116063E-2</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="36"/>
-        <v>0.26136623324492064</v>
+        <v>0.162174150807394</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="37"/>
-        <v>0.13615574433792077</v>
+        <v>7.799389103820642E-2</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="38"/>
-        <v>1.9005903109186892</v>
+        <v>1.6719738034509346</v>
       </c>
     </row>
     <row r="33" spans="19:35" x14ac:dyDescent="0.3">
@@ -5649,67 +5597,67 @@
       </c>
       <c r="T33" s="8">
         <f t="shared" si="23"/>
-        <v>7.3268147680000159E-2</v>
+        <v>7.6049388637095969E-2</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="24"/>
-        <v>7.3268147680000159E-2</v>
+        <v>7.6049388637095969E-2</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="25"/>
-        <v>0.18589161642729224</v>
+        <v>0.19370690322169731</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="26"/>
-        <v>0.28902462507750593</v>
+        <v>0.28856020254419301</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="27"/>
-        <v>8.9086159894911338E-2</v>
+        <v>9.0288386750979124E-2</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="28"/>
-        <v>0.11035214358845193</v>
+        <v>0.10672020050486732</v>
       </c>
       <c r="Z33" s="8">
         <f t="shared" si="29"/>
-        <v>0.13184918796939588</v>
+        <v>0.1336537838636121</v>
       </c>
       <c r="AA33" s="8">
         <f t="shared" si="30"/>
-        <v>0.20883855696341644</v>
+        <v>0.22065097095455655</v>
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="31"/>
-        <v>0.29088393759763148</v>
+        <v>0.27082231720191924</v>
       </c>
       <c r="AC33" s="8">
         <f t="shared" si="32"/>
-        <v>0.13463001844260183</v>
+        <v>0.12972382539781818</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="33"/>
-        <v>0.27619920848133317</v>
+        <v>0.25631974638767702</v>
       </c>
       <c r="AE33" s="8">
         <f t="shared" si="34"/>
-        <v>0.24363663988600459</v>
+        <v>0.18304674294152434</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="35"/>
-        <v>8.7286313222855683E-2</v>
+        <v>8.8073460777624887E-2</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="36"/>
-        <v>0.26136623324492064</v>
+        <v>0.162174150807394</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="37"/>
-        <v>0.15884836839424088</v>
+        <v>0.12998981839701068</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="38"/>
-        <v>2.6144293045505624</v>
+        <v>2.4058292870250657</v>
       </c>
     </row>
     <row r="34" spans="19:35" x14ac:dyDescent="0.3">
@@ -5718,67 +5666,67 @@
       </c>
       <c r="T34" s="8">
         <f t="shared" si="23"/>
-        <v>7.3268147680000159E-2</v>
+        <v>7.6049388637095969E-2</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="24"/>
-        <v>7.3268147680000159E-2</v>
+        <v>7.6049388637095969E-2</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="25"/>
-        <v>0.18589161642729224</v>
+        <v>0.19370690322169731</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="26"/>
-        <v>0.23121970006200473</v>
+        <v>0.23084816203535441</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="27"/>
-        <v>6.9289235473819932E-2</v>
+        <v>7.02243008063171E-2</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="28"/>
-        <v>3.6784047862817304E-2</v>
+        <v>3.5573400168289103E-2</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" si="29"/>
-        <v>0.10254936842064123</v>
+        <v>0.10395294300503163</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" si="30"/>
-        <v>0.12530313417804986</v>
+        <v>0.13239058257273395</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="31"/>
-        <v>3.2320437510847941E-2</v>
+        <v>3.0091368577991027E-2</v>
       </c>
       <c r="AC34" s="8">
         <f t="shared" si="32"/>
-        <v>4.4876672814200609E-2</v>
+        <v>4.3241275132606061E-2</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="33"/>
-        <v>9.2066402827111052E-2</v>
+        <v>8.543991546255901E-2</v>
       </c>
       <c r="AE34" s="8">
         <f t="shared" si="34"/>
-        <v>0.24363663988600459</v>
+        <v>0.18304674294152434</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="35"/>
-        <v>8.7286313222855683E-2</v>
+        <v>8.8073460777624887E-2</v>
       </c>
       <c r="AG34" s="8">
         <f t="shared" si="36"/>
-        <v>0.26136623324492064</v>
+        <v>0.162174150807394</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="37"/>
-        <v>0.15884836839424088</v>
+        <v>7.799389103820642E-2</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="38"/>
-        <v>1.8179744656848071</v>
+        <v>1.588855873821521</v>
       </c>
     </row>
     <row r="35" spans="19:35" x14ac:dyDescent="0.3">
@@ -5787,67 +5735,67 @@
       </c>
       <c r="T35" s="8">
         <f t="shared" si="23"/>
-        <v>2.9307259072000064E-2</v>
+        <v>3.0419755454838389E-2</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" si="24"/>
-        <v>2.9307259072000064E-2</v>
+        <v>3.0419755454838389E-2</v>
       </c>
       <c r="V35" s="8">
         <f t="shared" si="25"/>
-        <v>7.9667835611696672E-2</v>
+        <v>8.3017244237870283E-2</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" si="26"/>
-        <v>1.1560985003100238E-2</v>
+        <v>1.9237346836279534E-2</v>
       </c>
       <c r="X35" s="8">
         <f t="shared" si="27"/>
-        <v>4.949231105272852E-2</v>
+        <v>5.0160214861655068E-2</v>
       </c>
       <c r="Y35" s="8">
         <f t="shared" si="28"/>
-        <v>1.5764591941207415E-2</v>
+        <v>2.1344040100973464E-2</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" si="29"/>
-        <v>7.3249548871886588E-2</v>
+        <v>7.4252102146451171E-2</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" si="30"/>
-        <v>1.3922570464227763E-2</v>
+        <v>1.4710064730303771E-2</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="31"/>
-        <v>1.9392262506508766E-2</v>
+        <v>3.0091368577991027E-2</v>
       </c>
       <c r="AC35" s="8">
         <f t="shared" si="32"/>
-        <v>1.9232859777514547E-2</v>
+        <v>2.5944765079563639E-2</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="33"/>
-        <v>1.3152343261015864E-2</v>
+        <v>1.7087983092511801E-2</v>
       </c>
       <c r="AE35" s="8">
         <f t="shared" si="34"/>
-        <v>3.4805234269429226E-2</v>
+        <v>3.660934858830487E-2</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="35"/>
-        <v>8.7286313222855683E-2</v>
+        <v>8.8073460777624887E-2</v>
       </c>
       <c r="AG35" s="8">
         <f t="shared" si="36"/>
-        <v>1.7424415549661378E-2</v>
+        <v>2.7029025134565666E-2</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="37"/>
-        <v>0.11346312028160063</v>
+        <v>7.799389103820642E-2</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="38"/>
-        <v>0.60702890995743353</v>
+        <v>0.6263903661119784</v>
       </c>
     </row>
     <row r="36" spans="19:35" x14ac:dyDescent="0.3">
@@ -5856,67 +5804,67 @@
       </c>
       <c r="T36" s="8">
         <f t="shared" si="23"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="U36" s="8">
         <f t="shared" si="24"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="V36" s="8">
         <f t="shared" si="25"/>
-        <v>8.8519817346329639E-3</v>
+        <v>9.2241382486522531E-3</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" si="26"/>
-        <v>8.2578464307858836E-3</v>
+        <v>8.244577215548372E-3</v>
       </c>
       <c r="X36" s="8">
         <f t="shared" si="27"/>
-        <v>2.9695386631637115E-2</v>
+        <v>3.0096128916993044E-2</v>
       </c>
       <c r="Y36" s="8">
         <f t="shared" si="28"/>
-        <v>1.5764591941207415E-2</v>
+        <v>1.5245742929266759E-2</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" si="29"/>
-        <v>4.8833032581257728E-3</v>
+        <v>4.9501401430967441E-3</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" si="30"/>
-        <v>5.9668159132404697E-3</v>
+        <v>6.304313455844473E-3</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="31"/>
-        <v>1.9392262506508766E-2</v>
+        <v>1.8054821146794617E-2</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" si="32"/>
-        <v>1.9232859777514547E-2</v>
+        <v>1.8531975056831167E-2</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="33"/>
-        <v>1.3152343261015864E-2</v>
+        <v>1.2205702208937E-2</v>
       </c>
       <c r="AE36" s="8">
         <f t="shared" si="34"/>
-        <v>4.9721763242041748E-3</v>
+        <v>5.2299069411864095E-3</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="35"/>
-        <v>1.2469473317550812E-2</v>
+        <v>1.2581922968232127E-2</v>
       </c>
       <c r="AG36" s="8">
         <f t="shared" si="36"/>
-        <v>1.0454649329796827E-2</v>
+        <v>1.0811610053826267E-2</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="37"/>
-        <v>3.241803436617161E-3</v>
+        <v>3.7139948113431623E-3</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="38"/>
-        <v>0.19820300682283787</v>
+        <v>0.19865176760346437</v>
       </c>
     </row>
     <row r="37" spans="19:35" x14ac:dyDescent="0.3">
@@ -5925,67 +5873,67 @@
       </c>
       <c r="T37" s="8">
         <f t="shared" si="23"/>
-        <v>2.9307259072000064E-2</v>
+        <v>3.0419755454838389E-2</v>
       </c>
       <c r="U37" s="8">
         <f t="shared" si="24"/>
-        <v>2.9307259072000064E-2</v>
+        <v>3.0419755454838389E-2</v>
       </c>
       <c r="V37" s="8">
         <f t="shared" si="25"/>
-        <v>7.9667835611696672E-2</v>
+        <v>8.3017244237870283E-2</v>
       </c>
       <c r="W37" s="8">
         <f t="shared" si="26"/>
-        <v>0.17341477504650354</v>
+        <v>0.17313612152651581</v>
       </c>
       <c r="X37" s="8">
         <f t="shared" si="27"/>
-        <v>6.9289235473819932E-2</v>
+        <v>7.02243008063171E-2</v>
       </c>
       <c r="Y37" s="8">
         <f t="shared" si="28"/>
-        <v>2.2070428717690386E-2</v>
+        <v>3.5573400168289103E-2</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" si="29"/>
-        <v>7.3249548871886588E-2</v>
+        <v>7.4252102146451171E-2</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" si="30"/>
-        <v>0.12530313417804986</v>
+        <v>0.13239058257273395</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="31"/>
-        <v>1.9392262506508766E-2</v>
+        <v>3.0091368577991027E-2</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" si="32"/>
-        <v>2.692600368852037E-2</v>
+        <v>4.3241275132606061E-2</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="33"/>
-        <v>1.841328056542221E-2</v>
+        <v>2.8479971820853003E-2</v>
       </c>
       <c r="AE37" s="8">
         <f t="shared" si="34"/>
-        <v>0.10441570280828769</v>
+        <v>7.321869717660974E-2</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="35"/>
-        <v>6.2347366587754062E-2</v>
+        <v>6.290961484116063E-2</v>
       </c>
       <c r="AG37" s="8">
         <f t="shared" si="36"/>
-        <v>5.2273246648984133E-2</v>
+        <v>5.4058050269131332E-2</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="37"/>
-        <v>0.11346312028160063</v>
+        <v>7.799389103820642E-2</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="38"/>
-        <v>0.99884045913072506</v>
+        <v>0.99942613122441248</v>
       </c>
     </row>
     <row r="38" spans="19:35" x14ac:dyDescent="0.3">
@@ -5994,67 +5942,67 @@
       </c>
       <c r="T38" s="8">
         <f t="shared" si="23"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="U38" s="8">
         <f t="shared" si="24"/>
-        <v>2.0933756480000044E-2</v>
+        <v>2.1728396753455989E-2</v>
       </c>
       <c r="V38" s="8">
         <f t="shared" si="25"/>
-        <v>8.8519817346329639E-3</v>
+        <v>9.2241382486522531E-3</v>
       </c>
       <c r="W38" s="8">
         <f t="shared" si="26"/>
-        <v>1.1560985003100238E-2</v>
+        <v>1.1542408101767722E-2</v>
       </c>
       <c r="X38" s="8">
         <f t="shared" si="27"/>
-        <v>4.949231105272852E-2</v>
+        <v>5.0160214861655068E-2</v>
       </c>
       <c r="Y38" s="8">
         <f t="shared" si="28"/>
-        <v>1.8392023931408652E-2</v>
+        <v>2.1344040100973464E-2</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" si="29"/>
-        <v>4.3949729323131959E-2</v>
+        <v>4.4551261287870701E-2</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" si="30"/>
-        <v>1.0441927848170822E-2</v>
+        <v>1.1032548547727828E-2</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="31"/>
-        <v>1.616021875542397E-2</v>
+        <v>3.0091368577991027E-2</v>
       </c>
       <c r="AC38" s="8">
         <f t="shared" si="32"/>
-        <v>1.9232859777514547E-2</v>
+        <v>2.5944765079563639E-2</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="33"/>
-        <v>1.3152343261015864E-2</v>
+        <v>2.8479971820853003E-2</v>
       </c>
       <c r="AE38" s="8">
         <f t="shared" si="34"/>
-        <v>6.961046853885846E-3</v>
+        <v>1.2203116196101623E-2</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="35"/>
-        <v>8.7286313222855683E-2</v>
+        <v>8.8073460777624887E-2</v>
       </c>
       <c r="AG38" s="8">
         <f t="shared" si="36"/>
-        <v>1.0454649329796827E-2</v>
+        <v>1.8019350089710444E-2</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="37"/>
-        <v>2.2692624056320127E-2</v>
+        <v>2.5997963679402138E-2</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="38"/>
-        <v>0.36049652710998609</v>
+        <v>0.42012140087680583</v>
       </c>
     </row>
   </sheetData>
@@ -6098,10 +6046,10 @@
   <sheetData>
     <row r="1" spans="2:39" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
@@ -6155,11 +6103,11 @@
       </c>
     </row>
     <row r="3" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="55">
+      <c r="B3" s="56">
         <f>SUM(AM7:AM21)/AJ6</f>
         <v>16.657034420574284</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="23">
         <f>+(B3-$AJ$6)/($AJ$6-1)</f>
         <v>0.11835960146959172</v>
@@ -6241,10 +6189,10 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AL5" s="52" t="s">
+      <c r="AL5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AM5" s="52"/>
+      <c r="AM5" s="53"/>
     </row>
     <row r="6" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="34"/>
@@ -6349,8 +6297,8 @@
       <c r="AK6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B7" s="34" t="s">
@@ -6359,46 +6307,46 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="51">
         <v>1</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="51">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="51">
         <v>1</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="51">
         <v>0.2</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="51">
         <v>1</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="51">
         <v>0.2</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="51">
         <v>0.2</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="51">
         <v>0.14285714285714285</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="51">
         <v>0.14285714285714285</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="51">
         <v>1</v>
       </c>
-      <c r="P7" s="59">
+      <c r="P7" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q7" s="59">
+      <c r="Q7" s="51">
         <v>0.2</v>
       </c>
       <c r="S7" s="35" t="s">
@@ -6472,7 +6420,7 @@
         <f>+$AI7/$AJ$6</f>
         <v>1.7744581969364473E-2</v>
       </c>
-      <c r="AK7" s="57" t="s">
+      <c r="AK7" s="58" t="s">
         <v>43</v>
       </c>
       <c r="AL7" s="19">
@@ -6495,43 +6443,43 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="51">
         <v>1</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="51">
         <v>0.2</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="51">
         <v>0.2</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="51">
         <v>0.2</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="51">
         <v>0.14285714285714285</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="51">
         <v>0.16666666666666666</v>
       </c>
-      <c r="O8" s="60">
+      <c r="O8" s="51">
         <v>1</v>
       </c>
-      <c r="P8" s="60">
+      <c r="P8" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q8" s="60">
+      <c r="Q8" s="51">
         <v>0.16666666666666666</v>
       </c>
       <c r="S8" s="35" t="s">
@@ -6605,7 +6553,7 @@
         <f t="shared" ref="AJ8:AJ21" si="3">+$AI8/$AJ$6</f>
         <v>1.6757818322592485E-2</v>
       </c>
-      <c r="AK8" s="57"/>
+      <c r="AK8" s="58"/>
       <c r="AL8" s="19">
         <f t="shared" ref="AL8:AL21" si="4">+AI25</f>
         <v>0.26840799819232308</v>
@@ -6630,40 +6578,40 @@
       <c r="E9" s="37">
         <v>1</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="51">
         <v>3</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="51">
         <v>3</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="51">
         <v>3</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="51">
         <v>1</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="51">
         <v>0.16666666666666666</v>
       </c>
-      <c r="N9" s="61">
+      <c r="N9" s="51">
         <v>0.2</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="51">
         <v>3</v>
       </c>
-      <c r="P9" s="61">
+      <c r="P9" s="51">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="61">
+      <c r="Q9" s="51">
         <v>0.25</v>
       </c>
       <c r="S9" s="35" t="s">
@@ -6737,7 +6685,7 @@
         <f t="shared" si="3"/>
         <v>4.2729398277574986E-2</v>
       </c>
-      <c r="AK9" s="57"/>
+      <c r="AK9" s="58"/>
       <c r="AL9" s="19">
         <f t="shared" si="4"/>
         <v>0.69438754662059032</v>
@@ -6766,37 +6714,37 @@
       <c r="F10" s="37">
         <v>1</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="51">
         <v>3</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="51">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="51">
         <v>1</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="51">
         <v>1</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="51">
         <v>0.25</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="51">
         <v>0.25</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="51">
         <v>0.14285714285714285</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="51">
         <v>0.16666666666666666</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="51">
         <v>3</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q10" s="62">
+      <c r="Q10" s="51">
         <v>0.25</v>
       </c>
       <c r="S10" s="35" t="s">
@@ -6870,7 +6818,7 @@
         <f t="shared" si="3"/>
         <v>3.1486260195622472E-2</v>
       </c>
-      <c r="AK10" s="57"/>
+      <c r="AK10" s="58"/>
       <c r="AL10" s="19">
         <f t="shared" si="4"/>
         <v>0.48668577739826535</v>
@@ -6903,34 +6851,34 @@
       <c r="G11" s="38">
         <v>1</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="51">
         <v>0.2</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="51">
         <v>0.25</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="51">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="51">
         <v>0.2</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="51">
         <v>0.14285714285714285</v>
       </c>
-      <c r="N11" s="63">
+      <c r="N11" s="51">
         <v>0.16666666666666666</v>
       </c>
-      <c r="O11" s="63">
+      <c r="O11" s="51">
         <v>0.5</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="51">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="63">
+      <c r="Q11" s="51">
         <v>0.16666666666666666</v>
       </c>
       <c r="S11" s="35" t="s">
@@ -7004,7 +6952,7 @@
         <f t="shared" si="3"/>
         <v>1.5196581852666787E-2</v>
       </c>
-      <c r="AK11" s="57"/>
+      <c r="AK11" s="58"/>
       <c r="AL11" s="19">
         <f t="shared" si="4"/>
         <v>0.24290828667541223</v>
@@ -7041,31 +6989,31 @@
       <c r="H12" s="37">
         <v>1</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="51">
         <v>5</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="51">
         <v>3</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="51">
         <v>0.5</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="51">
         <v>3</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="51">
         <v>1</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O12" s="64">
+      <c r="O12" s="51">
         <v>5</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="51">
         <v>3</v>
       </c>
-      <c r="Q12" s="64">
+      <c r="Q12" s="51">
         <v>1</v>
       </c>
       <c r="S12" s="35" t="s">
@@ -7139,7 +7087,7 @@
         <f t="shared" si="3"/>
         <v>0.11189232819531503</v>
       </c>
-      <c r="AK12" s="57"/>
+      <c r="AK12" s="58"/>
       <c r="AL12" s="19">
         <f t="shared" si="4"/>
         <v>1.9139748412367656</v>
@@ -7180,28 +7128,28 @@
       <c r="I13" s="37">
         <v>1</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="51">
         <v>1</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="51">
         <v>0.25</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="51">
         <v>0.2</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N13" s="65">
+      <c r="N13" s="51">
         <v>0.16666666666666666</v>
       </c>
-      <c r="O13" s="65">
+      <c r="O13" s="51">
         <v>3</v>
       </c>
-      <c r="P13" s="65">
+      <c r="P13" s="51">
         <v>0.25</v>
       </c>
-      <c r="Q13" s="65">
+      <c r="Q13" s="51">
         <v>0.2</v>
       </c>
       <c r="S13" s="35" t="s">
@@ -7275,7 +7223,7 @@
         <f t="shared" si="3"/>
         <v>2.9922970202731981E-2</v>
       </c>
-      <c r="AK13" s="57"/>
+      <c r="AK13" s="58"/>
       <c r="AL13" s="19">
         <f t="shared" si="4"/>
         <v>0.46986472374381633</v>
@@ -7320,25 +7268,25 @@
       <c r="J14" s="37">
         <v>1</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="51">
         <v>0.25</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="51">
         <v>0.2</v>
       </c>
-      <c r="M14" s="66">
+      <c r="M14" s="51">
         <v>0.2</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="51">
         <v>0.16666666666666666</v>
       </c>
-      <c r="O14" s="66">
+      <c r="O14" s="51">
         <v>3</v>
       </c>
-      <c r="P14" s="66">
+      <c r="P14" s="51">
         <v>0.25</v>
       </c>
-      <c r="Q14" s="66">
+      <c r="Q14" s="51">
         <v>0.2</v>
       </c>
       <c r="S14" s="35" t="s">
@@ -7412,7 +7360,7 @@
         <f t="shared" si="3"/>
         <v>3.3211052434236901E-2</v>
       </c>
-      <c r="AK14" s="57"/>
+      <c r="AK14" s="58"/>
       <c r="AL14" s="19">
         <f t="shared" si="4"/>
         <v>0.52107212967505667</v>
@@ -7461,22 +7409,22 @@
       <c r="K15" s="37">
         <v>1</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="51">
         <v>1</v>
       </c>
-      <c r="N15" s="67">
+      <c r="N15" s="51">
         <v>0.2</v>
       </c>
-      <c r="O15" s="67">
+      <c r="O15" s="51">
         <v>3</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="51">
         <v>0.5</v>
       </c>
-      <c r="Q15" s="67">
+      <c r="Q15" s="51">
         <v>0.33333333333333331</v>
       </c>
       <c r="S15" s="35" t="s">
@@ -7550,7 +7498,7 @@
         <f t="shared" si="3"/>
         <v>8.1309587801092223E-2</v>
       </c>
-      <c r="AK15" s="57"/>
+      <c r="AK15" s="58"/>
       <c r="AL15" s="19">
         <f t="shared" si="4"/>
         <v>1.3843552542004403</v>
@@ -7603,19 +7551,19 @@
       <c r="L16" s="37">
         <v>1</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="51">
         <v>3</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="51">
         <v>4</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="51">
         <v>3</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="51">
         <v>1</v>
       </c>
       <c r="S16" s="35" t="s">
@@ -7689,7 +7637,7 @@
         <f t="shared" si="3"/>
         <v>0.11130592331124127</v>
       </c>
-      <c r="AK16" s="57"/>
+      <c r="AK16" s="58"/>
       <c r="AL16" s="19">
         <f t="shared" si="4"/>
         <v>1.990955274264063</v>
@@ -7746,16 +7694,16 @@
       <c r="M17" s="37">
         <v>1</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O17" s="69">
+      <c r="O17" s="51">
         <v>3</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="51">
         <v>0.25</v>
       </c>
       <c r="S17" s="35" t="s">
@@ -7829,7 +7777,7 @@
         <f t="shared" si="3"/>
         <v>9.3678140744354196E-2</v>
       </c>
-      <c r="AK17" s="57"/>
+      <c r="AK17" s="58"/>
       <c r="AL17" s="19">
         <f t="shared" si="4"/>
         <v>1.5856682754812113</v>
@@ -7890,13 +7838,13 @@
       <c r="N18" s="37">
         <v>1</v>
       </c>
-      <c r="O18" s="70">
+      <c r="O18" s="51">
         <v>5</v>
       </c>
-      <c r="P18" s="70">
+      <c r="P18" s="51">
         <v>4</v>
       </c>
-      <c r="Q18" s="70">
+      <c r="Q18" s="51">
         <v>3</v>
       </c>
       <c r="S18" s="35" t="s">
@@ -7970,7 +7918,7 @@
         <f t="shared" si="3"/>
         <v>0.19589256469848809</v>
       </c>
-      <c r="AK18" s="57"/>
+      <c r="AK18" s="58"/>
       <c r="AL18" s="19">
         <f t="shared" si="4"/>
         <v>3.424401629589366</v>
@@ -8035,10 +7983,10 @@
       <c r="O19" s="37">
         <v>1</v>
       </c>
-      <c r="P19" s="71">
+      <c r="P19" s="51">
         <v>0.25</v>
       </c>
-      <c r="Q19" s="71">
+      <c r="Q19" s="51">
         <v>0.2</v>
       </c>
       <c r="S19" s="35" t="s">
@@ -8112,7 +8060,7 @@
         <f t="shared" si="3"/>
         <v>1.9892670355344481E-2</v>
       </c>
-      <c r="AK19" s="57"/>
+      <c r="AK19" s="58"/>
       <c r="AL19" s="19">
         <f t="shared" si="4"/>
         <v>0.32196124143315058</v>
@@ -8181,7 +8129,7 @@
       <c r="P20" s="37">
         <v>1</v>
       </c>
-      <c r="Q20" s="72">
+      <c r="Q20" s="51">
         <v>0.5</v>
       </c>
       <c r="S20" s="35" t="s">
@@ -8255,7 +8203,7 @@
         <f t="shared" si="3"/>
         <v>7.7621069217308866E-2</v>
       </c>
-      <c r="AK20" s="57"/>
+      <c r="AK20" s="58"/>
       <c r="AL20" s="19">
         <f t="shared" si="4"/>
         <v>1.3968412108575383</v>
@@ -8399,7 +8347,7 @@
         <f t="shared" si="3"/>
         <v>0.12135905242206574</v>
       </c>
-      <c r="AK21" s="57"/>
+      <c r="AK21" s="58"/>
       <c r="AL21" s="19">
         <f t="shared" si="4"/>
         <v>2.1761837000628308</v>
@@ -9595,7 +9543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -9627,7 +9575,7 @@
       </c>
       <c r="B3" s="2">
         <f>+Valor!AJ7</f>
-        <v>0.14653629536000032</v>
+        <v>0.15209877727419194</v>
       </c>
       <c r="C3" s="2">
         <f>+Coste!AJ7</f>
@@ -9640,7 +9588,7 @@
       </c>
       <c r="B4" s="2">
         <f>+Valor!AJ8</f>
-        <v>0.14653629536000032</v>
+        <v>0.15209877727419194</v>
       </c>
       <c r="C4" s="2">
         <f>+Coste!AJ8</f>
@@ -9653,7 +9601,7 @@
       </c>
       <c r="B5" s="2">
         <f>+Valor!AJ9</f>
-        <v>2.6555945203898892E-2</v>
+        <v>2.7672414745956761E-2</v>
       </c>
       <c r="C5" s="2">
         <f>+Coste!AJ9</f>
@@ -9666,16 +9614,16 @@
       </c>
       <c r="B6" s="2">
         <f>+Valor!AJ10</f>
-        <v>5.7804925015501184E-2</v>
+        <v>5.7712040508838602E-2</v>
       </c>
       <c r="C6" s="2">
         <f>+Coste!AJ10</f>
         <v>3.1486260195622472E-2</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="58"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -9683,7 +9631,7 @@
       </c>
       <c r="B7" s="2">
         <f>+Valor!AJ11</f>
-        <v>9.8984622105457044E-3</v>
+        <v>1.0032042972331014E-2</v>
       </c>
       <c r="C7" s="2">
         <f>+Coste!AJ11</f>
@@ -9702,7 +9650,7 @@
       </c>
       <c r="B8" s="2">
         <f>+Valor!AJ12</f>
-        <v>0.11035214358845193</v>
+        <v>0.10672020050486732</v>
       </c>
       <c r="C8" s="2">
         <f>+Coste!AJ12</f>
@@ -9721,7 +9669,7 @@
       </c>
       <c r="B9" s="2">
         <f>+Valor!AJ13</f>
-        <v>1.4649909774377318E-2</v>
+        <v>1.4850420429290233E-2</v>
       </c>
       <c r="C9" s="2">
         <f>+Coste!AJ13</f>
@@ -9734,16 +9682,16 @@
       </c>
       <c r="B10" s="2">
         <f>+Valor!AJ14</f>
-        <v>4.1767711392683288E-2</v>
+        <v>4.4130194190911312E-2</v>
       </c>
       <c r="C10" s="2">
         <f>+Coste!AJ14</f>
         <v>3.3211052434236901E-2</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="58"/>
+      <c r="N10" s="59"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
@@ -9751,7 +9699,7 @@
       </c>
       <c r="B11" s="2">
         <f>+Valor!AJ15</f>
-        <v>9.6961312532543822E-2</v>
+        <v>9.0274105733973084E-2</v>
       </c>
       <c r="C11" s="2">
         <f>+Coste!AJ15</f>
@@ -9770,7 +9718,7 @@
       </c>
       <c r="B12" s="2">
         <f>+Valor!AJ16</f>
-        <v>0.13463001844260183</v>
+        <v>0.12972382539781818</v>
       </c>
       <c r="C12" s="2">
         <f>+Coste!AJ16</f>
@@ -9789,7 +9737,7 @@
       </c>
       <c r="B13" s="2">
         <f>+Valor!AJ17</f>
-        <v>9.2066402827111052E-2</v>
+        <v>8.543991546255901E-2</v>
       </c>
       <c r="C13" s="2">
         <f>+Coste!AJ17</f>
@@ -9802,7 +9750,7 @@
       </c>
       <c r="B14" s="2">
         <f>+Valor!AJ18</f>
-        <v>3.4805234269429226E-2</v>
+        <v>3.660934858830487E-2</v>
       </c>
       <c r="C14" s="2">
         <f>+Coste!AJ18</f>
@@ -9815,7 +9763,7 @@
       </c>
       <c r="B15" s="2">
         <f>+Valor!AJ19</f>
-        <v>1.2469473317550812E-2</v>
+        <v>1.2581922968232127E-2</v>
       </c>
       <c r="C15" s="2">
         <f>+Coste!AJ19</f>
@@ -9828,7 +9776,7 @@
       </c>
       <c r="B16" s="2">
         <f>+Valor!AJ20</f>
-        <v>5.2273246648984133E-2</v>
+        <v>5.4058050269131332E-2</v>
       </c>
       <c r="C16" s="2">
         <f>+Coste!AJ20</f>
@@ -9841,7 +9789,7 @@
       </c>
       <c r="B17" s="2">
         <f>+Valor!AJ21</f>
-        <v>2.2692624056320127E-2</v>
+        <v>2.5997963679402138E-2</v>
       </c>
       <c r="C17" s="2">
         <f>+Coste!AJ21</f>
@@ -9860,9 +9808,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10095,27 +10046,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10140,9 +10079,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Requisitos_PJA.xlsx
+++ b/Requisitos_PJA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estin\Documents\GitHub\enso-specREM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Enxeñaría Informática\Terceiro\1º Cuatrimestre\Enxeñaría do Software\Prácticas\Practica5_2_REM\enso-specREM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08E69D1-4DCC-497D-B236-DD34D080C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2817E1A-D55D-41A1-9858-751221C22FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="7" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E1F3687-502D-49AF-8B11-C47C53D6351D}" type="CELLRANGE">
+                    <a:fld id="{9D6E2871-33E4-44DD-BA52-CA6B24D9687A}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1066,7 +1066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CDECA4D-78DC-49FE-ADE7-BFA476A3E666}" type="CELLRANGE">
+                    <a:fld id="{CC6BF54C-64F4-4073-BDD8-D3C569E159FD}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1100,7 +1100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD44DDDB-0E31-4224-82A1-DE6776BD4741}" type="CELLRANGE">
+                    <a:fld id="{D373DDD7-97B4-4625-97F0-C67E3C7536F7}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1134,7 +1134,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16005283-81E6-44D8-AE1B-E8011EA41109}" type="CELLRANGE">
+                    <a:fld id="{3A49EAE7-DF09-4373-8792-FC13A382FE97}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1168,7 +1168,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC3F2340-A2F2-4682-9AEC-BD0AB918CBAC}" type="CELLRANGE">
+                    <a:fld id="{E7D50422-473E-41C6-B56A-C28908B7D798}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1202,7 +1202,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA796A9A-822A-4B56-BBC4-21CB404C9CE6}" type="CELLRANGE">
+                    <a:fld id="{8FD3A2F4-DEC7-4DCC-BA7D-1F8F1F59415D}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1236,7 +1236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{697EA34C-442D-46C7-BB00-4A24E05C2BD5}" type="CELLRANGE">
+                    <a:fld id="{63D63D15-1245-4EFA-8D74-A028D5C1C921}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1270,7 +1270,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{693504BC-32CF-4B2D-A725-0F444347BC4B}" type="CELLRANGE">
+                    <a:fld id="{E3F5A3F7-380F-435B-8792-85D3490553BE}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1304,7 +1304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0706E51-F8ED-4529-BD89-7BC19696A8ED}" type="CELLRANGE">
+                    <a:fld id="{6A01D58D-BE3E-4EE8-8CD3-20F4CDFC3AF3}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1338,7 +1338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4886A97B-1DFC-4D76-9705-CAB22B999040}" type="CELLRANGE">
+                    <a:fld id="{D0263FEF-862B-4301-9BA5-A8494F60A9B6}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1372,7 +1372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25357CFB-53E1-4309-8068-C14D1B02A2AC}" type="CELLRANGE">
+                    <a:fld id="{E4172292-92B3-4375-A598-6EEEB79366E9}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1406,7 +1406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{610AB005-A808-4FD6-AD45-3768F0E2FE5A}" type="CELLRANGE">
+                    <a:fld id="{06E9D690-C59C-45BE-972E-68BA58C4DD1C}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1440,7 +1440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{963862E8-B25A-4833-A007-27D89C0D5C38}" type="CELLRANGE">
+                    <a:fld id="{76972734-2458-4CA8-94A5-CB81124E1EE8}" type="CELLRANGE">
                       <a:rPr lang="es-ES"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2511,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -9543,7 +9543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -9808,12 +9808,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10046,15 +10043,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10079,18 +10088,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F658A6C1-6476-4E72-9943-BECBCE64E75E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB9DECD1-016D-4F80-AB93-B1A4F3634E00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b67a0d7e-3188-4757-bd64-ce4b1d89eeef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a4a9f3d2-957c-4d9e-8d6f-73b3c6b3a866"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>